--- a/examples/Canada OGD/wd/profile.xlsx
+++ b/examples/Canada OGD/wd/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>AFBZ00001</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
         <v>16031</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>2797</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['"http://www.w3.org/TR/xhtml1/DTD/xhtml1-strict.dtd"&gt;', '10018', '10025', '10106', '10108', '10138', '10142', '10144', '10160', '10173', '10174', '10175', '10181', '10185', '10189', '10196', '10197', '10200', '10201', '10202', '10208', '10219', '10233', '10234', '10235', '10237', '10238', '10240', '10242', '10243', '10244', '10245', '10246', '10251', '10255', '10256', '10258', '10271', '10272', '10276', '10283', '10286', '10291', '10298', '10299', '10307', '10310', '10318', '10319', '10323', '10331', '10337', '10370', '10371', '10372', '10373', '10389', '10392', '10402', '10406', '10411', '10418', '10422', '10423', '10424', '10425', '10428', '10430', '10433', '10440', '10443', '10446', '10452', '10456', '10461', '10466', '10475', '10485', '10486', '10491', '10492', '10493', '10495', '10496', '10498', '10499', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '10510', '10511', '10512', '10513', '10514', '10516', '10518', '10522', '10523', '10526', '10529', '10532', '10536', '10543', '10546', '10558', '10559', '10563', '10574', '10597', '10598', '10599', '10602', '10615', '10631', '10635', '10642', '10643', '10646', '10650', '10659', '10663', '10670', '10674', '10677', '10678', '10680', '10688', '10696', '10705', '10710', '10711', '10713', '10715', '10716', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '10731', '10733', '10734', '10735', '10737', '10738', '10741', '10742', '10743', '10744', '10747', '10749', '10751', '10756', '10762', '10763', '10768', '10774', '10780', '10781', '10782', '10783', '10789', '10798', '10804', '10808', '10812', '10829', '10844', '10850', '10861', '10864', '10865', '10867', '10869', '10874', '10875', '10876', '10880', '10881', '10884', '10886', '10888', '10889', '10891', '10902', '10911', '10915', '10920', '10921', '10923', '10929', '10931', '10932', '10933', '10936', '10941', '10942', '10944', '10949', '10950', '10955', '10956', '10957', '10958', '10960', '10966', '10970', '10971', '10973', '10977', '10979', '10982', '10984', '10986', '10987', '10988', '10989', '10990', '10992', '10993', '10996', '10997', '10999', '11001', '11004', '11007', '11008', '11009', '11012', '11022', '11025', '11026', '11032', '11034', '11035', '11037', '11038', '11040', '11043', '11044', '11048', '11049', '11050', '11051', '11052', '11053', '11054', '11055', '11058', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11072', '11073', '11078', '11080', '11083', '11086', '11089', '11090', '11094', '11099', '11101', '11102', '11104', '11105', '11106', '11108', '11109', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '11120', '11122', '11125', '11126', '11131', '11134', '11136', '11139', '11140', '11142', '11143', '11145', '11147', '11149', '11150', '11153', '11156', '11157', '11159', '11160', '11164', '11165', '11167', '11168', '11169', '11170', '11173', '11174', '11175', '11177', '11178', '11184', '11188', '11189', '11191', '11193', '11195', '11198', '11199', '11205', '11216', '11218', '11219', '11220', '11221', '11222', '11223', '11225', '11226', '11229', '11231', '11235', '11236', '11237', '11241', '11245', '11249', '11250', '11252', '11255', '11256', '11258', '11262', '11264', '11270', '11279', '11280', '11281', '11282', '11284', '11288', '11289', '11290', '11294', '11295', '11297', '11298', '11301', '11307', '11308', '11310', '11312', '11315', '11317', '11318', '11320', '11321', '11322', '11327', '11328', '11329', '11330', '11332', '11334', '11336', '11338', '11340', '11347', '11349', '11350', '11353', '11357', '11359', '11360', '11361', '11362', '11363', '11364', '11372', '11375', '11377', '11382', '11383', '11393', '11395', '11408', '11409', '11411', '11412', '11413', '11414', '11415', '11418', '11419', '11420', '11428', '11429', '11431', '11432', '11436', '11438', '11442', '11443', '11445', '11454', '11459', '11460', '11462', '11463', '11466', '11476', '11482', '11489', '11491', '11497', '11499', '11500', '11502', '11511', '11512', '11513', '11516', '11518', '11519', '11520', '11524', '11525', '11528', '11539', '11544', '11545', '11547', '11549', '11550', '11551', '11552', '11555', '11556', '11557', '11558', '11559', '11561', '11562', '11564', '11565', '11566', '11568', '11572', '11573', '11574', '11575', '11576', '11577', '11580', '11582', '11583', '11587', '11591', '11592', '11598', '11600', '11602', '11611', '11612', '11615', '11617', '11619', '11631', '11635', '11647', '11651', '11655', '11656', '11657', '11658', '11661', '11662', '11663', '11665', '11666', '11667', '11670', '11671', '11672', '11673', '11680', '11682', '11685', '11686', '11687', '11689', '11690', '11691', '11692', '11694', '11695', '11696', '11697', '11699', '11704', '11706', '11707', '11709', '11711', '11712', '11716', '11718', '11720', '11721', '11723', '11726', '11733', '11738', '11739', '11741', '11743', '11747', '11752', '11753', '11754', '11759', '11760', '11762', '11763', '11766', '11767', '11768', '11771', '11773', '11778', '11782', '11784', '11785', '11788', '11789', '11793', '11794', '11800', '11801', '11802', '11804', '11805', '11809', '11810', '11812', '11815', '11816', '11821', '11823', '11824', '11826', '11828', '11830', '11831', '11834', '11840', '11841', '11843', '11844', '11848', '11849', '11850', '11851', '11852', '11855', '11857', '11859', '11862', '11864', '11865', '11869', '11871', '11873', '11878', '11881', '11882', '11884', '11886', '11887', '11889', '11891', '11896', '11897', '11899', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '11910', '11912', '11914', '11916', '11917', '11918', '11926', '11930', '11934', '11935', '11940', '11944', '11952', '11955', '11958', '11960', '11962', '11968', '11972', '11973', '11974', '11978', '11979', '11980', '11984', '11987', '11988', '11991', '11992', '12000', '12001', '12003', '12009', '12010', '12011', '12015', '12016', '12017', '12019', '12023', '12027', '12029', '12039', '12047', '12048', '12051', '12054', '12058', '12059', '12060', '12061', '12063', '12068', '12069', '12070', '12072', '12073', '12078', '12081', '12084', '12090', '12091', '12094', '12095', '12096', '12100', '12102', '12109', '12116', '12118', '12119', '12121', '12129', '12130', '12133', '12135', '12136', '12137', '12138', '12139', '12140', '12141', '12142', '12143', '12144', '12147', '12148', '12150', '12153', '12154', '12156', '12157', '12158', '12159', '12160', '12161', '12162', '12163', '12165', '12166', '12168', '12171', '12172', '12175', '12176', '12177', '12180', '12181', '12183', '12184', '12185', '12189', '12191', '12192', '12193', '12194', '12196', '12200', '12201', '12202', '12203', '12204', '12213', '12214', '12216', '12217', '12218', '12219', '12220', '12221', '12222', '12225', '12226', '12227', '12228', '12230', '12231', '12232', '12234', '12235', '12239', '12240', '12244', '12245', '12246', '12247', '12248', '12250', '12251', '12256', '12261', '12262', '12263', '12264', '12265', '12270', '12277', '12280', '12281', '12283', '12285', '12286', '12290', '12291', '12292', '12293', '12294', '12296', '12303', '12310', '12312', '12316', '12317', '12326', '12327', '12332', '12339', '12342', '12353', '12355', '12356', '12360', '12361', '12371', '12374', '12377', '12379', '12382', '12384', '12385', '12391', '12400', '12404', '12405', '12409', '12417', '12418', '12424', '12431', '12436', '12440', '12444', '12449', '12451', '12454', '12458', '12460', '12462', '12463', '12464', '12466', '12468', '12469', '12470', '12472', '12474', '12480', '12485', '12486', '12489', '12491', '12494', '12495', '12499', '12502', '12503', '12509', '12511', '12517', '12518', '12524', '12525', '12527', '12528', '12530', '12531', '12533', '12536', '12540', '12542', '12543', '12556', '12567', '12568', '12571', '12573', '12574', '12577', '12585', '12593', '12595', '12596', '12597', '12601', '12602', '12603', '12605', '12606', '12609', '12610', '12611', '12614', '12615', '12616', '12621', '12622', '12624', '12626', '12627', '12628', '12629', '12630', '12631', '12632', '12634', '12635', '12636', '12637', '12638', '12639', '12643', '12648', '12649', '12651', '12652', '12656', '12660', '12661', '12662', '12663', '12666', '12667', '12668', '12670', '12671', '12672', '12673', '12674', '12677', '12678', '12680', '12682', '12684', '12686', '12687', '12689', '12691', '12692', '12693', '12696', '12697', '12698', '12707', '12711', '12712', '12713', '12720', '12724', '12726', '12732', '12741', '12746', '12750', '12761', '12766', '12772', '12778', '12779', '12781', '12783', '12791', '12816', '12822', '12835', '12848', '12868', '12869', '12873', '12874', '12886', '12888', '12896', '12897', '12910', '12912', '12915', '12917', '12922', '12923', '12924', '12928', '12929', '12931', '12934', '12935', '12936', '12939', '12942', '12943', '12945', '12947', '12948', '12950', '12951', '12952', '12953', '12954', '12955', '12957', '12958', '12960', '12961', '12962', '12963', '12964', '12969', '12970', '12971', '12972', '12973', '12980', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '13000', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13010', '13015', '13018', '13020', '13025', '13032', '13034', '13037', '13040', '13041', '13042', '13048', '13049', '13065', '13068', '13080', '13084', '13093', '13096', '13105', '13108', '13114', '13115', '13117', '13119', '13120', '13121', '13123', '13124', '13125', '13128', '13129', '13131', '13132', '13133', '13136', '13140', '13141', '13143', '13145', '13146', '13147', '13148', '13149', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13158', '13159', '13160', '13161', '13162', '13163', '13166', '13168', '13169', '13171', '13172', '13174', '13175', '13176', '13177', '13178', '13179', '13180', '13181', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '13192', '13193', '13194', '13201', '13203', '13206', '13208', '13209', '13210', '13212', '13213', '13215', '13216', '13218', '13222', '13223', '13224', '13225', '13229', '13232', '13235', '13240', '13241', '13243', '13245', '13247', '13248', '13249', '13250', '13251', '13252', '13254', '13255', '13258', '13260', '13261', '13262', '13264', '13265', '13266', '13268', '13269', '13270', '13272', '13273', '13274', '13278', '13279', '13280', '13281', '13282', '13283', '13287', '13288', '13289', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13299', '13301', '13302', '13303', '13304', '13306', '13308', '13309', '13310', '13312', '13313', '13316', '13317', '13318', '13320', '13321', '13322', '13323', '13324', '13325', '13327', '13330', '13332', '13338', '13339', '13340', '13342', '13343', '13344', '13345', '13348', '13350', '13351', '13352', '13353', '13354', '13355', '13358', '13361', '13363', '13364', '13366', '13370', '13372', '13373', '13376', '13377', '13379', '13380', '13382', '13383', '13384', '13385', '13387', '13390', '13391', '13393', '13394', '13395', '13396', '13397', '13398', '13400', '13401', '13404', '13405', '13406', '13407', '13409', '13410', '13411', '13412', '13413', '13414', '13416', '13417', '13418', '13419', '13420', '13421', '13422', '13424', '13426', '13430', '13431', '13432', '13433', '13434', '13435', '13436', '13438', '13439', '13441', '13443', '13444', '13446', '13447', '13448', '13449', '13450', '13451', '13452', '13453', '13454', '13455', '13457', '13458', '13459', '13461', '13463', '13465', '13466', '13467', '13468', '13469', '13470', '13471', '13472', '13473', '13474', '13476', '13480', '13481', '13482', '13484', '13485', '13486', '13487', '13490', '13491', '13493', '13495', '13496', '13499', '13501', '13502', '13503', '13504', '13505', '13508', '13509', '13510', '13511', '13512', '13513', '13516', '13517', '13521', '13523', '13528', '13529', '13530', '13532', '13536', '13537', '13540', '13551', '13553', '13555', '13556', '13558', '13559', '13560', '13562', '13563', '13573', '13576', '13577', '13578', '13579', '13583', '13586', '13587', '13588', '13589', '13592', '13593', '13596', '13597', '13598', '13599', '13600', '13601', '13602', '13605', '13606', '13610', '13613', '13614', '13615', '13617', '13618', '13620', '13621', '13622', '13623', '13624', '13627', '13628', '13629', '13630', '13631', '13638', '13639', '13640', '13641', '13644', '13645', '13646', '13647', '13648', '13649', '13651', '13652', '13659', '13660', '13662', '13663', '13670', '13671', '13672', '13677', '13678', '13679', '13680', '13681', '13683', '13684', '13686', '13689', '13691', '13697', '13698', '13700', '13703', '13706', '13710', '13711', '13712', '13714', '13715', '13717', '13718', '13721', '13722', '13724', '13725', '13727', '13728', '13730', '13731', '13732', '13733', '13734', '13735', '13740', '1978', '2642', '3148', '3268', '3345', '4212', '4214', '4226', '4232', '4242', '4431', '4578', '4623', '4646', '4680', '4696', '4703', '4808', '4833', '4871', '4876', '5019', '5055', '5078', '5164', '5308', '5311', '5315', '5362', '5375', '5378', '5404', '5405', '5479', '5480', '5482', '5488', '5499', '5533', '5535', '5536', '5541', '5542', '5547', '5610', '5612', '5613', '5614', '5621', '5639', '5644', '5650', '5665', '5670', '5673', '5680', '5682', '5683', '5684', '5686', '5692', '5705', '5707', '5711', '5712', '5720', '5722', '5724', '5726', '5734', '5741', '5752', '5753', '5759', '5760', '5763', '5767', '5772', '5775', '5781', '5782', '5783', '5784', '5790', '5794', '5796', '5802', '5803', '5806', '5812', '5814', '5819', '5820', '5824', '5825', '5828', '5829', '5830', '5831', '5841', '5842', '5844', '5848', '5851', '5852', '5853', '5854', '5855', '5856', '5857', '5858', '5859', '5860', '5861', '5862', '5863', '5864', '5865', '5866', '5867', '5868', '5869', '5870', '5871', '5872', '5873', '5874', '5875', '5876', '5877', '5878', '5879', '5882', '5885', '5886', '5890', '5900', '5905', '5907', '5911', '5912', '5917', '5918', '5926', '5934', '5936', '5937', '5938', '5939', '5947', '5948', '5949', '5951', '5952', '5953', '5957', '5958', '5959', '5961', '5962', '5963', '5976', '5978', '5979', '5981', '5982', '5983', '5986', '5989', '5991', '5993', '6000', '6001', '6002', '6003', '6004', '6005', '6006', '6007', '6008', '6009', '6010', '6011', '6012', '6013', '6014', '6015', '6016', '6017', '6018', '6019', '6020', '6021', '6022', '6023', '6024', '6025', '6026', '6027', '6028', '6029', '6030', '6031', '6032', '6033', '6034', '6035', '6037', '6038', '6085', '6090', '6091', '6096', '6115', '6127', '6130', '6138', '6149', '6152', '6156', '6160', '6167', '6168', '6174', '6175', '6176', '6177', '6178', '6179', '6180', '6181', '6182', '6183', '6184', '6185', '6186', '6187', '6188', '6189', '6190', '6191', '6192', '6194', '6196', '6201', '6203', '6205', '6208', '6214', '6216', '6218', '6219', '6220', '6221', '6223', '6224', '6225', '6226', '6227', '6228', '6230', '6231', '6237', '6243', '6247', '6253', '6261', '6262', '6263', '6271', '6273', '6277', '6282', '6286', '6289', '6290', '6300', '6303', '6304', '6305', '6306', '6307', '6360', '6363', '6366', '6367', '6371', '6372', '6373', '6374', '6375', '6379', '6380', '6381', '6387', '6413', '6415', '6417', '6418', '6419', '6420', '6426', '6428', '6432', '6433', '6434', '6443', '6444', '6447', '6449', '6483', '6484', '6487', '6489', '6493', '6494', '6500', '6504', '6509', '6516', '6518', '6521', '6523', '6528', '6529', '6531', '6532', '6533', '6535', '6536', '6549', '6550', '6554', '6556', '6559', '6561', '6563', '6564', '6570', '6571', '6572', '6575', '6577', '6578', '6599', '6601', '6604', '6606', '6607', '6615', '6617', '6618', '6619', '6620', '6621', '6624', '6628', '6632', '6639', '6644', '6647', '6651', '6657', '6669', '6690', '6691', '6692', '6694', '6696', '6697', '6698', '6704', '6712', '6718', '6719', '6720', '6721', '6726', '6727', '6728', '6729', '6730', '6733', '6734', '6737', '6738', '6739', '6747', '6748', '6749', '6751', '6752', '6754', '6755', '6757', '6767', '6768', '6769', '6771', '6776', '6784', '6785', '6786', '6789', '6790', '6791', '6798', '6803', '6804', '6805', '6806', '6807', '6808', '6810', '6811', '6812', '6815', '6817', '6818', '6821', '6822', '6824', '6827', '6837', '6842', '6846', '6847', '6856', '6857', '6858', '6862', '6863', '6864', '6865', '6866', '6867', '6868', '6869', '6872', '6874', '6875', '6877', '6885', '6887', '6888', '6894', '6900', '6901', '6903', '6904', '6908', '6910', '6913', '6917', '6918', '6920', '6922', '6923', '6927', '6929', '6932', '6933', '6939', '6940', '6942', '6943', '6944', '6945', '6947', '6948', '6949', '6952', '6953', '6954', '6955', '6956', '6957', '6959', '6960', '6961', '6962', '6963', '6965', '6966', '6969', '6970', '6971', '6972', '6973', '6974', '6981', '6982', '6991', '7003', '7005', '7008', '7009', '7010', '7012', '7014', '7026', '7028', '7030', '7033', '7034', '7040', '7041', '7042', '7044', '7045', '7051', '7052', '7053', '7054', '7060', '7063', '7068', '7070', '7074', '7080', '7090', '7093', '7098', '7101', '7105', '7114', '7115', '7116', '7117', '7119', '7120', '7126', '7130', '7133', '7135', '7139', '7140', '7141', '7146', '7148', '7149', '7158', '7162', '7166', '7167', '7170', '7172', '7173', '7174', '7184', '7186', '7187', '7188', '7190', '7193', '7195', '7209', '7212', '7213', '7215', '7216', '7222', '7227', '7228', '7229', '7232', '7240', '7242', '7252', '7255', '7259', '7266', '7267', '7268', '7269', '7280', '7281', '7291', '7293', '7300', '7313', '7320', '7321', '7322', '7324', '7325', '7332', '7341', '7345', '7346', '7351', '7356', '7357', '7361', '7368', '7373', '7380', '7383', '7384', '7390', '7395', '7405', '7408', '7410', '7411', '7412', '7413', '7414', '7418', '7425', '7428', '7429', '7432', '7434', '7439', '7449', '7450', '7452', '7455', '7457', '7461', '7491', '7492', '7496', '7503', '7511', '7517', '7518', '7520', '7523', '7525', '7526', '7528', '7531', '7532', '7533', '7534', '7535', '7536', '7537', '7538', '7539', '7542', '7543', '7544', '7545', '7546', '7548', '7549', '7550', '7551', '7552', '7556', '7557', '7558', '7560', '7561', '7563', '7564', '7566', '7569', '7572', '7574', '7575', '7577', '7578', '7579', '7580', '7582', '7586', '7589', '7590', '7592', '7594', '7595', '7596', '7597', '7600', '7601', '7602', '7603', '7604', '7605', '7609', '7611', '7615', '7619', '7620', '7625', '7626', '7628', '7629', '7630', '7631', '7633', '7636', '7640', '7642', '7645', '7646', '7647', '7652', '7653', '7655', '7656', '7657', '7658', '7659', '7661', '7667', '7668', '7674', '7676', '7678', '7679', '7683', '7686', '7687', '7688', '7691', '7693', '7695', '7705', '7707', '7708', '7710', '7714', '7725', '7728', '7729', '7733', '7734', '7741', '7745', '7752', '7762', '7764', '7765', '7774', '7776', '7783', '7798', '7800', '7801', '7802', '7806', '7807', '7809', '7814', '7822', '7826', '7827', '7828', '7830', '7833', '7834', '7838', '7840', '7841', '7846', '7857', '7862', '7870', '7871', '7874', '7875', '7881', '7882', '7886', '7887', '7890', '7895', '7899', '7901', '7902', '7903', '7915', '7917', '7925', '7929', '7931', '7932', '7933', '7934', '7937', '7941', '7942', '7943', '7944', '7953', '7955', '7959', '7960', '7964', '7973', '7974', '7979', '7984', '7985', '7988', '7993', '7997', '7998', '8000', '8001', '8004', '8005', '8006', '8007', '8008', '8010', '8013', '8014', '8015', '8020', '8021', '8022', '8024', '8025', '8026', '8027', '8028', '8032', '8034', '8035', '8037', '8039', '8041', '8042', '8045', '8046', '8049', '8050', '8051', '8052', '8055', '8067', '8068', '8072', '8075', '8082', '8083', '8090', '8092', '8093', '8096', '8098', '8101', '8103', '8104', '8106', '8108', '8109', '8110', '8112', '8120', '8121', '8124', '8125', '8126', '8127', '8128', '8129', '8130', '8132', '8133', '8135', '8137', '8139', '8153', '8155', '8158', '8167', '8168', '8169', '8170', '8175', '8181', '8182', '8184', '8188', '8193', '8194', '8199', '8204', '8208', '8209', '8215', '8219', '8222', '8227', '8235', '8237', '8238', '8239', '8245', '8247', '8248', '8249', '8250', '8253', '8254', '8255', '8256', '8260', '8262', '8264', '8265', '8267', '8268', '8271', '8274', '8276', '8281', '8287', '8289', '8291', '8293', '8294', '8295', '8297', '8298', '8299', '8300', '8301', '8302', '8304', '8305', '8311', '8312', '8313', '8316', '8318', '8319', '8321', '8322', '8323', '8324', '8326', '8327', '8330', '8331', '8332', '8334', '8335', '8337', '8340', '8342', '8343', '8344', '8350', '8351', '8354', '8355', '8356', '8359', '8361', '8362', '8365', '8367', '8370', '8372', '8374', '8375', '8376', '8377', '8378', '8379', '8380', '8384', '8386', '8392', '8393', '8399', '8402', '8405', '8406', '8407', '8409', '8410', '8413', '8417', '8425', '8426', '8427', '8431', '8432', '8433', '8434', '8440', '8447', '8448', '8453', '8454', '8455', '8456', '8460', '8468', '8469', '8470', '8472', '8473', '8474', '8477', '8478', '8479', '8480', '8481', '8488', '8489', '8493', '8495', '8497', '8506', '8508', '8509', '8510', '8511', '8513', '8518', '8538', '8539', '8541', '8543', '8546', '8548', '8549', '8550', '8553', '8555', '8556', '8562', '8565', '8571', '8572', '8575', '8576', '8578', '8589', '8595', '8597', '8601', '8604', '8606', '8608', '8617', '8620', '8621', '8623', '8631', '8635', '8639', '8662', '8667', '8673', '8688', '8689', '8691', '8693', '8696', '8698', '8708', '8709', '8710', '8711', '8712', '8715', '8722', '8727', '8729', '8732', '8733', '8735', '8736', '8739', '8746', '8749', '8759', '8760', '8762', '8778', '8782', '8788', '8795', '8808', '8815', '8825', '8827', '8832', '8834', '8835', '8836', '8837', '8840', '8841', '8843', '8844', '8845', '8847', '8850', '8852', '8855', '8859', '8864', '8870', '8879', '8880', '8883', '8885', '8887', '8888', '8891', '8896', '8897', '8900', '8904', '8905', '8912', '8917', '8918', '8922', '8923', '8925', '8926', '8929', '8930', '8932', '8933', '8938', '8941', '8943', '8944', '8947', '8961', '8965', '8966', '8967', '8969', '8971', '8973', '8975', '8976', '8978', '8979', '8981', '8982', '8983', '8984', '8985', '8986', '8990', '9003', '9009', '9011', '9027', '9035', '9036', '9041', '9044', '9045', '9047', '9048', '9049', '9052', '9059', '9061', '9062', '9064', '9065', '9066', '9068', '9069', '9070', '9074', '9076', '9077', '9078', '9079', '9083', '9090', '9093', '9094', '9105', '9118', '9122', '9123', '9125', '9129', '9135', '9136', '9141', '9142', '9143', '9150', '9153', '9154', '9165', '9174', '9178', '9179', '9184', '9185', '9186', '9187', '9191', '9192', '9195', '9214', '9216', '9220', '9225', '9228', '9233', '9235', '9239', '9244', '9248', '9249', '9250', '9252', '9258', '9263', '9264', '9265', '9267', '9268', '9269', '9271', '9275', '9277', '9278', '9279', '9280', '9283', '9284', '9286', '9289', '9290', '9297', '9298', '9311', '9314', '9315', '9317', '9319', '9325', '9328', '9336', '9341', '9342', '9344', '9345', '9346', '9349', '9352', '9353', '9355', '9356', '9358', '9362', '9364', '9367', '9368', '9369', '9373', '9377', '9378', '9381', '9382', '9383', '9389', '9396', '9397', '9400', '9404', '9405', '9406', '9410', '9413', '9414', '9419', '9421', '9424', '9429', '9432', '9433', '9437', '9442', '9444', '9445', '9453', '9455', '9456', '9457', '9461', '9464', '9466', '9468', '9470', '9471', '9473', '9476', '9489', '9490', '9496', '9500', '9502', '9504', '9505', '9510', '9520', '9524', '9532', '9536', '9537', '9538', '9549', '9551', '9557', '9559', '9563', '9565', '9573', '9577', '9585', '9586', '9599', '9600', '9601', '9602', '9609', '9610', '9611', '9613', '9615', '9617', '9621', '9627', '9638', '9641', '9649', '9655', '9659', '9676', '9684', '9686', '9688', '9691', '9692', '9694', '9704', '9710', '9712', '9741', '9744', '9750', '9756', '9759', '9763', '9764', '9770', '9772', '9774', '9788', '9809', '9828', '9855', '9884', '9886', '9907', '9908', '9920', '9925', '9974', '&lt;!DOCTYPE html PUBLIC "-//W3C//DTD XHTML 1.0 Strict//EN"', '&lt;/body&gt;', '&lt;/head&gt;', '&lt;/html&gt;', '&lt;body&gt;', '&lt;head&gt;', '&lt;html xmlns="http://www.w3.org/1999/xhtml"&gt;', '&lt;title&gt;&lt;/title&gt;', 'AFBZ00001']</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>10</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>3595</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>9</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', '5', '6', '7', '8', '9']</t>
         </is>
@@ -648,18 +673,26 @@
       <c r="P4" t="n">
         <v>10</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>land marketing, GIS access</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Support operational funding for community economic development and business services</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>240494</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2660</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['2-year pilot Graduate Internship Program in Manitoba', '2006 British Columbia Export Awards', '2009 World Police and Fire Games Industry Trade Show', '2010 Business Opportunity Workshops', '2010 Commerce Centre wireless &amp; new media technology showcase', 'A forum entitled "Expert Dialogue on future forest and fibre use opportunities"', 'A start-up plan for an open source learning exchange concerning sustainability', 'Aboriginal Business Service Network', 'Aboriginal Leadership Development Program', 'Aboriginal Residential Construction Program', 'Accelerate uptake of genomics to increase competitiveness in BC natural resources sectors', 'Acitivies to reduce the risk of wildfire in Clearwater', 'Acquire DNA sequencing technologies and supporting computing infrastructure', 'Acquire Electron beam lithography system to support nanotechnology applied research', 'Acquire Raman Microscope to Support Industry Development and Research', 'Acquire a mass spectrometer and a biomarker discovery instrument for proteomic research.', 'Acquire a mobile trailer and equipment to expand trades training in Northwest BC.', 'Acquire airborne terrestrial mapping and hydroacoustic technologies for skills development', 'Acquire analytical and measurement equipment for research in Agri-food products', 'Acquire and install specialized technology commercialization equipment', 'Acquire and operate equipment for UBC InSEAS', 'Acquire antenna test equipment for applied research and collaborative industry projects', 'Acquire digital technology for film production and establish an online education program', 'Acquire equipment for marine and aerospace training centre, and upgrade technology centre', 'Acquire equipment for skills training to improve productivity in the agriculture sector', 'Acquire equipment for trades training to address high demand for the local labour force', 'Acquire equipment that furthers Carbohydrate Science research and development', 'Acquire equipment to develop and commercialize immunotherapy technologies', 'Acquire equipment to expand capacity at a regional animal health and food testing facility', 'Acquire equipment to support the development of commercial unmanned aerial vehicle systems', 'Acquire food science equipment for testing and demonstrations at Red River College', 'Acquire haul-truck simulators for training entry-level workers in the coal mining sector', 'Acquire new vocational equipment for the expanded trades education facility in Nelson, BC', 'Acquire simulators to train aboriginal workers in energy/mining sectors in north east BC', 'Acquire software kits for simulator-training to use heavy equipment in construction work', 'Acquisition and testing of thermal imaging equipment to develop commercial applications.', 'Acquisition of Liquid Chromatography - Mass Spectrometry Equipment.', 'Acquisition of NMR Equipment for Thompson Rivers University', 'Acquisition of Specialized Micro Nano Technology Equipment', 'Acquisition of equipment for the Alberta Water and Environmental Sciences Building', 'Activities to reduce the risk of wildfire', 'Activities to reduce the risk of wildfire at nine Indian reserve locations', 'Activities to reduce the risk of wildfire in Central Okanagan', 'Activities to reduce the risk of wildfire including: surveying, spacing and pruning', 'Activities to reduce the threat of wildfire including felling trees and piling debris', 'Addition of AUV and Acoustic Array (5 nodes) on the Ocean Technology Test Bed', 'Address need for production, rehearsal, and performance space at the campus', 'Administer the Municipal Rural Infrastructure Fund in British Columbia', 'Advance BC genomic discoveries through the proof-of-concept stage.', 'Advance genomics technologies in Saskatchewan through industry engagement', 'Aldergrove Athletic Park Recreational Facilities', 'An All Terrain Cabin  to showcase Canadian products to international markets', 'Anmore Renewable Energy Project feasibility study', 'Applied Research and Market Development for green roof / living wall', 'Apply forest management practices to improve forest health and reduce the wildfire threat', 'Aquatic Centre Upgrades', 'Aquire advanced digital media equipment', 'Arctic Canada Gallery - Enhancement of the visitor experience and research infrastructure', 'Assess business climate and develop an action plan to attract and retain investments', 'Assess mountain pine beetle effects on non-timber forest products', 'Assist Alberta Team in Washington Solar Decathlon Competition and 2010 Olympics showcase', 'Assist Junior Achievement BC in developing new marketing campaigns.', 'Assist Kitscoty with upgrades to parks and walkways', 'Assist Phase III construction of the Penhold Regional Multiplex facility', 'Assist building expansion and construction upgrades to Stirling multi-purpose facility', 'Assist entrepreneurs access risk capital from private sources', 'Assist establishment of a new Technology Commercialization Centre and business incubator', 'Assist forest-based communities under the Fire Hazard Reduction and Forest Health Program', 'Assist in building expansion and extensive construction upgrades to the Plainsmen Arena', 'Assist in construction upgrades to the Athabasca Regional Multiplex facility field house', 'Assist in delivering new mobile trades training into rural and First Nations communitie', 'Assist in maintaining, repairing and improving heritage buildings, tractors and equipment', 'Assist in purchase of a microprobe for the Saskatchewan Centre for Advanced Microanalyses', 'Assist in the development of a 10-kilometre pathway through the East Calgary Greenway', 'Assist in the extensive rehabilitation of the Royal Glenora Club', 'Assist manufacturer to obtain Standards Council of Canada Accreditation', 'Assist northern Saskatchewan mining companies in remaining productive', 'Assist roof repairs and replacement of ice-making plant at Plamondon Arena', 'Assist upgrades to the electrical and lighting system in the Vauxhall Recreation Centre', 'Assist with Irma Arena renewal and improvements', 'Assist with community recreation centre upgrades at the Sucker Creek First Nation Reserve', 'Assist with costs related to obtaining Standards Council of Canada accreditation', 'Assist with installation of a permanent outdoor rink at Kinsmen Park', 'Assist with mechanical systems replacement at five recreational facilities in Medicine Hat', 'Assist with renovations and redevelopment of Nisku Park', 'Assist with the completion of renovations to the Boyle Arena', 'Assist with the construction of the Silver Trail walking path', 'Assist with the construction of two new playground structures', 'Assist with the expansion of the Calgary Centennial Arenas', 'Assist with the expansion of the Cardel Place Fitness Centre', 'Assist with the improvements and upgrades to the Leduc Recreation Centre', 'Assist with the rehabilitation of the Village of Clive outdoor arena', 'Assist with the retrofit of Westwinds Dry Pond', 'Assist with the revitalization of the Ellerslie Rugby Park', 'Assist with the upgrade and enhancement of the Applewood Athletic Park', 'Assist with the upgrades of the Dr. Duncan Murray Recreation Centre', 'Assist with upgrades and improvements to Central McDougall Park', 'Assist with upgrades to the Mowat Park and RCMP Park Skating Rinks', 'Assist with upgrades to the town arena and aquatic centre', 'Attain international accreditation to support market access for seafood producers', 'Attract foreign investment and increase exports in the hydrogen and fuel cell sector', 'Attract new incoming buyers to the Western Canadian Farm Progress Show', 'BC-based pilot to develop a new Green Fleet Certification System for vehicle fleets', 'Beneficial Use of Landfill Gas for Greenhouse Operations Feasibility Study', "Branding initiatives of Manitoba's bilingual municipalities", 'Bridging the Generation Divide', 'Build a 52-unit student accommodation facility', 'Build a Discovery Education Centre in Stanley Park', "Build a First Nation's value chain for Hormone/Additive Free Beef produced in BC", 'Build a community-owned and operated multi-purpose theatre/cinema', 'Build a covered outdoor park at Chuck Bailey Recreation Centre', "Build a covered walkway between the Senior's Activity Centre and Community Centre", 'Build a hemp fibre processing plant', 'Build a new theatre facility', 'Build a new washroom facility at Silverton campground', 'Build a recreational vehicle park at Destination Grand Marais', 'Build a smart barge to recover sunken logs in Port Alberni', 'Build and expand tree nurseries and stool beds in Princeton', 'Build and operate a run-of-river hydroelectric facility', 'Build and upgrade recreation facilities in Chilliwack', 'Build capacity for defence procurement in Western Canada', 'Build clinical trial capacity and attract foreign direct investments.', 'Build community skills &amp; capacity to meet demand for cultural &amp; wilderness tourism', 'Build export ready companies in the northern Saskatchewan Aboriginal forestry sector', 'Build out, equip and operate the Okanagan Centre for Innovation (OCI)', 'Build water lines to commercial sub-division', 'Business Plan to revitalize the commercial and heritage district of Maillardville', 'Buy equipment to develop, commercialize and bring to market food industry products', 'Campbell Crescent Light Industrial Design &amp; Engineering', 'Campsite and trail improvement activities', 'CanAssist, Development and Commercialization of Assistive Technologies', 'Canoe Creek Green Hydro Project', 'Capacity-building initiatives to help First Nations use communication technologies', 'Cape Mudge Gymnasium Renovation', 'Capital improvements to the Beban Park Recreation Centre', 'Cariboo-Chilcotin Aboriginal Natural Resource Management Directory', 'Centennial Park redevelopment', 'Centre for Innovation in Ranching, Range and Meat Production Equipment Acquisition', 'Centre for MALDI-based Tissue Imaging', 'Centre for Sport Technology Research and Development Equipment Acquistion and Start Up', 'Clean up three city lots for future development', 'Cleaning campsites, painting and replacing structures, removing and disposing fallen trees', 'Clear fireguards in the community', 'Clearing and maintaining trails', 'Clearing, widening boardwalks and footbridges, adding signage and a kiosk', 'Collaborative industry applied research in wireless propagation and channel modeling', 'Commercialization of the OneStone cloud security service', 'Commercialize CO2 Direct Air Capture Technology', 'Commercialize Lithium Ion Battery &amp; Management System for Marine Use', 'Commercialize Medical Imaging Workflow to Improve Clinical Decisions and Patient Outcomes', "Commercialize RAM's Mid Range Elevator Product", 'Commercialize Test4D, a rapid vitamin D test, in Europe, North and South America', 'Commercialize a RFID Tracking System for Chemical Products', 'Commercialize a Variable Loudspeaker Array System', 'Commercialize a new benchtop Nuclear Magnetic Resonance spectrometer', 'Commercialize a new product line of algae bioreactors for aquaculture and biotech sectors', 'Commercialize a portable molecular diagnostic detection system.', 'Commercialize a product for software development lifecycle decision making', 'Commercialize a technology for accelerating the discovery of antibodies', 'Commercialize an application to support data exploration, visualization and storytelling', 'Commercialize an eco-system of products based on the SensMit Platform', 'Commercialize an emergency management software system for families and organizations', 'Commercialize an injectable connector joint used for pipeline construction', 'Commercialize and scale production of next-generation seismic accelerometer', 'Commercialize camera-based gas and fluid leak detection systems', 'Commercialize clean power generation', 'Commercialize embedded computer vision acceleration solutions', 'Commercialize new fire retardant coating for steel structures', 'Commercialize system for genetic identification of wheat varieties', 'Commercialize technologies that support a sustainable oil and gas industry in the West', 'Commercialize the Electro Separation Cell for the treatment of oil well drilling waste', 'Commercialize the Gryphon Series membrane technology for energy recovery ventilation', 'Commercialize the production of phytochemical extracts', 'Commercialize water management products for business aircraft', 'Commission and construct a monument commemorating the War of 1812', 'Community Forest Sampling and Economic Planning Initiative', 'Community Futures - Rural Economic Diversification Initiative of British Columbia', 'Community skills survey, economic development plan, ecosystem mapping &amp; broadband access', 'Complete Phase 2 of the JEB Community Center revitalization in the RM of Usborne', "Complete Phase Two of the Squamish Lil'wat Aboriginal Cultural Tourism Centre.", 'Complete The Spray Lake Sawmills Family Sports Centre Phase III', 'Complete construction of multi-purpose facility', 'Complete development of analytics and commercialize Neurio home intelligence technology', 'Complete energy efficiency upgrades to the Salmo Valley Youth &amp; Community Centre', 'Complete hazardous tree removal and routine recreation site maintenance to improve safety', 'Complete land assessment,market analysis and feasibility study for industrial park.', 'Complete restoration of the Spirit 2010 Trail Network', "Complete the Chetwynd Women's Resource Centre Market Place", 'Comprehensive feasibility study for "clean" energy opportunities', 'Concession building renovations and soccer field improvements', 'Conduct a cluster study of the Winnipeg capital region', 'Conduct a feasibility study into the need to rehabilitate or to replace Mosaic Stadium', 'Conduct a forest stand release and assessment survey in the Mountain Forest Region', 'Conduct a study for a causeway close to Galena Bay', 'Conduct a study on the economics of heritage building renovation and incentive program', 'Conduct a western Canadian productivity, competitiveness and potential research study', 'Conduct bioenergy feasibility study and value-added wood market analysis.', 'Conduct economic development study to assess effects of mill closure &amp; review options', 'Conduct feasibility study for extraction of compounds from northern trees', 'Conduct field trials to validate yield of slow-release co-granulated fertilizer', 'Conduct physiotherapist assistant training program', 'Conduct shellfish hatchery research to address industry challenges', 'Conduct technology labour survey and report on technology labour requirements in BC', 'Construct  two 4-plex affordable housing units in Thompson for urban Aboriginal students', 'Construct 3.5 km of urban trails to enhance non-motorized transportation in Invermere', 'Construct 4 Canadian Light Source beamlines for industrial and commercial applications', 'Construct 7 Canadian Light Source beamlines for industrial and commercial applications', 'Construct Lawrence Multi-Plex Centre', 'Construct Newton Athletic Park artificial turf field', 'Construct Phase 1 of the Christina Lake Ecological Centre for the Arts', 'Construct Prince Rupert Marina (docks and services infrastructure) at Cow Bay', 'Construct a 3.9 kilometer pedestrian walkway and bike path with wheelchair access', 'Construct a 4,000 square foot addition to the Tofield Arena', 'Construct a 50,000 square foot trade show and exhibition building', 'Construct a basketball court for three schools and community', 'Construct a community athletic track and sportsfield', 'Construct a community recreation facility', 'Construct a community services centre and a civic square', 'Construct a covered soccer training facility', 'Construct a fitness circuit', 'Construct a heliport at the Kootenay Boundary Regional District Hospital', 'Construct a lobby, expand the curling rink and upgrade heating and electrical systems', 'Construct a maintenance shop for grooming equipment and widen Nordic ski trails.', 'Construct a mineral processing pilot plant', 'Construct a mobile heavy equipment operator training simulation lab', 'Construct a multi-purpose activity centre including gymnasium and kitchen', 'Construct a multi-purpose commercial building to meet increased demands of local economy', 'Construct a multi-purpose community centre', 'Construct a multi-purpose room at Acadia Pool', 'Construct a multi-use paved pathway from College Way to Kalamalka Road in Coldstream', 'Construct a natural turf wicket at the Abbotsford Exhibition Park', 'Construct a new Fire Hall and Emergency Services Centre', 'Construct a new community facility', 'Construct a new dairy research facility at the University of Saskatchewan', 'Construct a new pool house', 'Construct a new recycling facility to improve operating efficiency', 'Construct a new sensory evaluation laboratory for BC Wines marked VQA', 'Construct a play structure and climbing wall', 'Construct a public works maintainence shop', 'Construct a recreational park and make improvements to the curling rink', 'Construct a regional First Nations interpretative and cultural centre.', 'Construct a replacement gymnasium/community recreation centre', 'Construct a six-lane asphalt track at Windsor Secondary School Park', 'Construct a sports field complex in Ladysmith', 'Construct a training tower for a Wind Turbine Maintenance Technician Program', 'Construct a water spray park in Golden', 'Construct a waterline to service an industrial park north west of Dauphin.', 'Construct a wood pellet manufacturing plant in Merritt BC', 'Construct a world-class Nordic ski racing venue.', 'Construct addition to expand Sarcan recycling operations', 'Construct additional ball diamonds and regulation soccer field, expand common grounds area', 'Construct additions to the Landmark Rec Center Annex', 'Construct an ice arena in Dease Lake', 'Construct an indoor ice arena', 'Construct an outdoor ice rink', 'Construct an outdoor lacrosse box', 'Construct an outdoor multi-purpose rink and shelters next to the Bruderheim Hockey Arena', 'Construct an outdoor, multi-purpose sports court', 'Construct an urban trail, water-based sport spectator facilities and a water access point.', 'Construct and equip the Enerplus Innovation Centre', 'Construct and expand the Fort Vermilion Community Complex', 'Construct and landscape homes', 'Construct arena dressing rooms', 'Construct baseball diamonds and a soccer field at the Vermillion Park Sportsplex', 'Construct change rooms and splash pool', 'Construct commemorative entrance arches to the Cranbrook City Centre', 'Construct composting site', 'Construct dressing room addition and wheelchair accessible washrooms', 'Construct dressing rooms, upgrade zamboni room, replace lighting, and insulate ceiling', 'Construct football and soccer fields', 'Construct heated spectator viewing area for sports complex.', 'Construct housing for full-time students', 'Construct improvements to the Broad Street pedestrian bridge and trail', 'Construct mobile poultry abattoir for a non-profit Cariboo poultry producers association.', 'Construct new campus with Mining Academy for training and research', 'Construct new facility', 'Construct new facility to house existing and expanded programming', 'Construct new sports fields and upgrade existing field infrastructure', 'Construct new wheelchair accessible washrooms and four new dressing rooms', 'Construct north Lethbridge sports park picnic shelter', 'Construct performance shelter for Burns Lake Spirit Square', 'Construct phase one of the Senkulmen Enterprise Park', 'Construct portable roof structures for outdoor rinks in Anzac, Conklin, Janvier and Saprae', 'Construct river bank recreational trail along floodway', 'Construct road', 'Construct road and bone bed shelter from Pipestone Creek Park to bone site', 'Construct seniors ball diamond', 'Construct shelter', 'Construct skate park for skateboards, BMX and inline skates', 'Construct small hydroelectric plant to support Aboriginal clean energy infrastructure', 'Construct soccer field and running track on existing sports field', 'Construct spray park and playground at Jackie Parker Recreation Area', 'Construct standing seam roof on the Reston Rec Plex', 'Construct ten housing units for Aboriginal families in Winnipeg', 'Construct the Riverdale Community Complex', 'Construct the Sto:lo Resource Centre', 'Construct the Ucluelet Aquarium', 'Construct the Vancouver Island Mountain Centre', 'Construct the Vancouver Island and Coast Discovery Centre', 'Construct three Canadian Light Source beamlines for industrial and commercial applications', 'Construct tourist visitor facilities at the Ladysmith Community Marina', 'Construct two new locker rooms', 'Construct two soccer fields in 100 Mile House', 'Construct walkways and lighting in recreational park', 'Construction of the Alexis Creek Tourism Information Centre.', 'Contribute to the establishment of a Global Business Centre in Calgary, Alberta', 'Convert Pemberton Train Station into a community, tourism &amp; transportation hub', 'Convert the decommissioned water treatment plant into a community activity centre', 'Coordinate and conduct a British Columbia Aboriginal Strategy', 'Coordinate and manage invasive plants on public lands in the East Kootenay area', 'Coordinate two forest fire salvage programs in Pelican Narrows', 'Coordination and implementation of the PGAA air cargo and fuel stop marketing plan', 'Create 50 undergraduate internships at BC universities through MITACS Globalink', 'Create Destination Horse Camps and a Trail Guide', 'Create First User Program to promote the synchrotron facility to industrial users', 'Create a BC cranberry research centre', 'Create a Brandon business incubator', 'Create a campground/picnic facility and boat launch with dock', 'Create a community controlled trust fund for economic initiatives.', 'Create a hydrogen and CNG certification field testing site for the automotive industry', 'Create a interaction testing lab to enhance productivity in the manufacturing sector', 'Create a microbiome centre to test therapies, disease resistance methods and remediation', 'Create a waste oil to diesel fuel recycling plant', 'Create access routes to the Tsay Keh Dene Band', 'Create an International Policy Program at the University of Calgary', 'Create an eco-friendly botanical garden', 'Create and operate the BC Industrial Marine Training and Applied Research Centre', 'Create employment for information technology staff to support Aboriginal organizations', 'Create export development program for incoming buyers at Western Farm Progress Show', 'Create jobs in wood processing', 'Create three new positions and a new tourism building', 'Create workshops for Francophones on procurement opportunities related to 2010 Olympics', 'Creation of an Alberta International Business Partnering Program', 'Creation of the International Performance Assessment Centre for storage of carbon dioxide', 'Deliver Aboriginal Business Service Network project', 'Deliver Job Horizons II Bridging to Employment Initiative', 'Deliver Linx business services to create/grow technology entrepreneurs &amp; companies', 'Deliver Linx business services to create/grow technology entrepreneurs and companies.', 'Deliver Local Government Authority Certificate Program', 'Deliver Mid-Island Science, Technology and Innovation Council Linx Programs', 'Deliver a 3-year Francophone business building initiative to highlight entrepreneurship', 'Deliver a training program for hospitality workers', 'Deliver an Aboriginal and Small Business Leadership Program in rural communities.', 'Deliver an export market diversification and incoming buyers program', 'Deliver an interprovincial summer camp for young French-speaking entrepreneurs', 'Deliver business development training and services to Aboriginal people in Saskatchewan', 'Deliver chemical technology diploma training', 'Deliver drill rig training program in Northern Saskatchewan', 'Deliver drilling rig training program in northern Saskatchewan', 'Deliver eight skills training programs in northern Saskatchewan', 'Deliver heavy equipment operator training', 'Deliver management studies certificate program', 'Deliver projects approved for the Municipal Rural Infrastructure Fund in British Columbia', 'Deliver repayable Community Adjustment Fund loans to business in the NDIT region of BC', 'Deliver skills training to support employment opportunities for heavy equipment operators', 'Deliver summer camp for young French-speaking entrepreneurs', 'Deliver technology transfer support to Saskatchewan forest sector', 'Deliver the  Entrepreneurs with Disabilities Program', 'Deliver the Aboriginal Business Service Network Program', 'Deliver the Aboriginal Teacher Assistant Intern project', 'Deliver the Advanced Manufacturing Initiative Program - Competitive Renewal Phase', 'Deliver the BC Economic Innovation Partnership Program', 'Deliver the Entrepreneurs with Disabilities  Program', 'Deliver the Entrepreneurs with Disabilities Program', 'Deliver the Global Expansion Pilot Program for wireless SMEs', 'Deliver tourism industry training program in northern Saskatchewan', 'Deliver trade advisory service programs for new and existing exporters', 'Deliver trades training in northern and rural Manitoba through Mobile Training Labs', 'Deliver training for Continuing Care Assistant certificate program', 'Deliver training for drilling rig workers', 'Deliver training for heavy equipment operators', 'Deliver training to Aboriginal economic development officers in northern Saskatchewan', 'Deliver workshops to First Nations on agroforestry opportunities', 'Deliver workshops to First Nations on biomass energy industries opportunities', 'Deliver workshops to build skills in international trade for Saskatchewan businesses', 'Demonstrate a biomass fueled district heating system in an urban location', 'Demonstrate combined heat and power generation plant using biomass.', 'Demonstrate desalination and water reuse technologies in the oil, gas, mining sectors', 'Demonstrate image guided surgicial technology at the University of Calgary', 'Design and commercialize software for designing electronic chips in mobile devices', 'Design and construct a lighted synthetic turf field at Willoughby Community Park', 'Design and construct a mobile abattoir for the Boundary region', 'Design and construct park features at Riverfront Park in River Landing Phase I', 'Design upgrades and enhancements to commercial areas in Quesnel', 'Design, build and install a skateboard and bike park', 'Design, build and sea test a hybrid marine diesel-hydrogen fuel cell electric power system', 'Design, construct and equip a 781 square-meter trades training facility', 'Determine the feasibility of a bio-energy plant and power transmission line upgrade', 'Determine the need and capacity for kilns to be built in British Columbia communities', 'Develop &amp; host a SIBAC website. Create DVD/print MPB knowledge transfer pieces for public.', 'Develop Aboriginal youth training and education program for housing renovations', 'Develop Alternative Energy Study and Strategy for Chi-ihl-kwa-uhk Tribe', 'Develop Asia-Pacific market opportunities for Western Canadian Food Processors', 'Develop Business Attraction and Retention Tools and Materials for GVDA', 'Develop Business Park', 'Develop Community Centre', "Develop First Nations shellfish aquaculture industry along BC's north and central coasts", 'Develop French  on-line courses for distance education', 'Develop French course content for distance learning', 'Develop Gimli Skatepark', 'Develop Heritage Park and Community Gardens', 'Develop Heritage Tourism products focusing on Hope to Barkerville corridor.', 'Develop Institute for Accelerator-based Medical Isotopes (IAMI)', 'Develop Interior Regional Component of the Linx Initiative', 'Develop Kootenay Regional Component of Linx Initiative', 'Develop Legacy Park', 'Develop Metis historical sites and employment opportunities for Batoche area', 'Develop North-Central Regional Component of the Linx Initiative', 'Develop Northwest Regional Component of the Linx Probrams', 'Develop P3 business plan for a national maritime centre for the Pacific and Arctic.', 'Develop Pan-Western genomic networks', 'Develop Pan-western marketing and international tourism recovery plan for 2008.', 'Develop Peace-Liard Regional Component of the Linx Initiative', 'Develop Phase II of Retail PEAK Training Program', 'Develop Project Independence video game for the mobile devices market', 'Develop Regina City Square', 'Develop Regional Approach to Marketing Greater Vancouver', 'Develop West Kootenay-Boundary Regional Component of the Linx Initiative', 'Develop a BC wine identity for growth in international markets', 'Develop a Centre of Excellence for Regenerative Medicine at the University of Manitoba', 'Develop a Chemistry Centre of Excellence at the University of Manitoba', 'Develop a First Nations Economic Development Online Resource Portal', 'Develop a High Performance Computing Facility', 'Develop a History Park to promote the communities tourist attractions and history', 'Develop a Log Sourcing and Value-Added Marketing Plan', 'Develop a Regional Economic Diversification Strategy and Engagement Plan.', 'Develop a bio-energy cluster and related research facilities', 'Develop a business case for a forest bio-refinery demonstration facility', 'Develop a business plan for the Battlefords Yellowhead Heritage Park', 'Develop a business plan for the Central Manitoba Railway line for eastern Manitoba', 'Develop a cancer treatment using a synthetic antibody platform', 'Develop a courtyard at Riverside Lions Housing in Winnipeg', 'Develop a cultural tourism program and implementation plan', "Develop a five-day academy to expand grassroots women's particiation in World Urban Forum", 'Develop a heavy duty operators program in Saskatoon', 'Develop a joint manufacturing training facility at Red River College', 'Develop a linear park with fitness trails', 'Develop a mining materials research centre focused on corrosion reduction issues', 'Develop a new 20,000 square ft factory', 'Develop a new platform and business system for online speech therapy delivery', 'Develop a northeast BC Aboriginal cultural employment strategy', 'Develop a plan to address skills shortages in province of British Columbia.', 'Develop a program to attract and engage foreign investment during the 2010 Olympics', 'Develop a training and co-location centre for Manitoba Sector Training Network members', 'Develop a web-based database of Alberta aerospace, defence and civil aviation companies', 'Develop advanced image processing technology', 'Develop an Economic Development Support Team to support First Nations', 'Develop an alternative fuel and vehicle performance facility.', 'Develop an alternative to antibiotics for commercial poultry operations', 'Develop an economic incubation model in the Saskatoon-Whitecap-MidSask region', 'Develop an electric microgrid testbed at the British Columbia Institute of Technology', 'Develop an instrumentation engineering training program to support resource industries', 'Develop and Commercialize the OS CADDIE software platform', 'Develop and commercialize a communication system for military and police K-9 units', 'Develop and commercialize a non-stretch CleanPatch to restore damaged medical surfaces', 'Develop and commercialize a real-time wireless running monitor', 'Develop and commercialize a wireless network assessment tool for service providers', 'Develop and commercialize an advanced composite chassis for window and door products', 'Develop and commercialize anomaly detection software.', 'Develop and commercialize biologic molecular imaging agents for disease detection', 'Develop and commercialize energy efficient building envelopes for residential homes', 'Develop and commercialize new technologies to improve data transmission speed and security', 'Develop and commercialize software and digital simulation hand tools', 'Develop and deliver Entrepreneurial School to high-growth, early-stage companies in 2006.', 'Develop and deliver a Postbaccalaureat Diploma on Inclusive Education on-line', 'Develop and demonstrate a CO2 capture pilot plant to enhance heavy oil extraction', 'Develop and demonstrate the Public Safety Interoperability Platform technology', 'Develop and establish pan-western networks to engage emerging genomics industries', 'Develop and expand the Berger Peat Moss plant', 'Develop and implement a marketing strategy to attract businesses to facility', 'Develop and implement a regional trades, technology and busin</t>
         </is>
@@ -718,18 +751,26 @@
       <c r="P5" t="n">
         <v>10</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>oderniser le depot de recyclage de la Troisieme Avenue a Port Alberni</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Fonds d'exploitation pour soutenir le developpement economique communautaire et les services aux entreprises</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>303526</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>2661</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['Accelerer le recours a la genomique pour accroitre la competitivite dans les secteurs des ressources naturelles de la C.-B.', "Acces a Internet haute vitesse pour les residants du Nord de l'ile de Vancouver.", 'Accorder des prets remboursables du FAC aux entrepreneurs dans la region de la C.-B. desservie par le NDIT', 'Accorder du financement pour mettre davantage en valeur le potentiel de la region', 'Accroissement des retombees regionales creees par le secteur des croisieres de la Colombie-Britannique', "Accroitre l'acces des femmes a la formation preapprentissage par l'amelioration des immobilisations", "Accroitre l'accessibilite au deuxieme etage du club de curling Assiniboine", "Accroitre l'engagement de la communaute, des parents et des personnes agees pour deux ecoles du centre-ville", "Accroitre l'utilisation des produits du bois a valeur ajoutee sur le marche canadien de la construction non domiciliaire", 'Accroitre la capacite a fournir des services de developpement de produits touristiques', 'Accroitre la capacite de servir', 'Accroitre la capacite de vente et de marketing en ligne pour des attractions du patrimoine', "Accroitre la diversification et l'innovation du secteur de la transformation du bois a valeur ajoutee de la Colombie-Britannique", "Accroitre la presence d'entreprises petrolieres et gazieres canadiennes au Kazakhstan", "Accroitre la presence de l'Ouest canadien a des evenements internationaux lies a l'approvisionnement en matiere de defense", "Accroitre la production de coniferes d'avenir en enlevant les debris", "Accroitre la productivite des entreprises en mettant sur pied un incubateur d'entreprises itinerant", "Accroitre la visibilite des possibilites touristiques et les commercialiser a l'etranger", 'Accroitre le contenu du centre de documentation francophone', "Accroitre les capacites et les possibilites d'exportation des cultivateurs de cereales biologiques de l'Ouest", "Accroitre les possibilites d'emplois et les industries a Waskada et dans la region", "Achat  d'ordinateurs portables pour les laboratoires de langue crie dans les ecoles primaires", "Achat d'equipement d'imagerie biomedicale et de biocapteurs pour une installation de bio-ingenierie", "Achat d'equipement de formation dans les metiers pour des programmes de formation itinerants", "Achat d'equipement de recherche sur les materiaux composites pour l'Universite du Manitoba", "Achat d'equipement de resonance magnetique nucleaire pour l 'Universite de Thompson Rivers", "Achat d'equipement et demarrage d'un centre de recherche et developpement de technologies sportives", "Achat d'equipement mobile pour le programme de formation en conduite de machinerie lourde", "Achat d'equipement pour appuyer le centre d'excellence de la presse ecrite au College Norquest", "Achat d'equipement pour etendre le programme d'operatrice d'equipement lourd", "Achat d'equipement pour l'Alberta Water and Environmental Sciences Building", "Achat d'equipement pour l'etablissement d'un centre d'excellence en stereoscopie 3D", "Achat d'equipement pour la creation de nouveaux produits alimentaires qui pourront ensuite etre commercialises", "Achat d'equipement pour la mise a l'essai d'antennes pour des projets de recherche appliquee et de collaboration industrielle", "Achat d'equipement pour le Centre for Innovation in Ranching , Range and Meat Production", "Achat d'equipement pour le Centre national du betail et de l 'environnement", "Achat d'equipement pour le programme d'ingenierie des systemes mecatroniques", "Achat d'equipement pour les videoconferences en vue d'ameliorer l'acces aux services pour la clientele.", "Achat d'equipement pour offrir des cours dans de multiples metiers et en soudage dans des collectivites rurales de la Sask.", "Achat d'equipement specialise de micro et nano technologie", "Achat d'instruments d'analyse et de mesure utilises pour la recherche sur les produits agro-alimentaires", "Achat d'un routeur numerique commande par ordinateur pour l'industrie de transformation du bois", "Achat d'une installation pour l'Aboriginal Friendship Centre of Calgary", "Achat du Elk's Hall pour en faire un bureau de rechange pour le personnel regional et local", "Achat et installation d'equipement pour l'agrandissement d'installations de moulage de la moutarde seche", "Achat et installation d'un equipement de sequencage d'ADN et d'une installation de nanofabrication", "Acheter de l'equipement avance de distillation a court trajet pour offrir des services aux clients de l'Ouest", "Acheter de l'equipement d'extraction et de concentration pour faire croitre l'industrie des fruits et legumes", "Acheter de l'equipement d'imagerie satellitaire.", "Acheter de l'equipement de formation pour ameliorer la productivite de l'industrie de la potasse en Saskatchewan", "Acheter de l'equipement de formation professionnelle pour repondre a la demande elevee de main-d'oeuvre locale", "Acheter de l'equipement de mise a l'essai aerospatial pour accroitre la capacite actuelle", "Acheter de l'equipement de production pour ameliorer les systemes sans pilote du S.-E. de l'Alberta", "Acheter de l'equipement pour accroitre les capacites d'une installation regionale de sante animale et d'analyse d'aliments", "Acheter de l'equipement pour aider l'industrie a elaborer des produits de micro et de nanotechnologie", "Acheter de l'equipement pour aider les jeunes et les travailleurs a acquerir des competences recherchees dans les metiers", "Acheter de l'equipement pour ameliorer la capacite liee aux tests sur l'orge et aux marches d'exportation", "Acheter de l'equipement pour ameliorer les competences des electromecaniciens et des mecaniciens industriels", "Acheter de l'equipement pour ameliorer les services d'analyse offerts au centre de microanalyse avancee", "Acheter de l'equipement pour appuyer la creation de nouvelles varietes de soya et de mais", "Acheter de l'equipement pour developper et commercialiser des technologies d'immunotherapie", "Acheter de l'equipement pour fournir des solutions a la contamination environnementale des sables bitumineux", "Acheter de l'equipement pour le Bioscience Applied Research Centre dans le but d'aider a creer de nouveaux produits", "Acheter de l'equipement pour offrir de nouveaux services de bioextraction a l'industrie", "Acheter de l'equipement pour soutenir le programme d'operateurs d'equipement lourd du College Portage", "Acheter de l'equipement pour tester des technologies de capteurs pour le stockage souterrain du CO2", "Acheter de l'equipement pour valider de nouveaux produits derives des proteines de cereale et de la cellulose", "Acheter de l'equipement specialise de formation en traitement du petrole lourd pour un programme de Lloydminster", "Acheter de l'equipement specialise pour ameliorer les services de laboratoire de l'Association canadienne de normalisation", "Acheter de l'equipement specialise pour former des techniciens en genie minier", "Acheter de l'equipement specialise pour le Centre de toxicologie agrandi.", "Acheter des composantes cles de materiel de recuperation de solvants pour ameliorer l'industrie de l'extraction biologique", "Acheter des ensembles de logiciels pour une formation en simulateur axee sur l'utilisation de l'equipement lourd de construction", "Acheter des systemes de controle de la qualite de l'air pour le sud-est et le centre-ouest de la Saskatchewan", "Acheter du materiel de d'imagerie cerebrale pour mettre au point des outils de traitement de la maladie d'Alzheimer", 'Acheter du materiel de formation dans les domaines aerospatial et de la marine et ameliorer la technologie', 'Acheter du materiel de science alimentaire pour des essais et des demonstrations au College Red River', 'Acheter du materiel de triage des semences pour de la recherche visant a accroitre la valeur des cereales', 'Acheter du materiel pour soutenir la mise au point de systemes de vehicules aeriens telepilotes commerciaux', "Acheter et installer un deshumidificateur dans l'arena d'Ashcroft", "Acheter et mettre en place de l'equipement pour un centre de classification des fibres agricoles", "Acheter les pieces d'equipement principales pour ameliorer les capacites de la Saskatchewan dans la transformation des aliments", 'Acheter un equipement de transformation des fruits pour le centre alimentaire de la Saskatchewan', "Acheter un simulateur pour l'appareil King Air afin de former des pilotes dans l'Ouest canadien", "Acheter une remorque mobile et de l'equipement pour elargir la formation professionnelle dans le Nord-Ouest de la C.-B.", 'Acquerir cinq sequenceurs genomiques de prochaine generation et etablir des relations avec le milieu des affaires', "Acquerir de l'equipement de formation en robotique pour augmenter la productivite du secteur de l'aerospatiale", "Acquerir de l'equipement de simulation pour la formation dans le secteur minier", "Acquerir de l'equipement de technologie des bioproduits et de commercialisation connexe", "Acquerir de l'equipement pour aider au developpement de revetements nanometriques durables", "Acquerir de l'equipement pour ameliorer la capacite d'elaboration de produits micro et nanotechnologiques", "Acquerir de l'equipement pour la formation axee sur les competences en vue d'ameliorer la productivite du secteur agricole", 'Acquerir des simulateurs de chariot de transport pour former de nouveaux travailleurs dans le secteur minier', "Acquerir des simulateurs pour former des travailleurs autochtones du secteur de l'energie et minier du nord-ouest de la C.-B.", "Acquerir et faire fonctionner de l'equipement pour le programme InSEAS de l'Universite de la Colombie-Britannique", "Acquerir un cyclotron pour produire les isotopes necessaires a l'imagerie medicale", 'Acquerir un spectometre de masse et un dispositif visant la decouverte de biomarqueurs pour la recherche proteomique', "Acquisition d'equipement de chromatographie liquide couplee a la spectroscopie de masse", "Acquisition d'equipement de pointe pour les medias numeriques", "Acquisition d'equipement pour les laboratoires de la Faculte des sciences et des communications multimedias", "Acquisition d'equipement qui favorise la recherche et le developpement en glycobiologie", "Acquisition d'un microscope Raman pour soutenir le developpement industriel et la recherche", "Acquisition d'un systeme de lithographie par faisceaux d'electrons pour appuyer la recherche appliquee en nanotechnologie", "Acquisition d'une console de mise a niveau pour le spectrometre a resonance magnetique nucleaire pour le departement de chimie", "Acquisition d'une installation pour accueillir les services et les programmes de soutien du Centre", 'Acquisition de nouvel equipement professionnel pour le centre de formation dans les metiers agrandi de Nelson, en C.-B.', "Acquisition de technologie numerique pour la production de film et mise sur pied d'un programme de formation en ligne", 'Acquisition de technologies de cartographie terrestre aerienne et hydroacoustiques pour le perfectionnement des competences', "Acquisition de technologies de sequencage de l'ADN et de l'infrastructure technique connexe", "Acquisition et essai d'equipement d'imagerie thermale en vue de concevoir des applications commerciales", "Acquisition et installation d'equipement specialise de commercialisation de la technologie", "Acquisition et installation d'equipement specialise pour les installations de formation dans les metiers", "Acquisition et mise en marche d'un lanceur pneumatique pour tester et evaluer des vehicules telepilotes aeriens", 'Activites de commercialisation de la technologie et de sensibilisation', 'Activites de developpement du leadership pour favoriser la participation des jeunes femmes au Forum urbain mondial de 2006', "Activites de gestion forestiere, notamment l'espacement d'arbres", "Activites de gestion forestiere, notamment l'espacement et l'enlevement d'arbres", "Activites de gestion forestiere, notamment l'optimisation de la composition des especes", 'Activites de la deuxieme annee du programme de commercialisation du tourisme culturel', "Activites de marketing et construction d'un centre de services de renseignements pour les visiteurs", 'Activites visant a reduire les risques de feux de friche', "Administration du Fonds sur l'infrastructure municipale rurale.", 'Adoption et commercialisation des technologies chez Ocean Networks Canada', 'Agrandir de 1 200 pieds carres le gymnase de Canim Lake', 'Agrandir et ameliorer le club de gymnastique Airdrie Edge', "Agrandir et ameliorer les quais de la Hospital Bay et l'infrastructure d'amarrage de bateaux", 'Agrandir et moderniser le port de Westview South', "Agrandir et renover l'arena", 'Agrandir et renover la cuisine du Gretna Prairie Centre', "Agrandir l'arena Ste. Agathe Centennial a Ste. Agathe", "Agrandir l'edifice pour les activites de recyclage du papier", "Agrandir l'etang de patinage et ameliorer l'aire de jeux pour enfants", "Agrandir l'usine de fabrication PhiBer", "Agrandir la cuisine du Centre communautaire de Cook's Creek a Dugald", 'Agrandir la patinoire exterieure et construire un abri leger', "Agrandir la piste Grand Trunk au parc Beaudry d'Headingley", 'Agrandir la piste de curling et la salle de quilles', "Agrandir la salle d'escalade de Boulders", 'Agrandir le Pipe Flow Technology Centre pour traiter les matieres petrolieres et gazieres volatiles', 'Agrandir le Regina City Square', 'Agrandir le Sportsplex Adidas a Penticton', "Agrandir le batiment d'entretien de l'aire des jets d'eau au parc Hespeler de Niverville", 'Agrandir le centre communautaire Hamilton', 'Agrandir le centre communautaire de Linden Woods', "Agrandir le centre d'activites des aines de 55 ans et plus Juan de Fuca", "Agrandir le centre d'activites physiques du district de Kent", 'Agrandir le centre de loisirs Ladner', 'Agrandir le centre de sante et de mise en forme du YWCA de Vancouver', 'Agrandir le champ de tir municipal et ameliorer le couloir de tir couvert', "Agrandir le club communautaire d'Anola", "Agrandir le hangar a bateaux d'Elk Lake", "Agrandir le parc de planche a roulettes d'Ucluelet", 'Agrandir le parc recreatif multifonctionnel', 'Agrandir le reseau de sentiers du parc Rotary de Whitecourt', 'Agrandir le terrain de camping et ameliorer les equipements au parc communautaire Zama', 'Agrandir le terrain de camping, renover les toilettes et les douches, et moderniser le systeme electrique', "Agrandissement de l'aeroport de Cranbrook", "Agrandissement du Cedar City Museum et du centre d'accueil des visiteurs", 'Agrandissement du Family Y de Kelowna', "Agrandissement du centre de tennis de l'Universite de la Colombie-Britannique", "Aide pour les couts d'exploitation d'un bureau de liaison de l'industrie de la prospection de diamants", 'Aider Junior Achievement BC dans la creation de nouvelles campagnes de promotion', "Aider SUCCESS dans ses efforts pour faciliter l'acces des ex portateurs aux marches asiatiques", 'Aider TRLabs a mettre en oeuvre une nouvelle strategie de commercialisation de la technologie', "Aider a completer les renovations a l'arena de Boyle", 'Aider a la construction de deux structures de terrain de jeux', "Aider a la creation d'un programme de formation professionnelle en sciences minerales pour le Nord", "Aider a la realisation du deuxieme volet de l'initiative Selling Winnipeg to the World", 'Aider a la remise en etat du bassin de retention des eaux pluviales de Westwinds', 'Aider a la renovation et au reamenagement du parc Nisku', "Aider a regler les couts d'obtention d'un agrement du Conseil canadien des normes", "Aider au developpement d'une grappe d'entreprises specialisees dans la fabrication de composites avances au Manitoba", "Aider l'industrie de l'aerospatiale de l'Ouest canadien a acceder aux chaines d'approvisionnement mondiales", 'Aider les collectivites forestieres dans le cadre du Hazard Reduction and Forest Health Program', 'Aider les entrepreneurs a obtenir du capital de risque provenant de sources privees.', "Aider les entreprises du secteur de l'energie propre a explorer des possibilites commerciales", 'Aider les manufacturiers a obtenir une accreditation du Conseil canadien des normes', 'Aider les pecheurs et les piegeurs qui ont subi des dommages attribuables aux inondations', 'Aider les petites et moyennes entreprises a obtenir du capital du croissance du secteur prive', 'Aider les societes minieres de la Saskatchewan a rester productives', "Ajout de vehicules sous-marins autonomes et  d'un reseau acoustique (5 noeuds) au banc d'essai des technologies oceaniques", "Ajouter des vestiaires, renover la salle de rangement de la zamboni, changer l'eclairage et isoler le plafond", 'Ajouter un vestiaire et amenager des toilettes adaptees aux fauteuils roulants', "Allonger les sentiers de l'aire recreative de Pidherny a Prince George", "Allouer un financement d'exploitation au Centre canadien de rayonnement synchrotron", "Amelioration d'une installation de resonance magnetique nucleaire", 'Amelioration de quatre terrains de sports au Centre de soccer Subway', 'Amelioration des initiatives de marketing et des services bilingues pour les visiteurs', 'Amelioration du sentier du Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Amelioration et commercialisation des sentiers recreatifs existants', "Ameliorations au centre de formation dans les metiers de Kitimat pour la prestation de programmes dans le secteur de l'energie", 'Ameliorations au parc Glenmore (terrain Ed Anderson) et au terrain de sports Rick Genest', 'Ameliorations au site du terrain de camping du Stampede', 'Ameliorations au terrain de camping et amenagement de nouveaux emplacements', 'Ameliorations au terrain de sports des Premieres nations entant que projet de celebration du centenaire', "Ameliorations aux patinoires, remplacement des clotures et construction d'un batiment d'entretien", "Ameliorer 2 kilometres de sentiers et reduire les risques de feux de friche par l'elimination des debris", 'Ameliorer et agrandir le Cedar Heights Community Centre de Blind Bay', 'Ameliorer et agrandir le camp pour les jeunes de Nordegg', 'Ameliorer et completer les principaux liens du reseau de sentiers', 'Ameliorer et elargir la formation mobile et sur place du Aboriginal Gateway Training Centre', 'Ameliorer et remettre en etat le Fraser River Heritage Park de MIssion', "Ameliorer l'Agriplex de Winfield", "Ameliorer l'acces a une formation professionnelle pour les femmes dans l'industrie de la construction", "Ameliorer l'acces au Creekside Community Park a Fruitvale", "Ameliorer l'acces au batiment ou sont offerts des cours de formation en francais", "Ameliorer l'acces au capital pour les entrepreneurs ruraux et les PME", "Ameliorer l'acces au centre communautaire et a la bibliotheque de Valhalla", "Ameliorer l'acces des travailleurs qualifies a l'industrie en achetant des simulateurs d'equipement lourd", "Ameliorer l'acces en fauteuil roulant a l'arena et remplacer la plomberie, les portes et les revetements de sol", "Ameliorer l'accessibilite a la cantine de la filiale no 298 des anciens combattants des Forces armees, maritimes et aeriennes", "Ameliorer l'accessibilite du Centre communautaire Silver Springs a Calgary", "Ameliorer l'accessibilite du Delta Sport Development Centre", "Ameliorer l'accessibilite du centre aquatique, des parcs et du centre pour personnes agees de Kitimat", "Ameliorer l'accessibilite du centre de loisirs de Logan Lake", "Ameliorer l'aeroparc regional de Hope et quatre autres parcs regionaux", "Ameliorer l'aeroport regional Trail", "Ameliorer l'aire d'accueil et le systeme d'eclairage au centre de loisirs Strathcona Gardens", "Ameliorer l'aire de jeu du stade Hammond de Maple Ridge", "Ameliorer l'arena Alexandra de Leduc", "Ameliorer l'arena Bill Thomson de Hinton", "Ameliorer l'arena East Calgary Twin de Calgary", "Ameliorer l'arena Garson", "Ameliorer l'arena Max McLean de Camrose", "Ameliorer l'arena Oceanside Place a Parksville", "Ameliorer l'arena d'Evansburg", "Ameliorer l'arena de Kaslo", "Ameliorer l'arena de Saint-Malo", "Ameliorer l'arena de curling de Coaldale, en Alberta", "Ameliorer l'arena de la municipalite de Dinsmore", "Ameliorer l'arena de la municipalite de Kindersley", "Ameliorer l'arena de la municipalite de Rouleau", "Ameliorer l'arena et la grange de la Fort Macleod Agricultural Society", "Ameliorer l'arena et le terrain de jeux a Redcliff", "Ameliorer l'eclairage dans le centre des congres TELUS de Calgary", "Ameliorer l'efficacite energetique de l'arena de St. Walburg", "Ameliorer l'efficacite energetique du Vibank Community Heritage Centre", "Ameliorer l'efficacite energetique du centre de developpement de l'enfant de Quesnel", "Ameliorer l'efficacite energetique et l'accessibilite de la Palliser Regional Library", "Ameliorer l'efficacite energetique et l'accessibilite du camp dans le hameau de Arlington Beach", "Ameliorer l'entree et le refroidisseur de l'arena de la municipalite de Frontier", "Ameliorer l'equipement de jeu de la garderie communautaire de Canmore", "Ameliorer l'espace de loisir du lac Chickakoo du comte de Parkland", "Ameliorer l'infrastructure du camp He Ho Ha a Seba Beach", "Ameliorer l'infrastructure du savoir de 4D Labs pour stimuler la R-D appliquee et la commercialisation", "Ameliorer l'infrastructure du terrain de sports", "Ameliorer l'installation recreative multifonctionnelle", "Ameliorer l'interieur du batiment de la Legion a Winfield", "Ameliorer l'interieur du centre culturel et recreatif du quartier East End de Winnipeg", "Ameliorer l'isolation de la piste de curling et faciliter l'acces en fauteuil roulant aux toilettes de l'arena", 'Ameliorer la batiment du Pincher Creek Curling Club', "Ameliorer la bibliotheque d'Ocean Park a Surrey", 'Ameliorer la bibliotheque de Cloverdale', 'Ameliorer la bibliotheque publique de Pender Island', 'Ameliorer la bibliotheque publique de Spruce Grove', 'Ameliorer la bibliotheque publique de Stettler et de son stationnement', "Ameliorer la capture de mouvement stereoscopique en 3D et l'equipement auxiliaire et ameliorer l'acces pour l'industrie", 'Ameliorer la caserne de pompiers de Teepee Creek', 'Ameliorer la caserne de pompiers de la municipalite rurale de  Ponass Lake no 367', 'Ameliorer la competitivite du secteur des maisons en rondins et a ossature en bois pour favoriser la croissance du marche', 'Ameliorer la croissance de la foret vierge et faciliter le deplacement de la faune en enlevant les debris', 'Ameliorer la cuisine communautaire de Vanderhoof', 'Ameliorer la digue du port de Lake Country', "Ameliorer la formation de conducteur d'equipement lourd pour les Autochtones dans le Nord de l'Alberta", 'Ameliorer la gestion energetique et des structures au centre communautaire Steveston', 'Ameliorer la jetee de White Rock', 'Ameliorer la maison des jeunes de Cochrane', 'Ameliorer la passerelle de la digue a Ogden Point', 'Ameliorer la patinoire', 'Ameliorer la patinoire du Gibsons &amp; Area Community Centre', 'Ameliorer la patinoire exterieure', 'Ameliorer la piscine Alexandra de Leduc', 'Ameliorer la piscine St. James Assiniboia Centennial Pool', 'Ameliorer la piscine de Minton', "Ameliorer la piscine de la municipalite d'Unity", 'Ameliorer la piscine exterieure de Stony Plain', "Ameliorer la piste communautaire de l'ecole secondaire Correlieu de Quesnel", 'Ameliorer la piste de course exterieure et les terrains de football et de soccer', 'Ameliorer la piste de curling et la patinoire de hockey de Mallaig', 'Ameliorer la piste du stade Mercer', 'Ameliorer la place Hudson de Churchill', 'Ameliorer la plage et le terrain de jeux du village touristique de Thode', 'Ameliorer la productivite et la competitivite des petites et moyennes entreprises', "Ameliorer la recherche dans l'extraction et le traitement des derives de l'industrie des sables bitumineux", "Ameliorer la route d'acces, les douches, la buanderie et le terrain de camping du Lake Charron Regional Park", "Ameliorer la salle communautaire, l'ecole et le parc Kingfisher d'Enderby", 'Ameliorer la salle de concert centenaire P.W. Enns, y compris les systemes de chauffage et de climatisation', 'Ameliorer la salle de formation de la Croix-Rouge a Kelowna', "Ameliorer la securite de l'approvisionnement en eau a Port Alice", "Ameliorer la securite des automobilistes par le retrait d'arbres dangereux le long de l'autoroute 37", "Ameliorer la securite des automobilistes par le retrait d'arbres le long d'un troncon de route de 143 kilometres", 'Ameliorer la securite des automobilistes par le retrait des arbres dangereux', "Ameliorer la securite des automobilistes sur un troncon d'autoroute de 90 kilometres en enlevant les debris", "Ameliorer la securite et l'entretien du sentier historique Yukon Telegraph", "Ameliorer la securite et l'usage de sentiers communautaires en enlevant les debris", "Ameliorer la securite, l'entreposage, le terrain de jeu et les ventilateurs d'extraction du Red River Community Centre", "Ameliorer la station d'epuration des eaux  et le centre communautaire de la Tl'azt'en Nation a Tachie", "Ameliorer la station d'epuration des eaux de la municipalite de Neudorf", "Ameliorer la structure de jeux a l'ecole Victor H. L. Wyatt", 'Ameliorer la succursale du centre-ville de la Bibliotheque publique de Red Deer', "Ameliorer la voie de tramway situe sur le pont en contre-haut d'Edmonton", 'Ameliorer la zone de ski de randonnee Hankin-Evelyn', 'Ameliorer le Alliance Community Multiplex', 'Ameliorer le Bold Centre de Lac La Biche', 'Ameliorer le Calgary Jewish Centre', 'Ameliorer le Cardel Place de Calgary', "Ameliorer le Centre des sciences de l'ITCB pour favoriser la recherche-developpement appliquee et les produits commercialises", 'Ameliorer le Charters River Salmon Interpretive Centre de Sooke', 'Ameliorer le Chinese Cultural Centre of Greater Vancouver', 'Ameliorer le Credit Union iPlex a Swift Current', 'Ameliorer le Crescent Heights Community Hall de Calgary', "Ameliorer le D.A. Mackenzie Aquatic Centre de la municipalite d'Esterhazy", 'Ameliorer le Fort Heritage Precinct a Fort Saskatchewan', 'Ameliorer le Jasper Park Community Centre a Edmonton', "Ameliorer le Musee de l'aerospatiale de Calgary", "Ameliorer le Northgate Lions Seniors Recreation Centre d'Edmonton", "Ameliorer le Pedway Mini Park d'Edmonton", "Ameliorer le Rio Terrace Community Centre d'Edmonton", 'Ameliorer le Robin Hood Learning Centre de Sherwood Park', 'Ameliorer le Seymour River Hatchery and Education Centre de North Vancouver', 'Ameliorer le Thorncliffe Greenview Community Centre de Calgary', 'Ameliorer le Westview-Westwood Community Park de Fort McMurray', 'Ameliorer le Windermere Community Hall', 'Ameliorer le YMCA Eau Claire de Calgary', 'Ameliorer le YMCA de la ville de Regina', 'Ameliorer le YMCA familial a Kelowna', 'Ameliorer le bureau du conseil de la bande Ehattesaht', "Ameliorer le centre aquatique, l'arena et les terrains de tennis de Revelstoke", 'Ameliorer le centre communautaire Falconridge/Castleridge de Calgary', 'Ameliorer le centre communautaire Strathcona Christie Aspen de Calgary', 'Ameliorer le centre communautaire Tappen', 'Ameliorer le centre communautaire White Valley de Lumby', 'Ameliorer le centre communautaire coreen de Vancouver', "Ameliorer le centre communautaire d'Ashcroft", "Ameliorer le centre communautaire d'Eckville", 'Ameliorer le centre communautaire de Claresholm', 'Ameliorer le centre communautaire de Garden City', 'Ameliorer le centre communautaire de Huntington Hills a Calgary', 'Ameliorer le centre communautaire de Salmo Valley', 'Ameliorer le centre communautaire de St. Lina', 'Ameliorer le centre communautaire de Tumbler Ridge', "Ameliorer le centre communautaire de la Premiere Nation Beardy's et Okemasis", 'Ameliorer le centre communautaire de la municipalite de Davidson', 'Ameliorer le centre communautaire et la bibliotheque Guildford de Surrey', "Ameliorer le centre communautaire, l'arena et le centre de curling de Lomond", 'Ameliorer le centre communautaire, le centre de curling et le terrain de camping de Madden', 'Ameliorer le centre de curling de Carlyle', 'Ameliorer le centre de curling de la municipalite de Carrot River', 'Ameliorer le centre de formation Royal Canadian Marine Search and Rescue a Sooke', 'Ameliorer le centre de loisirs de Lillooet et du district', 'Ameliorer le centre de loisirs de Nisku', 'Ameliorer le centre recreatif Moyer a Josephburg, en Alberta', 'Ameliorer le centre recreatif de Beaumont', 'Ameliorer le centre recreatif de Salmon Arm', 'Ameliorer le champ de tir et les sentiers du biathlon afin de repondre aux normes de competition internationales', 'Ameliorer le commerce et les investissements dans la region de Prince George et la Porte du Pacifique Nord', 'Ameliorer le corridor recreatif de Gellatly Bay', 'Ameliorer le gymnase et le terrain de baseball de la bande indienne de Willams Lake', 'Ameliorer le lieu historique Beaver Lodge Forests Lands a Campbell River', 'Ameliorer le parc Bayview de White Rock', 'Ameliorer le parc Centennial de Campbell River', 'Ameliorer le parc Gilmore de Sherwood Park', "Ameliorer le parc Milestone d'Alberta Beach", 'Ameliorer le parc Strathcona Island de Medicine Hat', 'Ameliorer le parc Tillicum Beach', 'Ameliorer le parc Willis Road de West St. Paul', 'Ameliorer le parc communautaire Moore', "Ameliorer le parc communautaire du village d'Elbow", "Ameliorer le parc d'athletisme McLeod de Langley", 'Ameliorer le parc de la Avonmore Community League', 'Ameliorer le parc de loisirs de Cache Creek', 'Ameliorer le parc du village touristique de Saskatchewan Beach', 'Ameliorer le parc en installant un centre de conditionnement physique en plein air et des trottoirs a Parksville', 'Ameliorer le parc et le centre recreatif de New Bothwell', 'Ameliorer le parc et le centre recreatif de la Laurier Heights Community League a Edmonton', 'Ameliorer le parc recreatif cotier de Goose Spit', 'Ameliorer le parcours de sante du Cowichan Sportsplex de Duncan', 'Ameliorer le park Elgin de la ville de Moose Jaw', "Ameliorer le pavillon agricole d'Innisfail", 'Ameliorer le pavillon du club a Williams Lake', 'Ameliorer le quai Beacon a Sidney', 'Ameliorer le rendement energetique du centre aquatique de Fernie', 'Ameliorer le reseau de sentiers de la vallee de la riviere Wakamow', 'Ameliorer le sentier Bridge Creek de 100 Mile House', "Ameliorer le sentier par la construction d'un trottoir en bois et le remplacement d'un pont en rondins", 'Ameliorer le sentier polyvalent de Tofino', 'Ameliorer le service sans fil des bibliotheques publiques et des centres recreatifs de Richmond', "Ameliorer le stade Thunderbird de l'UCB a Vancouver", 'Ameliorer le stade Westhills a Langford', "Ameliorer le systeme d'eclairage au centre aquatique de West Vancouver", "Ameliorer le systeme d'eclairage du Quesnel and District Museum and Archives", 'Ameliorer le systeme de CVCA du British Columbia Centre for Ability a Vancouver', "Ameliorer le systeme de chauffage de l'arena", 'Ameliorer le systeme de chauffage et de climatisation du centre communautaire de Snow Lake', "Ameliorer le systeme de filtration de l'eau dans la municipalite de Stoughton", "Ameliorer le systeme de protection contre l'incendie du Panorama Recreation Centre de North Saanich", "Ameliorer le systeme de refroidissement et remplacer le refroidisseur pour la production de glace a l'arena Igloo a Bowden", 'Ameliorer le terrain Harold Wright a Vancouver', 'Ameliorer le terrain de baseball Blundell a Richmond', "Ameliorer le terrain de baseball des Giants d'Elmwood a Winnipeg", 'Ameliorer le terrain de camping Gas City a Medicine Hat', "Ameliorer le terrain de camping du centre 4-H de l'Alberta a Westerose", 'Ameliorer le terrain de jeu du parc Rotary a Duncan', 'Ameliorer le terrain de jeux Majestic Park de Sannich', "Ameliorer le terrain de jeux a l'ecole Jules Quesnel", 'Ameliorer le terrain de jeux communautaire et les terrains de sport de la municipalite de Kenaston', 'Ameliorer le terrain de jeux de la municipalite de Star City', "Ameliorer le terrain de jeux par l'ajout d'une nouvelle structure de jeux", 'Ameliorer le terrain de sport ainsi que la piste de marche et de jogging', 'Ameliorer le terrains de jeux du parc John Lawson de West Vancouver', 'Ameliorer le toit du centre de curling de la municipalite de Big River', "Ameliorer le toit et l'equipement de refrigeration du Charleswood Curling Club", "Ameliorer le toit, le plafond at le systeme d'eclairage de la Legion royale du Canada", 'Ameliorer les activites de marketing et de soutien des ventes de Signalink Technologies Inc.', "Ameliorer les aires de jeux pour enfants d'age prescolaire dans la region de D</t>
         </is>
@@ -788,18 +829,26 @@
       <c r="P6" t="n">
         <v>7</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>10791</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>11</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['10', '300', '36', '400', '44', '480', '500', '580', '600', '610', '650']</t>
         </is>
@@ -858,18 +907,26 @@
       <c r="P7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>9/30/2011</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>7/20/2015</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>33120</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>653</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['1/01/2012', '1/02/2007', '1/02/2015', '1/04/2011', '1/05/2006', '1/05/2010', '1/06/2006', '1/07/2008', '1/07/2011', '1/08/2008', '1/09/2006', '1/09/2007', '1/09/2012', '1/09/2013', '1/10/2006', '1/11/2010', '1/12/2006', '1/12/2009', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2011', '1/13/2012', '1/13/2014', '1/14/2008', '1/14/2013', '1/14/2014', '1/15/2008', '1/15/2010', '1/15/2013', '1/16/2006', '1/16/2008', '1/16/2015', '1/17/2006', '1/17/2008', '1/17/2013', '1/18/2008', '1/18/2010', '1/19/2006', '1/19/2010', '1/19/2012', '1/20/2006', '1/20/2010', '1/20/2012', '1/21/2010', '1/21/2013', '1/22/2009', '1/22/2010', '1/22/2015', '1/23/2011', '1/24/2007', '1/24/2008', '1/24/2013', '1/25/2010', '1/26/2007', '1/26/2009', '1/27/2006', '1/28/2008', '1/28/2009', '1/28/2010', '1/28/2011', '1/29/2008', '1/29/2009', '1/29/2010', '1/29/2012', '1/29/2013', '1/30/2008', '1/30/2014', '1/31/2008', '1/31/2011', '1/31/2012', '10/01/2009', '10/01/2012', '10/02/2007', '10/02/2009', '10/02/2012', '10/03/2006', '10/04/2010', '10/04/2011', '10/04/2012', '10/04/2014', '10/05/2007', '10/05/2009', '10/05/2010', '10/06/2009', '10/07/2010', '10/08/2009', '10/08/2013', '10/09/2007', '10/09/2009', '10/09/2014', '10/12/2012', '10/13/2009', '10/15/2007', '10/16/2007', '10/17/2005', '10/17/2012', '10/17/2013', '10/18/2006', '10/18/2012', '10/19/2007', '10/19/2009', '10/20/2009', '10/20/2014', '10/22/2009', '10/22/2010', '10/23/2014', '10/25/2011', '10/26/2006', '10/26/2009', '10/27/2009', '10/27/2014', '10/28/2009', '10/28/2012', '10/28/2014', '10/29/2007', '10/29/2009', '10/29/2012', '10/31/2006', '10/31/2011', '10/31/2012', '11/01/2010', '11/02/2009', '11/03/2005', '11/03/2009', '11/04/2009', '11/04/2013', '11/05/2007', '11/05/2009', '11/05/2010', '11/05/2012', '11/05/2013', '11/06/2009', '11/06/2013', '11/07/2007', '11/07/2012', '11/07/2013', '11/08/2011', '11/08/2012', '11/09/2007', '11/09/2012', '11/10/2011', '11/13/2009', '11/14/2007', '11/15/2007', '11/15/2009', '11/15/2010', '11/15/2012', '11/16/2009', '11/16/2012', '11/17/2005', '11/17/2009', '11/18/2009', '11/19/2007', '11/19/2009', '11/20/2009', '11/20/2010', '11/21/2008', '11/22/2010', '11/23/2006', '11/23/2009', '11/23/2010', '11/23/2011', '11/24/2005', '11/24/2006', '11/24/2009', '11/24/2010', '11/25/2005', '11/25/2006', '11/25/2011', '11/26/2007', '11/26/2009', '11/26/2013', '11/27/2008', '11/28/2005', '11/28/2007', '11/28/2009', '11/28/2012', '11/28/2013', '11/29/2009', '11/29/2012', '12/01/2009', '12/01/2011', '12/02/2005', '12/02/2009', '12/02/2010', '12/03/2009', '12/03/2012', '12/04/2009', '12/05/2006', '12/05/2012', '12/05/2014', '12/06/2012', '12/07/2009', '12/07/2011', '12/08/2009', '12/09/2005', '12/09/2010', '12/10/2009', '12/10/2012', '12/11/2006', '12/11/2011', '12/12/2008', '12/12/2012', '12/12/2013', '12/13/2007', '12/13/2010', '12/14/2011', '12/15/2006', '12/15/2009', '12/15/2010', '12/15/2011', '12/16/2010', '12/16/2013', '12/17/2007', '12/17/2009', '12/18/2006', '12/18/2007', '12/19/2005', '12/19/2012', '12/21/2007', '12/21/2009', '12/21/2011', '12/22/2009', '12/23/2005', '12/27/2007', '12/28/2007', '12/29/2014', '12/30/2005', '2/01/2007', '2/01/2010', '2/01/2012', '2/02/2010', '2/03/2006', '2/03/2009', '2/03/2011', '2/04/2008', '2/05/2008', '2/05/2010', '2/06/2007', '2/06/2014', '2/07/2008', '2/07/2009', '2/07/2011', '2/08/2007', '2/08/2008', '2/08/2013', '2/09/2006', '2/09/2007', '2/09/2009', '2/09/2010', '2/09/2011', '2/09/2012', '2/10/2014', '2/11/2008', '2/11/2009', '2/12/2008', '2/13/2006', '2/13/2007', '2/14/2008', '2/14/2013', '2/15/2008', '2/15/2013', '2/16/2010', '2/16/2011', '2/16/2015', '2/17/2006', '2/18/2008', '2/18/2013', '2/20/2006', '2/20/2013', '2/21/2006', '2/21/2011', '2/21/2012', '2/21/2013', '2/22/2006', '2/22/2012', '2/22/2013', '2/23/2009', '2/24/2009', '2/24/2010', '2/24/2015', '2/25/2010', '2/25/2011', '2/25/2013', '2/25/2014', '2/26/2014', '2/27/2008', '2/28/2008', '2/28/2014', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2013', '3/02/2006', '3/02/2007', '3/02/2011', '3/02/2012', '3/03/2006', '3/03/2009', '3/03/2014', '3/04/2008', '3/04/2013', '3/04/2014', '3/05/2008', '3/05/2009', '3/05/2010', '3/05/2014', '3/05/2015', '3/06/2006', '3/06/2008', '3/06/2013', '3/06/2014', '3/07/2006', '3/07/2013', '3/08/2006', '3/08/2010', '3/08/2011', '3/08/2013', '3/09/2006', '3/09/2011', '3/10/2006', '3/10/2009', '3/10/2010', '3/10/2011', '3/10/2014', '3/10/2015', '3/11/2011', '3/11/2013', '3/12/2010', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2014', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2010', '3/14/2011', '3/14/2012', '3/15/2006', '3/15/2010', '3/15/2011', '3/15/2012', '3/16/2006', '3/16/2010', '3/16/2011', '3/17/2006', '3/17/2008', '3/17/2011', '3/18/2008', '3/18/2011', '3/18/2013', '3/19/2010', '3/20/2009', '3/21/2006', '3/21/2007', '3/21/2011', '3/22/2006', '3/22/2010', '3/22/2011', '3/23/2006', '3/23/2007', '3/23/2009', '3/23/2010', '3/23/2011', '3/24/2006', '3/24/2010', '3/24/2011', '3/24/2014', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/26/2008', '3/26/2010', '3/26/2012', '3/27/2006', '3/27/2008', '3/27/2009', '3/27/2011', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2010', '3/28/2011', '3/28/2012', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/29/2012', '3/30/2007', '3/30/2010', '3/30/2012', '3/31/2006', '3/31/2008', '4/01/2011', '4/02/2008', '4/03/2006', '4/04/2006', '4/05/2006', '4/08/2010', '4/09/2006', '4/09/2008', '4/09/2009', '4/10/2008', '4/11/2008', '4/11/2010', '4/13/2006', '4/14/2010', '4/15/2015', '4/16/2007', '4/16/2008', '4/16/2009', '4/17/2008', '4/18/2006', '4/20/2007', '4/20/2009', '4/20/2010', '4/21/2006', '4/23/2007', '4/23/2013', '4/24/2008', '4/24/2012', '4/24/2014', '4/26/2007', '4/26/2010', '4/28/2008', '4/28/2014', '4/28/2015', '4/29/2008', '4/29/2009', '4/30/2007', '4/30/2012', '5/03/2006', '5/03/2012', '5/04/2006', '5/04/2009', '5/06/2008', '5/07/2013', '5/07/2015', '5/08/2006', '5/09/2007', '5/10/2010', '5/10/2013', '5/11/2006', '5/11/2010', '5/12/2006', '5/12/2009', '5/13/2013', '5/13/2014', '5/14/2007', '5/14/2008', '5/14/2010', '5/14/2015', '5/15/2006', '5/15/2007', '5/15/2008', '5/15/2009', '5/15/2012', '5/16/2006', '5/16/2007', '5/17/2006', '5/19/2006', '5/19/2009', '5/19/2010', '5/20/2009', '5/21/2008', '5/21/2009', '5/24/2006', '5/24/2007', '5/25/2006', '5/25/2007', '5/26/2006', '5/27/2008', '5/27/2009', '5/27/2013', '5/28/2009', '5/28/2015', '5/29/2008', '5/29/2013', '5/29/2014', '5/30/2007', '5/30/2013', '5/31/2010', '6/02/2008', '6/02/2010', '6/02/2015', '6/04/2009', '6/05/2006', '6/05/2009', '6/06/2006', '6/06/2008', '6/07/2011', '6/08/2009', '6/09/2006', '6/09/2009', '6/13/2013', '6/14/2007', '6/16/2006', '6/16/2007', '6/16/2008', '6/17/2009', '6/17/2011', '6/18/2007', '6/19/2006', '6/19/2013', '6/19/2014', '6/21/2007', '6/21/2012', '6/22/2006', '6/22/2009', '6/23/2006', '6/24/2008', '6/25/2010', '6/26/2006', '6/26/2009', '6/28/2006', '6/28/2010', '6/29/2006', '6/29/2009', '6/30/2006', '6/30/2009', '7/02/2009', '7/03/2013', '7/04/2012', '7/05/2006', '7/05/2007', '7/05/2013', '7/06/2006', '7/07/2009', '7/08/2009', '7/08/2013', '7/09/2013', '7/10/2009', '7/11/2006', '7/12/2010', '7/12/2013', '7/13/2007', '7/14/2009', '7/15/2009', '7/15/2010', '7/15/2015', '7/16/2008', '7/16/2009', '7/17/2007', '7/17/2008', '7/17/2009', '7/17/2015', '7/18/2006', '7/18/2008', '7/19/2006', '7/19/2015', '7/20/2015', '7/21/2006', '7/21/2015', '7/22/2008', '7/22/2015', '7/23/2008', '7/23/2010', '7/23/2015', '7/24/2015', '7/25/2006', '7/25/2007', '7/26/2006', '7/26/2007', '7/26/2009', '7/26/2011', '7/27/2006', '7/28/2008', '7/28/2009', '7/29/2008', '7/29/2009', '7/29/2010', '7/30/2008', '7/30/2009', '7/31/2009', '8/01/2007', '8/01/2008', '8/02/2006', '8/03/2006', '8/03/2007', '8/03/2010', '8/03/2011', '8/04/2006', '8/04/2009', '8/06/2009', '8/07/2008', '8/07/2009', '8/08/2006', '8/09/2007', '8/10/2009', '8/12/2009', '8/12/2011', '8/13/2008', '8/14/2008', '8/16/2006', '8/17/2006', '8/19/2009', '8/21/2009', '8/23/2010', '8/27/2007', '8/27/2008', '8/27/2009', '8/27/2010', '8/28/2006', '8/29/2007', '8/29/2008', '8/30/2008', '8/30/2011', '8/31/2006', '8/31/2011', '9/02/2008', '9/02/2009', '9/03/2008', '9/04/2009', '9/05/2008', '9/08/2008', '9/08/2009', '9/09/2011', '9/10/2008', '9/10/2010', '9/11/2008', '9/11/2009', '9/12/2007', '9/12/2008', '9/13/2006', '9/13/2007', '9/17/2007', '9/17/2009', '9/17/2012', '9/18/2009', '9/18/2012', '9/19/2006', '9/19/2007', '9/19/2009', '9/19/2011', '9/20/2011', '9/21/2007', '9/22/2009', '9/23/2009', '9/23/2014', '9/25/2006', '9/26/2006', '9/27/2006', '9/28/2006', '9/28/2012', '9/29/2010', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -928,18 +985,26 @@
       <c r="P8" t="n">
         <v>10</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>9/30/2011</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>7/23/2015</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>33076</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>955</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['1/02/2013', '1/03/2006', '1/03/2013', '1/04/2010', '1/04/2012', '1/04/2013', '1/05/2006', '1/05/2007', '1/05/2010', '1/05/2011', '1/06/2006', '1/06/2010', '1/07/2008', '1/07/2010', '1/07/2011', '1/07/2013', '1/07/2015', '1/08/2008', '1/08/2010', '1/08/2013', '1/09/2006', '1/09/2007', '1/09/2010', '1/09/2013', '1/09/2015', '1/10/2008', '1/10/2011', '1/10/2012', '1/10/2013', '1/11/2008', '1/11/2010', '1/11/2011', '1/11/2013', '1/12/2006', '1/12/2010', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2015', '1/14/2010', '1/14/2011', '1/14/2013', '1/14/2015', '1/15/2008', '1/15/2010', '1/16/2013', '1/16/2014', '1/17/2006', '1/17/2008', '1/17/2012', '1/17/2013', '1/18/2006', '1/18/2008', '1/18/2010', '1/18/2012', '1/19/2006', '1/19/2010', '1/19/2011', '1/19/2012', '1/20/2010', '1/20/2011', '1/20/2014', '1/21/2008', '1/21/2010', '1/21/2011', '1/21/2013', '1/22/2008', '1/22/2010', '1/22/2013', '1/22/2014', '1/23/2006', '1/23/2008', '1/23/2013', '1/24/2008', '1/24/2014', '1/25/2006', '1/25/2008', '1/25/2010', '1/25/2011', '1/25/2013', '1/26/2004', '1/26/2006', '1/26/2009', '1/26/2010', '1/26/2015', '1/27/2006', '1/27/2010', '1/27/2011', '1/27/2012', '1/28/2008', '1/28/2010', '1/28/2013', '1/28/2014', '1/29/2006', '1/29/2008', '1/29/2010', '1/29/2013', '1/30/2006', '1/30/2008', '1/30/2012', '1/30/2013', '1/31/2006', '1/31/2008', '1/31/2012', '1/31/2013', '10/01/2007', '10/01/2008', '10/01/2009', '10/01/2012', '10/02/2008', '10/02/2009', '10/03/2007', '10/03/2008', '10/04/2006', '10/04/2011', '10/05/2009', '10/06/2009', '10/07/2008', '10/07/2009', '10/08/2008', '10/08/2009', '10/09/2008', '10/09/2009', '10/10/2006', '10/10/2012', '10/11/2006', '10/13/2006', '10/13/2009', '10/13/2011', '10/14/2008', '10/14/2009', '10/15/2009', '10/16/2009', '10/16/2012', '10/17/2007', '10/17/2011', '10/17/2012', '10/18/2011', '10/19/2009', '10/19/2010', '10/19/2011', '10/19/2012', '10/20/2006', '10/20/2009', '10/20/2011', '10/21/2009', '10/21/2013', '10/22/2007', '10/22/2009', '10/22/2010', '10/22/2012', '10/23/2006', '10/23/2009', '10/23/2012', '10/24/2003', '10/24/2012', '10/24/2013', '10/25/2012', '10/26/2009', '10/26/2012', '10/27/2009', '10/28/2009', '10/29/2007', '10/29/2009', '10/29/2010', '10/29/2012', '10/30/2009', '10/30/2012', '10/31/2012', '11/01/2012', '11/02/2009', '11/02/2011', '11/02/2012', '11/03/2009', '11/03/2010', '11/03/2012', '11/03/2014', '11/04/2009', '11/04/2014', '11/05/2008', '11/05/2009', '11/05/2012', '11/06/2009', '11/06/2012', '11/06/2014', '11/07/2007', '11/07/2012', '11/08/2012', '11/09/2006', '11/09/2007', '11/09/2009', '11/09/2010', '11/09/2012', '11/10/2009', '11/10/2014', '11/12/2009', '11/12/2010', '11/12/2012', '11/12/2014', '11/13/2009', '11/13/2012', '11/13/2014', '11/14/2012', '11/14/2014', '11/15/2010', '11/15/2012', '11/16/2007', '11/16/2009', '11/16/2010', '11/16/2012', '11/17/2005', '11/17/2009', '11/17/2010', '11/17/2012', '11/17/2014', '11/18/2009', '11/18/2014', '11/19/2007', '11/19/2009', '11/19/2012', '11/19/2014', '11/20/2007', '11/20/2009', '11/20/2012', '11/20/2014', '11/21/2012', '11/21/2014', '11/22/2009', '11/22/2012', '11/22/2013', '11/23/2006', '11/23/2009', '11/23/2012', '11/24/2006', '11/24/2009', '11/24/2011', '11/24/2014', '11/25/2005', '11/25/2009', '11/26/2009', '11/26/2010', '11/26/2012', '11/26/2013', '11/26/2014', '11/27/2006', '11/27/2007', '11/27/2009', '11/27/2012', '11/27/2014', '11/28/2012', '11/28/2014', '11/29/2007', '11/29/2012', '11/30/2006', '11/30/2007', '11/30/2009', '11/30/2012', '12/01/2009', '12/01/2011', '12/02/2008', '12/02/2009', '12/02/2014', '12/03/2007', '12/03/2009', '12/03/2012', '12/04/2007', '12/04/2009', '12/04/2012', '12/04/2014', '12/05/2006', '12/05/2007', '12/05/2009', '12/05/2011', '12/05/2012', '12/05/2013', '12/05/2014', '12/06/2006', '12/06/2010', '12/06/2011', '12/06/2012', '12/07/2009', '12/07/2011', '12/07/2012', '12/08/2006', '12/08/2009', '12/08/2010', '12/09/2009', '12/09/2014', '12/10/2009', '12/10/2010', '12/10/2014', '12/11/2009', '12/11/2012', '12/11/2014', '12/12/2012', '12/12/2013', '12/13/2012', '12/14/2009', '12/14/2011', '12/14/2012', '12/15/2009', '12/16/2009', '12/16/2011', '12/17/2009', '12/17/2012', '12/18/2009', '12/18/2012', '12/19/2006', '12/19/2011', '12/19/2012', '12/20/2007', '12/20/2010', '12/20/2012', '12/21/2007', '12/21/2009', '12/21/2012', '12/22/2009', '12/22/2010', '12/23/2008', '12/23/2009', '12/23/2010', '12/23/2011', '12/23/2013', '12/24/2009', '12/24/2012', '12/28/2009', '12/28/2012', '12/29/2009', '12/30/2009', '12/31/2012', '2/01/2006', '2/01/2010', '2/01/2012', '2/01/2013', '2/02/2006', '2/02/2010', '2/03/2006', '2/03/2007', '2/03/2010', '2/04/2010', '2/04/2013', '2/04/2014', '2/05/2008', '2/05/2009', '2/05/2010', '2/05/2013', '2/05/2014', '2/06/2008', '2/06/2009', '2/06/2012', '2/06/2014', '2/07/2006', '2/07/2008', '2/07/2011', '2/07/2013', '2/08/2006', '2/08/2008', '2/08/2010', '2/09/2010', '2/10/2009', '2/10/2010', '2/11/2008', '2/11/2009', '2/11/2010', '2/11/2011', '2/11/2013', '2/12/2008', '2/12/2009', '2/12/2010', '2/12/2013', '2/12/2014', '2/13/2007', '2/13/2008', '2/13/2012', '2/13/2013', '2/14/2007', '2/14/2008', '2/14/2011', '2/14/2012', '2/14/2013', '2/15/2008', '2/15/2010', '2/15/2013', '2/16/2010', '2/17/2009', '2/17/2010', '2/17/2011', '2/17/2012', '2/17/2014', '2/18/2008', '2/18/2010', '2/18/2013', '2/19/2009', '2/19/2010', '2/19/2013', '2/19/2014', '2/20/2006', '2/20/2008', '2/20/2009', '2/20/2013', '2/21/2006', '2/21/2013', '2/22/2008', '2/22/2010', '2/22/2011', '2/22/2013', '2/23/2007', '2/23/2009', '2/23/2010', '2/23/2011', '2/23/2012', '2/23/2013', '2/24/2006', '2/24/2009', '2/24/2010', '2/24/2011', '2/24/2012', '2/25/2008', '2/25/2011', '2/25/2013', '2/26/2008', '2/26/2013', '2/27/2008', '2/27/2009', '2/27/2013', '2/27/2014', '2/28/2007', '2/28/2011', '2/28/2012', '2/28/2013', '2/28/2014', '2/29/2008', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2011', '3/01/2012', '3/01/2013', '3/02/2006', '3/02/2010', '3/03/2006', '3/03/2008', '3/03/2009', '3/03/2010', '3/03/2013', '3/03/2014', '3/04/2011', '3/04/2013', '3/04/2014', '3/05/2009', '3/05/2010', '3/05/2012', '3/05/2013', '3/05/2014', '3/06/2006', '3/06/2008', '3/06/2009', '3/06/2012', '3/06/2013', '3/07/2006', '3/07/2008', '3/07/2013', '3/08/2007', '3/08/2010', '3/08/2013', '3/09/2006', '3/09/2007', '3/09/2009', '3/10/2006', '3/10/2008', '3/10/2009', '3/10/2011', '3/11/2011', '3/11/2013', '3/11/2014', '3/12/2007', '3/12/2009', '3/12/2013', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2013', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2011', '3/14/2012', '3/14/2013', '3/15/2006', '3/15/2011', '3/15/2013', '3/16/2006', '3/16/2007', '3/16/2009', '3/16/2010', '3/17/2006', '3/17/2008', '3/17/2009', '3/17/2014', '3/18/2009', '3/18/2013', '3/19/2008', '3/19/2009', '3/19/2010', '3/19/2012', '3/19/2013', '3/19/2014', '3/20/2006', '3/20/2013', '3/21/2006', '3/21/2011', '3/21/2013', '3/21/2014', '3/22/2006', '3/22/2010', '3/22/2011', '3/22/2013', '3/23/2006', '3/23/2009', '3/23/2012', '3/24/2006', '3/24/2010', '3/25/2008', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/25/2015', '3/26/2007', '3/26/2009', '3/26/2010', '3/26/2013', '3/27/2001', '3/27/2006', '3/27/2007', '3/27/2008', '3/27/2009', '3/27/2013', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2011', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/30/2006', '3/30/2007', '3/30/2009', '3/30/2011', '3/31/2006', '3/31/2008', '3/31/2009', '3/31/2010', '3/31/2014', '4/01/2006', '4/01/2008', '4/01/2009', '4/01/2011', '4/02/2007', '4/02/2009', '4/02/2013', '4/03/2006', '4/03/2009', '4/04/2006', '4/04/2008', '4/04/2013', '4/05/2006', '4/05/2013', '4/06/2006', '4/07/2006', '4/08/2008', '4/10/2006', '4/10/2008', '4/10/2012', '4/11/2006', '4/11/2008', '4/11/2014', '4/12/2006', '4/12/2010', '4/13/2006', '4/13/2010', '4/14/2006', '4/15/2008', '4/15/2013', '4/16/2008', '4/16/2009', '4/16/2012', '4/18/2006', '4/19/2006', '4/19/2010', '4/20/2006', '4/21/2006', '4/21/2008', '4/21/2010', '4/22/2008', '4/23/2008', '4/24/2006', '4/24/2007', '4/24/2008', '4/24/2009', '4/25/2008', '4/26/2007', '4/27/2006', '4/27/2007', '4/27/2009', '4/28/2006', '4/28/2008', '4/30/2008', '4/30/2009', '4/30/2010', '5/01/2006', '5/01/2008', '5/02/2006', '5/02/2008', '5/03/2007', '5/03/2011', '5/04/2006', '5/04/2007', '5/04/2010', '5/05/2009', '5/07/2007', '5/07/2009', '5/08/2009', '5/08/2013', '5/09/2013', '5/10/2006', '5/10/2007', '5/10/2010', '5/10/2012', '5/10/2013', '5/11/2006', '5/12/2006', '5/13/2008', '5/13/2009', '5/14/2007', '5/14/2008', '5/14/2010', '5/15/2006', '5/15/2008', '5/15/2009', '5/16/2006', '5/17/2006', '5/17/2010', '5/18/2012', '5/19/2006', '5/20/2008', '5/20/2009', '5/21/2009', '5/21/2015', '5/22/2009', '5/22/2015', '5/23/2006', '5/23/2008', '5/25/2010', '5/25/2015', '5/26/2006', '5/26/2010', '5/27/2009', '5/27/2015', '5/28/2007', '5/28/2009', '5/28/2014', '5/28/2015', '5/29/2007', '5/29/2008', '5/29/2009', '5/29/2013', '5/29/2015', '5/30/2007', '5/30/2008', '5/31/2006', '6/01/2009', '6/01/2015', '6/02/2008', '6/02/2009', '6/02/2014', '6/02/2015', '6/04/2007', '6/04/2008', '6/04/2009', '6/04/2010', '6/05/2013', '6/06/2006', '6/06/2012', '6/06/2015', '6/07/2007', '6/08/2009', '6/09/2008', '6/09/2010', '6/09/2015', '6/10/2009', '6/10/2015', '6/11/2008', '6/11/2009', '6/11/2015', '6/12/2006', '6/12/2014', '6/12/2015', '6/13/2014', '6/14/2006', '6/15/2007', '6/15/2009', '6/15/2015', '6/16/2006', '6/16/2015', '6/17/2009', '6/17/2010', '6/17/2015', '6/18/2009', '6/18/2014', '6/18/2015', '6/19/2006', '6/19/2009', '6/19/2013', '6/19/2014', '6/19/2015', '6/20/2006', '6/20/2014', '6/21/2006', '6/22/2009', '6/22/2015', '6/23/2014', '6/23/2015', '6/24/2009', '6/24/2015', '6/25/2009', '6/25/2014', '6/25/2015', '6/26/2008', '6/26/2009', '6/26/2014', '6/26/2015', '6/27/2008', '6/28/2006', '6/28/2013', '6/29/2006', '6/29/2009', '6/29/2015', '6/30/2009', '6/30/2014', '6/30/2015', '7/02/2009', '7/02/2013', '7/02/2015', '7/03/2008', '7/03/2009', '7/03/2014', '7/03/2015', '7/04/2006', '7/04/2007', '7/05/2006', '7/05/2007', '7/06/2006', '7/06/2009', '7/06/2011', '7/06/2015', '7/07/2006', '7/07/2009', '7/07/2015', '7/08/2008', '7/08/2009', '7/08/2015', '7/09/2007', '7/09/2009', '7/09/2015', '7/10/2006', '7/10/2009', '7/10/2015', '7/11/2006', '7/11/2007', '7/11/2013', '7/12/2010', '7/12/2012', '7/13/2009', '7/13/2015', '7/14/2006', '7/14/2009', '7/14/2015', '7/15/2009', '7/16/2007', '7/16/2009', '7/16/2013', '7/16/2015', '7/17/2006', '7/17/2007', '7/17/2009', '7/19/2006', '7/20/2006', '7/20/2009', '7/20/2015', '7/21/2009', '7/21/2015', '7/22/2008', '7/22/2009', '7/22/2015', '7/23/2007', '7/23/2009', '7/23/2015', '7/24/2006', '7/24/2007', '7/24/2015', '7/25/2006', '7/25/2007', '7/25/2008', '7/25/2013', '7/25/2015', '7/26/2006', '7/26/2007', '7/26/2015', '7/27/2006', '7/27/2007', '7/27/2009', '7/27/2015', '7/28/2007', '7/28/2008', '7/28/2014', '7/28/2015', '7/29/2009', '7/29/2010', '7/29/2015', '7/30/2007', '7/30/2009', '7/30/2015', '7/31/2006', '7/31/2008', '7/31/2009', '7/31/2015', '8/01/2006', '8/01/2008', '8/03/2007', '8/03/2010', '8/04/2009', '8/05/2005', '8/05/2008', '8/05/2009', '8/05/2010', '8/06/2013', '8/06/2014', '8/07/2009', '8/08/2006', '8/08/2008', '8/08/2013', '8/09/2006', '8/09/2007', '8/09/2010', '8/10/2009', '8/11/2008', '8/11/2009', '8/11/2011', '8/12/2009', '8/12/2013', '8/13/2007', '8/13/2008', '8/13/2009', '8/14/2007', '8/14/2008', '8/14/2009', '8/15/2006', '8/15/2008', '8/16/2007', '8/17/2006', '8/17/2007', '8/17/2009', '8/17/2010', '8/18/2007', '8/18/2008', '8/19/2009', '8/20/2007', '8/20/2008', '8/20/2009', '8/21/2009', '8/21/2014', '8/22/2007', '8/23/2006', '8/23/2010', '8/24/2009', '8/24/2015', '8/25/2006', '8/25/2008', '8/25/2009', '8/26/2009', '8/27/2004', '8/27/2008', '8/27/2009', '8/28/2007', '8/28/2008', '8/28/2009', '8/31/2006', '8/31/2009', '9/01/2009', '9/02/2008', '9/02/2009', '9/03/2008', '9/03/2009', '9/04/2008', '9/04/2009', '9/05/2007', '9/06/2006', '9/07/2006', '9/08/2008', '9/08/2009', '9/08/2011', '9/09/2008', '9/09/2009', '9/09/2011', '9/10/2008', '9/10/2009', '9/13/2006', '9/13/2007', '9/14/2006', '9/14/2007', '9/14/2009', '9/15/2009', '9/16/2008', '9/16/2009', '9/16/2011', '9/17/2008', '9/17/2009', '9/18/2008', '9/18/2009', '9/19/2008', '9/19/2009', '9/19/2011', '9/19/2014', '9/20/2007', '9/20/2011', '9/21/2006', '9/21/2009', '9/21/2012', '9/22/2008', '9/22/2009', '9/22/2011', '9/23/2008', '9/23/2009', '9/24/2008', '9/24/2009', '9/25/2007', '9/25/2008', '9/25/2009', '9/26/2006', '9/26/2007', '9/26/2011', '9/27/2006', '9/27/2010', '9/28/2009', '9/28/2011', '9/29/2008', '9/29/2009', '9/29/2010', '9/30/2008', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -998,18 +1063,26 @@
       <c r="P9" t="n">
         <v>10</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>933000</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>3702</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>17</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['0', '120500', '144479', '1539524', '19691991', '2000000', '2995433.03', '300000', '5000000', '520000', '560000', '600000', '6250000', '64860', '66500', '760659.4', '933000']</t>
         </is>
@@ -1068,18 +1141,26 @@
       <c r="P10" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
         <v>3626</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>6</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['0', '1000000', '15000000', '16500000', '4000000', '500000']</t>
         </is>
@@ -1138,18 +1219,26 @@
       <c r="P11" t="n">
         <v>10</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>999500</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
         <v>20494</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>2196</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['0', '100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '107333', '1078500', '1079574', '108000', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '125100', '125335', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '164794', '164839', '164991', '165000', '1650000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200440', '220158', '220174', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '225300', '225802', '225810', '226254', '226538', '226667', '227079', '227135', '227550', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315087', '31535', '315437', '31545', '31555', '31582', '316028', '31654', '316808', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '44250', '443000', '44500', '44509', '44640', '44723', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '47924', '479500', '48000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1208,18 +1297,26 @@
       <c r="P12" t="n">
         <v>10</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>949500</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>4000</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>72</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['0', '1', '100000', '1061500', '1072763', '1080564', '115006', '1173750', '1191779', '1200000', '1204785', '1215388', '125000', '1250000', '1251731', '1253534', '1268050', '1302400', '1330748', '1375000', '150000', '156225', '1600000', '1643710', '190000', '200000', '203608', '2200000', '220300', '2250000', '227000', '227750', '243640', '2452000', '25000', '250000', '2500000', '272350', '2772000', '2900000', '300000', '315000', '315500', '3168434', '330000', '331500', '3375000', '3500000', '364271', '376048', '396479', '401147', '4143000', '425000', '441000', '447500', '4625924', '468787.55', '479213', '480000', '496150', '500000', '514500', '552900', '625000', '670000', '725723', '750000', '888676', '90000', '920152', '949500']</t>
         </is>
@@ -1278,18 +1375,26 @@
       <c r="P13" t="n">
         <v>10</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>999500</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>294963</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
         <v>21032</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>2261</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>['100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '1061500', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '1072763', '107333', '1078500', '1079574', '108000', '1080564', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115006', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '1173750', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '1191779', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1204785', '120500', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215388', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '1250000', '125100', '1251731', '125335', '1253534', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '1268050', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '1302400', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '1330748', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '1375000', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144479', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '1539524', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156225', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '1643710', '164794', '164839', '164991', '165000', '1650000', '16500000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168301', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '19891991', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203608', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200000', '2200440', '220158', '220174', '220300', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '2250000', '225300', '225802', '225810', '226254', '226538', '226667', '227000', '227079', '227135', '227550', '227750', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243640', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '2452000', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '272350', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2772000', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '2900000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '2995433.03', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315000', '315087', '31535', '315437', '31545', '315500', '31555', '31582', '316028', '31654', '316808', '3168434', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '320956', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331500', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '3375000', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '364271', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '376048', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '396479', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '401147', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '4143000', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '425000', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '441000', '44250', '443000', '44500', '44509', '44640', '44723', '447500', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '4625924', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '468787.55', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '479213', '47924', '479500', '48000', '480000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '496150', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514500', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '552900', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '625000', '6250000', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '64860', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '725723', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '760659.4', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '888676', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '920152', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '933000', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '949500', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1348,18 +1453,26 @@
       <c r="P14" t="n">
         <v>10</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>991399</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>4848</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>214</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>['0', '10000', '100000', '1000000', '100854', '1016826', '103308', '104377', '105000', '108000', '109700', '110221', '11135002', '113165', '114302', '115000', '1150000', '116455', '117000', '118000', '11964', '12000', '120000', '122500', '12300', '123682', '13100', '132000', '133478', '133800', '134261', '1347755', '137080', '1372233', '1400000', '143800', '1457000', '1458500', '146921', '147490', '15000', '150000', '1500000', '15000000', '1515687', '1523526', '15500', '15724122', '160000', '1625000', '1643809', '167202', '169885', '1720000', '17673000', '17808689', '180000', '18414', '185106', '185208', '1874109', '189323', '191000', '192000', '19200000', '2000', '20000', '200000', '2000000', '201500', '202900', '20600', '21000', '212316', '21527', '217000', '219000', '22000', '22158000', '222000', '222500', '224000', '225000', '2264963', '2322000', '238000', '238704', '242004', '243087', '24500', '2463000', '248000', '2500', '25000', '250000', '257400', '2611843', '269090', '26952', '275000', '276000', '276135', '277188', '278945', '27980', '28000', '280568', '286579', '3000', '30000', '300000', '3000000', '309584', '318575', '32484151', '325100', '327000', '3350', '345000', '35000', '36090', '365000', '37994', '386000', '395748', '396564', '396625', '4000', '40000', '400000', '4000000', '401664', '40220', '405809', '408802', '409580', '42500', '44491', '45000', '45800', '46488', '470000', '473456', '47500', '480013', '481000', '483752', '484500', '4920000', '49334', '499143', '5000', '50000', '500000', '51137', '51179', '5200000', '52501', '5305351', '5400000', '54150', '54396', '54560', '55000', '55677', '57000', '5792623', '6000', '60000', '626563', '6300000', '637321', '642000', '64250', '65676', '66000', '660000', '6691', '684000', '68497', '700', '70000', '701865', '70250', '70516', '705448', '72055', '74545', '76880', '77232', '78000', '781492', '78500', '79000', '79925', '8000', '80000', '812565', '82101', '84464', '87530', '8964', '89720', '9000000', '9150', '93500', '93806000', '940490', '94100', '9441', '95000', '9600', '9750', '991399']</t>
         </is>
@@ -1418,18 +1531,26 @@
       <c r="P15" t="n">
         <v>10</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>999342</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>294963</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
         <v>22120</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>2801</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>['100000', '1000000', '1000106', '100021', '1001158', '100136', '1001472', '1001500', '100200', '1002827', '100288', '1003765', '100442', '100457', '100570', '100602', '1006039', '1006436', '100665', '1008066', '100839', '100897', '1010000', '101104', '101149', '1012547', '1013007', '1014060', '101546', '101600', '101618', '1018072', '101834', '101900', '102000', '1021256', '102180', '1022676', '102273', '1025000', '102711', '102851', '1029000', '102981', '103000', '103040', '103104', '1031073', '1033000', '103390', '1035012', '1035520', '1035554', '10359199', '103750', '1037865', '103987', '104024', '1041252', '1041593', '1041821', '104203', '1042374', '1043263', '1043612', '104500', '1045000', '10464585', '1049000', '1049959', '105070', '105147', '105155', '105400', '10556516', '1057928', '1058000', '105817', '106001', '1061358', '106330', '1064106', '106517', '106902', '106932', '1070462', '107175', '1072100', '1072400', '107454', '1075600', '107601', '10771500', '1078500', '1080500', '108106', '108112', '1081932', '108200', '108292', '1083058', '108543', '1086005', '108641', '108820', '1088385', '108918', '109150', '1091546', '1091865', '1094560', '109557', '1096200', '109656', '1096757', '1098349', '109850', '109870', '10988319', '1100000', '110005', '1100520', '110134', '110200', '1102092', '110221', '11022965', '110236', '1102958', '110332', '110558', '1105800', '110622', '110686', '110963', '1110371', '111050', '11155393', '111613', '1116300', '112000', '112024', '112065', '112182', '1123881', '1124581', '112557', '1126730', '112700', '1127600', '1128016', '112810', '1128386', '11300000', '113053', '1132240', '113547', '113644', '1136995', '113711', '113772', '1138169', '114000', '1140420', '114084', '114500', '1145000', '114551', '1145601', '114594', '114618', '114666', '114681', '1146832', '114739', '114745', '114775', '1148300', '114900', '1149268', '114976', '1150000', '115068', '1151803', '1152274', '115400', '115408', '1154132', '115565', '1156421', '115819', '115844', '115960', '116000', '11601000', '116041', '1164452', '116473000', '1166111', '116661', '116774', '116853', '1169076', '117000', '1172602', '117336', '1174000', '11740000', '117500', '1175282', '117625', '117645', '117844', '117900', '118000', '118086', '1181880', '1181927', '1182534', '1184263', '1185000', '118550', '1185512', '1185742', '118600', '118612', '119051', '119150', '1191594', '1193292', '1194623', '1195695', '1196200', '119633', '119676', '119689', '119763', '119798', '1198151', '1198516', '1199405', '120000', '1200000', '120096', '120200', '120347', '1203493', '120367', '1204679', '1205601', '1205779', '1205828', '1206125', '1206509', '1206942', '1207506', '1208588', '120963', '1209717', '1210450', '1210940', '1211995', '121200', '1213500', '121441', '121580', '121722', '121792', '121900', '1220081', '1220936', '1221513', '1221541', '122300', '1224640', '122500', '1226271', '1227193', '1227839', '122848', '1229000', '123000', '1232051', '1232563', '1232950', '123321', '123403', '1235909', '123663', '123688', '1237443', '123747', '123894', '124040', '1241000', '1241432', '1241790', '124200', '124216', '1245601', '1246380', '124670', '124723', '124738', '1247865', '124876', '124986', '125000', '1250000', '12500000', '1250012', '1250799', '1252487', '125323', '1253673', '125410', '1254595', '125500', '125547', '125600', '125619', '125864', '125925', '126168', '1262625', '1263200', '126333', '126403', '1264360', '1265409', '126741', '1268000', '1268190', '1268362', '126935', '1270952', '127341', '1273580', '1273839', '1274596', '1276003', '1278885', '1279129', '1279277', '127959', '128000', '1280180', '128136', '128204', '128281', '128568', '128646', '128700', '128747', '1289751', '1290000', '1290800', '1293022', '129588', '129714', '1299140', '1299284', '129934', '130000', '1300000', '1301124', '13025932', '1305499', '130706', '130779', '130780', '1308493', '130992', '131061', '1311111', '1311459', '131177', '1311842', '1314672', '131612', '131973', '1321074', '132284', '1323037', '1323388', '13239785', '1325102', '1326000', '132645', '133000', '1330000', '1330075', '1333304', '1333652.15', '1334819', '13366230', '1336955', '1337398', '1338381', '133863', '1338905', '133918', '134094', '1342000', '134277', '1342802', '1343864', '1345191', '134549', '134555', '13459282', '134694', '1347000', '1347543', '13486295', '134876', '135200', '135255', '135262', '1354083', '135446', '135473', '1355367', '135620', '13563155', '135803', '135864', '1358681', '136054', '136262', '1367453', '136777', '1368057', '1368771', '136879', '136909', '137132', '137380', '137402', '137490', '13761125', '137744', '13789695', '138054', '138200', '1382241', '138271', '138320', '138425', '1384362', '1385480', '138602', '138675', '1388951', '13891621', '1389172', '1389370', '138966', '1389888', '1390681', '139435', '1399161', '139992', '140000', '140000000', '1401258', '1403778', '140386', '140432', '141122', '141190', '141292', '141302', '1413573', '1414460', '141635', '142278', '1422874', '142304', '14232173', '142395', '142475', '1426273', '14282464', '1430456', '143154', '1431617', '1431639', '143203', '143250', '1432919', '1435000', '143505', '143550', '143565', '1438000', '143946', '1439611', '14428519', '144379', '1446104', '1447017', '144843', '145000', '145102', '145525', '145731.19', '1457500', '145820', '145902', '145976', '146081', '146134', '146422', '146466', '1466014', '146818', '146901', '1469288', '146974', '1470437', '147142000', '147306', '147513', '147580', '147592', '147692', '147747', '1477785', '1477975', '1480000', '1481364', '148137', '148206', '1489400', '149367', '1494028', '149530', '1497379', '1497622', '14980000', '149836', '1498581', '149951', '150000', '1500000', '15000000', '1502140', '1502702', '150337', '150367', '150443', '150485', '150506', '150568', '1505939', '150776', '151000', '1511007', '151339', '1518514', '1518837', '151965', '152040', '1520473', '152139', '152194', '152320', '1524216', '153000', '153321', '153341', '153435', '153823', '15400000', '154076', '154258', '1543000', '154463', '1546272', '154752', '1558500', '15588000', '156000', '1560000', '156007', '1561512', '156254', '156496', '15650000', '156511', '156594', '1569263', '156933', '1569702', '1571419', '1573553', '157848', '1580000', '158030', '158113', '158250', '158263', '1583347', '1586213', '158843', '1589000', '159000', '1590395', '1593439', '159653', '160000', '1600000', '1601181', '160190', '160371', '160398', '160600', '160676', '160732', '160740', '160808', '160845', '161000', '1610000', '161232', '161370', '161530', '1615455', '1620061', '1623051', '162322', '1624994', '1627333', '1627743', '1630200', '1631026', '16311600', '163161', '163182', '163313', '163381', '1634205', '163529', '16382756', '163857', '1639000', '164200', '1642184', '1642978', '164465', '1644933', '164839', '1648893', '165000', '165025', '165125', '165150', '1655047', '165521', '165607', '165624', '165672', '166370', '166390', '1664211', '166600', '1666583', '1667464', '1667500', '166937', '167168', '1672598', '167277', '167284', '167300', '167306', '167318', '1673250', '167544', '167564', '167674', '1677121', '167847', '167860', '168000', '1680486', '168084', '168167', '168208', '168300', '168591', '168610', '168700', '168970', '169547', '169629', '169634', '1696355', '169730', '169975', '1699994', '170000', '170043', '170192', '1705223', '170724', '171000', '171271', '171435', '171498', '171764', '172000', '1720508', '172099', '172351', '172600', '172670', '1728673', '173140', '173250', '1732738', '1735000', '173573', '173703', '173831', '174279', '174419', '1748199', '174927', '175000', '175139', '175200', '1752953', '175415', '1756306', '175710', '1758914', '1760000', '1760500', '176091', '176102', '176395', '176520', '176566', '1767092', '176738', '1769500', '1773313', '177534', '177544', '177551', '1777137', '1777352', '1778572', '177861', '178010', '1780905', '178257', '1784219', '1785520', '178572', '1787068', '178831', '1790397', '1790911', '179180', '179448', '179500', '1795383', '179867', '179928', '180000', '1801320', '180476', '180570', '180665', '181000', '1810000', '181226', '181424', '181533', '181624', '181635', '181700', '181920', '181997', '182001', '182018', '182047', '1821087', '182347', '182350', '1826704', '182871', '182888', '183200', '183208', '1836341', '1840308', '184126', '1848200', '1848948', '184908', '185060', '185077', '185200', '185300', '185313', '185366', '185533', '1855848', '185646', '186142', '1861800', '1863789', '186460', '186700', '186941', '187270', '1874937', '187815', '187827', '188096', '1885453', '189000', '18900000', '189330', '189426', '1896900', '189837', '1899000', '190000', '1900000', '190050', '190221', '1905000', '190850', '1910115', '191526', '191700', '192041', '1921415', '1921798', '192184', '1921986', '1923813', '192632', '192800', '1928750', '1930000', '193092', '193301', '193496', '1936791', '193719', '194083', '194100', '19451000', '194656', '194859', '195000', '195015', '195200', '195373', '1954177', '195547', '1957388', '195900', '196031', '196200', '196263', '196341', '1964404', '196900', '1969040', '1972000', '197319', '1978885', '198008', '198202', '1983441', '1983736', '198591', '198637', '1987182', '1987400', '198847', '19891991', '199116', '199167', '199280', '199376', '199470', '1994947', '199567', '199852', '199855', '199979', '200000', '2000000', '200079', '200123', '2001454', '200200', '200335', '200492', '200500', '2006650', '201214', '201412', '201429', '201451', '201557', '201768', '202272', '2025243', '202682', '202825', '203400', '2034392', '2034565', '2035000', '20360000', '203674', '203712', '2038635', '204000', '2040000', '204190', '204297', '204425', '204500', '204525', '204600', '2046768', '204795', '204835', '2048369', '205000', '2050468', '205154', '205474', '205513', '2057429', '206000', '206100', '2061000', '206523', '206806', '2070507', '2071781', '207453', '207713', '2083718', '2087500', '2093400', '210000', '2100000', '210023', '210551', '2109103', '211047', '2113477', '211409', '2115000', '211841', '2120000', '2121566', '2123000', '212537', '212550', '2129746', '213054', '2132582', '2138719', '214419', '214582', '214885', '2150552', '215384', '2155000', '2157563', '2161129', '216269', '216601', '2166307', '21666140', '2167608', '216820', '216901', '2169783', '2173000', '217425', '2174460', '2174700', '2175000', '217733', '218000', '218117', '218332000', '2184499', '219000', '219196', '2193912', '219413', '2194889', '219727', '219807', '2199855', '220000', '2200000', '2201917', '220981', '221092', '2212204', '221717', '222075', '22212766', '222386', '222435', '222469', '223062', '223069', '223358', '2236578', '223862', '224000', '224326', '2243479', '224814', '224955', '225000', '2250000', '225215', '225250', '2252512', '225485', '225846', '2259702', '225993', '2265000', '2268315', '2269206', '227070', '227165', '227811', '228000', '2280303', '228080', '228252', '228319', '228326', '228672', '228721', '2289853', '229204', '229267', '2300000', '2304318', '230597', '2306208', '230676', '230698', '231000', '231013', '231184', '231200', '231289', '231345', '231509', '231896', '232039', '23205720', '232135', '2321968', '232300', '232320', '232382', '232511', '232615', '233814', '2338430', '2340614', '2347500', '235000', '23515000', '235161', '235201', '2352014', '235231', '2353836', '23564813', '235751', '236075', '236167', '236288', '236400', '236500', '2367765', '2370347', '2370441', '2378516', '2382995', '2383558', '2385731', '238622', '238737', '239176', '239407', '239539', '2397148', '240000', '240200', '240247', '240359', '240661', '24092920', '2409570', '2411210', '2411218', '2411581', '241618', '242105', '242132', '242209', '242295', '2424000', '24266666', '242934', '243200', '243422', '2435449', '243597', '244262', '2447874', '2448430', '245343', '246253', '2465000', '246699', '246780', '246958', '246996', '247217', '247576', '247805', '248000', '248355', '2483957', '248666', '2487424', '249200', '249241', '249460', '249505', '249587', '249590', '249627', '249628', '249766', '249790', '249854', '249871', '249923', '2499701', '249980', '249987', '2499938', '249997', '250000', '2500000', '2501470', '250200', '250330', '250334', '2503462', '250670', '2507068', '2508000', '250976', '251275', '251300', '251864', '252600', '252688', '2528847', '253163', '2531637', '253405', '2534227', '2535000', '2540870', '254104', '254127', '254504', '254681', '255531', '2564500', '25653', '256858', '257183', '257230', '2574300', '258209', '258290', '258705', '258913', '2595000', '259921', '260000', '2600000', '260106', '2604800', '260869', '260947', '261130', '261544', '261688', '2629992', '263032', '263213', '263464', '2636000', '263702', '26422647', '2643060', '26452462', '264644', '2650000', '265276', '265300', '265536', '26600', '266000', '266241', '266368', '266458', '266604', '267000', '2677510', '26876008', '269121', '2693381', '269369', '269446', '269805', '269900', '2702089', '2702458', '2703496', '2706714', '2708404', '2709375', '271194', '271196', '271575', '272253', '272280', '2725000', '272592', '273235', '2732403', '2733636', '273482', '2735000', '274002', '274400', '274586', '274600', '2750000', '275015', '275303', '2756331', '2759442', '276128', '276182', '2766400', '276682', '276910', '277165', '277244', '277302', '277430', '27781', '277810', '277824', '27800', '278554', '279518', '279672', '27974705', '279900', '2800220', '280324', '2810634', '2812878', '2815000', '2817994', '28182000', '282141', '282253', '282450', '282692', '283015', '283165', '283258', '283385', '283567', '2836453', '283777', '2839000', '284000', '284062', '284306', '28436657', '284541', '2849286', '2850000', '285055', '285538', '285930', '286023', '286080', '2862955', '2867088', '286796', '286845', '287489', '2876931', '288000', '288147', '288354', '288500', '289550', '289652', '289879', '2905854', '290626', '290721', '290980', '291035', '29120', '291332', '291508', '291551', '2917760', '291832', '2919000', '292288', '292418', '292473', '2925000', '29254', '292542', '292966', '29309227', '293300', '293555', '2935700', '294500', '294525', '294963', '294983', '295000', '295131', '295174', '295192.75', '295321', '2955649', '295575', '295700', '295865', '296116', '2961992', '296316', '2964828', '296876', '296913', '297029', '297669', '2978050', '298152', '298443', '298586', '298622', '299029', '2991594', '299299', '299989', '2999981', '30000', '300000', '3000000', '30000000', '300083', '300200', '30030182', '300500', '300543', '300630', '300824', '300892', '301101', '301121', '301219', '301494', '301500', '3015512', '302000', '302483', '3025478', '303003', '303070', '303115', '303141', '3032830', '303704', '303751', '303790', '3039524', '303992', '304000', '304254', '305218', '305510', '305663', '305955', '3061593', '3062413', '306572', '306797', '307000', '3071399', '307274', '307517', '307627', '307653', '308155', '308455', '308493', '3085106', '308674', '308696', '308938', '3091531', '309274', '309285', '3093936', '309500', '309645', '309812', '309887', '309963', '310000', '310010', '310405', '311116', '3112685', '311430', '3117457', '312000', '312004', '312031', '312300', '312450', '3124595', '312489', '312500', '312768', '3129877', '313611.02', '313943', '31439', '315087', '315442', '31575166', '316028', '31654', '3171830', '3173251', '317475', '317483', '318000', '318198', '318957', '319143', '319145', '319735', '319963', '320000', '3200000', '320200', '3202000', '3204000', '320955', '320956', '322000', '322180', '322396', '32250', '3239000', '324080', '324645', '324741', '32500', '325042', '325200', '325261', '3255028', '326174', '326333', '326688', '327476', '327579', '328654', '3287420', '3287976', '3293954', '329401', '329673', '329875', '329939', '330000', '33000000', '3302699', '3303255', '330501', '330560', '330712', '330910', '330955', '331030', '331304', '331788', '331886', '3319132', '3324198', '332675', '332971', '333000', '333232', '333240', '333437', '333501', '333647', '333928', '334843', '33500', '335026', '3352053', '335824', '336251', '336545', '3371500', '3372000', '337669', '337802', '337910', '338150', '338487', '338583', '3386201', '338645', '3387500', '3389831', '339252', '339817', '340000', '3400000', '340200', '340386', '3406850', '340805', '340868', '340892', '341164', '341390', '343178', '343200', '34352.55', '344403', '344871', '3449446', '3449897', '345017', '345048', '345200', '345326', '3455075', '345539', '345882', '345955', '3460000', '346362', '3470000', '3471639', '347388', '347400', '347970', '3490129', '349275', '349314', '349726', '349846', '35000', '350000', '3500000', '35000000', '351038', '351215', '3516500', '351849', '352314', '353171', '3532016', '353906', '354515', '354550', '355096', '355498', '356222', '357200', '357605', '358133', '3584000', '3586000', '359042', '359241', '359500', '35995433.03', '3600000', '360110', '360200', '3603308', '3605000', '3607578', '361457', '36232', '3637747', '363835', '3645426', '365000', '365200', '365369', '3655463', '3662160', '366569', '3674000', '367600', '3677333', '36810302', '3683123', '3699000', '370000', '37084601', '371888', '3720000', '372018', '372356', '373269', '373500', '373750', '374500', '375000', '37600', '3768314', '376868', '377051', '3776748', '377680', '3778189', '378000', '378269', '378505', '379950', '380000', '3800000', '380078', '38009599', '381237', '3812549', '381720', '382000', '382423', '383283', '3833454', '383936', '384240', '384783', '387697', '387947', '3880663', '389000', '389050', '389101', '389648', '390000', '3900000', '390511', '3910000', '391614', '392414', '392506', '39398', '394164', '3942207', '394924', '395364', '3956105', '3962512', '3964460', '396479', '396886', '40000', '400000', '4000000', '400043', '4011744', '4016984', '401731', '401953', '40238', '4027563', '402789', '403307', '40444', '404970', '4050000', '405498', '4056000', '405616', '407283', '407501', '407540', '407640', '4078200', '408649', '40875', '4095000', '4095500', '410012', '410059', '411200', '412000', '4122362', '412813', '414185', '415069', '415200', '4161590', '416292', '417015', '417350', '419101', '4202051', '421165', '42128577', '4213116', '422477', '42296', '423984', '424000', '425500', '426284', '426828', '426867', '426950', '428083', '428289', '428862', '429200', '429419', '430000', '4306300', '4307058', '431000', '431196', '43193', '432263', '43335', '4338783', '4340100', '434399', '435074', '435115', '436000', '43609545', '436234', '4363901', '436578', '4366403', '436660', '436880', '4371650', '4374512', '437904', '438320', '438500', '4385731', '438720', '438833', '438964', '439562', '4400000', '4402659', '4405750', '440600', '441178', '4413376', '441638', '443651', '4437500', '4441355', '444784', '445000', '4454840', '4460916', '4464637', '446714', '44708', '447177', '447362', '447486', '448319', '449604', '4499484', '450000', '4500000', '4510302', '452097', '452486', '452713', '452977', '4539597', '454417', '455500', '456000', '457000', '457600', '4580597', '45843', '4584580', '458815', '459591', '459904', '459923', '46044', '460729', '4611026', '462217', '463364', '463710', '464650', '464845', '466318', '4667065', '467094', '467379', '4679695', '468065', '468159', '46820', '468750', '469000', '469337', '470000', '47186', '47192', '472247', '473191', '47393', '47412', '475000', '4750000', '475206', '475419', '475492', '475749', '476000', '4774246', '478000', '478605', '478962', '4790000', '4792149', '479776', '480000', '480135', '480200', '480327', '480339', '4806000', '480669', '481594', '481674', '482406', '483000', '483111', '483116', '4831400', '483356', '485220', '485620', '485694', '487280', '487803', '487918', '4887507', '488977', '490000', '490462', '490893', '4911371', '49125', '492395', '492652', '493000', '49378', '49441', '495302', '496560', '497000', '497790', '498281', '49948', '499700', '499950', '50000', '500000', '5000000', '500200', '500898', '5012000', '501302', '50148', '501760', '5018530', '50200', '502052', '50215', '50236', '503180', '503500', '503881', '504282', '504300', '504343', '504530', '50600', '5062500', '507614', '50819', '509735', '51000', '510080', '511108', '5115158', '51168', '511778', '512293', '512608', '5132179', '514355', '514587', '51475', '515000', '515336', '515661', '51734', '51739', '517521', '51783', '517846', '518144', '51831', '5187762', '519500', '519847', '5199451', '5199999', '52000', '520400', '520728', '52190', '523379', '52380', '52400', '5245750', '525000', '52562', '52639', '5270000', '52750', '528655', '5295543', '530298', '5313025', '5319448', '53200', '53316', '53320', '534720', '53494', '536000', '53645', '53649', '53668', '536938', '53700', '537544', '537819', '5386000', '539688', '54000', '540000', '540050', '540142', '54030', '54111', '54120', '5420668', '5421760', '54241', '542500', '542656', '54428', '545000', '5450000', '546353', '546379', '547172', '54777', '548000', '548339', '5486400', '55000', '5500000', '550103', '550178', '55030', '5504403', '55200', '553034', '553697', '5544000', '555280', '55556', '5557182', '555761', '556572', '55741', '5577589', '558292', '558539', '56000', '560000', '5600000', '560200', '561279', '56316', '5632448', '563467', '563777', '564648', '565577', '5663541', '56758', '568000', '568278', '568414', '568654', '56911', '569440', '569570', '569627', '56968', '56997', '57076', '5719110', '572079', '573185', '5737735', '574187', '574640', '574764', '574864', '57500', '575000', '575057', '575742', '575765', '576134', '576783', '576900', '577226', '578906', '5800000', '5805699', '58115', '5812354', '581400', '58175', '581803', '58200', '582459', '582528', '58300', '583135', '583566', '58373', '584845', '585500', '5859081', '58643', '58663', '586786', '587033', '588000', '588235', '58858', '588629', '589227', '589500', '58994', '5902985', '59134', '5915000', '592254', '593800', '594554', '59473', '59500', '595006', '5951000', '595300', '59583', '5964107', '59698', '597590', '597602', '59784', '598000', '598823', '59917', '59940', '59948', '5995717', '60000', '600000', '60000000', '6001016', '600200', '60080', '601381', '60200', '602162', '6032000', '603253', '603886', '604426', '60500', '606180', '60700', '6080000', '60819', '60822', '608372', '61000', '610000', '61009', '6104381', '610980', '611000', '611100', '61186', '611903', '611999', '612483', '61444', '61670', '61688', '61769', '617787', '61808', '61857', '61890', '619028', '619243', '61940', '619691', '62000', '620000', '620710', '62090', '6212770', '62200', '622478', '622500', '623185', '6245231', '625443', '62614', '626853', '6270583', '627351', '62741', '62784', '62806', '62880', '629723', '63000', '63004', '63070', '631000', '63126.38', '63147', '6320000', '632064', '632487', '63299', '633033', '63305', '63339', '633875', '634384', '63500', '635635', '63650', '636853', '63701', '63774', '63879', '63905', '63963', '6405203', '640951', '64106', '64185', '6430026', '643545', '644638', '644727', '64500', '645343', '645791', '6461604', '646719', '64697', '6473800', '647450', '64875', '648750', '64948', '649830', '65000', '650532', '65069', '650800', '651065', '652919', '653600', '653654', '654154', '65499', '6558000', '65713', '658283', '659000', '660280', '66200', '662161', '66308', '66342', '66416', '665000', '665323', '665429', '66554', '665703', '667142', '668569', '66877', '670754', '6712131', '67172', '67180', '67200', '67500', '67553', '675762', '6762000', '67750', '67893', '679145', '680000', '68144', '681500', '683000', '684024', '68532', '68702', '68818', '689200', '691478', '692778', '69456', '694975', '69500', '695260', '6958638', '697329', '697786', '697905', '698580', '69900', '70000', '700000', '7000000', '701399', '7026974', '70300', '7037480', '70495', '705190', '70674', '707011', '708219', '7096012', '70999', '7100000', '7103770', '711837', '71200', '712152', '712349', '713395', '7150000', '71604', '71703', '718219', '718311', '719105', '722381', '72246', '723402', '72500', '727217', '727454', '72845', '72897', '729271', '730000', '7300000', '7302090', '730906', '73271', '73319', '73326', '7340200', '73433', '73551', '73648', '738759', '74000', '740000', '74001', '74064', '740675', '741742', '742513', '74319', '74380', '745682', '745708', '74600', '746453', '746614', '747173', '747974', '7480659.4', '74890', '74903', '75000', '750000', '7500000', '750310', '750468', '7505712', '75200', '752096', '7521192', '752685', '75300000', '75315', '755869', '7575980', '75800', '7587260', '75893', '76000', '760000', '760086', '76014', '760156', '76055', '760989', '76100', '76185', '76190', '7625000', '763120', '7635667', '763720', '76384', '763894', '7640709', '76450', '766464', '7696195', '76963', '770000', '771382.98', '77248', '773257', '77503', '77550', '77616', '7771000', '77861', '7789041', '77972', '77975', '78000', '7800000', '780164', '780331', '781166', '781598', '78259', '782875', '78298', '7835250', '78391', '784400', '784479', '78469', '784820', '78580', '786440', '78751', '788276', '788400', '79023', '79150', '792346', '79280', '793000', '7951424', '7964034', '79656', '7965697', '79664', '79696', '79762', '79786', '79800', '79878', '79886', '79890', '7995500', '80000', '800000', '80002', '800865', '80200', '80284', '80314', '803424', '8037210', '803751', '8043258', '804427', '80600', '80602', '806112', '8069025', '80700', '80782', '809175', '809200', '810844', '811000', '813000', '813033', '813372', '81500', '81520', '8154028', '816200', '81780', '818667', '819545', '81986', '820446', '82096', '821100', '821936', '82219', '82332', '823710', '8253556', '82540', '825510', '82590', '826449', '82842', '83000', '830529', '831229', '83148', '832132', '83280', '83453', '83536', '83579', '83600', '839218', '83938', '8400000', '84115', '84245', '84291', '843343', '84383', '84387', '84441', '84500', '845015', '8451500', '845651', '8460000', '846423', '846740', '847605', '8488700', '8493086', '849774', '85000', '850000', '850155', '851967', '852124', '85224', '852777', '852918', '85335', '85352741', '85368', '853782', '85446', '85576', '85600', '856309', '856614', '85692', '85736', '8575000', '858511', '85999', '86000', '860388', '860535', '86080', '861336', '86400', '865665', '8668000', '868126', '868184', '868650', '87000', '870731', '87200', '87295', '87500', '87534', '875419', '877000', '877295', '878000', '87816', '87852', '878898', '87895', '879000', '87959', '87986', '88000', '8802656', '880386', '8804350', '8809435', '8811452', '88249', '8830896', '883575', '884889', '884949', '88496', '885393', '885522', '885611', '885935', '88596', '885963', '887500', '88754', '88800', '888348', '88878', '89000', '89047', '890522', '890739', '89108', '891870', '893007', '89325', '89500', '895000', '89551', '895652', '89572', '89596', '89600', '89771', '897897', '8979236', '898476', '899967', '90000', '900000', '900136', '901629', '90200', '902000', '902676', '90327', '90550', '90600', '90616', '906250', '90630', '907449', '909000', '91000', '91063', '91118', '911370', '9120000', '91362', '91365', '9146005', '915705', '916915', '917865', '91798', '91842', '919716', '92000', '920560', '922551', '92332', '92398', '92400', '924550', '92474', '9254250', '925479', '92570', '925898', '92699', '927626', '928999', '929441', '929661', '92981', '929889', '930000', '93200', '933348', '93352', '93529', '935570', '936093', '9369712', '9371826', '93719', '937215', '9377160', '93840', '939010', '93922', '94039', '941055', '941387', '941953', '942000', '9420166', '94258', '94351', '94366', '944202', '9465379', '94713', '94733', '947535', '948084', '949439', '9496169', '95200', '95238', '952449', '952858', '95320', '956419', '95759', '9586095', '95879', '959051', '959175', '959716', '959889', '960372', '960820', '96141', '96263', '962865', '96475', '96505', '965094', '965540', '96567', '965750', '9658000', '966955', '967631', '96898', '96976', '97020', '97033', '97053', '97064', '971000', '971009', '97115', '97272', '972863', '973061', '973733', '97441', '975000', '97541', '97572', '97619', '976267', '977062', '978500', '97903', '97932', '979375', '97943', '97972', '9800000', '98015', '980571', '981713', '982000', '984868', '98600', '9870807', '989633', '989692', '989817', '990806', '991371', '992865', '993174', '993320', '9935537', '99401', '99416', '99500', '995000', '995469', '996380', '9967236', '99831', '9988051.41', '999342']</t>
         </is>
@@ -1488,18 +1609,26 @@
       <c r="P16" t="n">
         <v>10</v>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
         <v>3595</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>5</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>['A', 'B', 'M', 'O', 'S']</t>
         </is>
@@ -1558,18 +1687,26 @@
       <c r="P17" t="n">
         <v>10</v>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>F13239</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>456868</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
         <v>21521</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>1844</v>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>['100013', '100014', '100016', '100047', '100190', '100253', '100393', '100409', '100511', '100596', '100660', '100680', '100866', '101241', '101365', '102359', '102447', '102500', '102692', '102696', '102750', '102998', '103176', '104074', '104079', '104327', '104512', '104620', '110908', '131755', '139659', '175257', '178400', '217307', '220202', '228304', '247858', '255109', '282855', '284059', '286856', '28803', '297259', '300902', '301002', '316109', '360701', '363655', '365106', '365254', '374702', '374900', '375253', '400853', '409656', '417253', '422659', '423905', '432153', '433520', '433535', '434085', '434205', '434829', '435706', '435760', '436316', '436820', '437231', '438077', '438500', '442990', '443171', '443952', '444166', '444315', '444460', '444794', '444970', '446890', '448936', '452758', '452963', '453297', '453754', '453800', '453821', '453827', '454135', '454484', '454634', '454732', '454748', '454764', '454765', '454775', '454784', '454790', '454794', '454802', '454819', '454820', '454821', '454823', '454836', '454838', '454839', '454850', '454877', '454880', '454900', '454902', '454904', '454905', '454909', '454912', '454919', '454939', '454943', '454947', '454948', '454969', '454970', '454974', '454987', '455004', '455009', '455010', '455013', '455027', '455056', '455072', '455089', '455095', '455108', '455110', '455121', '455152', '455156', '455184', '455188', '455190', '455191', '455196', '455204', '455209', '455214', '455219', '455229', '455236', '455238', '455272', '455280', '455283', '455284', '455289', '455293', '455306', '455328', '455341', '455347', '455348', '455352', '455355', '455357', '455361', '455362', '455367', '455368', '455371', '455372', '455383', '455384', '455385', '455386', '455387', '455388', '455389', '455390', '455392', '455394', '455396', '455397', '455401', '455405', '455409', '455416', '455417', '455418', '455421', '455423', '455425', '455428', '455436', '455441', '455444', '455446', '455448', '455452', '455453', '455454', '455455', '455456', '455457', '455458', '455459', '455462', '455465', '455490', '455494', '455496', '455497', '455506', '455508', '455510', '455512', '455515', '455527', '455528', '455532', '455535', '455545', '455550', '455551', '455553', '455554', '455555', '455556', '455557', '455558', '455559', '455561', '455562', '455564', '455565', '455567', '455571', '455572', '455573', '455576', '455578', '455580', '455581', '455582', '455583', '455585', '455587', '455588', '455590', '455597', '455598', '455600', '455601', '455602', '455603', '455604', '455606', '455607', '455608', '455610', '455611', '455612', '455615', '455616', '455617', '455618', '455626', '455628', '455631', '455632', '455633', '455634', '455656', '455667', '455673', '455678', '455679', '455682', '455684', '455685', '455686', '455709', '455710', '455718', '455720', '455722', '455729', '455739', '455762', '455766', '455770', '455771', '455773', '455779', '455784', '455785', '455792', '455799', '455800', '455803', '455812', '455816', '455818', '455820', '455825', '455827', '455829', '455858', '455859', '455860', '455861', '455862', '455864', '455865', '455867', '455868', '455870', '455875', '455878', '455882', '455883', '455886', '455896', '455899', '455904', '455908', '455909', '455913', '455914', '455915', '455918', '455919', '455926', '455928', '455932', '455933', '455934', '455935', '455936', '455945', '455952', '455953', '455956', '455957', '455961', '455962', '455971', '455972', '455976', '455981', '456010', '456014', '456016', '456024', '456053', '456056', '456059', '456069', '456071', '456072', '456085', '456086', '456091', '456094', '456101', '456107', '456109', '456110', '456136', '456170', '456174', '456176', '456200', '456205', '456218', '456222', '456247', '456263', '456270', '456273', '456331', '456337', '456344', '456363', '456376', '456418', '456438', '456467', '456471', '456490', '456501', '456529', '456533', '456534', '456535', '456536', '456543', '456574', '456576', '456625', '456629', '456681', '456690', '456698', '456727', '456740', '456741', '456778', '456798', '456800', '456827', '456839', '456868', '456873', '456876', '456930', '456931', '456952', '456967', '456974', '456980', '456984', '456985', '456990', '457010', '457025', '457052', '457062', '457067', '457073', '457076', '457077', '457078', '457079', '457080', '457081', '457082', '457083', '457084', '457085', '457086', '457087', '457088', '457089', '457090', '457091', '457092', '457093', '457094', '457095', '457096', '457097', '457098', '457099', '457100', '457101', '457102', '457103', '457104', '457106', '457107', '457109', '457112', '457120', '457121', '457122', '457123', '457124', '457125', '457126', '457127', '457128', '457131', '457135', '457137', '457139', '457142', '457143', '457144', '457145', '457146', '457147', '457148', '457149', '457150', '457151', '457152', '457155', '457156', '457157', '457158', '457160', '457161', '457162', '457163', '457165', '457166', '457168', '457169', '457219', '457222', '457257', '457265', '457416', '457452', '457516', '457526', '457577', '457583', '457630', '457703', '457721', '457759', '457761', '457777', '457806', '457854', '457855', '457930', '458014', '458029', '458057', '458327', '458400', '458410', '458438', '458479', '458648', '458819', '458831', '458897', '458898', '458904', '458905', '458947', '458948', '458958', '458980', '459008', '459028', '459030', '459039', '459150', '459204', '459208', '459213', '459220', '459244', '459261', '459264', '459280', '459282', '459307', '459314', '459315', '459316', '459319', '459354', '459360', '459363', '459385', '459409', '459495', '459577', '459602', '459626', '459628', '459645', '459653', '459655', '459673', '459678', '459713', '459768', '459769', '459802', '459839', '459946', '461485', '462107', '462401', '462435', '462499', '462539', '462611', '462661', '462685', '462778', '462810', '462942', '463074', '463103', '463111', '463287', '463351', '463487', '463522', '463605', '463676', '463809', '463880', '464004', '464026', '464143', '464191', '464224', '464357', '464379', '464441', '464514', '464539', '464545', '464578', '464582', '464610', '464667', '464717', '464823', '464873', '464879', '464932', '464962', '464985', '465000', '465003', '465010', '465083', '465103', '465116', '465403', '465485', '465487', '465555', '465590', '465594', '465595', '465637', '465665', '465681', '465689', '465701', '465771', '465810', '465895', '48108', '52902', '63305', '74203', '80705', '80804', '80853', '80903', '80952', '95158', 'F00025', 'F00267', 'F00450', 'F00451', 'F00458', 'F00485', 'F00601', 'F00614', 'F00698', 'F00705', 'F00712', 'F00747', 'F00767', 'F00786', 'F00908', 'F00912', 'F00914', 'F01026', 'F01071', 'F01105', 'F01162', 'F01181', 'F01316', 'F01424', 'F01572', 'F01612', 'F01650', 'F01718', 'F01723', 'F01727', 'F01729', 'F01781', 'F01793', 'F02041', 'F02060', 'F02204', 'F02206', 'F02322', 'F02506', 'F02588', 'F02618', 'F02623', 'F02651', 'F02657', 'F02707', 'F02742', 'F02775', 'F02778', 'F02782', 'F02836', 'F02902', 'F02911', 'F02938', 'F03061', 'F03151', 'F03153', 'F03228', 'F03268', 'F03281', 'F03293', 'F03320', 'F03321', 'F03347', 'F03351', 'F03377', 'F03410', 'F03413', 'F03423', 'F03434', 'F03438', 'F03485', 'F03495', 'F03551', 'F03556', 'F03581', 'F03656', 'F03662', 'F03669', 'F03675', 'F03688', 'F03690', 'F03706', 'F03777', 'F03963', 'F04293', 'F04360', 'F04379', 'F04423', 'F04434', 'F04560', 'F04592', 'F04594', 'F04597', 'F04598', 'F04608', 'F04628', 'F04691', 'F04707', 'F04715', 'F04756', 'F04774', 'F04786', 'F04815', 'F04860', 'F04888', 'F04890', 'F04903', 'F04908', 'F04923', 'F04939', 'F04984', 'F05011', 'F05014', 'F05057', 'F05067', 'F05069', 'F05084', 'F05105', 'F05129', 'F05141', 'F05144', 'F05145', 'F05171', 'F05181', 'F05186', 'F05188', 'F05190', 'F05196', 'F05203', 'F05207', 'F05232', 'F05237', 'F05239', 'F05247', 'F05261', 'F05266', 'F05298', 'F05307', 'F05325', 'F05345', 'F05347', 'F05413', 'F05427', 'F05434', 'F05576', 'F05597', 'F05606', 'F05613', 'F05630', 'F05639', 'F05644', 'F05657', 'F05673', 'F05678', 'F05679', 'F05728', 'F05755', 'F05767', 'F05805', 'F05846', 'F05862', 'F05870', 'F05871', 'F05879', 'F05905', 'F05909', 'F05927', 'F05930', 'F05946', 'F05960', 'F05971', 'F05975', 'F05986', 'F05991', 'F06001', 'F06046', 'F06047', 'F06051', 'F06052', 'F06060', 'F06064', 'F06066', 'F06067', 'F06072', 'F06079', 'F06083', 'F06084', 'F06085', 'F06096', 'F06107', 'F06144', 'F06147', 'F06178', 'F06189', 'F06192', 'F06211', 'F06220', 'F06225', 'F06244', 'F06256', 'F06271', 'F06292', 'F06305', 'F06330', 'F06332', 'F06376', 'F06377', 'F06467', 'F06510', 'F06512', 'F06536', 'F06539', 'F06558', 'F06562', 'F06569', 'F06753', 'F06757', 'F06760', 'F06767', 'F06779', 'F06793', 'F06797', 'F06841', 'F06854', 'F06873', 'F06881', 'F06895', 'F06919', 'F06921', 'F06931', 'F06953', 'F06991', 'F07095', 'F07114', 'F07118', 'F07122', 'F07188', 'F07212', 'F07217', 'F07219', 'F07230', 'F07232', 'F07244', 'F07246', 'F07285', 'F07286', 'F07291', 'F07301', 'F07303', 'F07305', 'F07308', 'F07311', 'F07316', 'F07321', 'F07329', 'F07332', 'F07333', 'F07334', 'F07335', 'F07341', 'F07345', 'F07348', 'F07352', 'F07353', 'F07356', 'F07362', 'F07363', 'F07364', 'F07368', 'F07371', 'F07372', 'F07374', 'F07377', 'F07379', 'F07381', 'F07382', 'F07386', 'F07389', 'F07390', 'F07392', 'F07395', 'F07399', 'F07403', 'F07408', 'F07412', 'F07418', 'F07419', 'F07420', 'F07428', 'F07429', 'F07430', 'F07431', 'F07433', 'F07439', 'F07440', 'F07446', 'F07449', 'F07450', 'F07452', 'F07455', 'F07460', 'F07461', 'F07465', 'F07469', 'F07472', 'F07474', 'F07477', 'F07481', 'F07483', 'F07485', 'F07487', 'F07502', 'F07503', 'F07508', 'F07524', 'F07532', 'F07534', 'F07536', 'F07538', 'F07541', 'F07552', 'F07570', 'F07575', 'F07582', 'F07583', 'F07584', 'F07588', 'F07589', 'F07601', 'F07613', 'F07664', 'F07668', 'F07710', 'F07712', 'F07719', 'F07728', 'F07738', 'F07739', 'F07792', 'F07795', 'F07823', 'F07834', 'F07835', 'F07843', 'F07860', 'F07896', 'F07907', 'F07908', 'F07914', 'F07919', 'F07927', 'F07953', 'F07965', 'F07966', 'F08022', 'F08027', 'F08065', 'F08083', 'F08092', 'F08100', 'F08102', 'F08111', 'F08130', 'F08131', 'F08151', 'F08156', 'F08159', 'F08217', 'F08229', 'F08257', 'F08271', 'F08274', 'F08280', 'F08285', 'F08286', 'F08287', 'F08288', 'F08290', 'F08293', 'F08294', 'F08296', 'F08297', 'F08300', 'F08301', 'F08302', 'F08304', 'F08305', 'F08325', 'F08327', 'F08328', 'F08331', 'F08333', 'F08334', 'F08336', 'F08339', 'F08344', 'F08346', 'F08350', 'F08351', 'F08353', 'F08355', 'F08356', 'F08358', 'F08377', 'F08382', 'F08394', 'F08396', 'F08399', 'F08402', 'F08403', 'F08404', 'F08406', 'F08407', 'F08408', 'F08409', 'F08410', 'F08411', 'F08412', 'F08415', 'F08416', 'F08418', 'F08423', 'F08424', 'F08425', 'F08429', 'F08441', 'F08442', 'F08443', 'F08446', 'F08447', 'F08449', 'F08451', 'F08454', 'F08455', 'F08463', 'F08464', 'F08465', 'F08473', 'F08475', 'F08482', 'F08483', 'F08485', 'F08486', 'F08493', 'F08501', 'F08503', 'F08506', 'F08508', 'F08510', 'F08514', 'F08515', 'F08516', 'F08522', 'F08533', 'F08538', 'F08539', 'F08541', 'F08542', 'F08551', 'F08552', 'F08573', 'F08590', 'F08595', 'F08596', 'F08597', 'F08598', 'F08600', 'F08603', 'F08605', 'F08607', 'F08616', 'F08617', 'F08618', 'F08619', 'F08623', 'F08628', 'F08629', 'F08635', 'F08639', 'F08644', 'F08648', 'F08660', 'F08665', 'F08669', 'F08671', 'F08678', 'F08682', 'F08700', 'F08705', 'F08706', 'F08707', 'F08708', 'F08709', 'F08712', 'F08718', 'F08726', 'F08727', 'F08731', 'F08733', 'F08737', 'F08738', 'F08739', 'F08747', 'F08751', 'F08755', 'F08758', 'F08768', 'F08774', 'F08775', 'F08779', 'F08784', 'F08789', 'F08791', 'F08794', 'F08795', 'F08796', 'F08797', 'F08799', 'F08804', 'F08807', 'F08809', 'F08815', 'F08819', 'F08822', 'F08823', 'F08825', 'F08828', 'F08829', 'F08839', 'F08847', 'F08853', 'F08856', 'F08859', 'F08862', 'F08872', 'F08887', 'F08897', 'F08904', 'F08910', 'F08912', 'F08913', 'F08917', 'F08919', 'F08933', 'F08941', 'F08943', 'F08946', 'F08953', 'F08959', 'F08971', 'F08986', 'F08989', 'F08990', 'F08992', 'F08998', 'F09002', 'F09013', 'F09016', 'F09018', 'F09023', 'F09024', 'F09029', 'F09032', 'F09033', 'F09037', 'F09039', 'F09042', 'F09045', 'F09049', 'F09052', 'F09058', 'F09062', 'F09066', 'F09070', 'F09071', 'F09072', 'F09075', 'F09077', 'F09088', 'F09089', 'F09094', 'F09098', 'F09100', 'F09106', 'F09108', 'F09110', 'F09117', 'F09125', 'F09129', 'F09135', 'F09142', 'F09143', 'F09145', 'F09157', 'F09160', 'F09161', 'F09165', 'F09166', 'F09169', 'F09170', 'F09177', 'F09179', 'F09180', 'F09187', 'F09189', 'F09201', 'F09212', 'F09214', 'F09225', 'F09244', 'F09253', 'F09274', 'F09276', 'F09277', 'F09291', 'F09292', 'F09293', 'F09309', 'F09320', 'F09349', 'F09366', 'F09398', 'F09413', 'F09444', 'F09462', 'F09491', 'F09499', 'F09506', 'F09508', 'F09512', 'F09516', 'F09518', 'F09519', 'F09520', 'F09521', 'F09523', 'F09528', 'F09529', 'F09537', 'F09540', 'F09542', 'F09543', 'F09545', 'F09551', 'F09552', 'F09554', 'F09557', 'F09558', 'F09560', 'F09561', 'F09566', 'F09570', 'F09571', 'F09572', 'F09574', 'F09597', 'F09601', 'F09620', 'F09622', 'F09623', 'F09626', 'F09629', 'F09630', 'F09633', 'F09637', 'F09638', 'F09667', 'F09671', 'F09674', 'F09698', 'F09726', 'F09727', 'F09728', 'F09729', 'F09730', 'F09731', 'F09732', 'F09733', 'F09734', 'F09735', 'F09736', 'F09737', 'F09742', 'F09746', 'F09748', 'F09757', 'F09762', 'F09808', 'F09826', 'F09830', 'F09831', 'F09832', 'F09835', 'F09843', 'F09848', 'F09850', 'F09854', 'F09855', 'F09857', 'F09858', 'F09864', 'F09865', 'F09866', 'F09867', 'F09868', 'F09869', 'F09870', 'F09871', 'F09872', 'F09873', 'F09875', 'F09876', 'F09877', 'F09878', 'F09880', 'F09881', 'F09901', 'F09904', 'F09918', 'F09950', 'F09951', 'F09980', 'F09982', 'F09983', 'F09987', 'F09988', 'F09990', 'F09992', 'F09994', 'F09996', 'F09997', 'F09999', 'F10001', 'F10098', 'F10106', 'F10111', 'F10132', 'F10151', 'F10250', 'F10300', 'F10302', 'F10317', 'F10478', 'F10562', 'F10669', 'F10712', 'F10795', 'F10960', 'F11027', 'F11090', 'F11091', 'F11093', 'F11095', 'F11096', 'F11098', 'F11099', 'F11100', 'F11102', 'F11103', 'F11330', 'F11538', 'F11544', 'F11546', 'F11547', 'F11548', 'F11549', 'F11550', 'F11551', 'F11560', 'F11562', 'F11567', 'F11568', 'F11569', 'F11570', 'F11571', 'F11572', 'F11573', 'F11587', 'F11588', 'F11599', 'F11622', 'F11623', 'F11626', 'F11635', 'F11637', 'F11638', 'F11641', 'F11653', 'F11655', 'F11661', 'F11704', 'F11708', 'F11711', 'F11725', 'F11728', 'F11734', 'F11738', 'F11762', 'F11772', 'F11776', 'F11785', 'F11823', 'F11834', 'F11841', 'F11857', 'F11883', 'F11887', 'F11900', 'F11913', 'F11920', 'F11974', 'F11985', 'F11998', 'F12030', 'F12032', 'F12041', 'F12043', 'F12044', 'F12048', 'F12049', 'F12053', 'F12054', 'F12056', 'F12058', 'F12059', 'F12060', 'F12061', 'F12062', 'F12064', 'F12068', 'F12070', 'F12073', 'F12074', 'F12075', 'F12079', 'F12083', 'F12084', 'F12085', 'F12086', 'F12087', 'F12093', 'F12099', 'F12102', 'F12108', 'F12110', 'F12118', 'F12120', 'F12125', 'F12127', 'F12128', 'F12129', 'F12137', 'F12142', 'F12144', 'F12145', 'F12146', 'F12156', 'F12158', 'F12159', 'F12165', 'F12166', 'F12170', 'F12171', 'F12172', 'F12173', 'F12176', 'F12178', 'F12184', 'F12191', 'F12195', 'F12196', 'F12200', 'F12201', 'F12205', 'F12206', 'F12207', 'F12209', 'F12210', 'F12212', 'F12213', 'F12214', 'F12215', 'F12217', 'F12219', 'F12220', 'F12221', 'F12222', 'F12224', 'F12226', 'F12231', 'F12232', 'F12235', 'F12239', 'F12242', 'F12243', 'F12249', 'F12251', 'F12253', 'F12255', 'F12262', 'F12264', 'F12280', 'F12284', 'F12287', 'F12290', 'F12291', 'F12295', 'F12305', 'F12312', 'F12313', 'F12314', 'F12316', 'F12317', 'F12318', 'F12322', 'F12331', 'F12345', 'F12348', 'F12360', 'F12361', 'F12362', 'F12366', 'F12367', 'F12368', 'F12370', 'F12371', 'F12372', 'F12375', 'F12377', 'F12380', 'F12384', 'F12388', 'F12395', 'F12398', 'F12402', 'F12405', 'F12407', 'F12409', 'F12412', 'F12414', 'F12423', 'F12424', 'F12432', 'F12442', 'F12447', 'F12448', 'F12457', 'F12459', 'F12465', 'F12470', 'F12471', 'F12475', 'F12478', 'F12483', 'F12488', 'F12501', 'F12510', 'F12512', 'F12513', 'F12517', 'F12518', 'F12522', 'F12525', 'F12527', 'F12531', 'F12533', 'F12534', 'F12536', 'F12537', 'F12543', 'F12549', 'F12550', 'F12551', 'F12552', 'F12554', 'F12556', 'F12558', 'F12559', 'F12561', 'F12567', 'F12568', 'F12571', 'F12574', 'F12578', 'F12588', 'F12594', 'F12607', 'F12610', 'F12614', 'F12635', 'F12636', 'F12637', 'F12639', 'F12641', 'F12643', 'F12644', 'F12647', 'F12650', 'F12657', 'F12659', 'F12661', 'F12672', 'F12674', 'F12683', 'F12684', 'F12685', 'F12689', 'F12692', 'F12696', 'F12699', 'F12700', 'F12709', 'F12713', 'F12718', 'F12724', 'F12733', 'F12738', 'F12747', 'F12750', 'F12758', 'F12772', 'F12774', 'F12779', 'F12786', 'F12792', 'F12795', 'F12796', 'F12798', 'F12822', 'F12826', 'F12827', 'F12835', 'F12845', 'F12846', 'F12847', 'F12848', 'F12850', 'F12851', 'F12852', 'F12857', 'F12874', 'F12891', 'F12895', 'F12896', 'F12898', 'F12899', 'F12900', 'F12903', 'F12904', 'F12907', 'F12911', 'F12915', 'F12916', 'F12917', 'F12918', 'F12926', 'F12929', 'F12931', 'F12938', 'F12939', 'F12940', 'F12943', 'F12947', 'F12948', 'F12959', 'F12961', 'F12966', 'F12969', 'F12973', 'F12999', 'F13000', 'F13001', 'F13002', 'F13004', 'F13009', 'F13010', 'F13013', 'F13015', 'F13016', 'F13017', 'F13018', 'F13019', 'F13021', 'F13024', 'F13025', 'F13026', 'F13027', 'F13032', 'F13036', 'F13041', 'F13043', 'F13045', 'F13048', 'F13050', 'F13051', 'F13052', 'F13053', 'F13054', 'F13055', 'F13056', 'F13058', 'F13059', 'F13062', 'F13063', 'F13064', 'F13065', 'F13066', 'F13067', 'F13068', 'F13069', 'F13070', 'F13072', 'F13074', 'F13075', 'F13078', 'F13079', 'F13081', 'F13085', 'F13086', 'F13087', 'F13088', 'F13089', 'F13090', 'F13091', 'F13093', 'F13095', 'F13097', 'F13098', 'F13099', 'F13100', 'F13102', 'F13105', 'F13107', 'F13108', 'F13111', 'F13113', 'F13114', 'F13117', 'F13121', 'F13122', 'F13123', 'F13125', 'F13129', 'F13132', 'F13133', 'F13135', 'F13140', 'F13142', 'F13143', 'F13146', 'F13153', 'F13157', 'F13159', 'F13160', 'F13163', 'F13164', 'F13166', 'F13167', 'F13169', 'F13170', 'F13171', 'F13175', 'F13179', 'F13180', 'F13181', 'F13182', 'F13186', 'F13187', 'F13193', 'F13194', 'F13195', 'F13196', 'F13198', 'F13199', 'F13200', 'F13205', 'F13207', 'F13209', 'F13210', 'F13219', 'F13222', 'F13227', 'F13228', 'F13229', 'F13230', 'F13231', 'F13232', 'F13237', 'F13238', 'F13239']</t>
         </is>
@@ -1628,18 +1765,26 @@
       <c r="P18" t="n">
         <v>10</v>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>iNovia Capital Inc.</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Community Futures Manitoba Inc.</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
         <v>126831</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>1828</v>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>['(CAHRD) Centre for Aboriginal Human Resource Development Inc.', '100 Mile House and District Soccer Association', '1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society and IRC, Innovation Resource Centre Council', '2017 Canada Summer Games Host Society Inc.', '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc', '5N Plus Inc.', 'A.S.T.C. Science World Society', 'AERIC INC.', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Business Service Network Society', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada Inc.', 'Aboriginal Seniors Gathering Place Society of Calgary', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan Inc.', 'Accelerate Okanagan Technology Association', 'Adams Lake Indian Band', 'Advanced Applied Physics Solutions', 'Aerospace Industries Association of Canada', 'Aerospace Industry Association of British Columbia', 'Affinity Credit Union', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Airdrie &amp; District Gymnastics Club', 'Alberni Athletic Association', 'Alberni Valley Chamber of Commerce', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', 'Alberta Chambers of Commerce', 'Alberta Cricket Association and The City of Edmonton', 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Emerald Foundation for Environmental Excellence', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Innovation and Advanced Education', 'Alberta International &amp; Intergovernmental Relations', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Sports Hall of Fame and Museum Society', 'Alberta Terrestrial Imaging Corp.', 'Alberta Tourism, Parks and Recreation', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', 'Aldergrove Community League and the City of Edmonton', 'Alexis Creek Community Club &amp; Community Services &amp; Development Society of Alexis', 'Alexis Creek Indian Band', 'Alliance of Manufacturers &amp; Exporters Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anmore Renewable Energy Foundation', 'Applewood Park Community Association and The City of Calgary', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arlington Beach Camp and Conference Centre Inc.', 'Army, Navy &amp; Air Force Veterans in Canada, Assiniboia Unit #283', 'Army, Navy and Air Force Veterans in Canada', 'Arts and Heritage Foundation of St. Albert', 'Asia Pacific Foundation of Canada', 'AssentWorks Inc.', "Assiniboine - Qu'Appelle Valleylands Inc.", 'Assiniboine Community College', 'Assiniboine Community College Parkland Campus', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Conservancy Inc.', 'Association of Professional Engineers and Geoscientists of British Columbia', 'Athabasca Regional Multiplex Society and Town of Athabasca', 'Athabasca University', 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C. Wood Specialties Group Association', 'BARK Design Collective', 'BC Farm Museum Association', 'BC Technology Industry Association', 'Back Country Horsemen Society of British Columbia', 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee Inc.', 'Beakerhead Creative Society', "Beardy's and Okemasis Band", 'Beaver River Community Futures Development Corporation', 'Belgravia Community League', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Berens River First Nation', 'Berger Peat Moss Ltd.', 'Big Brothers and Big Sisters of Red Deer &amp; District and Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Hills and District Recreation Board', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blackie and District Agricultural Society', 'Blue Lake Forest Education Society', 'Blue River Community Association', 'Board of Education of The Saskatoon School Division No. 13 Trust Fund', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Dept. Fund Raising Association &amp; Town of Bow Island', 'Bow Island Branch No. 197 of the Royal Canadian Legion', 'Bowen Island Municipality', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Boys and Girls Club of Cochrane and Area and Boys and Girls Clubs of Canada', 'Boys and Girls Clubs of Winnipeg Inc.', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'Brandon University', 'Brentwood Community Association', 'Britannia Beach Historical Society and Britannia Development Corporation', 'British Columbia 2009 World Police and Fire Games', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Chamber of Commerce', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Cranberry Marketing Commission', 'British Columbia Institute of Technology', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Brunkild Memorial Recreation Centre', 'Buck Lake Stampede Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', 'Burnaby Association for Community  Inclusion', 'Burns Lake Band', 'Business Council of British Columbia', 'Business Development Bank of Canada', 'Business Link Business Service Centre', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CGEF Canadian Global Exploration Forum', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Business Information Centre', 'Calgary Centre for Performing Arts', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation and the City of Calgary', 'Calgary Technologies Inc.', "Calgary Young Men's Christian Association", 'Callingwood/Lymburn Community League', 'Camosun College', 'Camp Health, Hope and Happiness Society', 'Camp Massad of Manitoba', 'Camp Warwa', 'Campbell River Indian Band', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canada/British Columbia Business Services Society', 'Canadian Association of Defence and Security Industries', 'Canadian Association of University Research Parks', 'Canadian Badlands Ltd.', 'Canadian Beef Cattle Research, Market Development and Promotion Agency', 'Canadian Centre for Unmanned Vehicle Systems', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Community Economic Development Network', 'Canadian Environmental Test Research and Education Center Inc.', 'Canadian Hydrogen and Fuel Cell Association', 'Canadian International Grains Institute', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Light Source Inc.', 'Canadian Malting Barley Technical Centre', 'Canadian Manufacturers &amp; Exporters', 'Canadian Mennonite University', 'Canadian Mental Health Association , Winnipeg Region', 'Canadian Paraplegic Association (Alberta)', 'Canadian Red Cross Society', 'Canadian Standards Association', 'Canadian Standards Association Group', 'Canadian Ukrainian Institute Prosvita', 'Candle Lake Curling Club Inc.', 'Canim Lake Band', 'Canmore &amp; Area Health Care Foundation and the Town of Canmore', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Cape Mudge Indian Band', 'Capilano University', 'Capital Regional District', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. and Carbon Engineering Limited Partnership', 'Cardston Soccer Club and Town of Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Regional District', 'Cariboo Ski - Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrier Chilcotin Tribal Council', 'Carrot River Curling Club', 'Castle Downs Recreation Society and the City of Edmonton', 'Cayuse Logging', 'Cedar Heights Community Association', 'Cedar Lake Community Futures Development Corporation', 'Cedar Point Class "C" Provincial Park Board &amp; Likely Community Forest Society', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League, City of Edmonton', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development', 'Centre for Education and Work', 'Centre for Native Policy and Research', 'Centre of Integration for African Immigrants (CIIA-CIAI)', 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society and the Village of Chauvin', "Chemainus Community Schools' Association", 'Cheslatta Carrier Nation', 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre Of Greater Vancouver', 'Chinook Community Futures Development Corporation', 'Christina Lake Chamber of Commerce', 'Churchill Gateway Development Corp.', 'City of Abbotsford', 'City of Airdrie', 'City of Armstrong', 'City of Brandon', 'City of Brooks', 'City of Burnaby', 'City of Calgary', 'City of Campbell River', 'City of Camrose', 'City of Chilliwack', 'City of Coquitlam', 'City of Dauphin', 'City of Duncan', 'City of Edmonton', 'City of Edmonton and Alberta Avenue Community League', 'City of Edmonton and Killarney Community League', 'City of Edmonton and the Edmonton Nature Centres Foundation', 'City of Flin Flon', 'City of Fort Saskatchewan', 'City of Fort St. John', 'City of Grand Forks', 'City of Grande Prairie', 'City of Kamloops', 'City of Kamloops and Kamloops Airport Authority Society', 'City of Kelowna', 'City of Langford', 'City of Langley', 'City of Leduc', 'City of Lethbridge', 'City of Lloydminster', 'City of Maple Ridge', 'City of Martensville', 'City of Meadow Lake', 'City of Medicine Hat', 'City of Melfort', 'City of Merritt', 'City of Moose Jaw', 'City of Nanaimo', 'City of Nelson', 'City of Parksville', 'City of Pitt Meadows', 'City of Port Alberni', 'City of Portage La Prairie', 'City of Powell River', 'City of Prince Albert', 'City of Prince George', 'City of Prince Rupert', 'City of Quesnel', 'City of Red Deer', 'City of Regina', 'City of Revelstoke', 'City of Richmond', 'City of Salmon Arm', 'City of Saskatoon', 'City of Steinbach', 'City of Surrey', 'City of Swift Current', 'City of Terrace', 'City of Thompson', 'City of Vancouver', 'City of Victoria', 'City of West Kelowna', 'City of Wetaskiwin', 'City of Weyburn', 'City of Williams Lake', 'City of Williams Lake &amp; Williams Lake Stampede Association', 'City of Winkler', 'City of Yorkton', 'Claresholm Community Centre Association and the Town of Claresholm', 'Clive Athletic and Agricultural Society', 'Club Ile-des-Chenes', 'Club Sportif Iberville', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership and Coastal Shellfish Corporation', 'Coldwater Indian Band', 'College Educacentre College', 'College of New Caledonia', 'College of the Rockies', 'Columbia Shuswap Regional District', 'Columbia Valley Chamber of Commerce', 'Columbia Valley Cycling Society', 'Communities of Tomorrow - Partners for Sustainability Inc.', 'Community Futures Alberta Southwest', 'Community Futures Big Country', 'Community Futures Capital Region', 'Community Futures Central Alberta', 'Community Futures Centre West', 'Community Futures Crowsnest Pass', 'Community Futures Development Association of B.C.', 'Community Futures Development Corporation - Cowichan Region', 'Community Futures Development Corporation of 16/37', 'Community Futures Development Corporation of Alberni-Clayoquot', 'Community Futures Development Corporation of Boundary Area', 'Community Futures Development Corporation of Cariboo-Chilcotin', 'Community Futures Development Corporation of Central Interior First Nations', 'Community Futures Development Corporation of Central Island', 'Community Futures Development Corporation of Central Kootenay', 'Community Futures Development Corporation of Central Okanagan', 'Community Futures Development Corporation of Fraser Fort George', 'Community Futures Development Corporation of Greater Trail', 'Community Futures Development Corporation of Howe Sound', 'Community Futures Development Corporation of Mt. Waddington', 'Community Futures Development Corporation of Nadina', 'Community Futures Development Corporation of Nicola Valley', 'Community Futures Development Corporation of North Cariboo', 'Community Futures Development Corporation of North Fraser', 'Community Futures Development Corporation of Okanagan-Similkameen', 'Community Futures Development Corporation of Peace Liard', 'Community Futures Development Corporation of Revelstoke', 'Community Futures Development Corporation of South Fraser', 'Community Futures Development Corporation of Sto:lo', 'Community Futures Development Corporation of Stuart-Nechako', 'Community Futures Development Corporation of Sun Country', 'Community Futures Development Corporation of Thompson Country', 'Community Futures Development Corporation of the North Okanagan', 'Community Futures Development Corporation of the Pacific Northwest', 'Community Futures Development Corporation of the Powell River Region', 'Community Futures Development Corporation of the Shuswap', 'Community Futures Development Corporation of the Sunshine Coast', 'Community Futures East Central Alberta', 'Community Futures East Interlake Inc.', 'Community Futures East Kootenay', 'Community Futures East Parkland', 'Community Futures Elk Island Region', 'Community Futures Entre-Corp Business Development', 'Community Futures Grande Prairie &amp; Region', 'Community Futures Greenstone Inc.', 'Community Futures Heartland Inc.', 'Community Futures Highwood', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Lakeland', 'Community Futures Lesser Slave Lake Region', 'Community Futures Lethbridge Region', 'Community Futures Lloydminster and Region Development Corporation', 'Community Futures Manitoba Inc.', 'Community Futures Network of Alberta', 'Community Futures North Red Inc.', 'Community Futures Northwest Alberta', 'Community Futures Parkland Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Community Futures Peace Country', 'Community Futures Peace Liard and Energy Services BC', 'Community Futures St. Paul - Smoky Lake Region', 'Community Futures Strathcona', 'Community Futures Tawatinaw Region', 'Community Futures Treaty Seven', 'Community Futures Triple R Corporation', 'Community Futures West Interlake Inc.', 'Community Futures West Yellowhead', 'Community Futures Westman Inc.', 'Community Futures Wild Rose', 'Community Futures Winnipeg River Corp.', 'Community Futures Wood Buffalo', 'Community Futures Yellowhead East', 'Comox Valley Economic Development Society', 'Comox Valley Regional District', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', "Conseil de developpement economique de l'Alberta", 'Conseil de la Cooperation de la Saskatchewan Limited', "Cook's Creek Community Centre Inc.", "Cook's Ferry Indian Band", 'Corporation of the City of Fernie', 'Corporation of the City of New Westminster', 'Corporation of the District of Kent', 'Corporation of the District of North Vancouver', 'Corporation of the Village of Clinton', 'Corporation of the Village of Lumby', 'Corporation of the Village of Pemberton', 'Corvus Energy Ltd.', 'Cosmopolitan Industries Ltd.', 'Council of Tourism Associations of British Columbia', 'County of Camrose No. 22', 'County of Grande Prairie No. 1', 'County of Wetaskiwin No. 10', 'Courtenay &amp; District Fish &amp; Game Protective Association', 'Covenant Health', 'Cowichan Rugby Club', 'Cowichan Station Area Association', 'Cowichan Valley Regional District', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Creighton School Division 111', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Cross Lake First Nation', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Historical Society', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', 'Cumberland Regional College', 'Cumberland/Oxford Community League (COCL) and The City of Edmonton', 'DWB Consulting Services Ltd.', 'Dakota Ojibway Community Futures Development Corporation', 'Dancing Sky Theatre Inc', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc', 'Dawson Creek Curling Club &amp; The City of Dawson Creek', 'Day Star First Nation', 'DeBolt &amp; District Agricultural Society', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', 'District of 100 Mile House', 'District of Chetwynd', 'District of Clearwater', 'District of Elkford', 'District of Fort St. James', 'District of Highlands', 'District of Houston', 'District of Invermere', 'District of Kitimat', 'District of Lillooet', 'District of Logan Lake', 'District of Mackenzie', 'District of Mackenzie and District of Fort St. James', 'District of Mission', 'District of Sparwood', 'District of Taylor', 'District of Tofino', 'District of Tumbler Ridge', 'District of Ucluelet', 'District of Vanderhoof', 'District of Wells', 'Dorintosh Community Co-operative', 'Drake Forestry Services Ltd.', 'Ducks Unlimited Canada', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'E.I.D. Historical Park', 'EAST SIDE EAGLES FOOTBALL CLUB INC.', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'Eastside Movement for Business and Economic Renewal Society', 'Eckville Community Centre Society and the Town of Eckville', 'EcoSmart Foundation Inc.', 'Ecole Secondaire Kelvin High School', 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Chinatown Multicultural Centre Foundation', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Edmonton Regional Airports Authority', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elboya Heights Community Association', 'Elkhorn &amp; District Community Center Incorporated', 'Elkhorn Curling Club Trust', 'Ellerslie Rugby Park Incorporated', 'Elmwood Community League and the City of Edmonton', 'Elmwood Giants Baseball Club Inc.', 'Elmwood High School', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Emily Carr University of Art and Design', 'Ernst &amp; Young LLP', 'Esketemc First Nation', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', "FPInnovations and First Nations' Forestry Society", 'FPInnovations-FERIC Division', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Fanny Bay Harbour Authority', 'Farm Genesis Group Marketing Inc', 'Farmers Market Association of Manitoba Co-Op Inc', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie &amp; District Historical Society', 'Festival  Du Voyageur Inc.', 'Film Training Manitoba Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Flying Dust First Nation', 'Fond Du Lac Denesuline First Nation', 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', 'Fort Edmonton Management Company and the City of Edmonton', 'Fort Garry Lions Football Club Inc.', 'Fort Langley Canoe Club', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Chamber of Commerce and The District of Fort St. James', 'Fort St. James Ski Club', 'Fort Vermilion Recreation Board', 'Fort a la Corne Development Corporation', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', 'Forum for Women Entrepreneurs in British Columbia', 'Four Host First Nations Society', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser River Port Authority', 'Fraser Thompson Indian Services Society', 'Fraser Valley Regional District', 'Friends of Camp St. Basil Society &amp; Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garden City Community Centre Inc', 'Garrison Curling Club (Calgary)', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome British Columbia', 'Genome Prairie', 'GeoExchange BC', 'Gibsons Curling Club', 'Gift Lake Metis Settlement', 'Gilmore Park Community League and Strathcona County', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glacier Gymnastics Club', 'Gleichen and District Agricultural Society', 'Glenbow Ranch Park Foundation', 'Glenbow-Alberta Institute', 'Glenora Community League and the City of Edmonton', 'Glenrose Rehabilitation Hospital Foundation', 'Glenwood Community Centre Inc.', 'Global Vision', 'Gold Bar Community League', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', 'Government House Foundation', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', 'Grande Prairie Centre 2000', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Grande Prairie Regional College', 'Grande Prairie Ski Club', 'Grandview &amp; District Recreation Commission', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Great Plains College', 'Greater Vancouver Regional District', 'Greater Victoria Chamber of Commerce', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'Gwaalagaa Naay Corporation', 'H. R. MacMillan Space Centre Society', 'HD-Petroleum Inc.', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', 'Habitat for Humanity Saskatoon Inc.', 'Haida Gwaii Community Futures Development Corporation', 'Hartley Bay Indian Band', 'Haynes Contracting', 'Hazel Bluff Community Agricultural Society (A Div. of The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Headingley Grand Trunk Trail Assocation', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', 'Heritage Point Community League and the City of Edmonton', 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet  Manufacturing Ltd.', 'Hillmond Central Sports Society', 'Hindu Society of Manitoba', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holy Family Elementary School &amp; St. Paul's RCSSD No. 20", 'Holyrood Community League and The City of Edmonton', 'Hong Kong Canada Business Association', 'Horsefly District Board of Trade', 'Huntington Hills Community Association', 'Hythe Athletic Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Waterton Lakes National Park', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', 'Inglewood Community League of Edmonton &amp; The City of Edmonton', 'Initiatives Prince George Development Corporation', 'Innovative Trauma Care Inc.', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma Agricultural Society and the Village of Irma', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'Italian Chamber of Commerce in Canada - West', 'J. Hinsche Contracting Ltd.', 'James Smith Cree Nation', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', 'Jasper Place Curling Club and the City of Edmonton', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton and Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John M. Cuelenaere Public Library and the City of Prince Albert', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KAMLOOPS CURLING CLUB', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kamloops Indian Band', 'Kaslo &amp; District Arena Association', 'Kaslo and District Community Forest Society', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Keyano College', 'Khowutzun Forest Service Ltd', 'Kikino Metis Settlement Corporation', "Kilkenny Community League, City of Edmonton and Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kinsmen Club of Boissevain', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kitamaat Village Council', 'Kitayan Community Futures Development Corporation', 'Kla-how-eya Aboriginal Centre of Surrey AboriginalCultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Family Place', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', 'Kwantlen Polytechnic University', 'L.U.D. of Cranberry Portage', 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', "La Chambre economique de l'Alberta", 'La Crete Agricultural Society', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La federation des francophones de Saskatoon Inc.', 'Lac La Biche County', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Lac La Ronge Indian Band', 'Lac Ste. Anne County', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Lakeland College', 'Langley Minor Football Association', 'Lardeau Valley Community Centre', 'Laurier Heights Community League', "Lax Kw'alaams Band", 'Le Centre Recreatif Notre Dame Recreational Centre Inc.', 'Le College Mathieu', 'Le College Universitaire de Saint-Boniface', 'Le Conseil de developpement economique des municipalites bilingues du Manitoba', "Le Marche St. Norbert Farmers' Market Coop Inc.", 'Leadership and Management Development Council of British Columbia', 'Learning Disabilities Association of Saskatchewan Inc.', 'Leduc County', 'Leduc/Devon Oilfield Historical Society', 'Lethbridge Economic Development Initiative Society', 'Lethbridge Family Services', "Lheidli T'enneh Band", 'Life Science Association of Manitoba Inc.', 'Life Sciences British Columbia Society', 'Light House Sustainable Building Centre Society', 'Linden Woods Community Centre Inc.', 'Lindsay Park Sports Society', 'Linwood Child Centre Inc.', 'Little Pine First Nation', 'Little Shuswap Lake Indian Band', 'Lloydminster Agricultural Exhibition Association Ltd.', 'Lloydminster Air Cadet 186 Squadron Inc.', 'Louis Riel School Division', 'Lower Kootenay Indian Band', 'Lower Nicola Indian Band', 'Luck Lake Irrigation District, Inc.', 'Lundar Museum Society Inc.', "Lynn's Contracting", 'MA MAWI-WI-CHI-ITATA CENTRE INC.', 'MLTC Program Services Inc.', 'MLTC Resource Development Inc.', 'Ma Mawi-Wi-Chi-Itata Centre Inc.', 'Ma-Mow-We-Tak Friendship Centre Inc.', 'Mackenzie County', 'Macklin Lake Regional Park Authority', 'Madden &amp; District Agricultural Society', 'Magyar Favago Holdings Ltd.', 'Mallaig &amp; District Agricultural Society and Recreation Association', 'Mallard Diversified Services Inc.', 'Manitoba Aerospace Association Inc.', 'Manitoba Association of Agricultural Societies Inc.', 'Manitoba Association of Chiefs of Police Inc.', 'Manitoba Cardiac Institute (REH-FIT) Inc.', "Manitoba Children's Museum Inc.", 'Manitoba Corn Growers Association', 'Manitoba Hydro', 'Manitoba Institute of Trades and Technology', 'Manitoba International Gateway Council', 'Manitoba Metis Federation (Thompson Region) Inc.', 'Manitoba Metis Federation Inc.', 'Manitoba Music Industry Association', 'Manitoba Pork Council', 'Manitoba Pulse Growers Association Inc.', 'Manitoba Sector Training Network Inc.', 'Manitoba Trade &amp; Investment Corporation', 'Manitoba Trucking Association', 'Manitoba Urban Native Housing Association Inc.', "Manitoba Women's Enterprise Centre Inc", 'Mannville &amp; District Agricultural Society', 'Maples Recreation Association Inc.', 'Marda Loop Communities Association', 'Market Technology Society', 'Marlborough Park Community Association', 'Mathematics of Information Techno</t>
         </is>
@@ -1698,18 +1843,26 @@
       <c r="P19" t="n">
         <v>10</v>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>ssociation communautaire de North Haven</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Community Futures Manitoba Inc.</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
         <v>147483</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>1864</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>['1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society et IRC, Innovation Resource Centre Council', "186e Escadron des cadets de l'Air de Lloydminster inc.", '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc.', '5861471 Manitoba Inc. O/A HD-Petroleum', 'A.S.T.C. Science World Society', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada inc.', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan inc.', 'Accelerate Okanagan Technology Association', "Administration aeroportuaire regionale d'Edmonton", 'Administration aeroportuaire regionale de Red Deer', 'Administration du Centre Wascana', 'Administration du parc regional de Macklin Lake', 'Administration du parc regional de Struthers Lake', 'Administration portuaire Vancouver-Fraser', 'Administration portuaire de Fanny Bay', 'Administration portuaire de Pender Harbour', 'Administration portuaire de Prince Rupert', 'Administration portuaire du Grand Victoria', 'Advanced Applied Physics Solutions', 'Aerospace Industry Association of British Columbia', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Alberni Athletic Association', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', "Alberta Cricket Association et Ville d'Edmonton", 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Terrestrial Imaging Corp.', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', "Aldergrove Community League et Ville d'Edmonton", "Alexis Creek Community Club et la Community Service &amp; Devel opment Society d'Alexis Creek", 'Alliance des manufacturiers et des exportateurs du Canada', "Anciens combattants de l'armee, de la marine et des forces aeriennes du Canada, unite d'Assiniboia no 283", 'Anciens combattants des Forces armees, maritimes et aeriennes du Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anglican Synod of the Diocese of Caledonia', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arena communautaire de Sprague et de la region', 'Arlington Beach Camp and Conference Centre Inc.', 'Arts and Heritage Foundation de St. Albert', 'AssentWorks Inc.', 'Assiniboine Development Corridor Inc.', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Community Conservancy Inc.', 'Association athletique Hythe', "Association canadienne de l'hydrogene et des piles a combustible", 'Association canadienne de normalisation', 'Association canadienne des paraplegiques (Alberta)', 'Association canadienne des parcs universitaires de recherche', 'Association canadienne pour la sante mentale, region de Winnipeg', 'Association communautaire Edgemont', 'Association communautaire Haysboro', "Association communautaire d'Applewood Park", "Association communautaire d'Elboya Heights", "Association communautaire d'Elkwater", "Association communautaire d'Oak River", 'Association communautaire de Blue River', 'Association communautaire de Brentwood', 'Association communautaire de Lake Bonavista', 'Association communautaire de McKenzie Lake', 'Association communautaire de Montgomery', 'Association communautaire de Silver Springs', 'Association communautaire de Triwood', 'Association communautaire du parc Marlborough', 'Association coreenne de Calgary', 'Association cycliste de Penticton et de la region', "Association d'habitation Norfolk", "Association d'habitation nationale du peuple ukrainien de Taras Shevchenko", 'Association de hockey mineur de St. Albert et Ville de St. Albert', 'Association de jeux Highland de Victoria', "Association de l'exposition Westerner", 'Association de la Bibliotheque publique de Sechelt', 'Association de protection du poisson et de la faune de Courtenay et du district', 'Association de soccer de 100 Mile House et du district', 'Association des industries aerospatiales du Canada', 'Association des industries canadiennes de defense et de securite', "Association des promeneurs de l'Okanagan", 'Association des residents de Tuscany', "Association des societes d'aide au developpement des collectivites de la C.-B.", "Association du Musee de l'aerospatiale de Calgary", 'Association du Musee et des Archives historiques Rossland', 'Association du sentier Grand Trunk a Headingley', 'Association for Community Living, bureau de Beausejour', 'Association of Professional Engineers and Geoscientists of British Columbia', "Association parents-maitres de l'ecole St. Avila", 'Association sportive et recreative de Nose Creek', 'Association touristique de Thompson Okanagan', "Athabasca Regional Multiplex Society et municipalite d'Athabasca", 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Autorite aeroportuaire de Prince George', 'Autorite portuaire du fleuve Fraser', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C.  Wood Specialties Group Association', 'BARK Design Collective', 'BC Cranberry Marketing Commission', 'BC Farm Museum Association', 'BC Technology Industry Association', 'BC Ventures Society', 'Back Country Horsemen Society of British Columbia', "Bande Lax Kw'alaams", 'Bande Seton Lake', 'Bande de Burns Lake', 'Bande de Little Shuswap Lake', 'Bande de Moricetown', 'Bande de Seabird Island', 'Bande des Denes de Tsay Keh', 'Bande indienne Cape Mudge', 'Bande indienne Osoyoos', 'Bande indienne Toosey', "Bande indienne d'Adams Lake", "Bande indienne d'Alexis Creek", "Bande indienne d'Okanagan", 'Bande indienne de Campbell River', 'Bande indienne de Canim Lake', 'Bande indienne de Coldwater', "Bande indienne de Cook's Ferry", 'Bande indienne de Hartley Bay', 'Bande indienne de Kamloops', 'Bande indienne de Lac La Ronge', "Bande indienne de Lheidli T'enneh", 'Bande indienne de Lower Kootenay', 'Bande indienne de Lower Nicola', 'Bande indienne de McLoed Lake', 'Bande indienne de Musqueam', 'Bande indienne de Neskonlith', 'Bande indienne de Nooaitch', 'Bande indienne de Penticton', 'Bande indienne de Popkum', 'Bande indienne de Skeetchestn', 'Bande indienne de Sliammon', 'Bande indienne de St Mary', "Bande indienne de St Mary's", 'Bande indienne de Whispering Pines/Clinton', 'Bande indienne de Williams Lake', "Bande indienne de l'Upper Similkameen", 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Banque de developpement du Canada', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee inc.', 'Beakerhead Creative Society', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Biathlon Society of British Columbia', 'Bibliotheque publique John M. Cuelenaere et la Municipalite de Prince Albert', 'Bibliotheque publique de Richmond', 'Bibliotheque publique de Spruce Grove', 'Big Brothers and Big Sisters of Red Deer &amp; District et Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blue Lake Forest Education Society', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Department Fund Raising Association', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', "Bureau administratif de Tl'etinqox-t'in", 'Burnaby Association for Community Inclusion', 'Business Council of British Columbia', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation et Ville de Calgary', 'Calgary Technologies Inc.', 'Calgary Wildwood Community Association', "Calgary Young Men's Christian Association", 'Camp Health, Hope and Happiness Society', 'Camp Massad du Manitoba', 'Camp Warwa', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canadian Badlands Ltd.', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Environmental Test and Research Center Inc.', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Ukrainian Institute Prosvita', 'Canards Illimites Canada', 'Candle Lake Curling Club Inc.', 'Canmore &amp; Area Health Care Foundation', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Canton de Langley', 'Capital City Savings and Credit Union Limited', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. et Carbon Engineering Limited Partnership', 'Cardston Soccer Club et Municipalite de Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Ski Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrot River Curling Club', "Castle Downs Recreation Society et Ville d'Edmonton", 'Cayuse Logging', 'Cedar Heights Community Association', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League', 'Centre 2000 de Grande Prairie', 'Centre canadien de rayonnement synchrotron inc.', 'Centre canadien des systemes de vehicules telepilotes', 'Centre communautaire Norberry-Glenlee', 'Centre communautaire de Lardeau Valley', 'Centre communautaire de Norwood', 'Centre communautaire de Stavely', 'Centre communautaire de Valley Gardens', 'Centre communautaire du Village de Tyndall', 'Centre culturel chinois de la region metropolitaine de Vancouver', "Centre d'amitie de l'Association Nistawoyou", "Centre d'entreprise des femmes du Manitoba inc.", "Centre d'information des entreprises de Calgary", "Centre d'integration pour immigrants africains (CIIA)", "Centre de developpement d'Upper Skeena", 'Centre de loisirs Brunkild Memorial', 'Centre de loisirs de Similkameen', 'Centre de services aux entreprises Liaison Entreprise', 'Centre de services pour les femmes entrepreneurs', "Centre de toxicologie de l'Universite de la Saskatchewan", 'Centre de transition pour les femmes autochtones', 'Centre des politiques et de la recherche sur les Autochtones', "Centre des sciences marines de l'Aquarium de Vancouver", 'Centre du patrimoine de la Gendarmerie royale du Canada', 'Centre familial de Kootenay', 'Centre for Aboriginal Human Resource Development Inc. (CAHRD)', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development (CDRD)', 'Centre for Education and Work', 'Centre juif de Calgary', "Centre technique canadien pour l'orge brassicole", 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', "Chambre de commerce d'Alberni Valley", "Chambre de commerce d'Ucluelet", 'Chambre de commerce de Christina Lake', 'Chambre de commerce de Nelson et de son district', 'Chambre de commerce de North Vancouver', 'Chambre de commerce de Peachland', 'Chambre de commerce de The Pas et du district', "Chambre de commerce de l'Alberta", 'Chambre de commerce de la Colombie-Britannique', 'Chambre de commerce de la vallee de la Columbia', 'Chambre de commerce du Grand Victoria', 'Chambre de commerce du district de Horsefly', 'Chambre de commerce et district de Fort St. James', 'Chambre de commerce italienne au Canada - Vancouver Edmonton Calgary  / Camera di C', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society', "Chemainus Community Schools' Association", 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre of Greater Vancouver', 'Churchill Gateway Development Corp.', 'Cite de Lumby', 'Cite de North Vancouver', 'Cite de Port Coquitlam', 'Cite de Saanich', 'Cite de Vancouver', 'Cite de West Vancouver', 'Claresholm Community Centre Association et municipalite de Claresholm', 'Clive Athletic and Agriculture Society', 'Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Club Ile-des-Chenes', 'Club Kinsmen de Boissevain', 'Club Lions de Parksville', 'Club Lions de Valemount', 'Club Rotary de Selkirk Manitoba Canada, inc.', 'Club Sportif Iberville', 'Club United Riders of Crowsnest', 'Club communautaire de Saturna', 'Club de canoe de Fort Langley', 'Club de culture physique Westmount', 'Club de curling Garrison (Calgary)', 'Club de curling Royal City', 'Club de curling de Dawson Creek et Ville de Dawson', 'Club de curling de Gibsons', 'Club de curling de Kamloops', 'Club de curling de Nanaimo', 'Club de curling de Salmon Arm', 'Club de curling de St. Albert', 'Club de curling de Vulcan', "Club de gymnastique d'Airdrie et du district", 'Club de gymnastiques Glacier', 'Club de motoneige de Prince George', 'Club de rugby de Cowichan', 'Club de ski de Grande Prairie', 'Club de ski nordique Snow Valley', 'Club de ski nordique de Nelson', 'Club de tennis de Calgary', 'Club de tennis de Red Deer', 'Club de yacht Royal Victoria', 'Club des garcons et filles de Winnipeg inc.', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership', 'Cochrane Youth Association', 'Collectivites de demain, Partenaires pour la durabilite inc.', 'College Camosun', 'College Educacentre', 'College Great Plains', 'College Keyano', 'College Lakeland', 'College Norquest', 'College Northern Lights', 'College Northlands', 'College Okanagan', 'College Portage', 'College Red Deer', 'College Selkirk', 'College communautaire Assiniboine', 'College communautaire Assiniboine, campus Parkland', 'College communautaire Northwest', 'College de New Caledonia', 'College of the Rockies', 'College regional Cumberland', 'College regional Southeast', 'College regional de Grande Prairie', 'College regional de Parkland', 'College regional du Nord-Ouest', 'College universitaire du Nord', 'Columbia Valley Cycling Society', 'Commission des loisirs de Fort Vermilion', 'Commission des loisirs de Grandview et du district', 'Commission des loisirs de Roblin Shell River Hillsburg', 'Commission des loisirs de Roe Lake et du district', 'Commission scolaire du district scolaire no 54 (Bulkley Valley)', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Manitoba Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Comox Valley Economic Development Society', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', 'Comte de Camrose no 22', 'Comte de Grande Prairie no 1', 'Comte de Lac La Biche', 'Comte de Lac Ste. Anne', 'Comte de Leduc', 'Comte de Mackenzie', 'Comte de Mountain View', 'Comte de Parkland', 'Comte de Smoky Lake', 'Comte de Strathcona', 'Comte de Wetaskiwin no 10', 'Comte de Woodlands', 'Comte de Yellowhead', 'Conseil central Tahltan', "Conseil d'administration de la Bibliotheque de Red Deer", "Conseil d'administration du parc provincial Cedar Point Clas s &lt;&lt; C &gt;&gt; et la Likely Community Forest Society", "Conseil de developpement economique de l'Alberta", 'Conseil de la cooperation de la Saskatchewan limitee', 'Conseil de la municipalite de McKenzie', "Conseil de la porte d'entree internationale du Manitoba", "Conseil des gouverneurs de l'Universite de Calgary", "Conseil des gouverneurs de l'Universite de l'Alberta", 'Conseil des gouverneurs du College Red River', 'Conseil des gouverneurs du Southern Alberta Institute of Technology', 'Conseil du cimetiere Schara Tzedeck', "Conseil du village d'Old Massett", 'Conseil du village de Kitamaat', 'Conseil recreatif de Birch Hills et du district', "Conseil scolaire de l'arrondissement scolaire no 36 (Surrey)", "Conseil scolaire de l'arrondissement scolaire no 39 (Vancouver)", "Conseil scolaire de l'arrondissement scolaire no 44 (North Vancouver)", 'Conseil scolaire du district scolaire no 28', 'Conseil tribal de Carrier Chilcotin', "Cook's Creek Community Centre Inc.", 'Cooperative communautaire de Dorintosh', "Cooperative de credit d'Assiniboine", 'Cooperative de credit de Saskatoon (2002)', 'Corporation de la ville de Grand Forks', 'Corvus Energy Ltd.', 'Cosmopolitan Industries ltee', 'Council of Tourism Associations of British Columbia', 'Covenant Health', 'Cowichan Station Area Association', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', "Cumberland/Oxford Community League (COCL) et la Ville d'Edmonton", 'D.U.L. de Cranberry Portage', 'DWB Consulting Services Ltd.', 'Dancing Sky Theatre Inc.', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc.', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', "District d'Elkford", "District d'Invermere", "District d'Ucluelet", "District d'amelioration de la pointe Ships", 'District de 100 Mile House', 'District de Chetwynd', 'District de Clearwater', 'District de Fort St. James', 'District de Highlands', 'District de Houston', 'District de Kent', 'District de Kitimat', 'District de Lillooet', 'District de Logan Lake', 'District de Mackenzie', 'District de Maple Ridge', 'District de Mission', 'District de Sparwood', 'District de Taylor', 'District de Tofino', 'District de Tumbler Ridge', 'District de Vanderhoof', 'District de Wells', 'District de West Kelowna', 'District de Windermere de la Legion royale canadienne', 'District municipal de Peace no 135', 'District municipal de Taber', 'District municipal de Wainwright (no 61)', "District regional d'Alberni-Clayoquot", "District regional d'East Kootenay", "District regional d'Okanagan-Similkameen", 'District regional de Bulkley-Nechako', 'District regional de Cariboo', 'District regional de Central Kootenay', 'District regional de Central Okanagan', 'District regional de Columbia Shuswap', 'District regional de Comox Valley', 'District regional de Cowichan Valley', 'District regional de Fraser-Fort George', 'District regional de Kootenay Boundary', 'District regional de Nanaimo', 'District regional de Peace River', 'District regional de Strathcona', 'District regional de Sunshine Coast', 'District regional de Thompson-Nicola', 'District regional de la capitale', 'District regional de la vallee du Fraser', "District regional du Nord de l'Okanagan", "District regional du Nord de l'Okanagan et Corporation de la ville de Vernon", 'District scolaire de Mystery Lake', 'District scolaire no 69 Northern Lights', 'Districts de Mackenzie et de Fort St. James', 'Division scolaire Louis Riel', 'Division scolaire Sun West', 'Division scolaire de River East Transcona', 'Division scolaire de Seine River', "Division scolaire de Sturgeon no 24 et Association de levee de fonds de l'ecole Namao", 'Division scolaire no 1 de Winnipeg', 'Division scolaire no 111 de Creighton', 'Drake Forestry Services Ltd.', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'EPCOR CENTRE for the Performing Arts', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'East Side Eagles Football Club Inc.', 'Eastside Movement for Business and Economic Renewal Society', "Eckville Community Centre Society et municipalite d'Eckville", 'EcoSmart Foundation Inc.', 'Ecole elementaire Holy Family et RCSSD no 20 de St. Paul', 'Ecole secondaire Kelvin High School', "Ecole secondaire d'Elmwood", 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc.', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Eglise anglicane de la Paroisse de St. Agnes', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elkhorn &amp; District Community Center Incorporated', 'Ellerslie Rugby Park Incorporated', "Elmwood Community League et Ville d'Edmonton", 'Elmwood Giants Baseball Club Inc.', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Energy Aware Technology Inc.', 'Ernst &amp; Young LLP', 'Etablissement metis de Gift Lake', 'Etablissement metis de Kikino', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', 'FPInnovations et la societe forestiere des Premieres nation s', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Farm Genesis Group Marketing Inc.', 'Farmers Market Association of Manitoba Co-Op Inc.', 'Federation nationale ukrainienne du Canada', 'Federation nationale ukrainienne du Canada, division de Winnipeg', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie and District Historical Society', 'Festival du voyageur inc.', 'Filiale 110 de la Legion royale du Canada et La Societe canadienne de la Croix-Rouge', "Filiale de Calgary de l'Ukrainian Youth Association of Canada (CYM)", 'Filiale no 109 de la Legion royale canadienne', 'Filiale no 118 de la Legion royale canadienne', 'Filiale no 197 de Bow Island de la Legion royale canadienne', 'Filiale no 269 de la Legion royale canadienne', 'Filiale no 35 de la Legion royale canadienne', 'Filiale no 6 Cloverdale de la Legion royale canadienne', 'Filiale no 7 Transcona de la Legion royale canadienne', 'Filiale no 76 de la Legion royale canadienne', 'Film Training Manitoba Inc.', 'Firebird Technologies Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Fondation Asie-Pacifique du Canada', "Fondation Emeraude de l'Alberta pour l'excellence en environnement", 'Fondation Rick Hansen', "Fondation de l'energie renouvelable d'Anmore", "Fondation de l'hopital de readaptation Glenrose", "Fondation de l'hopital universitaire et Conseil des gouverneurs de l'Universite de l'Alberta", 'Fondation de la region economique du Nord-Ouest du Pacifique', 'Fondation des villes durables', "Fondation du Centre multiculturel Chinatown d'Edmonton", 'Fondation du Club de curling Elkhorn', 'Fondation du saumon du Pacifique', "Fonds de fiducie du Conseil d'education de la Division scolaire no 13 de Saskatoon", 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', "Fort Edmonton Management Company et Ville d'Emonton", 'Fort Garry Lions Football Club Inc.', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Ski Club', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', "Forum d'exploration mondiale canadien - FEMC", 'Forum pour les femmes entrepreneurs en Colombie-Britannique', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser Thompson Indian Services Society', 'Friends of Camp St. Basil Society et Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garde cotiere auxiliaire canadienne (Pacifique) Inc.', 'Garden City Community Centre Inc.', 'Garth Homer Foundation', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome Colombie-Britannique', 'Genome Prairie', 'GeoExchange BC', 'Gilmore Park Community League et comte de Strathcona', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glenbow Ranch Park Foundation', "Glenora Community League et Ville d'Edmonton", 'Glenwood Community Centre Inc.', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', "Gouvernement de Yunesit'in - Bande indienne de Stone", "Gouvernement des Premieres nations de Xeni Gwet'in", 'Government House Foundation', 'Governors of the University of Alberta et Genome Alberta', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', "Groupe de l'Association canadienne des normes", 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'H. R. MacMillan Space Centre Society', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', "Habitat pour l'humanite Saskatoon inc.", 'Haynes Contracting', 'Haysboro Community Association', 'Hazel Bluff Community Agricultural Society (une div. de The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', "Heritage Point Community League et Ville d'Edmonton", 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet Manufacturing Ltd.', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holyrood Community League et Ville d'Edmonton", 'Hopital general de Saint-Boniface', 'Huntington Hills Community Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Parc national des Lacs-Waterton', 'In-Definite Arts', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', "Innovation and Development Corporation de l'Universite de Victoria", 'Innovative Trauma Care Inc.', 'Institut Glenbow-Alberta', 'Institut canadien de recherches en genie forestier', 'Institut de technologie de la Colombie-Britannique', 'Institut international du Canada pour le grain', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'J. Hinsche Contracting Ltd.', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', "Jasper Place Curling Club et Ville d'Edmonton", 'Jeux mondiaux des policiers et pompiers 2009 en Colombie-Britannique', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton et Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kaslo &amp; District Arena Association', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Khowutzun Forest Service Ltd', "Kilkenny Community League, Ville d'Edmonton et Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kla-how-eya Aboriginal Centre of Surrey Aboriginal Cultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', "L'Electronic Industry Association of Alberta", "L'association commerciale Hong Kong-Canada", 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', 'La Britannia Beach Historical Society et la Britannia Development Corporation', 'La Chambre de commerce de Winnipeg', 'La Chambre de commerce du Manitoba', "La Chambre economique de l'Alberta", 'La Corporation de Delta', 'La Corporation de Gwaalagaa Naay', 'La Corporation de la ville de New Westminster', 'La Corporation de la ville de North Vancouver', 'La Corporation de la ville de Port Coquitlam', 'La Corporation de la ville de White Rock', 'La Corporation du canton de Langley', 'La Corporation du district de Peachland', 'La Corporation du village de Clinton', 'La Corporation du village de Warfield', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La Winnipeg Foundation', 'La corporation du village de Burns Lake', 'La federation des francophones de Saskatoon Inc.', "La maison de l'Ukraine a Vita", 'La province de la C.-B., representee par le ministre des Finances', 'La societe agricole de La Crete', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Langley Minor Footb</t>
         </is>
@@ -1768,18 +1921,26 @@
       <c r="P20" t="n">
         <v>10</v>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
         <v>7190</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>7</v>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>['AB', 'BC', 'MB', 'ON', 'QC', 'SK', 'WA']</t>
         </is>
@@ -1838,18 +1999,26 @@
       <c r="P21" t="n">
         <v>10</v>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Zenon Park</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Winnipeg</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
         <v>31286</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>632</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>['100 Mile House', '108 Mile Ranch', 'Abbotsford', 'Abbottsford', 'Aberdeen', 'Agassiz', 'Air Ronge', 'Airdrie', 'Alameda', 'Alberta Beach', 'Alexis Creek', 'Allan', 'Alliance', 'Altona', 'Anmore', 'Arborg', 'Armstrong', 'Ashcroft', 'Ashern', 'Athabasca', 'Balcarres', 'Barkerville', 'Barrhead', 'Barriere', 'Beaumont', 'Beausejour', 'Beauval', 'Beechy', 'Bella Bella', 'Berens River', 'Berwyn', 'Big River', 'Biggar', 'Binscarth', 'Birch Hills', 'Birsay', 'Black Diamond', 'Blackfalds', 'Blackie', 'Blaine Lake', 'Blairmore', 'Blue River', 'Boissevain', 'Bonnyville', 'Borden', 'Boston Bar', 'Bow Island', 'Bowden', 'Bowen Island', 'Boyle', 'Bragg Creek', 'Brandon', 'Britannia Beach', 'Broadview', 'Brooks', 'Bruderheim', 'Brunkild', 'Bruno', 'Buck Lake', 'Buffalo Head Prairie', 'Buffalo Narrows', 'Burnaby', 'Burns Lake', 'Cache Creek', 'Calgary', 'Campbell River', 'Camperville', 'Camrose', 'Canal Flats', 'Candle Lake', 'Canmore', 'Canwood', 'Carberry', 'Cardston', 'Carlyle', 'Carman', 'Carmen', 'Carnduff', 'Carrot River', 'Carstairs', 'Castlegar', 'Chase', 'Chauvin', 'Chemainus', 'Chestermere', 'Chetwynd', 'Chilliwack', 'Chitek Lake', 'Christina Lake', 'Churchill', 'Clairmont', 'Claresholm', 'Clearwater', 'Clinton', 'Clive', 'Coal Harbour', 'Coaldale', 'Cochin', 'Cochrane', 'Coldstream', 'Coleman', 'Colonsay', 'Comox', 'Consort', 'Coquitlam', 'Coronation', 'Courtenay', 'Craik', 'Cranberry Portage', 'Cranbrook', 'Creighton', 'Creston', 'Cross Lake', 'Crossfield', 'Crystal City', 'Cupar', 'Cymric', 'Dalmeny', 'Darwell', 'Dauphin', 'Davidson', 'Dawson Creek', 'Deadwood', 'Dease Lake', 'Debden', 'Debolt', 'Delburne', 'Delisle', 'Delta', 'Denare Beach', 'Denman Island', 'Devon', 'Didsbury', 'Dinsmore', 'Donnelly', 'Dorintosh', 'Drayton Valley', 'Drumheller', 'Duchess', 'Duck Lake', 'Duncan', 'Dundurn', 'Dysart', 'EDMONTON', 'East Coulee', 'East Selkirk', 'East St. Paul', 'Eckville', 'Edam', 'Edgerton', 'Edmonton', 'Edson', 'Elbow', 'Elie', 'Elkford', 'Elkhorn', 'Elkwater', 'Emerson', 'Enderby', 'Englefeld', 'Enilda', 'Esterhazy', 'Estevan', 'Fairview', 'Fanny Bay', 'Fernie', 'Flin Flon', 'Foam Lake', 'Fond Du Lac', 'For McMurray', 'Foremost', 'Forest Grove', 'Forestburg', 'Fort Langley', 'Fort Macleod', 'Fort McMurray', 'Fort Nelson', "Fort Qu'appelle", 'Fort Saskatchewan', 'Fort St John', 'Fort St. James', 'Fort St. John', 'Fort Steele', 'Fort Vermilion', 'Fox Valley', 'Fraser Lake', 'Fraserwood', 'Frontier', 'Fruitvale', 'GIFT LAKE', 'Gabriola', 'Gibbons', 'Gibsons', 'Gilbert Plains', 'Gimli', 'Gleichen', 'Glentworth', 'Golden', 'Grand Forks', 'Grande Pointe', 'Grande Prairie', 'Grandview', 'Granisle', 'Gravelbourg', 'Green Lake', 'Greenville', 'Greenwood', 'Grenfell', 'Gretna', 'Grouard', 'Hagensborg', 'Haisla', 'Hamiota', 'Hanceville', 'Hanna', 'Harrison Mills', 'Hartley Bay', 'Hazelridge', 'Hazelton', 'Hazlet', 'Headingley', 'Herschel', 'High Level', 'High Prairie', 'High River', 'Hill Spring', 'Hinton', 'Hodgeville', 'Hope', 'Horsefly', 'Houston', 'Hudson Bay', 'Humboldt', 'Hythe', 'Ile Des Chenes', 'Ile des Chenes', 'Ile-A-La-Crosse', 'Imperial', 'Indian Head', 'Innisfail', 'Invermere', 'Irma', 'Irricana', 'Ituna', 'Jasper', 'KAMLOOPS', 'Kamloops', 'Kamsack', 'Kaslo', 'Kelliher', 'Kelowna', 'Kelvington', 'Kenaston', 'Keremeos', 'Kerrobert', 'Kikino', 'Killam', 'Kimberley', 'Kincolith', 'Kindersley', 'Kinistino', 'Kinuso', 'Kitimat', 'Kitscoty', 'Kronau', 'La Crete', 'La Ronge', 'Lac Du Bonnet', 'Lac La Biche', 'Lac La Hache', 'Lacombe', 'Ladysmith', 'Lafleche', 'Lake Cowichan', 'Lake Errock', 'Lake Louise', 'Lamont', 'Langenburg', 'Langford', 'Langham', 'Langley', 'Lanigan', 'Leader', 'Leduc', 'Legal', 'Lemberg', 'Lethbridge', 'Likely', 'Lillooet', 'Lions Bay', 'Lloydminster', 'Logan Lake', 'Lomond', 'London', 'Lone Butte', 'Loreburn', 'Lorette', 'Lumby', 'Lumsden', 'Lundar', 'Lynn Lake', 'Lytton', 'MERRITT', 'Mackenzie', 'Macklin', 'Madden', 'Madeira Park', 'Magrath', 'Maidstone', 'Mallaig', 'Manitou', 'Manitou Beach', 'Mannville', 'Mansons Landing', 'Maple Creek', 'Maple Ridge', 'Marengo', 'Martensville', 'Maryfield', 'Masset', 'Mayerthorpe', 'McAuley', 'McBride', 'McCreary', 'McLeod Lake', 'Meacham', 'Meadow Creek', 'Meadow Lake', 'Medicine Hat', 'Melfort', 'Melita', 'Melville', 'Merritt', 'Merville', 'Mervin', 'Midale', 'Milden', 'Millarville', 'Millet', 'Minton', 'Mirror', 'Mission', 'Moberly Lake', 'Montreal', 'Moose Jaw', 'Moosomin', 'Morden', 'Morinville', 'Morris', 'Mount Washington', 'Muskoday', 'Naicam', 'Nakusp', 'Nampa', 'Nanaimo', 'Nanton', 'Neepawa', 'Nelson', 'Nelson House', 'Nemaiah Valley', 'Neudorf', 'New Hazelton', 'New Westminster', 'Nipawin', 'Nisku', 'Niverville', 'Nobleford', 'Nokomis', 'Norquay', 'North Battleford', 'North Vancouver', 'North York', 'Notre Dame De Lourdes', 'OTTAWA', 'Oak River', 'Oakbank', 'Okotoks', 'Olds', 'Oliver', 'Onanole', 'Onoway', 'Opaskwayak', 'Osler', 'Osoyoos', 'Ottawa', 'Outlook', 'Oyen', 'PEACHLAND', 'Parkland County', 'Parksville', 'Paynton', 'Peace River', 'Peachland', 'Pemberton', 'Pender Island', 'Penhold', 'Pense', 'Penticton', 'Perdue', 'Picture Butte', 'Pierceland', 'Pilot Butte', 'Pincher Creek', 'Pine Falls', 'Pitt Meadows', 'Plamondon', 'Plum Coulee', 'Point-Claire', 'Ponoka', 'Port Alberni', 'Port Alice', 'Port Coquitlam', 'Port Hardy', 'Port McNeill', 'Port Moody', 'Port Simpson', 'Portage La Prairie', 'Portage la Prairie', 'Powell River', 'Powerview', 'Preeceville', 'Prince Albert', 'Prince George', 'Prince Rupert', 'Princeton', 'Provost', "Prud'Homme", 'Punnichy', 'Qualicum Beach', 'Quesnel', 'Quill Lake', 'RED DEER', 'Radium Hot Springs', 'Radville', 'Ranfurly', 'Raymond', 'Red Deer', 'Redcliff', 'Redvers', 'Redwater', 'Regina', 'Reston', 'Revelstoke', 'Richmond', 'Rimbey', 'Riske Creek', 'Riverhurst', 'Rivers', 'Riverton', 'Roblin', 'Rock Creek', 'Rorketon', 'Rose Valley', 'Rosebud', 'Rosemary', 'Rosenort', 'Rosetown', 'Rossland', 'Rouleau', 'Round Hill', 'Russell', 'Rycroft', 'SALMON ARM', 'SASKATOON', 'SIKSIKA', 'Saanichton', 'Saint-Boniface', 'Saint-Laurent', 'Saint-Modeste', 'Sainte-Anne', 'Salmo', 'Salmon Arm', 'Sanford', 'Sangudo', 'Saskatoon', 'Saturna Island', 'Savona', 'Scandia', 'Seattle', 'Seba Beach', 'Sechelt', 'Selkirk', 'Shalalth', 'Shaunavon', 'Shellbrook', 'Sherwood Park', 'Shoal Lake', 'Sidney', 'Siksika', 'Silton', 'Silverton', 'Skidegate', 'Slave Lake', 'Smithers', 'Smoky Lake', 'Snow Lake', 'Somerset', 'Sooke', 'Sorrento', 'Souris', 'Southey', 'Southport', 'Sparwood', 'Spences Bridge', 'Spiritwood', 'Sprague', 'Springside', 'Spruce Grove', 'Spruce View', 'Squamish', 'St .Jean Baptiste', 'St Adolphe', 'St Andrews', 'St Laurent', 'St Lina', 'St Malo', 'St Paul', 'St Pierre Jolys', 'St Walburg', 'St. Albert', 'St. Georges', 'St. Paul', 'St. Pierre-Jolys', 'Stalwart', 'Star City', 'Stavely', 'Ste Anne', 'Ste Rose Du Lac', 'Ste. Agathe', 'Steinbach', 'Stettler', 'Stirling', 'Stony Mountain', 'Stony Plain', 'Stoughton', 'Strasbourg', 'Strathclair', 'Strathmore', 'Summerland', 'Sun Peaks', 'Sundre', 'Surrey', 'Swan Hills', 'Swan Lake', 'Swan River', 'Swift Current', 'Sylvan Lake', 'Taber', "Tatl'ah (Dease Lake)", 'Tatla Lake', 'Taylor', 'Telkwa', 'Terrace', 'The Pas', 'Theodore', 'Thompson', 'Thorsby', 'Three Hills', 'Tisdale', 'Tofield', 'Tofino', 'Topley', 'Toronto', 'Trail', 'Treherne', 'Tumbler Ridge', 'Turner Valley', 'Turnor Lake', 'Two Hills', 'Tyndall', 'Ucluelet', 'Unity', 'VIRDEN', 'Valemount', 'Valhalla Centre', 'Vancouver', 'Vanderhoof', 'Vanguard', 'Vassar', 'Vauxhall', 'Vegreville', 'Vermilion', 'Vernon', 'Vibank', 'Victoria', 'Victoria Beach', 'Viking', 'Viscount', 'Vita', 'Vonda', 'Vulcan', 'WINNIPEG', 'Wadena', 'Wainwright', 'Wakaw', 'Waldheim', 'Walsh', 'Warman', 'Waskada', 'Watrous', 'Watson', 'Wawanesa', 'Wells', 'Wembley', 'West Kelowna', 'West St Paul', 'West Vancouver', 'Westerose', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whistler', 'White City', 'White Rock', 'Whitecap', 'Whitecourt', 'Whitewood', 'Wilkie', 'Williams Lake', 'Windermere', 'Winfield', 'Winkler', 'Winlaw', 'Winnipeg', 'Winnipegosis', 'Woodlands', 'Worsley', 'Wynyard', 'Yellow Grass', 'Yorkton', 'Zeballos', 'Zenon Park']</t>
         </is>
@@ -1908,18 +2077,26 @@
       <c r="P22" t="n">
         <v>15</v>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
         <v>3591</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>8</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>['1', '10', '2', '3', '4', '5', '6', '7']</t>
         </is>

--- a/examples/Canada OGD/wd/profile.xlsx
+++ b/examples/Canada OGD/wd/profile.xlsx
@@ -450,15 +450,20 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -531,12 +536,15 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U2" t="n">
         <v>16031</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>2797</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>['"http://www.w3.org/TR/xhtml1/DTD/xhtml1-strict.dtd"&gt;', '10018', '10025', '10106', '10108', '10138', '10142', '10144', '10160', '10173', '10174', '10175', '10181', '10185', '10189', '10196', '10197', '10200', '10201', '10202', '10208', '10219', '10233', '10234', '10235', '10237', '10238', '10240', '10242', '10243', '10244', '10245', '10246', '10251', '10255', '10256', '10258', '10271', '10272', '10276', '10283', '10286', '10291', '10298', '10299', '10307', '10310', '10318', '10319', '10323', '10331', '10337', '10370', '10371', '10372', '10373', '10389', '10392', '10402', '10406', '10411', '10418', '10422', '10423', '10424', '10425', '10428', '10430', '10433', '10440', '10443', '10446', '10452', '10456', '10461', '10466', '10475', '10485', '10486', '10491', '10492', '10493', '10495', '10496', '10498', '10499', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '10510', '10511', '10512', '10513', '10514', '10516', '10518', '10522', '10523', '10526', '10529', '10532', '10536', '10543', '10546', '10558', '10559', '10563', '10574', '10597', '10598', '10599', '10602', '10615', '10631', '10635', '10642', '10643', '10646', '10650', '10659', '10663', '10670', '10674', '10677', '10678', '10680', '10688', '10696', '10705', '10710', '10711', '10713', '10715', '10716', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '10731', '10733', '10734', '10735', '10737', '10738', '10741', '10742', '10743', '10744', '10747', '10749', '10751', '10756', '10762', '10763', '10768', '10774', '10780', '10781', '10782', '10783', '10789', '10798', '10804', '10808', '10812', '10829', '10844', '10850', '10861', '10864', '10865', '10867', '10869', '10874', '10875', '10876', '10880', '10881', '10884', '10886', '10888', '10889', '10891', '10902', '10911', '10915', '10920', '10921', '10923', '10929', '10931', '10932', '10933', '10936', '10941', '10942', '10944', '10949', '10950', '10955', '10956', '10957', '10958', '10960', '10966', '10970', '10971', '10973', '10977', '10979', '10982', '10984', '10986', '10987', '10988', '10989', '10990', '10992', '10993', '10996', '10997', '10999', '11001', '11004', '11007', '11008', '11009', '11012', '11022', '11025', '11026', '11032', '11034', '11035', '11037', '11038', '11040', '11043', '11044', '11048', '11049', '11050', '11051', '11052', '11053', '11054', '11055', '11058', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11072', '11073', '11078', '11080', '11083', '11086', '11089', '11090', '11094', '11099', '11101', '11102', '11104', '11105', '11106', '11108', '11109', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '11120', '11122', '11125', '11126', '11131', '11134', '11136', '11139', '11140', '11142', '11143', '11145', '11147', '11149', '11150', '11153', '11156', '11157', '11159', '11160', '11164', '11165', '11167', '11168', '11169', '11170', '11173', '11174', '11175', '11177', '11178', '11184', '11188', '11189', '11191', '11193', '11195', '11198', '11199', '11205', '11216', '11218', '11219', '11220', '11221', '11222', '11223', '11225', '11226', '11229', '11231', '11235', '11236', '11237', '11241', '11245', '11249', '11250', '11252', '11255', '11256', '11258', '11262', '11264', '11270', '11279', '11280', '11281', '11282', '11284', '11288', '11289', '11290', '11294', '11295', '11297', '11298', '11301', '11307', '11308', '11310', '11312', '11315', '11317', '11318', '11320', '11321', '11322', '11327', '11328', '11329', '11330', '11332', '11334', '11336', '11338', '11340', '11347', '11349', '11350', '11353', '11357', '11359', '11360', '11361', '11362', '11363', '11364', '11372', '11375', '11377', '11382', '11383', '11393', '11395', '11408', '11409', '11411', '11412', '11413', '11414', '11415', '11418', '11419', '11420', '11428', '11429', '11431', '11432', '11436', '11438', '11442', '11443', '11445', '11454', '11459', '11460', '11462', '11463', '11466', '11476', '11482', '11489', '11491', '11497', '11499', '11500', '11502', '11511', '11512', '11513', '11516', '11518', '11519', '11520', '11524', '11525', '11528', '11539', '11544', '11545', '11547', '11549', '11550', '11551', '11552', '11555', '11556', '11557', '11558', '11559', '11561', '11562', '11564', '11565', '11566', '11568', '11572', '11573', '11574', '11575', '11576', '11577', '11580', '11582', '11583', '11587', '11591', '11592', '11598', '11600', '11602', '11611', '11612', '11615', '11617', '11619', '11631', '11635', '11647', '11651', '11655', '11656', '11657', '11658', '11661', '11662', '11663', '11665', '11666', '11667', '11670', '11671', '11672', '11673', '11680', '11682', '11685', '11686', '11687', '11689', '11690', '11691', '11692', '11694', '11695', '11696', '11697', '11699', '11704', '11706', '11707', '11709', '11711', '11712', '11716', '11718', '11720', '11721', '11723', '11726', '11733', '11738', '11739', '11741', '11743', '11747', '11752', '11753', '11754', '11759', '11760', '11762', '11763', '11766', '11767', '11768', '11771', '11773', '11778', '11782', '11784', '11785', '11788', '11789', '11793', '11794', '11800', '11801', '11802', '11804', '11805', '11809', '11810', '11812', '11815', '11816', '11821', '11823', '11824', '11826', '11828', '11830', '11831', '11834', '11840', '11841', '11843', '11844', '11848', '11849', '11850', '11851', '11852', '11855', '11857', '11859', '11862', '11864', '11865', '11869', '11871', '11873', '11878', '11881', '11882', '11884', '11886', '11887', '11889', '11891', '11896', '11897', '11899', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '11910', '11912', '11914', '11916', '11917', '11918', '11926', '11930', '11934', '11935', '11940', '11944', '11952', '11955', '11958', '11960', '11962', '11968', '11972', '11973', '11974', '11978', '11979', '11980', '11984', '11987', '11988', '11991', '11992', '12000', '12001', '12003', '12009', '12010', '12011', '12015', '12016', '12017', '12019', '12023', '12027', '12029', '12039', '12047', '12048', '12051', '12054', '12058', '12059', '12060', '12061', '12063', '12068', '12069', '12070', '12072', '12073', '12078', '12081', '12084', '12090', '12091', '12094', '12095', '12096', '12100', '12102', '12109', '12116', '12118', '12119', '12121', '12129', '12130', '12133', '12135', '12136', '12137', '12138', '12139', '12140', '12141', '12142', '12143', '12144', '12147', '12148', '12150', '12153', '12154', '12156', '12157', '12158', '12159', '12160', '12161', '12162', '12163', '12165', '12166', '12168', '12171', '12172', '12175', '12176', '12177', '12180', '12181', '12183', '12184', '12185', '12189', '12191', '12192', '12193', '12194', '12196', '12200', '12201', '12202', '12203', '12204', '12213', '12214', '12216', '12217', '12218', '12219', '12220', '12221', '12222', '12225', '12226', '12227', '12228', '12230', '12231', '12232', '12234', '12235', '12239', '12240', '12244', '12245', '12246', '12247', '12248', '12250', '12251', '12256', '12261', '12262', '12263', '12264', '12265', '12270', '12277', '12280', '12281', '12283', '12285', '12286', '12290', '12291', '12292', '12293', '12294', '12296', '12303', '12310', '12312', '12316', '12317', '12326', '12327', '12332', '12339', '12342', '12353', '12355', '12356', '12360', '12361', '12371', '12374', '12377', '12379', '12382', '12384', '12385', '12391', '12400', '12404', '12405', '12409', '12417', '12418', '12424', '12431', '12436', '12440', '12444', '12449', '12451', '12454', '12458', '12460', '12462', '12463', '12464', '12466', '12468', '12469', '12470', '12472', '12474', '12480', '12485', '12486', '12489', '12491', '12494', '12495', '12499', '12502', '12503', '12509', '12511', '12517', '12518', '12524', '12525', '12527', '12528', '12530', '12531', '12533', '12536', '12540', '12542', '12543', '12556', '12567', '12568', '12571', '12573', '12574', '12577', '12585', '12593', '12595', '12596', '12597', '12601', '12602', '12603', '12605', '12606', '12609', '12610', '12611', '12614', '12615', '12616', '12621', '12622', '12624', '12626', '12627', '12628', '12629', '12630', '12631', '12632', '12634', '12635', '12636', '12637', '12638', '12639', '12643', '12648', '12649', '12651', '12652', '12656', '12660', '12661', '12662', '12663', '12666', '12667', '12668', '12670', '12671', '12672', '12673', '12674', '12677', '12678', '12680', '12682', '12684', '12686', '12687', '12689', '12691', '12692', '12693', '12696', '12697', '12698', '12707', '12711', '12712', '12713', '12720', '12724', '12726', '12732', '12741', '12746', '12750', '12761', '12766', '12772', '12778', '12779', '12781', '12783', '12791', '12816', '12822', '12835', '12848', '12868', '12869', '12873', '12874', '12886', '12888', '12896', '12897', '12910', '12912', '12915', '12917', '12922', '12923', '12924', '12928', '12929', '12931', '12934', '12935', '12936', '12939', '12942', '12943', '12945', '12947', '12948', '12950', '12951', '12952', '12953', '12954', '12955', '12957', '12958', '12960', '12961', '12962', '12963', '12964', '12969', '12970', '12971', '12972', '12973', '12980', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '13000', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13010', '13015', '13018', '13020', '13025', '13032', '13034', '13037', '13040', '13041', '13042', '13048', '13049', '13065', '13068', '13080', '13084', '13093', '13096', '13105', '13108', '13114', '13115', '13117', '13119', '13120', '13121', '13123', '13124', '13125', '13128', '13129', '13131', '13132', '13133', '13136', '13140', '13141', '13143', '13145', '13146', '13147', '13148', '13149', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13158', '13159', '13160', '13161', '13162', '13163', '13166', '13168', '13169', '13171', '13172', '13174', '13175', '13176', '13177', '13178', '13179', '13180', '13181', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '13192', '13193', '13194', '13201', '13203', '13206', '13208', '13209', '13210', '13212', '13213', '13215', '13216', '13218', '13222', '13223', '13224', '13225', '13229', '13232', '13235', '13240', '13241', '13243', '13245', '13247', '13248', '13249', '13250', '13251', '13252', '13254', '13255', '13258', '13260', '13261', '13262', '13264', '13265', '13266', '13268', '13269', '13270', '13272', '13273', '13274', '13278', '13279', '13280', '13281', '13282', '13283', '13287', '13288', '13289', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13299', '13301', '13302', '13303', '13304', '13306', '13308', '13309', '13310', '13312', '13313', '13316', '13317', '13318', '13320', '13321', '13322', '13323', '13324', '13325', '13327', '13330', '13332', '13338', '13339', '13340', '13342', '13343', '13344', '13345', '13348', '13350', '13351', '13352', '13353', '13354', '13355', '13358', '13361', '13363', '13364', '13366', '13370', '13372', '13373', '13376', '13377', '13379', '13380', '13382', '13383', '13384', '13385', '13387', '13390', '13391', '13393', '13394', '13395', '13396', '13397', '13398', '13400', '13401', '13404', '13405', '13406', '13407', '13409', '13410', '13411', '13412', '13413', '13414', '13416', '13417', '13418', '13419', '13420', '13421', '13422', '13424', '13426', '13430', '13431', '13432', '13433', '13434', '13435', '13436', '13438', '13439', '13441', '13443', '13444', '13446', '13447', '13448', '13449', '13450', '13451', '13452', '13453', '13454', '13455', '13457', '13458', '13459', '13461', '13463', '13465', '13466', '13467', '13468', '13469', '13470', '13471', '13472', '13473', '13474', '13476', '13480', '13481', '13482', '13484', '13485', '13486', '13487', '13490', '13491', '13493', '13495', '13496', '13499', '13501', '13502', '13503', '13504', '13505', '13508', '13509', '13510', '13511', '13512', '13513', '13516', '13517', '13521', '13523', '13528', '13529', '13530', '13532', '13536', '13537', '13540', '13551', '13553', '13555', '13556', '13558', '13559', '13560', '13562', '13563', '13573', '13576', '13577', '13578', '13579', '13583', '13586', '13587', '13588', '13589', '13592', '13593', '13596', '13597', '13598', '13599', '13600', '13601', '13602', '13605', '13606', '13610', '13613', '13614', '13615', '13617', '13618', '13620', '13621', '13622', '13623', '13624', '13627', '13628', '13629', '13630', '13631', '13638', '13639', '13640', '13641', '13644', '13645', '13646', '13647', '13648', '13649', '13651', '13652', '13659', '13660', '13662', '13663', '13670', '13671', '13672', '13677', '13678', '13679', '13680', '13681', '13683', '13684', '13686', '13689', '13691', '13697', '13698', '13700', '13703', '13706', '13710', '13711', '13712', '13714', '13715', '13717', '13718', '13721', '13722', '13724', '13725', '13727', '13728', '13730', '13731', '13732', '13733', '13734', '13735', '13740', '1978', '2642', '3148', '3268', '3345', '4212', '4214', '4226', '4232', '4242', '4431', '4578', '4623', '4646', '4680', '4696', '4703', '4808', '4833', '4871', '4876', '5019', '5055', '5078', '5164', '5308', '5311', '5315', '5362', '5375', '5378', '5404', '5405', '5479', '5480', '5482', '5488', '5499', '5533', '5535', '5536', '5541', '5542', '5547', '5610', '5612', '5613', '5614', '5621', '5639', '5644', '5650', '5665', '5670', '5673', '5680', '5682', '5683', '5684', '5686', '5692', '5705', '5707', '5711', '5712', '5720', '5722', '5724', '5726', '5734', '5741', '5752', '5753', '5759', '5760', '5763', '5767', '5772', '5775', '5781', '5782', '5783', '5784', '5790', '5794', '5796', '5802', '5803', '5806', '5812', '5814', '5819', '5820', '5824', '5825', '5828', '5829', '5830', '5831', '5841', '5842', '5844', '5848', '5851', '5852', '5853', '5854', '5855', '5856', '5857', '5858', '5859', '5860', '5861', '5862', '5863', '5864', '5865', '5866', '5867', '5868', '5869', '5870', '5871', '5872', '5873', '5874', '5875', '5876', '5877', '5878', '5879', '5882', '5885', '5886', '5890', '5900', '5905', '5907', '5911', '5912', '5917', '5918', '5926', '5934', '5936', '5937', '5938', '5939', '5947', '5948', '5949', '5951', '5952', '5953', '5957', '5958', '5959', '5961', '5962', '5963', '5976', '5978', '5979', '5981', '5982', '5983', '5986', '5989', '5991', '5993', '6000', '6001', '6002', '6003', '6004', '6005', '6006', '6007', '6008', '6009', '6010', '6011', '6012', '6013', '6014', '6015', '6016', '6017', '6018', '6019', '6020', '6021', '6022', '6023', '6024', '6025', '6026', '6027', '6028', '6029', '6030', '6031', '6032', '6033', '6034', '6035', '6037', '6038', '6085', '6090', '6091', '6096', '6115', '6127', '6130', '6138', '6149', '6152', '6156', '6160', '6167', '6168', '6174', '6175', '6176', '6177', '6178', '6179', '6180', '6181', '6182', '6183', '6184', '6185', '6186', '6187', '6188', '6189', '6190', '6191', '6192', '6194', '6196', '6201', '6203', '6205', '6208', '6214', '6216', '6218', '6219', '6220', '6221', '6223', '6224', '6225', '6226', '6227', '6228', '6230', '6231', '6237', '6243', '6247', '6253', '6261', '6262', '6263', '6271', '6273', '6277', '6282', '6286', '6289', '6290', '6300', '6303', '6304', '6305', '6306', '6307', '6360', '6363', '6366', '6367', '6371', '6372', '6373', '6374', '6375', '6379', '6380', '6381', '6387', '6413', '6415', '6417', '6418', '6419', '6420', '6426', '6428', '6432', '6433', '6434', '6443', '6444', '6447', '6449', '6483', '6484', '6487', '6489', '6493', '6494', '6500', '6504', '6509', '6516', '6518', '6521', '6523', '6528', '6529', '6531', '6532', '6533', '6535', '6536', '6549', '6550', '6554', '6556', '6559', '6561', '6563', '6564', '6570', '6571', '6572', '6575', '6577', '6578', '6599', '6601', '6604', '6606', '6607', '6615', '6617', '6618', '6619', '6620', '6621', '6624', '6628', '6632', '6639', '6644', '6647', '6651', '6657', '6669', '6690', '6691', '6692', '6694', '6696', '6697', '6698', '6704', '6712', '6718', '6719', '6720', '6721', '6726', '6727', '6728', '6729', '6730', '6733', '6734', '6737', '6738', '6739', '6747', '6748', '6749', '6751', '6752', '6754', '6755', '6757', '6767', '6768', '6769', '6771', '6776', '6784', '6785', '6786', '6789', '6790', '6791', '6798', '6803', '6804', '6805', '6806', '6807', '6808', '6810', '6811', '6812', '6815', '6817', '6818', '6821', '6822', '6824', '6827', '6837', '6842', '6846', '6847', '6856', '6857', '6858', '6862', '6863', '6864', '6865', '6866', '6867', '6868', '6869', '6872', '6874', '6875', '6877', '6885', '6887', '6888', '6894', '6900', '6901', '6903', '6904', '6908', '6910', '6913', '6917', '6918', '6920', '6922', '6923', '6927', '6929', '6932', '6933', '6939', '6940', '6942', '6943', '6944', '6945', '6947', '6948', '6949', '6952', '6953', '6954', '6955', '6956', '6957', '6959', '6960', '6961', '6962', '6963', '6965', '6966', '6969', '6970', '6971', '6972', '6973', '6974', '6981', '6982', '6991', '7003', '7005', '7008', '7009', '7010', '7012', '7014', '7026', '7028', '7030', '7033', '7034', '7040', '7041', '7042', '7044', '7045', '7051', '7052', '7053', '7054', '7060', '7063', '7068', '7070', '7074', '7080', '7090', '7093', '7098', '7101', '7105', '7114', '7115', '7116', '7117', '7119', '7120', '7126', '7130', '7133', '7135', '7139', '7140', '7141', '7146', '7148', '7149', '7158', '7162', '7166', '7167', '7170', '7172', '7173', '7174', '7184', '7186', '7187', '7188', '7190', '7193', '7195', '7209', '7212', '7213', '7215', '7216', '7222', '7227', '7228', '7229', '7232', '7240', '7242', '7252', '7255', '7259', '7266', '7267', '7268', '7269', '7280', '7281', '7291', '7293', '7300', '7313', '7320', '7321', '7322', '7324', '7325', '7332', '7341', '7345', '7346', '7351', '7356', '7357', '7361', '7368', '7373', '7380', '7383', '7384', '7390', '7395', '7405', '7408', '7410', '7411', '7412', '7413', '7414', '7418', '7425', '7428', '7429', '7432', '7434', '7439', '7449', '7450', '7452', '7455', '7457', '7461', '7491', '7492', '7496', '7503', '7511', '7517', '7518', '7520', '7523', '7525', '7526', '7528', '7531', '7532', '7533', '7534', '7535', '7536', '7537', '7538', '7539', '7542', '7543', '7544', '7545', '7546', '7548', '7549', '7550', '7551', '7552', '7556', '7557', '7558', '7560', '7561', '7563', '7564', '7566', '7569', '7572', '7574', '7575', '7577', '7578', '7579', '7580', '7582', '7586', '7589', '7590', '7592', '7594', '7595', '7596', '7597', '7600', '7601', '7602', '7603', '7604', '7605', '7609', '7611', '7615', '7619', '7620', '7625', '7626', '7628', '7629', '7630', '7631', '7633', '7636', '7640', '7642', '7645', '7646', '7647', '7652', '7653', '7655', '7656', '7657', '7658', '7659', '7661', '7667', '7668', '7674', '7676', '7678', '7679', '7683', '7686', '7687', '7688', '7691', '7693', '7695', '7705', '7707', '7708', '7710', '7714', '7725', '7728', '7729', '7733', '7734', '7741', '7745', '7752', '7762', '7764', '7765', '7774', '7776', '7783', '7798', '7800', '7801', '7802', '7806', '7807', '7809', '7814', '7822', '7826', '7827', '7828', '7830', '7833', '7834', '7838', '7840', '7841', '7846', '7857', '7862', '7870', '7871', '7874', '7875', '7881', '7882', '7886', '7887', '7890', '7895', '7899', '7901', '7902', '7903', '7915', '7917', '7925', '7929', '7931', '7932', '7933', '7934', '7937', '7941', '7942', '7943', '7944', '7953', '7955', '7959', '7960', '7964', '7973', '7974', '7979', '7984', '7985', '7988', '7993', '7997', '7998', '8000', '8001', '8004', '8005', '8006', '8007', '8008', '8010', '8013', '8014', '8015', '8020', '8021', '8022', '8024', '8025', '8026', '8027', '8028', '8032', '8034', '8035', '8037', '8039', '8041', '8042', '8045', '8046', '8049', '8050', '8051', '8052', '8055', '8067', '8068', '8072', '8075', '8082', '8083', '8090', '8092', '8093', '8096', '8098', '8101', '8103', '8104', '8106', '8108', '8109', '8110', '8112', '8120', '8121', '8124', '8125', '8126', '8127', '8128', '8129', '8130', '8132', '8133', '8135', '8137', '8139', '8153', '8155', '8158', '8167', '8168', '8169', '8170', '8175', '8181', '8182', '8184', '8188', '8193', '8194', '8199', '8204', '8208', '8209', '8215', '8219', '8222', '8227', '8235', '8237', '8238', '8239', '8245', '8247', '8248', '8249', '8250', '8253', '8254', '8255', '8256', '8260', '8262', '8264', '8265', '8267', '8268', '8271', '8274', '8276', '8281', '8287', '8289', '8291', '8293', '8294', '8295', '8297', '8298', '8299', '8300', '8301', '8302', '8304', '8305', '8311', '8312', '8313', '8316', '8318', '8319', '8321', '8322', '8323', '8324', '8326', '8327', '8330', '8331', '8332', '8334', '8335', '8337', '8340', '8342', '8343', '8344', '8350', '8351', '8354', '8355', '8356', '8359', '8361', '8362', '8365', '8367', '8370', '8372', '8374', '8375', '8376', '8377', '8378', '8379', '8380', '8384', '8386', '8392', '8393', '8399', '8402', '8405', '8406', '8407', '8409', '8410', '8413', '8417', '8425', '8426', '8427', '8431', '8432', '8433', '8434', '8440', '8447', '8448', '8453', '8454', '8455', '8456', '8460', '8468', '8469', '8470', '8472', '8473', '8474', '8477', '8478', '8479', '8480', '8481', '8488', '8489', '8493', '8495', '8497', '8506', '8508', '8509', '8510', '8511', '8513', '8518', '8538', '8539', '8541', '8543', '8546', '8548', '8549', '8550', '8553', '8555', '8556', '8562', '8565', '8571', '8572', '8575', '8576', '8578', '8589', '8595', '8597', '8601', '8604', '8606', '8608', '8617', '8620', '8621', '8623', '8631', '8635', '8639', '8662', '8667', '8673', '8688', '8689', '8691', '8693', '8696', '8698', '8708', '8709', '8710', '8711', '8712', '8715', '8722', '8727', '8729', '8732', '8733', '8735', '8736', '8739', '8746', '8749', '8759', '8760', '8762', '8778', '8782', '8788', '8795', '8808', '8815', '8825', '8827', '8832', '8834', '8835', '8836', '8837', '8840', '8841', '8843', '8844', '8845', '8847', '8850', '8852', '8855', '8859', '8864', '8870', '8879', '8880', '8883', '8885', '8887', '8888', '8891', '8896', '8897', '8900', '8904', '8905', '8912', '8917', '8918', '8922', '8923', '8925', '8926', '8929', '8930', '8932', '8933', '8938', '8941', '8943', '8944', '8947', '8961', '8965', '8966', '8967', '8969', '8971', '8973', '8975', '8976', '8978', '8979', '8981', '8982', '8983', '8984', '8985', '8986', '8990', '9003', '9009', '9011', '9027', '9035', '9036', '9041', '9044', '9045', '9047', '9048', '9049', '9052', '9059', '9061', '9062', '9064', '9065', '9066', '9068', '9069', '9070', '9074', '9076', '9077', '9078', '9079', '9083', '9090', '9093', '9094', '9105', '9118', '9122', '9123', '9125', '9129', '9135', '9136', '9141', '9142', '9143', '9150', '9153', '9154', '9165', '9174', '9178', '9179', '9184', '9185', '9186', '9187', '9191', '9192', '9195', '9214', '9216', '9220', '9225', '9228', '9233', '9235', '9239', '9244', '9248', '9249', '9250', '9252', '9258', '9263', '9264', '9265', '9267', '9268', '9269', '9271', '9275', '9277', '9278', '9279', '9280', '9283', '9284', '9286', '9289', '9290', '9297', '9298', '9311', '9314', '9315', '9317', '9319', '9325', '9328', '9336', '9341', '9342', '9344', '9345', '9346', '9349', '9352', '9353', '9355', '9356', '9358', '9362', '9364', '9367', '9368', '9369', '9373', '9377', '9378', '9381', '9382', '9383', '9389', '9396', '9397', '9400', '9404', '9405', '9406', '9410', '9413', '9414', '9419', '9421', '9424', '9429', '9432', '9433', '9437', '9442', '9444', '9445', '9453', '9455', '9456', '9457', '9461', '9464', '9466', '9468', '9470', '9471', '9473', '9476', '9489', '9490', '9496', '9500', '9502', '9504', '9505', '9510', '9520', '9524', '9532', '9536', '9537', '9538', '9549', '9551', '9557', '9559', '9563', '9565', '9573', '9577', '9585', '9586', '9599', '9600', '9601', '9602', '9609', '9610', '9611', '9613', '9615', '9617', '9621', '9627', '9638', '9641', '9649', '9655', '9659', '9676', '9684', '9686', '9688', '9691', '9692', '9694', '9704', '9710', '9712', '9741', '9744', '9750', '9756', '9759', '9763', '9764', '9770', '9772', '9774', '9788', '9809', '9828', '9855', '9884', '9886', '9907', '9908', '9920', '9925', '9974', '&lt;!DOCTYPE html PUBLIC "-//W3C//DTD XHTML 1.0 Strict//EN"', '&lt;/body&gt;', '&lt;/head&gt;', '&lt;/html&gt;', '&lt;body&gt;', '&lt;head&gt;', '&lt;html xmlns="http://www.w3.org/1999/xhtml"&gt;', '&lt;title&gt;&lt;/title&gt;', 'AFBZ00001']</t>
         </is>
@@ -609,12 +617,15 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>2778</v>
+      </c>
+      <c r="U3" t="n">
         <v>3595</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>9</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', '5', '6', '7', '8', '9']</t>
         </is>
@@ -687,12 +698,15 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>649</v>
+      </c>
+      <c r="U4" t="n">
         <v>240494</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>2660</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>['2-year pilot Graduate Internship Program in Manitoba', '2006 British Columbia Export Awards', '2009 World Police and Fire Games Industry Trade Show', '2010 Business Opportunity Workshops', '2010 Commerce Centre wireless &amp; new media technology showcase', 'A forum entitled "Expert Dialogue on future forest and fibre use opportunities"', 'A start-up plan for an open source learning exchange concerning sustainability', 'Aboriginal Business Service Network', 'Aboriginal Leadership Development Program', 'Aboriginal Residential Construction Program', 'Accelerate uptake of genomics to increase competitiveness in BC natural resources sectors', 'Acitivies to reduce the risk of wildfire in Clearwater', 'Acquire DNA sequencing technologies and supporting computing infrastructure', 'Acquire Electron beam lithography system to support nanotechnology applied research', 'Acquire Raman Microscope to Support Industry Development and Research', 'Acquire a mass spectrometer and a biomarker discovery instrument for proteomic research.', 'Acquire a mobile trailer and equipment to expand trades training in Northwest BC.', 'Acquire airborne terrestrial mapping and hydroacoustic technologies for skills development', 'Acquire analytical and measurement equipment for research in Agri-food products', 'Acquire and install specialized technology commercialization equipment', 'Acquire and operate equipment for UBC InSEAS', 'Acquire antenna test equipment for applied research and collaborative industry projects', 'Acquire digital technology for film production and establish an online education program', 'Acquire equipment for marine and aerospace training centre, and upgrade technology centre', 'Acquire equipment for skills training to improve productivity in the agriculture sector', 'Acquire equipment for trades training to address high demand for the local labour force', 'Acquire equipment that furthers Carbohydrate Science research and development', 'Acquire equipment to develop and commercialize immunotherapy technologies', 'Acquire equipment to expand capacity at a regional animal health and food testing facility', 'Acquire equipment to support the development of commercial unmanned aerial vehicle systems', 'Acquire food science equipment for testing and demonstrations at Red River College', 'Acquire haul-truck simulators for training entry-level workers in the coal mining sector', 'Acquire new vocational equipment for the expanded trades education facility in Nelson, BC', 'Acquire simulators to train aboriginal workers in energy/mining sectors in north east BC', 'Acquire software kits for simulator-training to use heavy equipment in construction work', 'Acquisition and testing of thermal imaging equipment to develop commercial applications.', 'Acquisition of Liquid Chromatography - Mass Spectrometry Equipment.', 'Acquisition of NMR Equipment for Thompson Rivers University', 'Acquisition of Specialized Micro Nano Technology Equipment', 'Acquisition of equipment for the Alberta Water and Environmental Sciences Building', 'Activities to reduce the risk of wildfire', 'Activities to reduce the risk of wildfire at nine Indian reserve locations', 'Activities to reduce the risk of wildfire in Central Okanagan', 'Activities to reduce the risk of wildfire including: surveying, spacing and pruning', 'Activities to reduce the threat of wildfire including felling trees and piling debris', 'Addition of AUV and Acoustic Array (5 nodes) on the Ocean Technology Test Bed', 'Address need for production, rehearsal, and performance space at the campus', 'Administer the Municipal Rural Infrastructure Fund in British Columbia', 'Advance BC genomic discoveries through the proof-of-concept stage.', 'Advance genomics technologies in Saskatchewan through industry engagement', 'Aldergrove Athletic Park Recreational Facilities', 'An All Terrain Cabin  to showcase Canadian products to international markets', 'Anmore Renewable Energy Project feasibility study', 'Applied Research and Market Development for green roof / living wall', 'Apply forest management practices to improve forest health and reduce the wildfire threat', 'Aquatic Centre Upgrades', 'Aquire advanced digital media equipment', 'Arctic Canada Gallery - Enhancement of the visitor experience and research infrastructure', 'Assess business climate and develop an action plan to attract and retain investments', 'Assess mountain pine beetle effects on non-timber forest products', 'Assist Alberta Team in Washington Solar Decathlon Competition and 2010 Olympics showcase', 'Assist Junior Achievement BC in developing new marketing campaigns.', 'Assist Kitscoty with upgrades to parks and walkways', 'Assist Phase III construction of the Penhold Regional Multiplex facility', 'Assist building expansion and construction upgrades to Stirling multi-purpose facility', 'Assist entrepreneurs access risk capital from private sources', 'Assist establishment of a new Technology Commercialization Centre and business incubator', 'Assist forest-based communities under the Fire Hazard Reduction and Forest Health Program', 'Assist in building expansion and extensive construction upgrades to the Plainsmen Arena', 'Assist in construction upgrades to the Athabasca Regional Multiplex facility field house', 'Assist in delivering new mobile trades training into rural and First Nations communitie', 'Assist in maintaining, repairing and improving heritage buildings, tractors and equipment', 'Assist in purchase of a microprobe for the Saskatchewan Centre for Advanced Microanalyses', 'Assist in the development of a 10-kilometre pathway through the East Calgary Greenway', 'Assist in the extensive rehabilitation of the Royal Glenora Club', 'Assist manufacturer to obtain Standards Council of Canada Accreditation', 'Assist northern Saskatchewan mining companies in remaining productive', 'Assist roof repairs and replacement of ice-making plant at Plamondon Arena', 'Assist upgrades to the electrical and lighting system in the Vauxhall Recreation Centre', 'Assist with Irma Arena renewal and improvements', 'Assist with community recreation centre upgrades at the Sucker Creek First Nation Reserve', 'Assist with costs related to obtaining Standards Council of Canada accreditation', 'Assist with installation of a permanent outdoor rink at Kinsmen Park', 'Assist with mechanical systems replacement at five recreational facilities in Medicine Hat', 'Assist with renovations and redevelopment of Nisku Park', 'Assist with the completion of renovations to the Boyle Arena', 'Assist with the construction of the Silver Trail walking path', 'Assist with the construction of two new playground structures', 'Assist with the expansion of the Calgary Centennial Arenas', 'Assist with the expansion of the Cardel Place Fitness Centre', 'Assist with the improvements and upgrades to the Leduc Recreation Centre', 'Assist with the rehabilitation of the Village of Clive outdoor arena', 'Assist with the retrofit of Westwinds Dry Pond', 'Assist with the revitalization of the Ellerslie Rugby Park', 'Assist with the upgrade and enhancement of the Applewood Athletic Park', 'Assist with the upgrades of the Dr. Duncan Murray Recreation Centre', 'Assist with upgrades and improvements to Central McDougall Park', 'Assist with upgrades to the Mowat Park and RCMP Park Skating Rinks', 'Assist with upgrades to the town arena and aquatic centre', 'Attain international accreditation to support market access for seafood producers', 'Attract foreign investment and increase exports in the hydrogen and fuel cell sector', 'Attract new incoming buyers to the Western Canadian Farm Progress Show', 'BC-based pilot to develop a new Green Fleet Certification System for vehicle fleets', 'Beneficial Use of Landfill Gas for Greenhouse Operations Feasibility Study', "Branding initiatives of Manitoba's bilingual municipalities", 'Bridging the Generation Divide', 'Build a 52-unit student accommodation facility', 'Build a Discovery Education Centre in Stanley Park', "Build a First Nation's value chain for Hormone/Additive Free Beef produced in BC", 'Build a community-owned and operated multi-purpose theatre/cinema', 'Build a covered outdoor park at Chuck Bailey Recreation Centre', "Build a covered walkway between the Senior's Activity Centre and Community Centre", 'Build a hemp fibre processing plant', 'Build a new theatre facility', 'Build a new washroom facility at Silverton campground', 'Build a recreational vehicle park at Destination Grand Marais', 'Build a smart barge to recover sunken logs in Port Alberni', 'Build and expand tree nurseries and stool beds in Princeton', 'Build and operate a run-of-river hydroelectric facility', 'Build and upgrade recreation facilities in Chilliwack', 'Build capacity for defence procurement in Western Canada', 'Build clinical trial capacity and attract foreign direct investments.', 'Build community skills &amp; capacity to meet demand for cultural &amp; wilderness tourism', 'Build export ready companies in the northern Saskatchewan Aboriginal forestry sector', 'Build out, equip and operate the Okanagan Centre for Innovation (OCI)', 'Build water lines to commercial sub-division', 'Business Plan to revitalize the commercial and heritage district of Maillardville', 'Buy equipment to develop, commercialize and bring to market food industry products', 'Campbell Crescent Light Industrial Design &amp; Engineering', 'Campsite and trail improvement activities', 'CanAssist, Development and Commercialization of Assistive Technologies', 'Canoe Creek Green Hydro Project', 'Capacity-building initiatives to help First Nations use communication technologies', 'Cape Mudge Gymnasium Renovation', 'Capital improvements to the Beban Park Recreation Centre', 'Cariboo-Chilcotin Aboriginal Natural Resource Management Directory', 'Centennial Park redevelopment', 'Centre for Innovation in Ranching, Range and Meat Production Equipment Acquisition', 'Centre for MALDI-based Tissue Imaging', 'Centre for Sport Technology Research and Development Equipment Acquistion and Start Up', 'Clean up three city lots for future development', 'Cleaning campsites, painting and replacing structures, removing and disposing fallen trees', 'Clear fireguards in the community', 'Clearing and maintaining trails', 'Clearing, widening boardwalks and footbridges, adding signage and a kiosk', 'Collaborative industry applied research in wireless propagation and channel modeling', 'Commercialization of the OneStone cloud security service', 'Commercialize CO2 Direct Air Capture Technology', 'Commercialize Lithium Ion Battery &amp; Management System for Marine Use', 'Commercialize Medical Imaging Workflow to Improve Clinical Decisions and Patient Outcomes', "Commercialize RAM's Mid Range Elevator Product", 'Commercialize Test4D, a rapid vitamin D test, in Europe, North and South America', 'Commercialize a RFID Tracking System for Chemical Products', 'Commercialize a Variable Loudspeaker Array System', 'Commercialize a new benchtop Nuclear Magnetic Resonance spectrometer', 'Commercialize a new product line of algae bioreactors for aquaculture and biotech sectors', 'Commercialize a portable molecular diagnostic detection system.', 'Commercialize a product for software development lifecycle decision making', 'Commercialize a technology for accelerating the discovery of antibodies', 'Commercialize an application to support data exploration, visualization and storytelling', 'Commercialize an eco-system of products based on the SensMit Platform', 'Commercialize an emergency management software system for families and organizations', 'Commercialize an injectable connector joint used for pipeline construction', 'Commercialize and scale production of next-generation seismic accelerometer', 'Commercialize camera-based gas and fluid leak detection systems', 'Commercialize clean power generation', 'Commercialize embedded computer vision acceleration solutions', 'Commercialize new fire retardant coating for steel structures', 'Commercialize system for genetic identification of wheat varieties', 'Commercialize technologies that support a sustainable oil and gas industry in the West', 'Commercialize the Electro Separation Cell for the treatment of oil well drilling waste', 'Commercialize the Gryphon Series membrane technology for energy recovery ventilation', 'Commercialize the production of phytochemical extracts', 'Commercialize water management products for business aircraft', 'Commission and construct a monument commemorating the War of 1812', 'Community Forest Sampling and Economic Planning Initiative', 'Community Futures - Rural Economic Diversification Initiative of British Columbia', 'Community skills survey, economic development plan, ecosystem mapping &amp; broadband access', 'Complete Phase 2 of the JEB Community Center revitalization in the RM of Usborne', "Complete Phase Two of the Squamish Lil'wat Aboriginal Cultural Tourism Centre.", 'Complete The Spray Lake Sawmills Family Sports Centre Phase III', 'Complete construction of multi-purpose facility', 'Complete development of analytics and commercialize Neurio home intelligence technology', 'Complete energy efficiency upgrades to the Salmo Valley Youth &amp; Community Centre', 'Complete hazardous tree removal and routine recreation site maintenance to improve safety', 'Complete land assessment,market analysis and feasibility study for industrial park.', 'Complete restoration of the Spirit 2010 Trail Network', "Complete the Chetwynd Women's Resource Centre Market Place", 'Comprehensive feasibility study for "clean" energy opportunities', 'Concession building renovations and soccer field improvements', 'Conduct a cluster study of the Winnipeg capital region', 'Conduct a feasibility study into the need to rehabilitate or to replace Mosaic Stadium', 'Conduct a forest stand release and assessment survey in the Mountain Forest Region', 'Conduct a study for a causeway close to Galena Bay', 'Conduct a study on the economics of heritage building renovation and incentive program', 'Conduct a western Canadian productivity, competitiveness and potential research study', 'Conduct bioenergy feasibility study and value-added wood market analysis.', 'Conduct economic development study to assess effects of mill closure &amp; review options', 'Conduct feasibility study for extraction of compounds from northern trees', 'Conduct field trials to validate yield of slow-release co-granulated fertilizer', 'Conduct physiotherapist assistant training program', 'Conduct shellfish hatchery research to address industry challenges', 'Conduct technology labour survey and report on technology labour requirements in BC', 'Construct  two 4-plex affordable housing units in Thompson for urban Aboriginal students', 'Construct 3.5 km of urban trails to enhance non-motorized transportation in Invermere', 'Construct 4 Canadian Light Source beamlines for industrial and commercial applications', 'Construct 7 Canadian Light Source beamlines for industrial and commercial applications', 'Construct Lawrence Multi-Plex Centre', 'Construct Newton Athletic Park artificial turf field', 'Construct Phase 1 of the Christina Lake Ecological Centre for the Arts', 'Construct Prince Rupert Marina (docks and services infrastructure) at Cow Bay', 'Construct a 3.9 kilometer pedestrian walkway and bike path with wheelchair access', 'Construct a 4,000 square foot addition to the Tofield Arena', 'Construct a 50,000 square foot trade show and exhibition building', 'Construct a basketball court for three schools and community', 'Construct a community athletic track and sportsfield', 'Construct a community recreation facility', 'Construct a community services centre and a civic square', 'Construct a covered soccer training facility', 'Construct a fitness circuit', 'Construct a heliport at the Kootenay Boundary Regional District Hospital', 'Construct a lobby, expand the curling rink and upgrade heating and electrical systems', 'Construct a maintenance shop for grooming equipment and widen Nordic ski trails.', 'Construct a mineral processing pilot plant', 'Construct a mobile heavy equipment operator training simulation lab', 'Construct a multi-purpose activity centre including gymnasium and kitchen', 'Construct a multi-purpose commercial building to meet increased demands of local economy', 'Construct a multi-purpose community centre', 'Construct a multi-purpose room at Acadia Pool', 'Construct a multi-use paved pathway from College Way to Kalamalka Road in Coldstream', 'Construct a natural turf wicket at the Abbotsford Exhibition Park', 'Construct a new Fire Hall and Emergency Services Centre', 'Construct a new community facility', 'Construct a new dairy research facility at the University of Saskatchewan', 'Construct a new pool house', 'Construct a new recycling facility to improve operating efficiency', 'Construct a new sensory evaluation laboratory for BC Wines marked VQA', 'Construct a play structure and climbing wall', 'Construct a public works maintainence shop', 'Construct a recreational park and make improvements to the curling rink', 'Construct a regional First Nations interpretative and cultural centre.', 'Construct a replacement gymnasium/community recreation centre', 'Construct a six-lane asphalt track at Windsor Secondary School Park', 'Construct a sports field complex in Ladysmith', 'Construct a training tower for a Wind Turbine Maintenance Technician Program', 'Construct a water spray park in Golden', 'Construct a waterline to service an industrial park north west of Dauphin.', 'Construct a wood pellet manufacturing plant in Merritt BC', 'Construct a world-class Nordic ski racing venue.', 'Construct addition to expand Sarcan recycling operations', 'Construct additional ball diamonds and regulation soccer field, expand common grounds area', 'Construct additions to the Landmark Rec Center Annex', 'Construct an ice arena in Dease Lake', 'Construct an indoor ice arena', 'Construct an outdoor ice rink', 'Construct an outdoor lacrosse box', 'Construct an outdoor multi-purpose rink and shelters next to the Bruderheim Hockey Arena', 'Construct an outdoor, multi-purpose sports court', 'Construct an urban trail, water-based sport spectator facilities and a water access point.', 'Construct and equip the Enerplus Innovation Centre', 'Construct and expand the Fort Vermilion Community Complex', 'Construct and landscape homes', 'Construct arena dressing rooms', 'Construct baseball diamonds and a soccer field at the Vermillion Park Sportsplex', 'Construct change rooms and splash pool', 'Construct commemorative entrance arches to the Cranbrook City Centre', 'Construct composting site', 'Construct dressing room addition and wheelchair accessible washrooms', 'Construct dressing rooms, upgrade zamboni room, replace lighting, and insulate ceiling', 'Construct football and soccer fields', 'Construct heated spectator viewing area for sports complex.', 'Construct housing for full-time students', 'Construct improvements to the Broad Street pedestrian bridge and trail', 'Construct mobile poultry abattoir for a non-profit Cariboo poultry producers association.', 'Construct new campus with Mining Academy for training and research', 'Construct new facility', 'Construct new facility to house existing and expanded programming', 'Construct new sports fields and upgrade existing field infrastructure', 'Construct new wheelchair accessible washrooms and four new dressing rooms', 'Construct north Lethbridge sports park picnic shelter', 'Construct performance shelter for Burns Lake Spirit Square', 'Construct phase one of the Senkulmen Enterprise Park', 'Construct portable roof structures for outdoor rinks in Anzac, Conklin, Janvier and Saprae', 'Construct river bank recreational trail along floodway', 'Construct road', 'Construct road and bone bed shelter from Pipestone Creek Park to bone site', 'Construct seniors ball diamond', 'Construct shelter', 'Construct skate park for skateboards, BMX and inline skates', 'Construct small hydroelectric plant to support Aboriginal clean energy infrastructure', 'Construct soccer field and running track on existing sports field', 'Construct spray park and playground at Jackie Parker Recreation Area', 'Construct standing seam roof on the Reston Rec Plex', 'Construct ten housing units for Aboriginal families in Winnipeg', 'Construct the Riverdale Community Complex', 'Construct the Sto:lo Resource Centre', 'Construct the Ucluelet Aquarium', 'Construct the Vancouver Island Mountain Centre', 'Construct the Vancouver Island and Coast Discovery Centre', 'Construct three Canadian Light Source beamlines for industrial and commercial applications', 'Construct tourist visitor facilities at the Ladysmith Community Marina', 'Construct two new locker rooms', 'Construct two soccer fields in 100 Mile House', 'Construct walkways and lighting in recreational park', 'Construction of the Alexis Creek Tourism Information Centre.', 'Contribute to the establishment of a Global Business Centre in Calgary, Alberta', 'Convert Pemberton Train Station into a community, tourism &amp; transportation hub', 'Convert the decommissioned water treatment plant into a community activity centre', 'Coordinate and conduct a British Columbia Aboriginal Strategy', 'Coordinate and manage invasive plants on public lands in the East Kootenay area', 'Coordinate two forest fire salvage programs in Pelican Narrows', 'Coordination and implementation of the PGAA air cargo and fuel stop marketing plan', 'Create 50 undergraduate internships at BC universities through MITACS Globalink', 'Create Destination Horse Camps and a Trail Guide', 'Create First User Program to promote the synchrotron facility to industrial users', 'Create a BC cranberry research centre', 'Create a Brandon business incubator', 'Create a campground/picnic facility and boat launch with dock', 'Create a community controlled trust fund for economic initiatives.', 'Create a hydrogen and CNG certification field testing site for the automotive industry', 'Create a interaction testing lab to enhance productivity in the manufacturing sector', 'Create a microbiome centre to test therapies, disease resistance methods and remediation', 'Create a waste oil to diesel fuel recycling plant', 'Create access routes to the Tsay Keh Dene Band', 'Create an International Policy Program at the University of Calgary', 'Create an eco-friendly botanical garden', 'Create and operate the BC Industrial Marine Training and Applied Research Centre', 'Create employment for information technology staff to support Aboriginal organizations', 'Create export development program for incoming buyers at Western Farm Progress Show', 'Create jobs in wood processing', 'Create three new positions and a new tourism building', 'Create workshops for Francophones on procurement opportunities related to 2010 Olympics', 'Creation of an Alberta International Business Partnering Program', 'Creation of the International Performance Assessment Centre for storage of carbon dioxide', 'Deliver Aboriginal Business Service Network project', 'Deliver Job Horizons II Bridging to Employment Initiative', 'Deliver Linx business services to create/grow technology entrepreneurs &amp; companies', 'Deliver Linx business services to create/grow technology entrepreneurs and companies.', 'Deliver Local Government Authority Certificate Program', 'Deliver Mid-Island Science, Technology and Innovation Council Linx Programs', 'Deliver a 3-year Francophone business building initiative to highlight entrepreneurship', 'Deliver a training program for hospitality workers', 'Deliver an Aboriginal and Small Business Leadership Program in rural communities.', 'Deliver an export market diversification and incoming buyers program', 'Deliver an interprovincial summer camp for young French-speaking entrepreneurs', 'Deliver business development training and services to Aboriginal people in Saskatchewan', 'Deliver chemical technology diploma training', 'Deliver drill rig training program in Northern Saskatchewan', 'Deliver drilling rig training program in northern Saskatchewan', 'Deliver eight skills training programs in northern Saskatchewan', 'Deliver heavy equipment operator training', 'Deliver management studies certificate program', 'Deliver projects approved for the Municipal Rural Infrastructure Fund in British Columbia', 'Deliver repayable Community Adjustment Fund loans to business in the NDIT region of BC', 'Deliver skills training to support employment opportunities for heavy equipment operators', 'Deliver summer camp for young French-speaking entrepreneurs', 'Deliver technology transfer support to Saskatchewan forest sector', 'Deliver the  Entrepreneurs with Disabilities Program', 'Deliver the Aboriginal Business Service Network Program', 'Deliver the Aboriginal Teacher Assistant Intern project', 'Deliver the Advanced Manufacturing Initiative Program - Competitive Renewal Phase', 'Deliver the BC Economic Innovation Partnership Program', 'Deliver the Entrepreneurs with Disabilities  Program', 'Deliver the Entrepreneurs with Disabilities Program', 'Deliver the Global Expansion Pilot Program for wireless SMEs', 'Deliver tourism industry training program in northern Saskatchewan', 'Deliver trade advisory service programs for new and existing exporters', 'Deliver trades training in northern and rural Manitoba through Mobile Training Labs', 'Deliver training for Continuing Care Assistant certificate program', 'Deliver training for drilling rig workers', 'Deliver training for heavy equipment operators', 'Deliver training to Aboriginal economic development officers in northern Saskatchewan', 'Deliver workshops to First Nations on agroforestry opportunities', 'Deliver workshops to First Nations on biomass energy industries opportunities', 'Deliver workshops to build skills in international trade for Saskatchewan businesses', 'Demonstrate a biomass fueled district heating system in an urban location', 'Demonstrate combined heat and power generation plant using biomass.', 'Demonstrate desalination and water reuse technologies in the oil, gas, mining sectors', 'Demonstrate image guided surgicial technology at the University of Calgary', 'Design and commercialize software for designing electronic chips in mobile devices', 'Design and construct a lighted synthetic turf field at Willoughby Community Park', 'Design and construct a mobile abattoir for the Boundary region', 'Design and construct park features at Riverfront Park in River Landing Phase I', 'Design upgrades and enhancements to commercial areas in Quesnel', 'Design, build and install a skateboard and bike park', 'Design, build and sea test a hybrid marine diesel-hydrogen fuel cell electric power system', 'Design, construct and equip a 781 square-meter trades training facility', 'Determine the feasibility of a bio-energy plant and power transmission line upgrade', 'Determine the need and capacity for kilns to be built in British Columbia communities', 'Develop &amp; host a SIBAC website. Create DVD/print MPB knowledge transfer pieces for public.', 'Develop Aboriginal youth training and education program for housing renovations', 'Develop Alternative Energy Study and Strategy for Chi-ihl-kwa-uhk Tribe', 'Develop Asia-Pacific market opportunities for Western Canadian Food Processors', 'Develop Business Attraction and Retention Tools and Materials for GVDA', 'Develop Business Park', 'Develop Community Centre', "Develop First Nations shellfish aquaculture industry along BC's north and central coasts", 'Develop French  on-line courses for distance education', 'Develop French course content for distance learning', 'Develop Gimli Skatepark', 'Develop Heritage Park and Community Gardens', 'Develop Heritage Tourism products focusing on Hope to Barkerville corridor.', 'Develop Institute for Accelerator-based Medical Isotopes (IAMI)', 'Develop Interior Regional Component of the Linx Initiative', 'Develop Kootenay Regional Component of Linx Initiative', 'Develop Legacy Park', 'Develop Metis historical sites and employment opportunities for Batoche area', 'Develop North-Central Regional Component of the Linx Initiative', 'Develop Northwest Regional Component of the Linx Probrams', 'Develop P3 business plan for a national maritime centre for the Pacific and Arctic.', 'Develop Pan-Western genomic networks', 'Develop Pan-western marketing and international tourism recovery plan for 2008.', 'Develop Peace-Liard Regional Component of the Linx Initiative', 'Develop Phase II of Retail PEAK Training Program', 'Develop Project Independence video game for the mobile devices market', 'Develop Regina City Square', 'Develop Regional Approach to Marketing Greater Vancouver', 'Develop West Kootenay-Boundary Regional Component of the Linx Initiative', 'Develop a BC wine identity for growth in international markets', 'Develop a Centre of Excellence for Regenerative Medicine at the University of Manitoba', 'Develop a Chemistry Centre of Excellence at the University of Manitoba', 'Develop a First Nations Economic Development Online Resource Portal', 'Develop a High Performance Computing Facility', 'Develop a History Park to promote the communities tourist attractions and history', 'Develop a Log Sourcing and Value-Added Marketing Plan', 'Develop a Regional Economic Diversification Strategy and Engagement Plan.', 'Develop a bio-energy cluster and related research facilities', 'Develop a business case for a forest bio-refinery demonstration facility', 'Develop a business plan for the Battlefords Yellowhead Heritage Park', 'Develop a business plan for the Central Manitoba Railway line for eastern Manitoba', 'Develop a cancer treatment using a synthetic antibody platform', 'Develop a courtyard at Riverside Lions Housing in Winnipeg', 'Develop a cultural tourism program and implementation plan', "Develop a five-day academy to expand grassroots women's particiation in World Urban Forum", 'Develop a heavy duty operators program in Saskatoon', 'Develop a joint manufacturing training facility at Red River College', 'Develop a linear park with fitness trails', 'Develop a mining materials research centre focused on corrosion reduction issues', 'Develop a new 20,000 square ft factory', 'Develop a new platform and business system for online speech therapy delivery', 'Develop a northeast BC Aboriginal cultural employment strategy', 'Develop a plan to address skills shortages in province of British Columbia.', 'Develop a program to attract and engage foreign investment during the 2010 Olympics', 'Develop a training and co-location centre for Manitoba Sector Training Network members', 'Develop a web-based database of Alberta aerospace, defence and civil aviation companies', 'Develop advanced image processing technology', 'Develop an Economic Development Support Team to support First Nations', 'Develop an alternative fuel and vehicle performance facility.', 'Develop an alternative to antibiotics for commercial poultry operations', 'Develop an economic incubation model in the Saskatoon-Whitecap-MidSask region', 'Develop an electric microgrid testbed at the British Columbia Institute of Technology', 'Develop an instrumentation engineering training program to support resource industries', 'Develop and Commercialize the OS CADDIE software platform', 'Develop and commercialize a communication system for military and police K-9 units', 'Develop and commercialize a non-stretch CleanPatch to restore damaged medical surfaces', 'Develop and commercialize a real-time wireless running monitor', 'Develop and commercialize a wireless network assessment tool for service providers', 'Develop and commercialize an advanced composite chassis for window and door products', 'Develop and commercialize anomaly detection software.', 'Develop and commercialize biologic molecular imaging agents for disease detection', 'Develop and commercialize energy efficient building envelopes for residential homes', 'Develop and commercialize new technologies to improve data transmission speed and security', 'Develop and commercialize software and digital simulation hand tools', 'Develop and deliver Entrepreneurial School to high-growth, early-stage companies in 2006.', 'Develop and deliver a Postbaccalaureat Diploma on Inclusive Education on-line', 'Develop and demonstrate a CO2 capture pilot plant to enhance heavy oil extraction', 'Develop and demonstrate the Public Safety Interoperability Platform technology', 'Develop and establish pan-western networks to engage emerging genomics industries', 'Develop and expand the Berger Peat Moss plant', 'Develop and implement a marketing strategy to attract businesses to facility', 'Develop and implement a regional trades, technology and busin</t>
         </is>
@@ -765,12 +779,15 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>649</v>
+      </c>
+      <c r="U5" t="n">
         <v>303526</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>2661</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>['Accelerer le recours a la genomique pour accroitre la competitivite dans les secteurs des ressources naturelles de la C.-B.', "Acces a Internet haute vitesse pour les residants du Nord de l'ile de Vancouver.", 'Accorder des prets remboursables du FAC aux entrepreneurs dans la region de la C.-B. desservie par le NDIT', 'Accorder du financement pour mettre davantage en valeur le potentiel de la region', 'Accroissement des retombees regionales creees par le secteur des croisieres de la Colombie-Britannique', "Accroitre l'acces des femmes a la formation preapprentissage par l'amelioration des immobilisations", "Accroitre l'accessibilite au deuxieme etage du club de curling Assiniboine", "Accroitre l'engagement de la communaute, des parents et des personnes agees pour deux ecoles du centre-ville", "Accroitre l'utilisation des produits du bois a valeur ajoutee sur le marche canadien de la construction non domiciliaire", 'Accroitre la capacite a fournir des services de developpement de produits touristiques', 'Accroitre la capacite de servir', 'Accroitre la capacite de vente et de marketing en ligne pour des attractions du patrimoine', "Accroitre la diversification et l'innovation du secteur de la transformation du bois a valeur ajoutee de la Colombie-Britannique", "Accroitre la presence d'entreprises petrolieres et gazieres canadiennes au Kazakhstan", "Accroitre la presence de l'Ouest canadien a des evenements internationaux lies a l'approvisionnement en matiere de defense", "Accroitre la production de coniferes d'avenir en enlevant les debris", "Accroitre la productivite des entreprises en mettant sur pied un incubateur d'entreprises itinerant", "Accroitre la visibilite des possibilites touristiques et les commercialiser a l'etranger", 'Accroitre le contenu du centre de documentation francophone', "Accroitre les capacites et les possibilites d'exportation des cultivateurs de cereales biologiques de l'Ouest", "Accroitre les possibilites d'emplois et les industries a Waskada et dans la region", "Achat  d'ordinateurs portables pour les laboratoires de langue crie dans les ecoles primaires", "Achat d'equipement d'imagerie biomedicale et de biocapteurs pour une installation de bio-ingenierie", "Achat d'equipement de formation dans les metiers pour des programmes de formation itinerants", "Achat d'equipement de recherche sur les materiaux composites pour l'Universite du Manitoba", "Achat d'equipement de resonance magnetique nucleaire pour l 'Universite de Thompson Rivers", "Achat d'equipement et demarrage d'un centre de recherche et developpement de technologies sportives", "Achat d'equipement mobile pour le programme de formation en conduite de machinerie lourde", "Achat d'equipement pour appuyer le centre d'excellence de la presse ecrite au College Norquest", "Achat d'equipement pour etendre le programme d'operatrice d'equipement lourd", "Achat d'equipement pour l'Alberta Water and Environmental Sciences Building", "Achat d'equipement pour l'etablissement d'un centre d'excellence en stereoscopie 3D", "Achat d'equipement pour la creation de nouveaux produits alimentaires qui pourront ensuite etre commercialises", "Achat d'equipement pour la mise a l'essai d'antennes pour des projets de recherche appliquee et de collaboration industrielle", "Achat d'equipement pour le Centre for Innovation in Ranching , Range and Meat Production", "Achat d'equipement pour le Centre national du betail et de l 'environnement", "Achat d'equipement pour le programme d'ingenierie des systemes mecatroniques", "Achat d'equipement pour les videoconferences en vue d'ameliorer l'acces aux services pour la clientele.", "Achat d'equipement pour offrir des cours dans de multiples metiers et en soudage dans des collectivites rurales de la Sask.", "Achat d'equipement specialise de micro et nano technologie", "Achat d'instruments d'analyse et de mesure utilises pour la recherche sur les produits agro-alimentaires", "Achat d'un routeur numerique commande par ordinateur pour l'industrie de transformation du bois", "Achat d'une installation pour l'Aboriginal Friendship Centre of Calgary", "Achat du Elk's Hall pour en faire un bureau de rechange pour le personnel regional et local", "Achat et installation d'equipement pour l'agrandissement d'installations de moulage de la moutarde seche", "Achat et installation d'un equipement de sequencage d'ADN et d'une installation de nanofabrication", "Acheter de l'equipement avance de distillation a court trajet pour offrir des services aux clients de l'Ouest", "Acheter de l'equipement d'extraction et de concentration pour faire croitre l'industrie des fruits et legumes", "Acheter de l'equipement d'imagerie satellitaire.", "Acheter de l'equipement de formation pour ameliorer la productivite de l'industrie de la potasse en Saskatchewan", "Acheter de l'equipement de formation professionnelle pour repondre a la demande elevee de main-d'oeuvre locale", "Acheter de l'equipement de mise a l'essai aerospatial pour accroitre la capacite actuelle", "Acheter de l'equipement de production pour ameliorer les systemes sans pilote du S.-E. de l'Alberta", "Acheter de l'equipement pour accroitre les capacites d'une installation regionale de sante animale et d'analyse d'aliments", "Acheter de l'equipement pour aider l'industrie a elaborer des produits de micro et de nanotechnologie", "Acheter de l'equipement pour aider les jeunes et les travailleurs a acquerir des competences recherchees dans les metiers", "Acheter de l'equipement pour ameliorer la capacite liee aux tests sur l'orge et aux marches d'exportation", "Acheter de l'equipement pour ameliorer les competences des electromecaniciens et des mecaniciens industriels", "Acheter de l'equipement pour ameliorer les services d'analyse offerts au centre de microanalyse avancee", "Acheter de l'equipement pour appuyer la creation de nouvelles varietes de soya et de mais", "Acheter de l'equipement pour developper et commercialiser des technologies d'immunotherapie", "Acheter de l'equipement pour fournir des solutions a la contamination environnementale des sables bitumineux", "Acheter de l'equipement pour le Bioscience Applied Research Centre dans le but d'aider a creer de nouveaux produits", "Acheter de l'equipement pour offrir de nouveaux services de bioextraction a l'industrie", "Acheter de l'equipement pour soutenir le programme d'operateurs d'equipement lourd du College Portage", "Acheter de l'equipement pour tester des technologies de capteurs pour le stockage souterrain du CO2", "Acheter de l'equipement pour valider de nouveaux produits derives des proteines de cereale et de la cellulose", "Acheter de l'equipement specialise de formation en traitement du petrole lourd pour un programme de Lloydminster", "Acheter de l'equipement specialise pour ameliorer les services de laboratoire de l'Association canadienne de normalisation", "Acheter de l'equipement specialise pour former des techniciens en genie minier", "Acheter de l'equipement specialise pour le Centre de toxicologie agrandi.", "Acheter des composantes cles de materiel de recuperation de solvants pour ameliorer l'industrie de l'extraction biologique", "Acheter des ensembles de logiciels pour une formation en simulateur axee sur l'utilisation de l'equipement lourd de construction", "Acheter des systemes de controle de la qualite de l'air pour le sud-est et le centre-ouest de la Saskatchewan", "Acheter du materiel de d'imagerie cerebrale pour mettre au point des outils de traitement de la maladie d'Alzheimer", 'Acheter du materiel de formation dans les domaines aerospatial et de la marine et ameliorer la technologie', 'Acheter du materiel de science alimentaire pour des essais et des demonstrations au College Red River', 'Acheter du materiel de triage des semences pour de la recherche visant a accroitre la valeur des cereales', 'Acheter du materiel pour soutenir la mise au point de systemes de vehicules aeriens telepilotes commerciaux', "Acheter et installer un deshumidificateur dans l'arena d'Ashcroft", "Acheter et mettre en place de l'equipement pour un centre de classification des fibres agricoles", "Acheter les pieces d'equipement principales pour ameliorer les capacites de la Saskatchewan dans la transformation des aliments", 'Acheter un equipement de transformation des fruits pour le centre alimentaire de la Saskatchewan', "Acheter un simulateur pour l'appareil King Air afin de former des pilotes dans l'Ouest canadien", "Acheter une remorque mobile et de l'equipement pour elargir la formation professionnelle dans le Nord-Ouest de la C.-B.", 'Acquerir cinq sequenceurs genomiques de prochaine generation et etablir des relations avec le milieu des affaires', "Acquerir de l'equipement de formation en robotique pour augmenter la productivite du secteur de l'aerospatiale", "Acquerir de l'equipement de simulation pour la formation dans le secteur minier", "Acquerir de l'equipement de technologie des bioproduits et de commercialisation connexe", "Acquerir de l'equipement pour aider au developpement de revetements nanometriques durables", "Acquerir de l'equipement pour ameliorer la capacite d'elaboration de produits micro et nanotechnologiques", "Acquerir de l'equipement pour la formation axee sur les competences en vue d'ameliorer la productivite du secteur agricole", 'Acquerir des simulateurs de chariot de transport pour former de nouveaux travailleurs dans le secteur minier', "Acquerir des simulateurs pour former des travailleurs autochtones du secteur de l'energie et minier du nord-ouest de la C.-B.", "Acquerir et faire fonctionner de l'equipement pour le programme InSEAS de l'Universite de la Colombie-Britannique", "Acquerir un cyclotron pour produire les isotopes necessaires a l'imagerie medicale", 'Acquerir un spectometre de masse et un dispositif visant la decouverte de biomarqueurs pour la recherche proteomique', "Acquisition d'equipement de chromatographie liquide couplee a la spectroscopie de masse", "Acquisition d'equipement de pointe pour les medias numeriques", "Acquisition d'equipement pour les laboratoires de la Faculte des sciences et des communications multimedias", "Acquisition d'equipement qui favorise la recherche et le developpement en glycobiologie", "Acquisition d'un microscope Raman pour soutenir le developpement industriel et la recherche", "Acquisition d'un systeme de lithographie par faisceaux d'electrons pour appuyer la recherche appliquee en nanotechnologie", "Acquisition d'une console de mise a niveau pour le spectrometre a resonance magnetique nucleaire pour le departement de chimie", "Acquisition d'une installation pour accueillir les services et les programmes de soutien du Centre", 'Acquisition de nouvel equipement professionnel pour le centre de formation dans les metiers agrandi de Nelson, en C.-B.', "Acquisition de technologie numerique pour la production de film et mise sur pied d'un programme de formation en ligne", 'Acquisition de technologies de cartographie terrestre aerienne et hydroacoustiques pour le perfectionnement des competences', "Acquisition de technologies de sequencage de l'ADN et de l'infrastructure technique connexe", "Acquisition et essai d'equipement d'imagerie thermale en vue de concevoir des applications commerciales", "Acquisition et installation d'equipement specialise de commercialisation de la technologie", "Acquisition et installation d'equipement specialise pour les installations de formation dans les metiers", "Acquisition et mise en marche d'un lanceur pneumatique pour tester et evaluer des vehicules telepilotes aeriens", 'Activites de commercialisation de la technologie et de sensibilisation', 'Activites de developpement du leadership pour favoriser la participation des jeunes femmes au Forum urbain mondial de 2006', "Activites de gestion forestiere, notamment l'espacement d'arbres", "Activites de gestion forestiere, notamment l'espacement et l'enlevement d'arbres", "Activites de gestion forestiere, notamment l'optimisation de la composition des especes", 'Activites de la deuxieme annee du programme de commercialisation du tourisme culturel', "Activites de marketing et construction d'un centre de services de renseignements pour les visiteurs", 'Activites visant a reduire les risques de feux de friche', "Administration du Fonds sur l'infrastructure municipale rurale.", 'Adoption et commercialisation des technologies chez Ocean Networks Canada', 'Agrandir de 1 200 pieds carres le gymnase de Canim Lake', 'Agrandir et ameliorer le club de gymnastique Airdrie Edge', "Agrandir et ameliorer les quais de la Hospital Bay et l'infrastructure d'amarrage de bateaux", 'Agrandir et moderniser le port de Westview South', "Agrandir et renover l'arena", 'Agrandir et renover la cuisine du Gretna Prairie Centre', "Agrandir l'arena Ste. Agathe Centennial a Ste. Agathe", "Agrandir l'edifice pour les activites de recyclage du papier", "Agrandir l'etang de patinage et ameliorer l'aire de jeux pour enfants", "Agrandir l'usine de fabrication PhiBer", "Agrandir la cuisine du Centre communautaire de Cook's Creek a Dugald", 'Agrandir la patinoire exterieure et construire un abri leger', "Agrandir la piste Grand Trunk au parc Beaudry d'Headingley", 'Agrandir la piste de curling et la salle de quilles', "Agrandir la salle d'escalade de Boulders", 'Agrandir le Pipe Flow Technology Centre pour traiter les matieres petrolieres et gazieres volatiles', 'Agrandir le Regina City Square', 'Agrandir le Sportsplex Adidas a Penticton', "Agrandir le batiment d'entretien de l'aire des jets d'eau au parc Hespeler de Niverville", 'Agrandir le centre communautaire Hamilton', 'Agrandir le centre communautaire de Linden Woods', "Agrandir le centre d'activites des aines de 55 ans et plus Juan de Fuca", "Agrandir le centre d'activites physiques du district de Kent", 'Agrandir le centre de loisirs Ladner', 'Agrandir le centre de sante et de mise en forme du YWCA de Vancouver', 'Agrandir le champ de tir municipal et ameliorer le couloir de tir couvert', "Agrandir le club communautaire d'Anola", "Agrandir le hangar a bateaux d'Elk Lake", "Agrandir le parc de planche a roulettes d'Ucluelet", 'Agrandir le parc recreatif multifonctionnel', 'Agrandir le reseau de sentiers du parc Rotary de Whitecourt', 'Agrandir le terrain de camping et ameliorer les equipements au parc communautaire Zama', 'Agrandir le terrain de camping, renover les toilettes et les douches, et moderniser le systeme electrique', "Agrandissement de l'aeroport de Cranbrook", "Agrandissement du Cedar City Museum et du centre d'accueil des visiteurs", 'Agrandissement du Family Y de Kelowna', "Agrandissement du centre de tennis de l'Universite de la Colombie-Britannique", "Aide pour les couts d'exploitation d'un bureau de liaison de l'industrie de la prospection de diamants", 'Aider Junior Achievement BC dans la creation de nouvelles campagnes de promotion', "Aider SUCCESS dans ses efforts pour faciliter l'acces des ex portateurs aux marches asiatiques", 'Aider TRLabs a mettre en oeuvre une nouvelle strategie de commercialisation de la technologie', "Aider a completer les renovations a l'arena de Boyle", 'Aider a la construction de deux structures de terrain de jeux', "Aider a la creation d'un programme de formation professionnelle en sciences minerales pour le Nord", "Aider a la realisation du deuxieme volet de l'initiative Selling Winnipeg to the World", 'Aider a la remise en etat du bassin de retention des eaux pluviales de Westwinds', 'Aider a la renovation et au reamenagement du parc Nisku', "Aider a regler les couts d'obtention d'un agrement du Conseil canadien des normes", "Aider au developpement d'une grappe d'entreprises specialisees dans la fabrication de composites avances au Manitoba", "Aider l'industrie de l'aerospatiale de l'Ouest canadien a acceder aux chaines d'approvisionnement mondiales", 'Aider les collectivites forestieres dans le cadre du Hazard Reduction and Forest Health Program', 'Aider les entrepreneurs a obtenir du capital de risque provenant de sources privees.', "Aider les entreprises du secteur de l'energie propre a explorer des possibilites commerciales", 'Aider les manufacturiers a obtenir une accreditation du Conseil canadien des normes', 'Aider les pecheurs et les piegeurs qui ont subi des dommages attribuables aux inondations', 'Aider les petites et moyennes entreprises a obtenir du capital du croissance du secteur prive', 'Aider les societes minieres de la Saskatchewan a rester productives', "Ajout de vehicules sous-marins autonomes et  d'un reseau acoustique (5 noeuds) au banc d'essai des technologies oceaniques", "Ajouter des vestiaires, renover la salle de rangement de la zamboni, changer l'eclairage et isoler le plafond", 'Ajouter un vestiaire et amenager des toilettes adaptees aux fauteuils roulants', "Allonger les sentiers de l'aire recreative de Pidherny a Prince George", "Allouer un financement d'exploitation au Centre canadien de rayonnement synchrotron", "Amelioration d'une installation de resonance magnetique nucleaire", 'Amelioration de quatre terrains de sports au Centre de soccer Subway', 'Amelioration des initiatives de marketing et des services bilingues pour les visiteurs', 'Amelioration du sentier du Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Amelioration et commercialisation des sentiers recreatifs existants', "Ameliorations au centre de formation dans les metiers de Kitimat pour la prestation de programmes dans le secteur de l'energie", 'Ameliorations au parc Glenmore (terrain Ed Anderson) et au terrain de sports Rick Genest', 'Ameliorations au site du terrain de camping du Stampede', 'Ameliorations au terrain de camping et amenagement de nouveaux emplacements', 'Ameliorations au terrain de sports des Premieres nations entant que projet de celebration du centenaire', "Ameliorations aux patinoires, remplacement des clotures et construction d'un batiment d'entretien", "Ameliorer 2 kilometres de sentiers et reduire les risques de feux de friche par l'elimination des debris", 'Ameliorer et agrandir le Cedar Heights Community Centre de Blind Bay', 'Ameliorer et agrandir le camp pour les jeunes de Nordegg', 'Ameliorer et completer les principaux liens du reseau de sentiers', 'Ameliorer et elargir la formation mobile et sur place du Aboriginal Gateway Training Centre', 'Ameliorer et remettre en etat le Fraser River Heritage Park de MIssion', "Ameliorer l'Agriplex de Winfield", "Ameliorer l'acces a une formation professionnelle pour les femmes dans l'industrie de la construction", "Ameliorer l'acces au Creekside Community Park a Fruitvale", "Ameliorer l'acces au batiment ou sont offerts des cours de formation en francais", "Ameliorer l'acces au capital pour les entrepreneurs ruraux et les PME", "Ameliorer l'acces au centre communautaire et a la bibliotheque de Valhalla", "Ameliorer l'acces des travailleurs qualifies a l'industrie en achetant des simulateurs d'equipement lourd", "Ameliorer l'acces en fauteuil roulant a l'arena et remplacer la plomberie, les portes et les revetements de sol", "Ameliorer l'accessibilite a la cantine de la filiale no 298 des anciens combattants des Forces armees, maritimes et aeriennes", "Ameliorer l'accessibilite du Centre communautaire Silver Springs a Calgary", "Ameliorer l'accessibilite du Delta Sport Development Centre", "Ameliorer l'accessibilite du centre aquatique, des parcs et du centre pour personnes agees de Kitimat", "Ameliorer l'accessibilite du centre de loisirs de Logan Lake", "Ameliorer l'aeroparc regional de Hope et quatre autres parcs regionaux", "Ameliorer l'aeroport regional Trail", "Ameliorer l'aire d'accueil et le systeme d'eclairage au centre de loisirs Strathcona Gardens", "Ameliorer l'aire de jeu du stade Hammond de Maple Ridge", "Ameliorer l'arena Alexandra de Leduc", "Ameliorer l'arena Bill Thomson de Hinton", "Ameliorer l'arena East Calgary Twin de Calgary", "Ameliorer l'arena Garson", "Ameliorer l'arena Max McLean de Camrose", "Ameliorer l'arena Oceanside Place a Parksville", "Ameliorer l'arena d'Evansburg", "Ameliorer l'arena de Kaslo", "Ameliorer l'arena de Saint-Malo", "Ameliorer l'arena de curling de Coaldale, en Alberta", "Ameliorer l'arena de la municipalite de Dinsmore", "Ameliorer l'arena de la municipalite de Kindersley", "Ameliorer l'arena de la municipalite de Rouleau", "Ameliorer l'arena et la grange de la Fort Macleod Agricultural Society", "Ameliorer l'arena et le terrain de jeux a Redcliff", "Ameliorer l'eclairage dans le centre des congres TELUS de Calgary", "Ameliorer l'efficacite energetique de l'arena de St. Walburg", "Ameliorer l'efficacite energetique du Vibank Community Heritage Centre", "Ameliorer l'efficacite energetique du centre de developpement de l'enfant de Quesnel", "Ameliorer l'efficacite energetique et l'accessibilite de la Palliser Regional Library", "Ameliorer l'efficacite energetique et l'accessibilite du camp dans le hameau de Arlington Beach", "Ameliorer l'entree et le refroidisseur de l'arena de la municipalite de Frontier", "Ameliorer l'equipement de jeu de la garderie communautaire de Canmore", "Ameliorer l'espace de loisir du lac Chickakoo du comte de Parkland", "Ameliorer l'infrastructure du camp He Ho Ha a Seba Beach", "Ameliorer l'infrastructure du savoir de 4D Labs pour stimuler la R-D appliquee et la commercialisation", "Ameliorer l'infrastructure du terrain de sports", "Ameliorer l'installation recreative multifonctionnelle", "Ameliorer l'interieur du batiment de la Legion a Winfield", "Ameliorer l'interieur du centre culturel et recreatif du quartier East End de Winnipeg", "Ameliorer l'isolation de la piste de curling et faciliter l'acces en fauteuil roulant aux toilettes de l'arena", 'Ameliorer la batiment du Pincher Creek Curling Club', "Ameliorer la bibliotheque d'Ocean Park a Surrey", 'Ameliorer la bibliotheque de Cloverdale', 'Ameliorer la bibliotheque publique de Pender Island', 'Ameliorer la bibliotheque publique de Spruce Grove', 'Ameliorer la bibliotheque publique de Stettler et de son stationnement', "Ameliorer la capture de mouvement stereoscopique en 3D et l'equipement auxiliaire et ameliorer l'acces pour l'industrie", 'Ameliorer la caserne de pompiers de Teepee Creek', 'Ameliorer la caserne de pompiers de la municipalite rurale de  Ponass Lake no 367', 'Ameliorer la competitivite du secteur des maisons en rondins et a ossature en bois pour favoriser la croissance du marche', 'Ameliorer la croissance de la foret vierge et faciliter le deplacement de la faune en enlevant les debris', 'Ameliorer la cuisine communautaire de Vanderhoof', 'Ameliorer la digue du port de Lake Country', "Ameliorer la formation de conducteur d'equipement lourd pour les Autochtones dans le Nord de l'Alberta", 'Ameliorer la gestion energetique et des structures au centre communautaire Steveston', 'Ameliorer la jetee de White Rock', 'Ameliorer la maison des jeunes de Cochrane', 'Ameliorer la passerelle de la digue a Ogden Point', 'Ameliorer la patinoire', 'Ameliorer la patinoire du Gibsons &amp; Area Community Centre', 'Ameliorer la patinoire exterieure', 'Ameliorer la piscine Alexandra de Leduc', 'Ameliorer la piscine St. James Assiniboia Centennial Pool', 'Ameliorer la piscine de Minton', "Ameliorer la piscine de la municipalite d'Unity", 'Ameliorer la piscine exterieure de Stony Plain', "Ameliorer la piste communautaire de l'ecole secondaire Correlieu de Quesnel", 'Ameliorer la piste de course exterieure et les terrains de football et de soccer', 'Ameliorer la piste de curling et la patinoire de hockey de Mallaig', 'Ameliorer la piste du stade Mercer', 'Ameliorer la place Hudson de Churchill', 'Ameliorer la plage et le terrain de jeux du village touristique de Thode', 'Ameliorer la productivite et la competitivite des petites et moyennes entreprises', "Ameliorer la recherche dans l'extraction et le traitement des derives de l'industrie des sables bitumineux", "Ameliorer la route d'acces, les douches, la buanderie et le terrain de camping du Lake Charron Regional Park", "Ameliorer la salle communautaire, l'ecole et le parc Kingfisher d'Enderby", 'Ameliorer la salle de concert centenaire P.W. Enns, y compris les systemes de chauffage et de climatisation', 'Ameliorer la salle de formation de la Croix-Rouge a Kelowna', "Ameliorer la securite de l'approvisionnement en eau a Port Alice", "Ameliorer la securite des automobilistes par le retrait d'arbres dangereux le long de l'autoroute 37", "Ameliorer la securite des automobilistes par le retrait d'arbres le long d'un troncon de route de 143 kilometres", 'Ameliorer la securite des automobilistes par le retrait des arbres dangereux', "Ameliorer la securite des automobilistes sur un troncon d'autoroute de 90 kilometres en enlevant les debris", "Ameliorer la securite et l'entretien du sentier historique Yukon Telegraph", "Ameliorer la securite et l'usage de sentiers communautaires en enlevant les debris", "Ameliorer la securite, l'entreposage, le terrain de jeu et les ventilateurs d'extraction du Red River Community Centre", "Ameliorer la station d'epuration des eaux  et le centre communautaire de la Tl'azt'en Nation a Tachie", "Ameliorer la station d'epuration des eaux de la municipalite de Neudorf", "Ameliorer la structure de jeux a l'ecole Victor H. L. Wyatt", 'Ameliorer la succursale du centre-ville de la Bibliotheque publique de Red Deer', "Ameliorer la voie de tramway situe sur le pont en contre-haut d'Edmonton", 'Ameliorer la zone de ski de randonnee Hankin-Evelyn', 'Ameliorer le Alliance Community Multiplex', 'Ameliorer le Bold Centre de Lac La Biche', 'Ameliorer le Calgary Jewish Centre', 'Ameliorer le Cardel Place de Calgary', "Ameliorer le Centre des sciences de l'ITCB pour favoriser la recherche-developpement appliquee et les produits commercialises", 'Ameliorer le Charters River Salmon Interpretive Centre de Sooke', 'Ameliorer le Chinese Cultural Centre of Greater Vancouver', 'Ameliorer le Credit Union iPlex a Swift Current', 'Ameliorer le Crescent Heights Community Hall de Calgary', "Ameliorer le D.A. Mackenzie Aquatic Centre de la municipalite d'Esterhazy", 'Ameliorer le Fort Heritage Precinct a Fort Saskatchewan', 'Ameliorer le Jasper Park Community Centre a Edmonton', "Ameliorer le Musee de l'aerospatiale de Calgary", "Ameliorer le Northgate Lions Seniors Recreation Centre d'Edmonton", "Ameliorer le Pedway Mini Park d'Edmonton", "Ameliorer le Rio Terrace Community Centre d'Edmonton", 'Ameliorer le Robin Hood Learning Centre de Sherwood Park', 'Ameliorer le Seymour River Hatchery and Education Centre de North Vancouver', 'Ameliorer le Thorncliffe Greenview Community Centre de Calgary', 'Ameliorer le Westview-Westwood Community Park de Fort McMurray', 'Ameliorer le Windermere Community Hall', 'Ameliorer le YMCA Eau Claire de Calgary', 'Ameliorer le YMCA de la ville de Regina', 'Ameliorer le YMCA familial a Kelowna', 'Ameliorer le bureau du conseil de la bande Ehattesaht', "Ameliorer le centre aquatique, l'arena et les terrains de tennis de Revelstoke", 'Ameliorer le centre communautaire Falconridge/Castleridge de Calgary', 'Ameliorer le centre communautaire Strathcona Christie Aspen de Calgary', 'Ameliorer le centre communautaire Tappen', 'Ameliorer le centre communautaire White Valley de Lumby', 'Ameliorer le centre communautaire coreen de Vancouver', "Ameliorer le centre communautaire d'Ashcroft", "Ameliorer le centre communautaire d'Eckville", 'Ameliorer le centre communautaire de Claresholm', 'Ameliorer le centre communautaire de Garden City', 'Ameliorer le centre communautaire de Huntington Hills a Calgary', 'Ameliorer le centre communautaire de Salmo Valley', 'Ameliorer le centre communautaire de St. Lina', 'Ameliorer le centre communautaire de Tumbler Ridge', "Ameliorer le centre communautaire de la Premiere Nation Beardy's et Okemasis", 'Ameliorer le centre communautaire de la municipalite de Davidson', 'Ameliorer le centre communautaire et la bibliotheque Guildford de Surrey', "Ameliorer le centre communautaire, l'arena et le centre de curling de Lomond", 'Ameliorer le centre communautaire, le centre de curling et le terrain de camping de Madden', 'Ameliorer le centre de curling de Carlyle', 'Ameliorer le centre de curling de la municipalite de Carrot River', 'Ameliorer le centre de formation Royal Canadian Marine Search and Rescue a Sooke', 'Ameliorer le centre de loisirs de Lillooet et du district', 'Ameliorer le centre de loisirs de Nisku', 'Ameliorer le centre recreatif Moyer a Josephburg, en Alberta', 'Ameliorer le centre recreatif de Beaumont', 'Ameliorer le centre recreatif de Salmon Arm', 'Ameliorer le champ de tir et les sentiers du biathlon afin de repondre aux normes de competition internationales', 'Ameliorer le commerce et les investissements dans la region de Prince George et la Porte du Pacifique Nord', 'Ameliorer le corridor recreatif de Gellatly Bay', 'Ameliorer le gymnase et le terrain de baseball de la bande indienne de Willams Lake', 'Ameliorer le lieu historique Beaver Lodge Forests Lands a Campbell River', 'Ameliorer le parc Bayview de White Rock', 'Ameliorer le parc Centennial de Campbell River', 'Ameliorer le parc Gilmore de Sherwood Park', "Ameliorer le parc Milestone d'Alberta Beach", 'Ameliorer le parc Strathcona Island de Medicine Hat', 'Ameliorer le parc Tillicum Beach', 'Ameliorer le parc Willis Road de West St. Paul', 'Ameliorer le parc communautaire Moore', "Ameliorer le parc communautaire du village d'Elbow", "Ameliorer le parc d'athletisme McLeod de Langley", 'Ameliorer le parc de la Avonmore Community League', 'Ameliorer le parc de loisirs de Cache Creek', 'Ameliorer le parc du village touristique de Saskatchewan Beach', 'Ameliorer le parc en installant un centre de conditionnement physique en plein air et des trottoirs a Parksville', 'Ameliorer le parc et le centre recreatif de New Bothwell', 'Ameliorer le parc et le centre recreatif de la Laurier Heights Community League a Edmonton', 'Ameliorer le parc recreatif cotier de Goose Spit', 'Ameliorer le parcours de sante du Cowichan Sportsplex de Duncan', 'Ameliorer le park Elgin de la ville de Moose Jaw', "Ameliorer le pavillon agricole d'Innisfail", 'Ameliorer le pavillon du club a Williams Lake', 'Ameliorer le quai Beacon a Sidney', 'Ameliorer le rendement energetique du centre aquatique de Fernie', 'Ameliorer le reseau de sentiers de la vallee de la riviere Wakamow', 'Ameliorer le sentier Bridge Creek de 100 Mile House', "Ameliorer le sentier par la construction d'un trottoir en bois et le remplacement d'un pont en rondins", 'Ameliorer le sentier polyvalent de Tofino', 'Ameliorer le service sans fil des bibliotheques publiques et des centres recreatifs de Richmond', "Ameliorer le stade Thunderbird de l'UCB a Vancouver", 'Ameliorer le stade Westhills a Langford', "Ameliorer le systeme d'eclairage au centre aquatique de West Vancouver", "Ameliorer le systeme d'eclairage du Quesnel and District Museum and Archives", 'Ameliorer le systeme de CVCA du British Columbia Centre for Ability a Vancouver', "Ameliorer le systeme de chauffage de l'arena", 'Ameliorer le systeme de chauffage et de climatisation du centre communautaire de Snow Lake', "Ameliorer le systeme de filtration de l'eau dans la municipalite de Stoughton", "Ameliorer le systeme de protection contre l'incendie du Panorama Recreation Centre de North Saanich", "Ameliorer le systeme de refroidissement et remplacer le refroidisseur pour la production de glace a l'arena Igloo a Bowden", 'Ameliorer le terrain Harold Wright a Vancouver', 'Ameliorer le terrain de baseball Blundell a Richmond', "Ameliorer le terrain de baseball des Giants d'Elmwood a Winnipeg", 'Ameliorer le terrain de camping Gas City a Medicine Hat', "Ameliorer le terrain de camping du centre 4-H de l'Alberta a Westerose", 'Ameliorer le terrain de jeu du parc Rotary a Duncan', 'Ameliorer le terrain de jeux Majestic Park de Sannich', "Ameliorer le terrain de jeux a l'ecole Jules Quesnel", 'Ameliorer le terrain de jeux communautaire et les terrains de sport de la municipalite de Kenaston', 'Ameliorer le terrain de jeux de la municipalite de Star City', "Ameliorer le terrain de jeux par l'ajout d'une nouvelle structure de jeux", 'Ameliorer le terrain de sport ainsi que la piste de marche et de jogging', 'Ameliorer le terrains de jeux du parc John Lawson de West Vancouver', 'Ameliorer le toit du centre de curling de la municipalite de Big River', "Ameliorer le toit et l'equipement de refrigeration du Charleswood Curling Club", "Ameliorer le toit, le plafond at le systeme d'eclairage de la Legion royale du Canada", 'Ameliorer les activites de marketing et de soutien des ventes de Signalink Technologies Inc.', "Ameliorer les aires de jeux pour enfants d'age prescolaire dans la region de D</t>
         </is>
@@ -843,12 +860,15 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>2102</v>
+      </c>
+      <c r="U6" t="n">
         <v>10791</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>11</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>['10', '300', '36', '400', '44', '480', '500', '580', '600', '610', '650']</t>
         </is>
@@ -921,12 +941,15 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>152</v>
+      </c>
+      <c r="U7" t="n">
         <v>33120</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>653</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>['1/01/2012', '1/02/2007', '1/02/2015', '1/04/2011', '1/05/2006', '1/05/2010', '1/06/2006', '1/07/2008', '1/07/2011', '1/08/2008', '1/09/2006', '1/09/2007', '1/09/2012', '1/09/2013', '1/10/2006', '1/11/2010', '1/12/2006', '1/12/2009', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2011', '1/13/2012', '1/13/2014', '1/14/2008', '1/14/2013', '1/14/2014', '1/15/2008', '1/15/2010', '1/15/2013', '1/16/2006', '1/16/2008', '1/16/2015', '1/17/2006', '1/17/2008', '1/17/2013', '1/18/2008', '1/18/2010', '1/19/2006', '1/19/2010', '1/19/2012', '1/20/2006', '1/20/2010', '1/20/2012', '1/21/2010', '1/21/2013', '1/22/2009', '1/22/2010', '1/22/2015', '1/23/2011', '1/24/2007', '1/24/2008', '1/24/2013', '1/25/2010', '1/26/2007', '1/26/2009', '1/27/2006', '1/28/2008', '1/28/2009', '1/28/2010', '1/28/2011', '1/29/2008', '1/29/2009', '1/29/2010', '1/29/2012', '1/29/2013', '1/30/2008', '1/30/2014', '1/31/2008', '1/31/2011', '1/31/2012', '10/01/2009', '10/01/2012', '10/02/2007', '10/02/2009', '10/02/2012', '10/03/2006', '10/04/2010', '10/04/2011', '10/04/2012', '10/04/2014', '10/05/2007', '10/05/2009', '10/05/2010', '10/06/2009', '10/07/2010', '10/08/2009', '10/08/2013', '10/09/2007', '10/09/2009', '10/09/2014', '10/12/2012', '10/13/2009', '10/15/2007', '10/16/2007', '10/17/2005', '10/17/2012', '10/17/2013', '10/18/2006', '10/18/2012', '10/19/2007', '10/19/2009', '10/20/2009', '10/20/2014', '10/22/2009', '10/22/2010', '10/23/2014', '10/25/2011', '10/26/2006', '10/26/2009', '10/27/2009', '10/27/2014', '10/28/2009', '10/28/2012', '10/28/2014', '10/29/2007', '10/29/2009', '10/29/2012', '10/31/2006', '10/31/2011', '10/31/2012', '11/01/2010', '11/02/2009', '11/03/2005', '11/03/2009', '11/04/2009', '11/04/2013', '11/05/2007', '11/05/2009', '11/05/2010', '11/05/2012', '11/05/2013', '11/06/2009', '11/06/2013', '11/07/2007', '11/07/2012', '11/07/2013', '11/08/2011', '11/08/2012', '11/09/2007', '11/09/2012', '11/10/2011', '11/13/2009', '11/14/2007', '11/15/2007', '11/15/2009', '11/15/2010', '11/15/2012', '11/16/2009', '11/16/2012', '11/17/2005', '11/17/2009', '11/18/2009', '11/19/2007', '11/19/2009', '11/20/2009', '11/20/2010', '11/21/2008', '11/22/2010', '11/23/2006', '11/23/2009', '11/23/2010', '11/23/2011', '11/24/2005', '11/24/2006', '11/24/2009', '11/24/2010', '11/25/2005', '11/25/2006', '11/25/2011', '11/26/2007', '11/26/2009', '11/26/2013', '11/27/2008', '11/28/2005', '11/28/2007', '11/28/2009', '11/28/2012', '11/28/2013', '11/29/2009', '11/29/2012', '12/01/2009', '12/01/2011', '12/02/2005', '12/02/2009', '12/02/2010', '12/03/2009', '12/03/2012', '12/04/2009', '12/05/2006', '12/05/2012', '12/05/2014', '12/06/2012', '12/07/2009', '12/07/2011', '12/08/2009', '12/09/2005', '12/09/2010', '12/10/2009', '12/10/2012', '12/11/2006', '12/11/2011', '12/12/2008', '12/12/2012', '12/12/2013', '12/13/2007', '12/13/2010', '12/14/2011', '12/15/2006', '12/15/2009', '12/15/2010', '12/15/2011', '12/16/2010', '12/16/2013', '12/17/2007', '12/17/2009', '12/18/2006', '12/18/2007', '12/19/2005', '12/19/2012', '12/21/2007', '12/21/2009', '12/21/2011', '12/22/2009', '12/23/2005', '12/27/2007', '12/28/2007', '12/29/2014', '12/30/2005', '2/01/2007', '2/01/2010', '2/01/2012', '2/02/2010', '2/03/2006', '2/03/2009', '2/03/2011', '2/04/2008', '2/05/2008', '2/05/2010', '2/06/2007', '2/06/2014', '2/07/2008', '2/07/2009', '2/07/2011', '2/08/2007', '2/08/2008', '2/08/2013', '2/09/2006', '2/09/2007', '2/09/2009', '2/09/2010', '2/09/2011', '2/09/2012', '2/10/2014', '2/11/2008', '2/11/2009', '2/12/2008', '2/13/2006', '2/13/2007', '2/14/2008', '2/14/2013', '2/15/2008', '2/15/2013', '2/16/2010', '2/16/2011', '2/16/2015', '2/17/2006', '2/18/2008', '2/18/2013', '2/20/2006', '2/20/2013', '2/21/2006', '2/21/2011', '2/21/2012', '2/21/2013', '2/22/2006', '2/22/2012', '2/22/2013', '2/23/2009', '2/24/2009', '2/24/2010', '2/24/2015', '2/25/2010', '2/25/2011', '2/25/2013', '2/25/2014', '2/26/2014', '2/27/2008', '2/28/2008', '2/28/2014', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2013', '3/02/2006', '3/02/2007', '3/02/2011', '3/02/2012', '3/03/2006', '3/03/2009', '3/03/2014', '3/04/2008', '3/04/2013', '3/04/2014', '3/05/2008', '3/05/2009', '3/05/2010', '3/05/2014', '3/05/2015', '3/06/2006', '3/06/2008', '3/06/2013', '3/06/2014', '3/07/2006', '3/07/2013', '3/08/2006', '3/08/2010', '3/08/2011', '3/08/2013', '3/09/2006', '3/09/2011', '3/10/2006', '3/10/2009', '3/10/2010', '3/10/2011', '3/10/2014', '3/10/2015', '3/11/2011', '3/11/2013', '3/12/2010', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2014', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2010', '3/14/2011', '3/14/2012', '3/15/2006', '3/15/2010', '3/15/2011', '3/15/2012', '3/16/2006', '3/16/2010', '3/16/2011', '3/17/2006', '3/17/2008', '3/17/2011', '3/18/2008', '3/18/2011', '3/18/2013', '3/19/2010', '3/20/2009', '3/21/2006', '3/21/2007', '3/21/2011', '3/22/2006', '3/22/2010', '3/22/2011', '3/23/2006', '3/23/2007', '3/23/2009', '3/23/2010', '3/23/2011', '3/24/2006', '3/24/2010', '3/24/2011', '3/24/2014', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/26/2008', '3/26/2010', '3/26/2012', '3/27/2006', '3/27/2008', '3/27/2009', '3/27/2011', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2010', '3/28/2011', '3/28/2012', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/29/2012', '3/30/2007', '3/30/2010', '3/30/2012', '3/31/2006', '3/31/2008', '4/01/2011', '4/02/2008', '4/03/2006', '4/04/2006', '4/05/2006', '4/08/2010', '4/09/2006', '4/09/2008', '4/09/2009', '4/10/2008', '4/11/2008', '4/11/2010', '4/13/2006', '4/14/2010', '4/15/2015', '4/16/2007', '4/16/2008', '4/16/2009', '4/17/2008', '4/18/2006', '4/20/2007', '4/20/2009', '4/20/2010', '4/21/2006', '4/23/2007', '4/23/2013', '4/24/2008', '4/24/2012', '4/24/2014', '4/26/2007', '4/26/2010', '4/28/2008', '4/28/2014', '4/28/2015', '4/29/2008', '4/29/2009', '4/30/2007', '4/30/2012', '5/03/2006', '5/03/2012', '5/04/2006', '5/04/2009', '5/06/2008', '5/07/2013', '5/07/2015', '5/08/2006', '5/09/2007', '5/10/2010', '5/10/2013', '5/11/2006', '5/11/2010', '5/12/2006', '5/12/2009', '5/13/2013', '5/13/2014', '5/14/2007', '5/14/2008', '5/14/2010', '5/14/2015', '5/15/2006', '5/15/2007', '5/15/2008', '5/15/2009', '5/15/2012', '5/16/2006', '5/16/2007', '5/17/2006', '5/19/2006', '5/19/2009', '5/19/2010', '5/20/2009', '5/21/2008', '5/21/2009', '5/24/2006', '5/24/2007', '5/25/2006', '5/25/2007', '5/26/2006', '5/27/2008', '5/27/2009', '5/27/2013', '5/28/2009', '5/28/2015', '5/29/2008', '5/29/2013', '5/29/2014', '5/30/2007', '5/30/2013', '5/31/2010', '6/02/2008', '6/02/2010', '6/02/2015', '6/04/2009', '6/05/2006', '6/05/2009', '6/06/2006', '6/06/2008', '6/07/2011', '6/08/2009', '6/09/2006', '6/09/2009', '6/13/2013', '6/14/2007', '6/16/2006', '6/16/2007', '6/16/2008', '6/17/2009', '6/17/2011', '6/18/2007', '6/19/2006', '6/19/2013', '6/19/2014', '6/21/2007', '6/21/2012', '6/22/2006', '6/22/2009', '6/23/2006', '6/24/2008', '6/25/2010', '6/26/2006', '6/26/2009', '6/28/2006', '6/28/2010', '6/29/2006', '6/29/2009', '6/30/2006', '6/30/2009', '7/02/2009', '7/03/2013', '7/04/2012', '7/05/2006', '7/05/2007', '7/05/2013', '7/06/2006', '7/07/2009', '7/08/2009', '7/08/2013', '7/09/2013', '7/10/2009', '7/11/2006', '7/12/2010', '7/12/2013', '7/13/2007', '7/14/2009', '7/15/2009', '7/15/2010', '7/15/2015', '7/16/2008', '7/16/2009', '7/17/2007', '7/17/2008', '7/17/2009', '7/17/2015', '7/18/2006', '7/18/2008', '7/19/2006', '7/19/2015', '7/20/2015', '7/21/2006', '7/21/2015', '7/22/2008', '7/22/2015', '7/23/2008', '7/23/2010', '7/23/2015', '7/24/2015', '7/25/2006', '7/25/2007', '7/26/2006', '7/26/2007', '7/26/2009', '7/26/2011', '7/27/2006', '7/28/2008', '7/28/2009', '7/29/2008', '7/29/2009', '7/29/2010', '7/30/2008', '7/30/2009', '7/31/2009', '8/01/2007', '8/01/2008', '8/02/2006', '8/03/2006', '8/03/2007', '8/03/2010', '8/03/2011', '8/04/2006', '8/04/2009', '8/06/2009', '8/07/2008', '8/07/2009', '8/08/2006', '8/09/2007', '8/10/2009', '8/12/2009', '8/12/2011', '8/13/2008', '8/14/2008', '8/16/2006', '8/17/2006', '8/19/2009', '8/21/2009', '8/23/2010', '8/27/2007', '8/27/2008', '8/27/2009', '8/27/2010', '8/28/2006', '8/29/2007', '8/29/2008', '8/30/2008', '8/30/2011', '8/31/2006', '8/31/2011', '9/02/2008', '9/02/2009', '9/03/2008', '9/04/2009', '9/05/2008', '9/08/2008', '9/08/2009', '9/09/2011', '9/10/2008', '9/10/2010', '9/11/2008', '9/11/2009', '9/12/2007', '9/12/2008', '9/13/2006', '9/13/2007', '9/17/2007', '9/17/2009', '9/17/2012', '9/18/2009', '9/18/2012', '9/19/2006', '9/19/2007', '9/19/2009', '9/19/2011', '9/20/2011', '9/21/2007', '9/22/2009', '9/23/2009', '9/23/2014', '9/25/2006', '9/26/2006', '9/27/2006', '9/28/2006', '9/28/2012', '9/29/2010', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -999,12 +1022,15 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>107</v>
+      </c>
+      <c r="U8" t="n">
         <v>33076</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>955</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>['1/02/2013', '1/03/2006', '1/03/2013', '1/04/2010', '1/04/2012', '1/04/2013', '1/05/2006', '1/05/2007', '1/05/2010', '1/05/2011', '1/06/2006', '1/06/2010', '1/07/2008', '1/07/2010', '1/07/2011', '1/07/2013', '1/07/2015', '1/08/2008', '1/08/2010', '1/08/2013', '1/09/2006', '1/09/2007', '1/09/2010', '1/09/2013', '1/09/2015', '1/10/2008', '1/10/2011', '1/10/2012', '1/10/2013', '1/11/2008', '1/11/2010', '1/11/2011', '1/11/2013', '1/12/2006', '1/12/2010', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2015', '1/14/2010', '1/14/2011', '1/14/2013', '1/14/2015', '1/15/2008', '1/15/2010', '1/16/2013', '1/16/2014', '1/17/2006', '1/17/2008', '1/17/2012', '1/17/2013', '1/18/2006', '1/18/2008', '1/18/2010', '1/18/2012', '1/19/2006', '1/19/2010', '1/19/2011', '1/19/2012', '1/20/2010', '1/20/2011', '1/20/2014', '1/21/2008', '1/21/2010', '1/21/2011', '1/21/2013', '1/22/2008', '1/22/2010', '1/22/2013', '1/22/2014', '1/23/2006', '1/23/2008', '1/23/2013', '1/24/2008', '1/24/2014', '1/25/2006', '1/25/2008', '1/25/2010', '1/25/2011', '1/25/2013', '1/26/2004', '1/26/2006', '1/26/2009', '1/26/2010', '1/26/2015', '1/27/2006', '1/27/2010', '1/27/2011', '1/27/2012', '1/28/2008', '1/28/2010', '1/28/2013', '1/28/2014', '1/29/2006', '1/29/2008', '1/29/2010', '1/29/2013', '1/30/2006', '1/30/2008', '1/30/2012', '1/30/2013', '1/31/2006', '1/31/2008', '1/31/2012', '1/31/2013', '10/01/2007', '10/01/2008', '10/01/2009', '10/01/2012', '10/02/2008', '10/02/2009', '10/03/2007', '10/03/2008', '10/04/2006', '10/04/2011', '10/05/2009', '10/06/2009', '10/07/2008', '10/07/2009', '10/08/2008', '10/08/2009', '10/09/2008', '10/09/2009', '10/10/2006', '10/10/2012', '10/11/2006', '10/13/2006', '10/13/2009', '10/13/2011', '10/14/2008', '10/14/2009', '10/15/2009', '10/16/2009', '10/16/2012', '10/17/2007', '10/17/2011', '10/17/2012', '10/18/2011', '10/19/2009', '10/19/2010', '10/19/2011', '10/19/2012', '10/20/2006', '10/20/2009', '10/20/2011', '10/21/2009', '10/21/2013', '10/22/2007', '10/22/2009', '10/22/2010', '10/22/2012', '10/23/2006', '10/23/2009', '10/23/2012', '10/24/2003', '10/24/2012', '10/24/2013', '10/25/2012', '10/26/2009', '10/26/2012', '10/27/2009', '10/28/2009', '10/29/2007', '10/29/2009', '10/29/2010', '10/29/2012', '10/30/2009', '10/30/2012', '10/31/2012', '11/01/2012', '11/02/2009', '11/02/2011', '11/02/2012', '11/03/2009', '11/03/2010', '11/03/2012', '11/03/2014', '11/04/2009', '11/04/2014', '11/05/2008', '11/05/2009', '11/05/2012', '11/06/2009', '11/06/2012', '11/06/2014', '11/07/2007', '11/07/2012', '11/08/2012', '11/09/2006', '11/09/2007', '11/09/2009', '11/09/2010', '11/09/2012', '11/10/2009', '11/10/2014', '11/12/2009', '11/12/2010', '11/12/2012', '11/12/2014', '11/13/2009', '11/13/2012', '11/13/2014', '11/14/2012', '11/14/2014', '11/15/2010', '11/15/2012', '11/16/2007', '11/16/2009', '11/16/2010', '11/16/2012', '11/17/2005', '11/17/2009', '11/17/2010', '11/17/2012', '11/17/2014', '11/18/2009', '11/18/2014', '11/19/2007', '11/19/2009', '11/19/2012', '11/19/2014', '11/20/2007', '11/20/2009', '11/20/2012', '11/20/2014', '11/21/2012', '11/21/2014', '11/22/2009', '11/22/2012', '11/22/2013', '11/23/2006', '11/23/2009', '11/23/2012', '11/24/2006', '11/24/2009', '11/24/2011', '11/24/2014', '11/25/2005', '11/25/2009', '11/26/2009', '11/26/2010', '11/26/2012', '11/26/2013', '11/26/2014', '11/27/2006', '11/27/2007', '11/27/2009', '11/27/2012', '11/27/2014', '11/28/2012', '11/28/2014', '11/29/2007', '11/29/2012', '11/30/2006', '11/30/2007', '11/30/2009', '11/30/2012', '12/01/2009', '12/01/2011', '12/02/2008', '12/02/2009', '12/02/2014', '12/03/2007', '12/03/2009', '12/03/2012', '12/04/2007', '12/04/2009', '12/04/2012', '12/04/2014', '12/05/2006', '12/05/2007', '12/05/2009', '12/05/2011', '12/05/2012', '12/05/2013', '12/05/2014', '12/06/2006', '12/06/2010', '12/06/2011', '12/06/2012', '12/07/2009', '12/07/2011', '12/07/2012', '12/08/2006', '12/08/2009', '12/08/2010', '12/09/2009', '12/09/2014', '12/10/2009', '12/10/2010', '12/10/2014', '12/11/2009', '12/11/2012', '12/11/2014', '12/12/2012', '12/12/2013', '12/13/2012', '12/14/2009', '12/14/2011', '12/14/2012', '12/15/2009', '12/16/2009', '12/16/2011', '12/17/2009', '12/17/2012', '12/18/2009', '12/18/2012', '12/19/2006', '12/19/2011', '12/19/2012', '12/20/2007', '12/20/2010', '12/20/2012', '12/21/2007', '12/21/2009', '12/21/2012', '12/22/2009', '12/22/2010', '12/23/2008', '12/23/2009', '12/23/2010', '12/23/2011', '12/23/2013', '12/24/2009', '12/24/2012', '12/28/2009', '12/28/2012', '12/29/2009', '12/30/2009', '12/31/2012', '2/01/2006', '2/01/2010', '2/01/2012', '2/01/2013', '2/02/2006', '2/02/2010', '2/03/2006', '2/03/2007', '2/03/2010', '2/04/2010', '2/04/2013', '2/04/2014', '2/05/2008', '2/05/2009', '2/05/2010', '2/05/2013', '2/05/2014', '2/06/2008', '2/06/2009', '2/06/2012', '2/06/2014', '2/07/2006', '2/07/2008', '2/07/2011', '2/07/2013', '2/08/2006', '2/08/2008', '2/08/2010', '2/09/2010', '2/10/2009', '2/10/2010', '2/11/2008', '2/11/2009', '2/11/2010', '2/11/2011', '2/11/2013', '2/12/2008', '2/12/2009', '2/12/2010', '2/12/2013', '2/12/2014', '2/13/2007', '2/13/2008', '2/13/2012', '2/13/2013', '2/14/2007', '2/14/2008', '2/14/2011', '2/14/2012', '2/14/2013', '2/15/2008', '2/15/2010', '2/15/2013', '2/16/2010', '2/17/2009', '2/17/2010', '2/17/2011', '2/17/2012', '2/17/2014', '2/18/2008', '2/18/2010', '2/18/2013', '2/19/2009', '2/19/2010', '2/19/2013', '2/19/2014', '2/20/2006', '2/20/2008', '2/20/2009', '2/20/2013', '2/21/2006', '2/21/2013', '2/22/2008', '2/22/2010', '2/22/2011', '2/22/2013', '2/23/2007', '2/23/2009', '2/23/2010', '2/23/2011', '2/23/2012', '2/23/2013', '2/24/2006', '2/24/2009', '2/24/2010', '2/24/2011', '2/24/2012', '2/25/2008', '2/25/2011', '2/25/2013', '2/26/2008', '2/26/2013', '2/27/2008', '2/27/2009', '2/27/2013', '2/27/2014', '2/28/2007', '2/28/2011', '2/28/2012', '2/28/2013', '2/28/2014', '2/29/2008', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2011', '3/01/2012', '3/01/2013', '3/02/2006', '3/02/2010', '3/03/2006', '3/03/2008', '3/03/2009', '3/03/2010', '3/03/2013', '3/03/2014', '3/04/2011', '3/04/2013', '3/04/2014', '3/05/2009', '3/05/2010', '3/05/2012', '3/05/2013', '3/05/2014', '3/06/2006', '3/06/2008', '3/06/2009', '3/06/2012', '3/06/2013', '3/07/2006', '3/07/2008', '3/07/2013', '3/08/2007', '3/08/2010', '3/08/2013', '3/09/2006', '3/09/2007', '3/09/2009', '3/10/2006', '3/10/2008', '3/10/2009', '3/10/2011', '3/11/2011', '3/11/2013', '3/11/2014', '3/12/2007', '3/12/2009', '3/12/2013', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2013', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2011', '3/14/2012', '3/14/2013', '3/15/2006', '3/15/2011', '3/15/2013', '3/16/2006', '3/16/2007', '3/16/2009', '3/16/2010', '3/17/2006', '3/17/2008', '3/17/2009', '3/17/2014', '3/18/2009', '3/18/2013', '3/19/2008', '3/19/2009', '3/19/2010', '3/19/2012', '3/19/2013', '3/19/2014', '3/20/2006', '3/20/2013', '3/21/2006', '3/21/2011', '3/21/2013', '3/21/2014', '3/22/2006', '3/22/2010', '3/22/2011', '3/22/2013', '3/23/2006', '3/23/2009', '3/23/2012', '3/24/2006', '3/24/2010', '3/25/2008', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/25/2015', '3/26/2007', '3/26/2009', '3/26/2010', '3/26/2013', '3/27/2001', '3/27/2006', '3/27/2007', '3/27/2008', '3/27/2009', '3/27/2013', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2011', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/30/2006', '3/30/2007', '3/30/2009', '3/30/2011', '3/31/2006', '3/31/2008', '3/31/2009', '3/31/2010', '3/31/2014', '4/01/2006', '4/01/2008', '4/01/2009', '4/01/2011', '4/02/2007', '4/02/2009', '4/02/2013', '4/03/2006', '4/03/2009', '4/04/2006', '4/04/2008', '4/04/2013', '4/05/2006', '4/05/2013', '4/06/2006', '4/07/2006', '4/08/2008', '4/10/2006', '4/10/2008', '4/10/2012', '4/11/2006', '4/11/2008', '4/11/2014', '4/12/2006', '4/12/2010', '4/13/2006', '4/13/2010', '4/14/2006', '4/15/2008', '4/15/2013', '4/16/2008', '4/16/2009', '4/16/2012', '4/18/2006', '4/19/2006', '4/19/2010', '4/20/2006', '4/21/2006', '4/21/2008', '4/21/2010', '4/22/2008', '4/23/2008', '4/24/2006', '4/24/2007', '4/24/2008', '4/24/2009', '4/25/2008', '4/26/2007', '4/27/2006', '4/27/2007', '4/27/2009', '4/28/2006', '4/28/2008', '4/30/2008', '4/30/2009', '4/30/2010', '5/01/2006', '5/01/2008', '5/02/2006', '5/02/2008', '5/03/2007', '5/03/2011', '5/04/2006', '5/04/2007', '5/04/2010', '5/05/2009', '5/07/2007', '5/07/2009', '5/08/2009', '5/08/2013', '5/09/2013', '5/10/2006', '5/10/2007', '5/10/2010', '5/10/2012', '5/10/2013', '5/11/2006', '5/12/2006', '5/13/2008', '5/13/2009', '5/14/2007', '5/14/2008', '5/14/2010', '5/15/2006', '5/15/2008', '5/15/2009', '5/16/2006', '5/17/2006', '5/17/2010', '5/18/2012', '5/19/2006', '5/20/2008', '5/20/2009', '5/21/2009', '5/21/2015', '5/22/2009', '5/22/2015', '5/23/2006', '5/23/2008', '5/25/2010', '5/25/2015', '5/26/2006', '5/26/2010', '5/27/2009', '5/27/2015', '5/28/2007', '5/28/2009', '5/28/2014', '5/28/2015', '5/29/2007', '5/29/2008', '5/29/2009', '5/29/2013', '5/29/2015', '5/30/2007', '5/30/2008', '5/31/2006', '6/01/2009', '6/01/2015', '6/02/2008', '6/02/2009', '6/02/2014', '6/02/2015', '6/04/2007', '6/04/2008', '6/04/2009', '6/04/2010', '6/05/2013', '6/06/2006', '6/06/2012', '6/06/2015', '6/07/2007', '6/08/2009', '6/09/2008', '6/09/2010', '6/09/2015', '6/10/2009', '6/10/2015', '6/11/2008', '6/11/2009', '6/11/2015', '6/12/2006', '6/12/2014', '6/12/2015', '6/13/2014', '6/14/2006', '6/15/2007', '6/15/2009', '6/15/2015', '6/16/2006', '6/16/2015', '6/17/2009', '6/17/2010', '6/17/2015', '6/18/2009', '6/18/2014', '6/18/2015', '6/19/2006', '6/19/2009', '6/19/2013', '6/19/2014', '6/19/2015', '6/20/2006', '6/20/2014', '6/21/2006', '6/22/2009', '6/22/2015', '6/23/2014', '6/23/2015', '6/24/2009', '6/24/2015', '6/25/2009', '6/25/2014', '6/25/2015', '6/26/2008', '6/26/2009', '6/26/2014', '6/26/2015', '6/27/2008', '6/28/2006', '6/28/2013', '6/29/2006', '6/29/2009', '6/29/2015', '6/30/2009', '6/30/2014', '6/30/2015', '7/02/2009', '7/02/2013', '7/02/2015', '7/03/2008', '7/03/2009', '7/03/2014', '7/03/2015', '7/04/2006', '7/04/2007', '7/05/2006', '7/05/2007', '7/06/2006', '7/06/2009', '7/06/2011', '7/06/2015', '7/07/2006', '7/07/2009', '7/07/2015', '7/08/2008', '7/08/2009', '7/08/2015', '7/09/2007', '7/09/2009', '7/09/2015', '7/10/2006', '7/10/2009', '7/10/2015', '7/11/2006', '7/11/2007', '7/11/2013', '7/12/2010', '7/12/2012', '7/13/2009', '7/13/2015', '7/14/2006', '7/14/2009', '7/14/2015', '7/15/2009', '7/16/2007', '7/16/2009', '7/16/2013', '7/16/2015', '7/17/2006', '7/17/2007', '7/17/2009', '7/19/2006', '7/20/2006', '7/20/2009', '7/20/2015', '7/21/2009', '7/21/2015', '7/22/2008', '7/22/2009', '7/22/2015', '7/23/2007', '7/23/2009', '7/23/2015', '7/24/2006', '7/24/2007', '7/24/2015', '7/25/2006', '7/25/2007', '7/25/2008', '7/25/2013', '7/25/2015', '7/26/2006', '7/26/2007', '7/26/2015', '7/27/2006', '7/27/2007', '7/27/2009', '7/27/2015', '7/28/2007', '7/28/2008', '7/28/2014', '7/28/2015', '7/29/2009', '7/29/2010', '7/29/2015', '7/30/2007', '7/30/2009', '7/30/2015', '7/31/2006', '7/31/2008', '7/31/2009', '7/31/2015', '8/01/2006', '8/01/2008', '8/03/2007', '8/03/2010', '8/04/2009', '8/05/2005', '8/05/2008', '8/05/2009', '8/05/2010', '8/06/2013', '8/06/2014', '8/07/2009', '8/08/2006', '8/08/2008', '8/08/2013', '8/09/2006', '8/09/2007', '8/09/2010', '8/10/2009', '8/11/2008', '8/11/2009', '8/11/2011', '8/12/2009', '8/12/2013', '8/13/2007', '8/13/2008', '8/13/2009', '8/14/2007', '8/14/2008', '8/14/2009', '8/15/2006', '8/15/2008', '8/16/2007', '8/17/2006', '8/17/2007', '8/17/2009', '8/17/2010', '8/18/2007', '8/18/2008', '8/19/2009', '8/20/2007', '8/20/2008', '8/20/2009', '8/21/2009', '8/21/2014', '8/22/2007', '8/23/2006', '8/23/2010', '8/24/2009', '8/24/2015', '8/25/2006', '8/25/2008', '8/25/2009', '8/26/2009', '8/27/2004', '8/27/2008', '8/27/2009', '8/28/2007', '8/28/2008', '8/28/2009', '8/31/2006', '8/31/2009', '9/01/2009', '9/02/2008', '9/02/2009', '9/03/2008', '9/03/2009', '9/04/2008', '9/04/2009', '9/05/2007', '9/06/2006', '9/07/2006', '9/08/2008', '9/08/2009', '9/08/2011', '9/09/2008', '9/09/2009', '9/09/2011', '9/10/2008', '9/10/2009', '9/13/2006', '9/13/2007', '9/14/2006', '9/14/2007', '9/14/2009', '9/15/2009', '9/16/2008', '9/16/2009', '9/16/2011', '9/17/2008', '9/17/2009', '9/18/2008', '9/18/2009', '9/19/2008', '9/19/2009', '9/19/2011', '9/19/2014', '9/20/2007', '9/20/2011', '9/21/2006', '9/21/2009', '9/21/2012', '9/22/2008', '9/22/2009', '9/22/2011', '9/23/2008', '9/23/2009', '9/24/2008', '9/24/2009', '9/25/2007', '9/25/2008', '9/25/2009', '9/26/2006', '9/26/2007', '9/26/2011', '9/27/2006', '9/27/2010', '9/28/2009', '9/28/2011', '9/29/2008', '9/29/2009', '9/29/2010', '9/30/2008', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -1077,12 +1103,15 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>3576</v>
+      </c>
+      <c r="U9" t="n">
         <v>3702</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>17</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>['0', '120500', '144479', '1539524', '19691991', '2000000', '2995433.03', '300000', '5000000', '520000', '560000', '600000', '6250000', '64860', '66500', '760659.4', '933000']</t>
         </is>
@@ -1155,12 +1184,15 @@
         </is>
       </c>
       <c r="T10" t="n">
+        <v>3590</v>
+      </c>
+      <c r="U10" t="n">
         <v>3626</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>6</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>['0', '1000000', '15000000', '16500000', '4000000', '500000']</t>
         </is>
@@ -1233,12 +1265,15 @@
         </is>
       </c>
       <c r="T11" t="n">
+        <v>98</v>
+      </c>
+      <c r="U11" t="n">
         <v>20494</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>2196</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>['0', '100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '107333', '1078500', '1079574', '108000', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '125100', '125335', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '164794', '164839', '164991', '165000', '1650000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200440', '220158', '220174', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '225300', '225802', '225810', '226254', '226538', '226667', '227079', '227135', '227550', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315087', '31535', '315437', '31545', '31555', '31582', '316028', '31654', '316808', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '44250', '443000', '44500', '44509', '44640', '44723', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '47924', '479500', '48000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1311,12 +1346,15 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>3518</v>
+      </c>
+      <c r="U12" t="n">
         <v>4000</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>72</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>['0', '1', '100000', '1061500', '1072763', '1080564', '115006', '1173750', '1191779', '1200000', '1204785', '1215388', '125000', '1250000', '1251731', '1253534', '1268050', '1302400', '1330748', '1375000', '150000', '156225', '1600000', '1643710', '190000', '200000', '203608', '2200000', '220300', '2250000', '227000', '227750', '243640', '2452000', '25000', '250000', '2500000', '272350', '2772000', '2900000', '300000', '315000', '315500', '3168434', '330000', '331500', '3375000', '3500000', '364271', '376048', '396479', '401147', '4143000', '425000', '441000', '447500', '4625924', '468787.55', '479213', '480000', '496150', '500000', '514500', '552900', '625000', '670000', '725723', '750000', '888676', '90000', '920152', '949500']</t>
         </is>
@@ -1389,12 +1427,15 @@
         </is>
       </c>
       <c r="T13" t="n">
+        <v>86</v>
+      </c>
+      <c r="U13" t="n">
         <v>21032</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>2261</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t>['100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '1061500', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '1072763', '107333', '1078500', '1079574', '108000', '1080564', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115006', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '1173750', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '1191779', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1204785', '120500', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215388', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '1250000', '125100', '1251731', '125335', '1253534', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '1268050', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '1302400', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '1330748', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '1375000', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144479', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '1539524', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156225', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '1643710', '164794', '164839', '164991', '165000', '1650000', '16500000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168301', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '19891991', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203608', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200000', '2200440', '220158', '220174', '220300', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '2250000', '225300', '225802', '225810', '226254', '226538', '226667', '227000', '227079', '227135', '227550', '227750', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243640', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '2452000', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '272350', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2772000', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '2900000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '2995433.03', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315000', '315087', '31535', '315437', '31545', '315500', '31555', '31582', '316028', '31654', '316808', '3168434', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '320956', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331500', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '3375000', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '364271', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '376048', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '396479', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '401147', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '4143000', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '425000', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '441000', '44250', '443000', '44500', '44509', '44640', '44723', '447500', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '4625924', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '468787.55', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '479213', '47924', '479500', '48000', '480000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '496150', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514500', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '552900', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '625000', '6250000', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '64860', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '725723', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '760659.4', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '888676', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '920152', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '933000', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '949500', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1467,12 +1508,15 @@
         </is>
       </c>
       <c r="T14" t="n">
+        <v>3327</v>
+      </c>
+      <c r="U14" t="n">
         <v>4848</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>214</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>['0', '10000', '100000', '1000000', '100854', '1016826', '103308', '104377', '105000', '108000', '109700', '110221', '11135002', '113165', '114302', '115000', '1150000', '116455', '117000', '118000', '11964', '12000', '120000', '122500', '12300', '123682', '13100', '132000', '133478', '133800', '134261', '1347755', '137080', '1372233', '1400000', '143800', '1457000', '1458500', '146921', '147490', '15000', '150000', '1500000', '15000000', '1515687', '1523526', '15500', '15724122', '160000', '1625000', '1643809', '167202', '169885', '1720000', '17673000', '17808689', '180000', '18414', '185106', '185208', '1874109', '189323', '191000', '192000', '19200000', '2000', '20000', '200000', '2000000', '201500', '202900', '20600', '21000', '212316', '21527', '217000', '219000', '22000', '22158000', '222000', '222500', '224000', '225000', '2264963', '2322000', '238000', '238704', '242004', '243087', '24500', '2463000', '248000', '2500', '25000', '250000', '257400', '2611843', '269090', '26952', '275000', '276000', '276135', '277188', '278945', '27980', '28000', '280568', '286579', '3000', '30000', '300000', '3000000', '309584', '318575', '32484151', '325100', '327000', '3350', '345000', '35000', '36090', '365000', '37994', '386000', '395748', '396564', '396625', '4000', '40000', '400000', '4000000', '401664', '40220', '405809', '408802', '409580', '42500', '44491', '45000', '45800', '46488', '470000', '473456', '47500', '480013', '481000', '483752', '484500', '4920000', '49334', '499143', '5000', '50000', '500000', '51137', '51179', '5200000', '52501', '5305351', '5400000', '54150', '54396', '54560', '55000', '55677', '57000', '5792623', '6000', '60000', '626563', '6300000', '637321', '642000', '64250', '65676', '66000', '660000', '6691', '684000', '68497', '700', '70000', '701865', '70250', '70516', '705448', '72055', '74545', '76880', '77232', '78000', '781492', '78500', '79000', '79925', '8000', '80000', '812565', '82101', '84464', '87530', '8964', '89720', '9000000', '9150', '93500', '93806000', '940490', '94100', '9441', '95000', '9600', '9750', '991399']</t>
         </is>
@@ -1545,12 +1589,15 @@
         </is>
       </c>
       <c r="T15" t="n">
+        <v>86</v>
+      </c>
+      <c r="U15" t="n">
         <v>22120</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>2801</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>['100000', '1000000', '1000106', '100021', '1001158', '100136', '1001472', '1001500', '100200', '1002827', '100288', '1003765', '100442', '100457', '100570', '100602', '1006039', '1006436', '100665', '1008066', '100839', '100897', '1010000', '101104', '101149', '1012547', '1013007', '1014060', '101546', '101600', '101618', '1018072', '101834', '101900', '102000', '1021256', '102180', '1022676', '102273', '1025000', '102711', '102851', '1029000', '102981', '103000', '103040', '103104', '1031073', '1033000', '103390', '1035012', '1035520', '1035554', '10359199', '103750', '1037865', '103987', '104024', '1041252', '1041593', '1041821', '104203', '1042374', '1043263', '1043612', '104500', '1045000', '10464585', '1049000', '1049959', '105070', '105147', '105155', '105400', '10556516', '1057928', '1058000', '105817', '106001', '1061358', '106330', '1064106', '106517', '106902', '106932', '1070462', '107175', '1072100', '1072400', '107454', '1075600', '107601', '10771500', '1078500', '1080500', '108106', '108112', '1081932', '108200', '108292', '1083058', '108543', '1086005', '108641', '108820', '1088385', '108918', '109150', '1091546', '1091865', '1094560', '109557', '1096200', '109656', '1096757', '1098349', '109850', '109870', '10988319', '1100000', '110005', '1100520', '110134', '110200', '1102092', '110221', '11022965', '110236', '1102958', '110332', '110558', '1105800', '110622', '110686', '110963', '1110371', '111050', '11155393', '111613', '1116300', '112000', '112024', '112065', '112182', '1123881', '1124581', '112557', '1126730', '112700', '1127600', '1128016', '112810', '1128386', '11300000', '113053', '1132240', '113547', '113644', '1136995', '113711', '113772', '1138169', '114000', '1140420', '114084', '114500', '1145000', '114551', '1145601', '114594', '114618', '114666', '114681', '1146832', '114739', '114745', '114775', '1148300', '114900', '1149268', '114976', '1150000', '115068', '1151803', '1152274', '115400', '115408', '1154132', '115565', '1156421', '115819', '115844', '115960', '116000', '11601000', '116041', '1164452', '116473000', '1166111', '116661', '116774', '116853', '1169076', '117000', '1172602', '117336', '1174000', '11740000', '117500', '1175282', '117625', '117645', '117844', '117900', '118000', '118086', '1181880', '1181927', '1182534', '1184263', '1185000', '118550', '1185512', '1185742', '118600', '118612', '119051', '119150', '1191594', '1193292', '1194623', '1195695', '1196200', '119633', '119676', '119689', '119763', '119798', '1198151', '1198516', '1199405', '120000', '1200000', '120096', '120200', '120347', '1203493', '120367', '1204679', '1205601', '1205779', '1205828', '1206125', '1206509', '1206942', '1207506', '1208588', '120963', '1209717', '1210450', '1210940', '1211995', '121200', '1213500', '121441', '121580', '121722', '121792', '121900', '1220081', '1220936', '1221513', '1221541', '122300', '1224640', '122500', '1226271', '1227193', '1227839', '122848', '1229000', '123000', '1232051', '1232563', '1232950', '123321', '123403', '1235909', '123663', '123688', '1237443', '123747', '123894', '124040', '1241000', '1241432', '1241790', '124200', '124216', '1245601', '1246380', '124670', '124723', '124738', '1247865', '124876', '124986', '125000', '1250000', '12500000', '1250012', '1250799', '1252487', '125323', '1253673', '125410', '1254595', '125500', '125547', '125600', '125619', '125864', '125925', '126168', '1262625', '1263200', '126333', '126403', '1264360', '1265409', '126741', '1268000', '1268190', '1268362', '126935', '1270952', '127341', '1273580', '1273839', '1274596', '1276003', '1278885', '1279129', '1279277', '127959', '128000', '1280180', '128136', '128204', '128281', '128568', '128646', '128700', '128747', '1289751', '1290000', '1290800', '1293022', '129588', '129714', '1299140', '1299284', '129934', '130000', '1300000', '1301124', '13025932', '1305499', '130706', '130779', '130780', '1308493', '130992', '131061', '1311111', '1311459', '131177', '1311842', '1314672', '131612', '131973', '1321074', '132284', '1323037', '1323388', '13239785', '1325102', '1326000', '132645', '133000', '1330000', '1330075', '1333304', '1333652.15', '1334819', '13366230', '1336955', '1337398', '1338381', '133863', '1338905', '133918', '134094', '1342000', '134277', '1342802', '1343864', '1345191', '134549', '134555', '13459282', '134694', '1347000', '1347543', '13486295', '134876', '135200', '135255', '135262', '1354083', '135446', '135473', '1355367', '135620', '13563155', '135803', '135864', '1358681', '136054', '136262', '1367453', '136777', '1368057', '1368771', '136879', '136909', '137132', '137380', '137402', '137490', '13761125', '137744', '13789695', '138054', '138200', '1382241', '138271', '138320', '138425', '1384362', '1385480', '138602', '138675', '1388951', '13891621', '1389172', '1389370', '138966', '1389888', '1390681', '139435', '1399161', '139992', '140000', '140000000', '1401258', '1403778', '140386', '140432', '141122', '141190', '141292', '141302', '1413573', '1414460', '141635', '142278', '1422874', '142304', '14232173', '142395', '142475', '1426273', '14282464', '1430456', '143154', '1431617', '1431639', '143203', '143250', '1432919', '1435000', '143505', '143550', '143565', '1438000', '143946', '1439611', '14428519', '144379', '1446104', '1447017', '144843', '145000', '145102', '145525', '145731.19', '1457500', '145820', '145902', '145976', '146081', '146134', '146422', '146466', '1466014', '146818', '146901', '1469288', '146974', '1470437', '147142000', '147306', '147513', '147580', '147592', '147692', '147747', '1477785', '1477975', '1480000', '1481364', '148137', '148206', '1489400', '149367', '1494028', '149530', '1497379', '1497622', '14980000', '149836', '1498581', '149951', '150000', '1500000', '15000000', '1502140', '1502702', '150337', '150367', '150443', '150485', '150506', '150568', '1505939', '150776', '151000', '1511007', '151339', '1518514', '1518837', '151965', '152040', '1520473', '152139', '152194', '152320', '1524216', '153000', '153321', '153341', '153435', '153823', '15400000', '154076', '154258', '1543000', '154463', '1546272', '154752', '1558500', '15588000', '156000', '1560000', '156007', '1561512', '156254', '156496', '15650000', '156511', '156594', '1569263', '156933', '1569702', '1571419', '1573553', '157848', '1580000', '158030', '158113', '158250', '158263', '1583347', '1586213', '158843', '1589000', '159000', '1590395', '1593439', '159653', '160000', '1600000', '1601181', '160190', '160371', '160398', '160600', '160676', '160732', '160740', '160808', '160845', '161000', '1610000', '161232', '161370', '161530', '1615455', '1620061', '1623051', '162322', '1624994', '1627333', '1627743', '1630200', '1631026', '16311600', '163161', '163182', '163313', '163381', '1634205', '163529', '16382756', '163857', '1639000', '164200', '1642184', '1642978', '164465', '1644933', '164839', '1648893', '165000', '165025', '165125', '165150', '1655047', '165521', '165607', '165624', '165672', '166370', '166390', '1664211', '166600', '1666583', '1667464', '1667500', '166937', '167168', '1672598', '167277', '167284', '167300', '167306', '167318', '1673250', '167544', '167564', '167674', '1677121', '167847', '167860', '168000', '1680486', '168084', '168167', '168208', '168300', '168591', '168610', '168700', '168970', '169547', '169629', '169634', '1696355', '169730', '169975', '1699994', '170000', '170043', '170192', '1705223', '170724', '171000', '171271', '171435', '171498', '171764', '172000', '1720508', '172099', '172351', '172600', '172670', '1728673', '173140', '173250', '1732738', '1735000', '173573', '173703', '173831', '174279', '174419', '1748199', '174927', '175000', '175139', '175200', '1752953', '175415', '1756306', '175710', '1758914', '1760000', '1760500', '176091', '176102', '176395', '176520', '176566', '1767092', '176738', '1769500', '1773313', '177534', '177544', '177551', '1777137', '1777352', '1778572', '177861', '178010', '1780905', '178257', '1784219', '1785520', '178572', '1787068', '178831', '1790397', '1790911', '179180', '179448', '179500', '1795383', '179867', '179928', '180000', '1801320', '180476', '180570', '180665', '181000', '1810000', '181226', '181424', '181533', '181624', '181635', '181700', '181920', '181997', '182001', '182018', '182047', '1821087', '182347', '182350', '1826704', '182871', '182888', '183200', '183208', '1836341', '1840308', '184126', '1848200', '1848948', '184908', '185060', '185077', '185200', '185300', '185313', '185366', '185533', '1855848', '185646', '186142', '1861800', '1863789', '186460', '186700', '186941', '187270', '1874937', '187815', '187827', '188096', '1885453', '189000', '18900000', '189330', '189426', '1896900', '189837', '1899000', '190000', '1900000', '190050', '190221', '1905000', '190850', '1910115', '191526', '191700', '192041', '1921415', '1921798', '192184', '1921986', '1923813', '192632', '192800', '1928750', '1930000', '193092', '193301', '193496', '1936791', '193719', '194083', '194100', '19451000', '194656', '194859', '195000', '195015', '195200', '195373', '1954177', '195547', '1957388', '195900', '196031', '196200', '196263', '196341', '1964404', '196900', '1969040', '1972000', '197319', '1978885', '198008', '198202', '1983441', '1983736', '198591', '198637', '1987182', '1987400', '198847', '19891991', '199116', '199167', '199280', '199376', '199470', '1994947', '199567', '199852', '199855', '199979', '200000', '2000000', '200079', '200123', '2001454', '200200', '200335', '200492', '200500', '2006650', '201214', '201412', '201429', '201451', '201557', '201768', '202272', '2025243', '202682', '202825', '203400', '2034392', '2034565', '2035000', '20360000', '203674', '203712', '2038635', '204000', '2040000', '204190', '204297', '204425', '204500', '204525', '204600', '2046768', '204795', '204835', '2048369', '205000', '2050468', '205154', '205474', '205513', '2057429', '206000', '206100', '2061000', '206523', '206806', '2070507', '2071781', '207453', '207713', '2083718', '2087500', '2093400', '210000', '2100000', '210023', '210551', '2109103', '211047', '2113477', '211409', '2115000', '211841', '2120000', '2121566', '2123000', '212537', '212550', '2129746', '213054', '2132582', '2138719', '214419', '214582', '214885', '2150552', '215384', '2155000', '2157563', '2161129', '216269', '216601', '2166307', '21666140', '2167608', '216820', '216901', '2169783', '2173000', '217425', '2174460', '2174700', '2175000', '217733', '218000', '218117', '218332000', '2184499', '219000', '219196', '2193912', '219413', '2194889', '219727', '219807', '2199855', '220000', '2200000', '2201917', '220981', '221092', '2212204', '221717', '222075', '22212766', '222386', '222435', '222469', '223062', '223069', '223358', '2236578', '223862', '224000', '224326', '2243479', '224814', '224955', '225000', '2250000', '225215', '225250', '2252512', '225485', '225846', '2259702', '225993', '2265000', '2268315', '2269206', '227070', '227165', '227811', '228000', '2280303', '228080', '228252', '228319', '228326', '228672', '228721', '2289853', '229204', '229267', '2300000', '2304318', '230597', '2306208', '230676', '230698', '231000', '231013', '231184', '231200', '231289', '231345', '231509', '231896', '232039', '23205720', '232135', '2321968', '232300', '232320', '232382', '232511', '232615', '233814', '2338430', '2340614', '2347500', '235000', '23515000', '235161', '235201', '2352014', '235231', '2353836', '23564813', '235751', '236075', '236167', '236288', '236400', '236500', '2367765', '2370347', '2370441', '2378516', '2382995', '2383558', '2385731', '238622', '238737', '239176', '239407', '239539', '2397148', '240000', '240200', '240247', '240359', '240661', '24092920', '2409570', '2411210', '2411218', '2411581', '241618', '242105', '242132', '242209', '242295', '2424000', '24266666', '242934', '243200', '243422', '2435449', '243597', '244262', '2447874', '2448430', '245343', '246253', '2465000', '246699', '246780', '246958', '246996', '247217', '247576', '247805', '248000', '248355', '2483957', '248666', '2487424', '249200', '249241', '249460', '249505', '249587', '249590', '249627', '249628', '249766', '249790', '249854', '249871', '249923', '2499701', '249980', '249987', '2499938', '249997', '250000', '2500000', '2501470', '250200', '250330', '250334', '2503462', '250670', '2507068', '2508000', '250976', '251275', '251300', '251864', '252600', '252688', '2528847', '253163', '2531637', '253405', '2534227', '2535000', '2540870', '254104', '254127', '254504', '254681', '255531', '2564500', '25653', '256858', '257183', '257230', '2574300', '258209', '258290', '258705', '258913', '2595000', '259921', '260000', '2600000', '260106', '2604800', '260869', '260947', '261130', '261544', '261688', '2629992', '263032', '263213', '263464', '2636000', '263702', '26422647', '2643060', '26452462', '264644', '2650000', '265276', '265300', '265536', '26600', '266000', '266241', '266368', '266458', '266604', '267000', '2677510', '26876008', '269121', '2693381', '269369', '269446', '269805', '269900', '2702089', '2702458', '2703496', '2706714', '2708404', '2709375', '271194', '271196', '271575', '272253', '272280', '2725000', '272592', '273235', '2732403', '2733636', '273482', '2735000', '274002', '274400', '274586', '274600', '2750000', '275015', '275303', '2756331', '2759442', '276128', '276182', '2766400', '276682', '276910', '277165', '277244', '277302', '277430', '27781', '277810', '277824', '27800', '278554', '279518', '279672', '27974705', '279900', '2800220', '280324', '2810634', '2812878', '2815000', '2817994', '28182000', '282141', '282253', '282450', '282692', '283015', '283165', '283258', '283385', '283567', '2836453', '283777', '2839000', '284000', '284062', '284306', '28436657', '284541', '2849286', '2850000', '285055', '285538', '285930', '286023', '286080', '2862955', '2867088', '286796', '286845', '287489', '2876931', '288000', '288147', '288354', '288500', '289550', '289652', '289879', '2905854', '290626', '290721', '290980', '291035', '29120', '291332', '291508', '291551', '2917760', '291832', '2919000', '292288', '292418', '292473', '2925000', '29254', '292542', '292966', '29309227', '293300', '293555', '2935700', '294500', '294525', '294963', '294983', '295000', '295131', '295174', '295192.75', '295321', '2955649', '295575', '295700', '295865', '296116', '2961992', '296316', '2964828', '296876', '296913', '297029', '297669', '2978050', '298152', '298443', '298586', '298622', '299029', '2991594', '299299', '299989', '2999981', '30000', '300000', '3000000', '30000000', '300083', '300200', '30030182', '300500', '300543', '300630', '300824', '300892', '301101', '301121', '301219', '301494', '301500', '3015512', '302000', '302483', '3025478', '303003', '303070', '303115', '303141', '3032830', '303704', '303751', '303790', '3039524', '303992', '304000', '304254', '305218', '305510', '305663', '305955', '3061593', '3062413', '306572', '306797', '307000', '3071399', '307274', '307517', '307627', '307653', '308155', '308455', '308493', '3085106', '308674', '308696', '308938', '3091531', '309274', '309285', '3093936', '309500', '309645', '309812', '309887', '309963', '310000', '310010', '310405', '311116', '3112685', '311430', '3117457', '312000', '312004', '312031', '312300', '312450', '3124595', '312489', '312500', '312768', '3129877', '313611.02', '313943', '31439', '315087', '315442', '31575166', '316028', '31654', '3171830', '3173251', '317475', '317483', '318000', '318198', '318957', '319143', '319145', '319735', '319963', '320000', '3200000', '320200', '3202000', '3204000', '320955', '320956', '322000', '322180', '322396', '32250', '3239000', '324080', '324645', '324741', '32500', '325042', '325200', '325261', '3255028', '326174', '326333', '326688', '327476', '327579', '328654', '3287420', '3287976', '3293954', '329401', '329673', '329875', '329939', '330000', '33000000', '3302699', '3303255', '330501', '330560', '330712', '330910', '330955', '331030', '331304', '331788', '331886', '3319132', '3324198', '332675', '332971', '333000', '333232', '333240', '333437', '333501', '333647', '333928', '334843', '33500', '335026', '3352053', '335824', '336251', '336545', '3371500', '3372000', '337669', '337802', '337910', '338150', '338487', '338583', '3386201', '338645', '3387500', '3389831', '339252', '339817', '340000', '3400000', '340200', '340386', '3406850', '340805', '340868', '340892', '341164', '341390', '343178', '343200', '34352.55', '344403', '344871', '3449446', '3449897', '345017', '345048', '345200', '345326', '3455075', '345539', '345882', '345955', '3460000', '346362', '3470000', '3471639', '347388', '347400', '347970', '3490129', '349275', '349314', '349726', '349846', '35000', '350000', '3500000', '35000000', '351038', '351215', '3516500', '351849', '352314', '353171', '3532016', '353906', '354515', '354550', '355096', '355498', '356222', '357200', '357605', '358133', '3584000', '3586000', '359042', '359241', '359500', '35995433.03', '3600000', '360110', '360200', '3603308', '3605000', '3607578', '361457', '36232', '3637747', '363835', '3645426', '365000', '365200', '365369', '3655463', '3662160', '366569', '3674000', '367600', '3677333', '36810302', '3683123', '3699000', '370000', '37084601', '371888', '3720000', '372018', '372356', '373269', '373500', '373750', '374500', '375000', '37600', '3768314', '376868', '377051', '3776748', '377680', '3778189', '378000', '378269', '378505', '379950', '380000', '3800000', '380078', '38009599', '381237', '3812549', '381720', '382000', '382423', '383283', '3833454', '383936', '384240', '384783', '387697', '387947', '3880663', '389000', '389050', '389101', '389648', '390000', '3900000', '390511', '3910000', '391614', '392414', '392506', '39398', '394164', '3942207', '394924', '395364', '3956105', '3962512', '3964460', '396479', '396886', '40000', '400000', '4000000', '400043', '4011744', '4016984', '401731', '401953', '40238', '4027563', '402789', '403307', '40444', '404970', '4050000', '405498', '4056000', '405616', '407283', '407501', '407540', '407640', '4078200', '408649', '40875', '4095000', '4095500', '410012', '410059', '411200', '412000', '4122362', '412813', '414185', '415069', '415200', '4161590', '416292', '417015', '417350', '419101', '4202051', '421165', '42128577', '4213116', '422477', '42296', '423984', '424000', '425500', '426284', '426828', '426867', '426950', '428083', '428289', '428862', '429200', '429419', '430000', '4306300', '4307058', '431000', '431196', '43193', '432263', '43335', '4338783', '4340100', '434399', '435074', '435115', '436000', '43609545', '436234', '4363901', '436578', '4366403', '436660', '436880', '4371650', '4374512', '437904', '438320', '438500', '4385731', '438720', '438833', '438964', '439562', '4400000', '4402659', '4405750', '440600', '441178', '4413376', '441638', '443651', '4437500', '4441355', '444784', '445000', '4454840', '4460916', '4464637', '446714', '44708', '447177', '447362', '447486', '448319', '449604', '4499484', '450000', '4500000', '4510302', '452097', '452486', '452713', '452977', '4539597', '454417', '455500', '456000', '457000', '457600', '4580597', '45843', '4584580', '458815', '459591', '459904', '459923', '46044', '460729', '4611026', '462217', '463364', '463710', '464650', '464845', '466318', '4667065', '467094', '467379', '4679695', '468065', '468159', '46820', '468750', '469000', '469337', '470000', '47186', '47192', '472247', '473191', '47393', '47412', '475000', '4750000', '475206', '475419', '475492', '475749', '476000', '4774246', '478000', '478605', '478962', '4790000', '4792149', '479776', '480000', '480135', '480200', '480327', '480339', '4806000', '480669', '481594', '481674', '482406', '483000', '483111', '483116', '4831400', '483356', '485220', '485620', '485694', '487280', '487803', '487918', '4887507', '488977', '490000', '490462', '490893', '4911371', '49125', '492395', '492652', '493000', '49378', '49441', '495302', '496560', '497000', '497790', '498281', '49948', '499700', '499950', '50000', '500000', '5000000', '500200', '500898', '5012000', '501302', '50148', '501760', '5018530', '50200', '502052', '50215', '50236', '503180', '503500', '503881', '504282', '504300', '504343', '504530', '50600', '5062500', '507614', '50819', '509735', '51000', '510080', '511108', '5115158', '51168', '511778', '512293', '512608', '5132179', '514355', '514587', '51475', '515000', '515336', '515661', '51734', '51739', '517521', '51783', '517846', '518144', '51831', '5187762', '519500', '519847', '5199451', '5199999', '52000', '520400', '520728', '52190', '523379', '52380', '52400', '5245750', '525000', '52562', '52639', '5270000', '52750', '528655', '5295543', '530298', '5313025', '5319448', '53200', '53316', '53320', '534720', '53494', '536000', '53645', '53649', '53668', '536938', '53700', '537544', '537819', '5386000', '539688', '54000', '540000', '540050', '540142', '54030', '54111', '54120', '5420668', '5421760', '54241', '542500', '542656', '54428', '545000', '5450000', '546353', '546379', '547172', '54777', '548000', '548339', '5486400', '55000', '5500000', '550103', '550178', '55030', '5504403', '55200', '553034', '553697', '5544000', '555280', '55556', '5557182', '555761', '556572', '55741', '5577589', '558292', '558539', '56000', '560000', '5600000', '560200', '561279', '56316', '5632448', '563467', '563777', '564648', '565577', '5663541', '56758', '568000', '568278', '568414', '568654', '56911', '569440', '569570', '569627', '56968', '56997', '57076', '5719110', '572079', '573185', '5737735', '574187', '574640', '574764', '574864', '57500', '575000', '575057', '575742', '575765', '576134', '576783', '576900', '577226', '578906', '5800000', '5805699', '58115', '5812354', '581400', '58175', '581803', '58200', '582459', '582528', '58300', '583135', '583566', '58373', '584845', '585500', '5859081', '58643', '58663', '586786', '587033', '588000', '588235', '58858', '588629', '589227', '589500', '58994', '5902985', '59134', '5915000', '592254', '593800', '594554', '59473', '59500', '595006', '5951000', '595300', '59583', '5964107', '59698', '597590', '597602', '59784', '598000', '598823', '59917', '59940', '59948', '5995717', '60000', '600000', '60000000', '6001016', '600200', '60080', '601381', '60200', '602162', '6032000', '603253', '603886', '604426', '60500', '606180', '60700', '6080000', '60819', '60822', '608372', '61000', '610000', '61009', '6104381', '610980', '611000', '611100', '61186', '611903', '611999', '612483', '61444', '61670', '61688', '61769', '617787', '61808', '61857', '61890', '619028', '619243', '61940', '619691', '62000', '620000', '620710', '62090', '6212770', '62200', '622478', '622500', '623185', '6245231', '625443', '62614', '626853', '6270583', '627351', '62741', '62784', '62806', '62880', '629723', '63000', '63004', '63070', '631000', '63126.38', '63147', '6320000', '632064', '632487', '63299', '633033', '63305', '63339', '633875', '634384', '63500', '635635', '63650', '636853', '63701', '63774', '63879', '63905', '63963', '6405203', '640951', '64106', '64185', '6430026', '643545', '644638', '644727', '64500', '645343', '645791', '6461604', '646719', '64697', '6473800', '647450', '64875', '648750', '64948', '649830', '65000', '650532', '65069', '650800', '651065', '652919', '653600', '653654', '654154', '65499', '6558000', '65713', '658283', '659000', '660280', '66200', '662161', '66308', '66342', '66416', '665000', '665323', '665429', '66554', '665703', '667142', '668569', '66877', '670754', '6712131', '67172', '67180', '67200', '67500', '67553', '675762', '6762000', '67750', '67893', '679145', '680000', '68144', '681500', '683000', '684024', '68532', '68702', '68818', '689200', '691478', '692778', '69456', '694975', '69500', '695260', '6958638', '697329', '697786', '697905', '698580', '69900', '70000', '700000', '7000000', '701399', '7026974', '70300', '7037480', '70495', '705190', '70674', '707011', '708219', '7096012', '70999', '7100000', '7103770', '711837', '71200', '712152', '712349', '713395', '7150000', '71604', '71703', '718219', '718311', '719105', '722381', '72246', '723402', '72500', '727217', '727454', '72845', '72897', '729271', '730000', '7300000', '7302090', '730906', '73271', '73319', '73326', '7340200', '73433', '73551', '73648', '738759', '74000', '740000', '74001', '74064', '740675', '741742', '742513', '74319', '74380', '745682', '745708', '74600', '746453', '746614', '747173', '747974', '7480659.4', '74890', '74903', '75000', '750000', '7500000', '750310', '750468', '7505712', '75200', '752096', '7521192', '752685', '75300000', '75315', '755869', '7575980', '75800', '7587260', '75893', '76000', '760000', '760086', '76014', '760156', '76055', '760989', '76100', '76185', '76190', '7625000', '763120', '7635667', '763720', '76384', '763894', '7640709', '76450', '766464', '7696195', '76963', '770000', '771382.98', '77248', '773257', '77503', '77550', '77616', '7771000', '77861', '7789041', '77972', '77975', '78000', '7800000', '780164', '780331', '781166', '781598', '78259', '782875', '78298', '7835250', '78391', '784400', '784479', '78469', '784820', '78580', '786440', '78751', '788276', '788400', '79023', '79150', '792346', '79280', '793000', '7951424', '7964034', '79656', '7965697', '79664', '79696', '79762', '79786', '79800', '79878', '79886', '79890', '7995500', '80000', '800000', '80002', '800865', '80200', '80284', '80314', '803424', '8037210', '803751', '8043258', '804427', '80600', '80602', '806112', '8069025', '80700', '80782', '809175', '809200', '810844', '811000', '813000', '813033', '813372', '81500', '81520', '8154028', '816200', '81780', '818667', '819545', '81986', '820446', '82096', '821100', '821936', '82219', '82332', '823710', '8253556', '82540', '825510', '82590', '826449', '82842', '83000', '830529', '831229', '83148', '832132', '83280', '83453', '83536', '83579', '83600', '839218', '83938', '8400000', '84115', '84245', '84291', '843343', '84383', '84387', '84441', '84500', '845015', '8451500', '845651', '8460000', '846423', '846740', '847605', '8488700', '8493086', '849774', '85000', '850000', '850155', '851967', '852124', '85224', '852777', '852918', '85335', '85352741', '85368', '853782', '85446', '85576', '85600', '856309', '856614', '85692', '85736', '8575000', '858511', '85999', '86000', '860388', '860535', '86080', '861336', '86400', '865665', '8668000', '868126', '868184', '868650', '87000', '870731', '87200', '87295', '87500', '87534', '875419', '877000', '877295', '878000', '87816', '87852', '878898', '87895', '879000', '87959', '87986', '88000', '8802656', '880386', '8804350', '8809435', '8811452', '88249', '8830896', '883575', '884889', '884949', '88496', '885393', '885522', '885611', '885935', '88596', '885963', '887500', '88754', '88800', '888348', '88878', '89000', '89047', '890522', '890739', '89108', '891870', '893007', '89325', '89500', '895000', '89551', '895652', '89572', '89596', '89600', '89771', '897897', '8979236', '898476', '899967', '90000', '900000', '900136', '901629', '90200', '902000', '902676', '90327', '90550', '90600', '90616', '906250', '90630', '907449', '909000', '91000', '91063', '91118', '911370', '9120000', '91362', '91365', '9146005', '915705', '916915', '917865', '91798', '91842', '919716', '92000', '920560', '922551', '92332', '92398', '92400', '924550', '92474', '9254250', '925479', '92570', '925898', '92699', '927626', '928999', '929441', '929661', '92981', '929889', '930000', '93200', '933348', '93352', '93529', '935570', '936093', '9369712', '9371826', '93719', '937215', '9377160', '93840', '939010', '93922', '94039', '941055', '941387', '941953', '942000', '9420166', '94258', '94351', '94366', '944202', '9465379', '94713', '94733', '947535', '948084', '949439', '9496169', '95200', '95238', '952449', '952858', '95320', '956419', '95759', '9586095', '95879', '959051', '959175', '959716', '959889', '960372', '960820', '96141', '96263', '962865', '96475', '96505', '965094', '965540', '96567', '965750', '9658000', '966955', '967631', '96898', '96976', '97020', '97033', '97053', '97064', '971000', '971009', '97115', '97272', '972863', '973061', '973733', '97441', '975000', '97541', '97572', '97619', '976267', '977062', '978500', '97903', '97932', '979375', '97943', '97972', '9800000', '98015', '980571', '981713', '982000', '984868', '98600', '9870807', '989633', '989692', '989817', '990806', '991371', '992865', '993174', '993320', '9935537', '99401', '99416', '99500', '995000', '995469', '996380', '9967236', '99831', '9988051.41', '999342']</t>
         </is>
@@ -1623,12 +1670,15 @@
         </is>
       </c>
       <c r="T16" t="n">
+        <v>1428</v>
+      </c>
+      <c r="U16" t="n">
         <v>3595</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>5</v>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>['A', 'B', 'M', 'O', 'S']</t>
         </is>
@@ -1701,12 +1751,15 @@
         </is>
       </c>
       <c r="T17" t="n">
+        <v>25</v>
+      </c>
+      <c r="U17" t="n">
         <v>21521</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>1844</v>
       </c>
-      <c r="V17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t>['100013', '100014', '100016', '100047', '100190', '100253', '100393', '100409', '100511', '100596', '100660', '100680', '100866', '101241', '101365', '102359', '102447', '102500', '102692', '102696', '102750', '102998', '103176', '104074', '104079', '104327', '104512', '104620', '110908', '131755', '139659', '175257', '178400', '217307', '220202', '228304', '247858', '255109', '282855', '284059', '286856', '28803', '297259', '300902', '301002', '316109', '360701', '363655', '365106', '365254', '374702', '374900', '375253', '400853', '409656', '417253', '422659', '423905', '432153', '433520', '433535', '434085', '434205', '434829', '435706', '435760', '436316', '436820', '437231', '438077', '438500', '442990', '443171', '443952', '444166', '444315', '444460', '444794', '444970', '446890', '448936', '452758', '452963', '453297', '453754', '453800', '453821', '453827', '454135', '454484', '454634', '454732', '454748', '454764', '454765', '454775', '454784', '454790', '454794', '454802', '454819', '454820', '454821', '454823', '454836', '454838', '454839', '454850', '454877', '454880', '454900', '454902', '454904', '454905', '454909', '454912', '454919', '454939', '454943', '454947', '454948', '454969', '454970', '454974', '454987', '455004', '455009', '455010', '455013', '455027', '455056', '455072', '455089', '455095', '455108', '455110', '455121', '455152', '455156', '455184', '455188', '455190', '455191', '455196', '455204', '455209', '455214', '455219', '455229', '455236', '455238', '455272', '455280', '455283', '455284', '455289', '455293', '455306', '455328', '455341', '455347', '455348', '455352', '455355', '455357', '455361', '455362', '455367', '455368', '455371', '455372', '455383', '455384', '455385', '455386', '455387', '455388', '455389', '455390', '455392', '455394', '455396', '455397', '455401', '455405', '455409', '455416', '455417', '455418', '455421', '455423', '455425', '455428', '455436', '455441', '455444', '455446', '455448', '455452', '455453', '455454', '455455', '455456', '455457', '455458', '455459', '455462', '455465', '455490', '455494', '455496', '455497', '455506', '455508', '455510', '455512', '455515', '455527', '455528', '455532', '455535', '455545', '455550', '455551', '455553', '455554', '455555', '455556', '455557', '455558', '455559', '455561', '455562', '455564', '455565', '455567', '455571', '455572', '455573', '455576', '455578', '455580', '455581', '455582', '455583', '455585', '455587', '455588', '455590', '455597', '455598', '455600', '455601', '455602', '455603', '455604', '455606', '455607', '455608', '455610', '455611', '455612', '455615', '455616', '455617', '455618', '455626', '455628', '455631', '455632', '455633', '455634', '455656', '455667', '455673', '455678', '455679', '455682', '455684', '455685', '455686', '455709', '455710', '455718', '455720', '455722', '455729', '455739', '455762', '455766', '455770', '455771', '455773', '455779', '455784', '455785', '455792', '455799', '455800', '455803', '455812', '455816', '455818', '455820', '455825', '455827', '455829', '455858', '455859', '455860', '455861', '455862', '455864', '455865', '455867', '455868', '455870', '455875', '455878', '455882', '455883', '455886', '455896', '455899', '455904', '455908', '455909', '455913', '455914', '455915', '455918', '455919', '455926', '455928', '455932', '455933', '455934', '455935', '455936', '455945', '455952', '455953', '455956', '455957', '455961', '455962', '455971', '455972', '455976', '455981', '456010', '456014', '456016', '456024', '456053', '456056', '456059', '456069', '456071', '456072', '456085', '456086', '456091', '456094', '456101', '456107', '456109', '456110', '456136', '456170', '456174', '456176', '456200', '456205', '456218', '456222', '456247', '456263', '456270', '456273', '456331', '456337', '456344', '456363', '456376', '456418', '456438', '456467', '456471', '456490', '456501', '456529', '456533', '456534', '456535', '456536', '456543', '456574', '456576', '456625', '456629', '456681', '456690', '456698', '456727', '456740', '456741', '456778', '456798', '456800', '456827', '456839', '456868', '456873', '456876', '456930', '456931', '456952', '456967', '456974', '456980', '456984', '456985', '456990', '457010', '457025', '457052', '457062', '457067', '457073', '457076', '457077', '457078', '457079', '457080', '457081', '457082', '457083', '457084', '457085', '457086', '457087', '457088', '457089', '457090', '457091', '457092', '457093', '457094', '457095', '457096', '457097', '457098', '457099', '457100', '457101', '457102', '457103', '457104', '457106', '457107', '457109', '457112', '457120', '457121', '457122', '457123', '457124', '457125', '457126', '457127', '457128', '457131', '457135', '457137', '457139', '457142', '457143', '457144', '457145', '457146', '457147', '457148', '457149', '457150', '457151', '457152', '457155', '457156', '457157', '457158', '457160', '457161', '457162', '457163', '457165', '457166', '457168', '457169', '457219', '457222', '457257', '457265', '457416', '457452', '457516', '457526', '457577', '457583', '457630', '457703', '457721', '457759', '457761', '457777', '457806', '457854', '457855', '457930', '458014', '458029', '458057', '458327', '458400', '458410', '458438', '458479', '458648', '458819', '458831', '458897', '458898', '458904', '458905', '458947', '458948', '458958', '458980', '459008', '459028', '459030', '459039', '459150', '459204', '459208', '459213', '459220', '459244', '459261', '459264', '459280', '459282', '459307', '459314', '459315', '459316', '459319', '459354', '459360', '459363', '459385', '459409', '459495', '459577', '459602', '459626', '459628', '459645', '459653', '459655', '459673', '459678', '459713', '459768', '459769', '459802', '459839', '459946', '461485', '462107', '462401', '462435', '462499', '462539', '462611', '462661', '462685', '462778', '462810', '462942', '463074', '463103', '463111', '463287', '463351', '463487', '463522', '463605', '463676', '463809', '463880', '464004', '464026', '464143', '464191', '464224', '464357', '464379', '464441', '464514', '464539', '464545', '464578', '464582', '464610', '464667', '464717', '464823', '464873', '464879', '464932', '464962', '464985', '465000', '465003', '465010', '465083', '465103', '465116', '465403', '465485', '465487', '465555', '465590', '465594', '465595', '465637', '465665', '465681', '465689', '465701', '465771', '465810', '465895', '48108', '52902', '63305', '74203', '80705', '80804', '80853', '80903', '80952', '95158', 'F00025', 'F00267', 'F00450', 'F00451', 'F00458', 'F00485', 'F00601', 'F00614', 'F00698', 'F00705', 'F00712', 'F00747', 'F00767', 'F00786', 'F00908', 'F00912', 'F00914', 'F01026', 'F01071', 'F01105', 'F01162', 'F01181', 'F01316', 'F01424', 'F01572', 'F01612', 'F01650', 'F01718', 'F01723', 'F01727', 'F01729', 'F01781', 'F01793', 'F02041', 'F02060', 'F02204', 'F02206', 'F02322', 'F02506', 'F02588', 'F02618', 'F02623', 'F02651', 'F02657', 'F02707', 'F02742', 'F02775', 'F02778', 'F02782', 'F02836', 'F02902', 'F02911', 'F02938', 'F03061', 'F03151', 'F03153', 'F03228', 'F03268', 'F03281', 'F03293', 'F03320', 'F03321', 'F03347', 'F03351', 'F03377', 'F03410', 'F03413', 'F03423', 'F03434', 'F03438', 'F03485', 'F03495', 'F03551', 'F03556', 'F03581', 'F03656', 'F03662', 'F03669', 'F03675', 'F03688', 'F03690', 'F03706', 'F03777', 'F03963', 'F04293', 'F04360', 'F04379', 'F04423', 'F04434', 'F04560', 'F04592', 'F04594', 'F04597', 'F04598', 'F04608', 'F04628', 'F04691', 'F04707', 'F04715', 'F04756', 'F04774', 'F04786', 'F04815', 'F04860', 'F04888', 'F04890', 'F04903', 'F04908', 'F04923', 'F04939', 'F04984', 'F05011', 'F05014', 'F05057', 'F05067', 'F05069', 'F05084', 'F05105', 'F05129', 'F05141', 'F05144', 'F05145', 'F05171', 'F05181', 'F05186', 'F05188', 'F05190', 'F05196', 'F05203', 'F05207', 'F05232', 'F05237', 'F05239', 'F05247', 'F05261', 'F05266', 'F05298', 'F05307', 'F05325', 'F05345', 'F05347', 'F05413', 'F05427', 'F05434', 'F05576', 'F05597', 'F05606', 'F05613', 'F05630', 'F05639', 'F05644', 'F05657', 'F05673', 'F05678', 'F05679', 'F05728', 'F05755', 'F05767', 'F05805', 'F05846', 'F05862', 'F05870', 'F05871', 'F05879', 'F05905', 'F05909', 'F05927', 'F05930', 'F05946', 'F05960', 'F05971', 'F05975', 'F05986', 'F05991', 'F06001', 'F06046', 'F06047', 'F06051', 'F06052', 'F06060', 'F06064', 'F06066', 'F06067', 'F06072', 'F06079', 'F06083', 'F06084', 'F06085', 'F06096', 'F06107', 'F06144', 'F06147', 'F06178', 'F06189', 'F06192', 'F06211', 'F06220', 'F06225', 'F06244', 'F06256', 'F06271', 'F06292', 'F06305', 'F06330', 'F06332', 'F06376', 'F06377', 'F06467', 'F06510', 'F06512', 'F06536', 'F06539', 'F06558', 'F06562', 'F06569', 'F06753', 'F06757', 'F06760', 'F06767', 'F06779', 'F06793', 'F06797', 'F06841', 'F06854', 'F06873', 'F06881', 'F06895', 'F06919', 'F06921', 'F06931', 'F06953', 'F06991', 'F07095', 'F07114', 'F07118', 'F07122', 'F07188', 'F07212', 'F07217', 'F07219', 'F07230', 'F07232', 'F07244', 'F07246', 'F07285', 'F07286', 'F07291', 'F07301', 'F07303', 'F07305', 'F07308', 'F07311', 'F07316', 'F07321', 'F07329', 'F07332', 'F07333', 'F07334', 'F07335', 'F07341', 'F07345', 'F07348', 'F07352', 'F07353', 'F07356', 'F07362', 'F07363', 'F07364', 'F07368', 'F07371', 'F07372', 'F07374', 'F07377', 'F07379', 'F07381', 'F07382', 'F07386', 'F07389', 'F07390', 'F07392', 'F07395', 'F07399', 'F07403', 'F07408', 'F07412', 'F07418', 'F07419', 'F07420', 'F07428', 'F07429', 'F07430', 'F07431', 'F07433', 'F07439', 'F07440', 'F07446', 'F07449', 'F07450', 'F07452', 'F07455', 'F07460', 'F07461', 'F07465', 'F07469', 'F07472', 'F07474', 'F07477', 'F07481', 'F07483', 'F07485', 'F07487', 'F07502', 'F07503', 'F07508', 'F07524', 'F07532', 'F07534', 'F07536', 'F07538', 'F07541', 'F07552', 'F07570', 'F07575', 'F07582', 'F07583', 'F07584', 'F07588', 'F07589', 'F07601', 'F07613', 'F07664', 'F07668', 'F07710', 'F07712', 'F07719', 'F07728', 'F07738', 'F07739', 'F07792', 'F07795', 'F07823', 'F07834', 'F07835', 'F07843', 'F07860', 'F07896', 'F07907', 'F07908', 'F07914', 'F07919', 'F07927', 'F07953', 'F07965', 'F07966', 'F08022', 'F08027', 'F08065', 'F08083', 'F08092', 'F08100', 'F08102', 'F08111', 'F08130', 'F08131', 'F08151', 'F08156', 'F08159', 'F08217', 'F08229', 'F08257', 'F08271', 'F08274', 'F08280', 'F08285', 'F08286', 'F08287', 'F08288', 'F08290', 'F08293', 'F08294', 'F08296', 'F08297', 'F08300', 'F08301', 'F08302', 'F08304', 'F08305', 'F08325', 'F08327', 'F08328', 'F08331', 'F08333', 'F08334', 'F08336', 'F08339', 'F08344', 'F08346', 'F08350', 'F08351', 'F08353', 'F08355', 'F08356', 'F08358', 'F08377', 'F08382', 'F08394', 'F08396', 'F08399', 'F08402', 'F08403', 'F08404', 'F08406', 'F08407', 'F08408', 'F08409', 'F08410', 'F08411', 'F08412', 'F08415', 'F08416', 'F08418', 'F08423', 'F08424', 'F08425', 'F08429', 'F08441', 'F08442', 'F08443', 'F08446', 'F08447', 'F08449', 'F08451', 'F08454', 'F08455', 'F08463', 'F08464', 'F08465', 'F08473', 'F08475', 'F08482', 'F08483', 'F08485', 'F08486', 'F08493', 'F08501', 'F08503', 'F08506', 'F08508', 'F08510', 'F08514', 'F08515', 'F08516', 'F08522', 'F08533', 'F08538', 'F08539', 'F08541', 'F08542', 'F08551', 'F08552', 'F08573', 'F08590', 'F08595', 'F08596', 'F08597', 'F08598', 'F08600', 'F08603', 'F08605', 'F08607', 'F08616', 'F08617', 'F08618', 'F08619', 'F08623', 'F08628', 'F08629', 'F08635', 'F08639', 'F08644', 'F08648', 'F08660', 'F08665', 'F08669', 'F08671', 'F08678', 'F08682', 'F08700', 'F08705', 'F08706', 'F08707', 'F08708', 'F08709', 'F08712', 'F08718', 'F08726', 'F08727', 'F08731', 'F08733', 'F08737', 'F08738', 'F08739', 'F08747', 'F08751', 'F08755', 'F08758', 'F08768', 'F08774', 'F08775', 'F08779', 'F08784', 'F08789', 'F08791', 'F08794', 'F08795', 'F08796', 'F08797', 'F08799', 'F08804', 'F08807', 'F08809', 'F08815', 'F08819', 'F08822', 'F08823', 'F08825', 'F08828', 'F08829', 'F08839', 'F08847', 'F08853', 'F08856', 'F08859', 'F08862', 'F08872', 'F08887', 'F08897', 'F08904', 'F08910', 'F08912', 'F08913', 'F08917', 'F08919', 'F08933', 'F08941', 'F08943', 'F08946', 'F08953', 'F08959', 'F08971', 'F08986', 'F08989', 'F08990', 'F08992', 'F08998', 'F09002', 'F09013', 'F09016', 'F09018', 'F09023', 'F09024', 'F09029', 'F09032', 'F09033', 'F09037', 'F09039', 'F09042', 'F09045', 'F09049', 'F09052', 'F09058', 'F09062', 'F09066', 'F09070', 'F09071', 'F09072', 'F09075', 'F09077', 'F09088', 'F09089', 'F09094', 'F09098', 'F09100', 'F09106', 'F09108', 'F09110', 'F09117', 'F09125', 'F09129', 'F09135', 'F09142', 'F09143', 'F09145', 'F09157', 'F09160', 'F09161', 'F09165', 'F09166', 'F09169', 'F09170', 'F09177', 'F09179', 'F09180', 'F09187', 'F09189', 'F09201', 'F09212', 'F09214', 'F09225', 'F09244', 'F09253', 'F09274', 'F09276', 'F09277', 'F09291', 'F09292', 'F09293', 'F09309', 'F09320', 'F09349', 'F09366', 'F09398', 'F09413', 'F09444', 'F09462', 'F09491', 'F09499', 'F09506', 'F09508', 'F09512', 'F09516', 'F09518', 'F09519', 'F09520', 'F09521', 'F09523', 'F09528', 'F09529', 'F09537', 'F09540', 'F09542', 'F09543', 'F09545', 'F09551', 'F09552', 'F09554', 'F09557', 'F09558', 'F09560', 'F09561', 'F09566', 'F09570', 'F09571', 'F09572', 'F09574', 'F09597', 'F09601', 'F09620', 'F09622', 'F09623', 'F09626', 'F09629', 'F09630', 'F09633', 'F09637', 'F09638', 'F09667', 'F09671', 'F09674', 'F09698', 'F09726', 'F09727', 'F09728', 'F09729', 'F09730', 'F09731', 'F09732', 'F09733', 'F09734', 'F09735', 'F09736', 'F09737', 'F09742', 'F09746', 'F09748', 'F09757', 'F09762', 'F09808', 'F09826', 'F09830', 'F09831', 'F09832', 'F09835', 'F09843', 'F09848', 'F09850', 'F09854', 'F09855', 'F09857', 'F09858', 'F09864', 'F09865', 'F09866', 'F09867', 'F09868', 'F09869', 'F09870', 'F09871', 'F09872', 'F09873', 'F09875', 'F09876', 'F09877', 'F09878', 'F09880', 'F09881', 'F09901', 'F09904', 'F09918', 'F09950', 'F09951', 'F09980', 'F09982', 'F09983', 'F09987', 'F09988', 'F09990', 'F09992', 'F09994', 'F09996', 'F09997', 'F09999', 'F10001', 'F10098', 'F10106', 'F10111', 'F10132', 'F10151', 'F10250', 'F10300', 'F10302', 'F10317', 'F10478', 'F10562', 'F10669', 'F10712', 'F10795', 'F10960', 'F11027', 'F11090', 'F11091', 'F11093', 'F11095', 'F11096', 'F11098', 'F11099', 'F11100', 'F11102', 'F11103', 'F11330', 'F11538', 'F11544', 'F11546', 'F11547', 'F11548', 'F11549', 'F11550', 'F11551', 'F11560', 'F11562', 'F11567', 'F11568', 'F11569', 'F11570', 'F11571', 'F11572', 'F11573', 'F11587', 'F11588', 'F11599', 'F11622', 'F11623', 'F11626', 'F11635', 'F11637', 'F11638', 'F11641', 'F11653', 'F11655', 'F11661', 'F11704', 'F11708', 'F11711', 'F11725', 'F11728', 'F11734', 'F11738', 'F11762', 'F11772', 'F11776', 'F11785', 'F11823', 'F11834', 'F11841', 'F11857', 'F11883', 'F11887', 'F11900', 'F11913', 'F11920', 'F11974', 'F11985', 'F11998', 'F12030', 'F12032', 'F12041', 'F12043', 'F12044', 'F12048', 'F12049', 'F12053', 'F12054', 'F12056', 'F12058', 'F12059', 'F12060', 'F12061', 'F12062', 'F12064', 'F12068', 'F12070', 'F12073', 'F12074', 'F12075', 'F12079', 'F12083', 'F12084', 'F12085', 'F12086', 'F12087', 'F12093', 'F12099', 'F12102', 'F12108', 'F12110', 'F12118', 'F12120', 'F12125', 'F12127', 'F12128', 'F12129', 'F12137', 'F12142', 'F12144', 'F12145', 'F12146', 'F12156', 'F12158', 'F12159', 'F12165', 'F12166', 'F12170', 'F12171', 'F12172', 'F12173', 'F12176', 'F12178', 'F12184', 'F12191', 'F12195', 'F12196', 'F12200', 'F12201', 'F12205', 'F12206', 'F12207', 'F12209', 'F12210', 'F12212', 'F12213', 'F12214', 'F12215', 'F12217', 'F12219', 'F12220', 'F12221', 'F12222', 'F12224', 'F12226', 'F12231', 'F12232', 'F12235', 'F12239', 'F12242', 'F12243', 'F12249', 'F12251', 'F12253', 'F12255', 'F12262', 'F12264', 'F12280', 'F12284', 'F12287', 'F12290', 'F12291', 'F12295', 'F12305', 'F12312', 'F12313', 'F12314', 'F12316', 'F12317', 'F12318', 'F12322', 'F12331', 'F12345', 'F12348', 'F12360', 'F12361', 'F12362', 'F12366', 'F12367', 'F12368', 'F12370', 'F12371', 'F12372', 'F12375', 'F12377', 'F12380', 'F12384', 'F12388', 'F12395', 'F12398', 'F12402', 'F12405', 'F12407', 'F12409', 'F12412', 'F12414', 'F12423', 'F12424', 'F12432', 'F12442', 'F12447', 'F12448', 'F12457', 'F12459', 'F12465', 'F12470', 'F12471', 'F12475', 'F12478', 'F12483', 'F12488', 'F12501', 'F12510', 'F12512', 'F12513', 'F12517', 'F12518', 'F12522', 'F12525', 'F12527', 'F12531', 'F12533', 'F12534', 'F12536', 'F12537', 'F12543', 'F12549', 'F12550', 'F12551', 'F12552', 'F12554', 'F12556', 'F12558', 'F12559', 'F12561', 'F12567', 'F12568', 'F12571', 'F12574', 'F12578', 'F12588', 'F12594', 'F12607', 'F12610', 'F12614', 'F12635', 'F12636', 'F12637', 'F12639', 'F12641', 'F12643', 'F12644', 'F12647', 'F12650', 'F12657', 'F12659', 'F12661', 'F12672', 'F12674', 'F12683', 'F12684', 'F12685', 'F12689', 'F12692', 'F12696', 'F12699', 'F12700', 'F12709', 'F12713', 'F12718', 'F12724', 'F12733', 'F12738', 'F12747', 'F12750', 'F12758', 'F12772', 'F12774', 'F12779', 'F12786', 'F12792', 'F12795', 'F12796', 'F12798', 'F12822', 'F12826', 'F12827', 'F12835', 'F12845', 'F12846', 'F12847', 'F12848', 'F12850', 'F12851', 'F12852', 'F12857', 'F12874', 'F12891', 'F12895', 'F12896', 'F12898', 'F12899', 'F12900', 'F12903', 'F12904', 'F12907', 'F12911', 'F12915', 'F12916', 'F12917', 'F12918', 'F12926', 'F12929', 'F12931', 'F12938', 'F12939', 'F12940', 'F12943', 'F12947', 'F12948', 'F12959', 'F12961', 'F12966', 'F12969', 'F12973', 'F12999', 'F13000', 'F13001', 'F13002', 'F13004', 'F13009', 'F13010', 'F13013', 'F13015', 'F13016', 'F13017', 'F13018', 'F13019', 'F13021', 'F13024', 'F13025', 'F13026', 'F13027', 'F13032', 'F13036', 'F13041', 'F13043', 'F13045', 'F13048', 'F13050', 'F13051', 'F13052', 'F13053', 'F13054', 'F13055', 'F13056', 'F13058', 'F13059', 'F13062', 'F13063', 'F13064', 'F13065', 'F13066', 'F13067', 'F13068', 'F13069', 'F13070', 'F13072', 'F13074', 'F13075', 'F13078', 'F13079', 'F13081', 'F13085', 'F13086', 'F13087', 'F13088', 'F13089', 'F13090', 'F13091', 'F13093', 'F13095', 'F13097', 'F13098', 'F13099', 'F13100', 'F13102', 'F13105', 'F13107', 'F13108', 'F13111', 'F13113', 'F13114', 'F13117', 'F13121', 'F13122', 'F13123', 'F13125', 'F13129', 'F13132', 'F13133', 'F13135', 'F13140', 'F13142', 'F13143', 'F13146', 'F13153', 'F13157', 'F13159', 'F13160', 'F13163', 'F13164', 'F13166', 'F13167', 'F13169', 'F13170', 'F13171', 'F13175', 'F13179', 'F13180', 'F13181', 'F13182', 'F13186', 'F13187', 'F13193', 'F13194', 'F13195', 'F13196', 'F13198', 'F13199', 'F13200', 'F13205', 'F13207', 'F13209', 'F13210', 'F13219', 'F13222', 'F13227', 'F13228', 'F13229', 'F13230', 'F13231', 'F13232', 'F13237', 'F13238', 'F13239']</t>
         </is>
@@ -1779,12 +1832,15 @@
         </is>
       </c>
       <c r="T18" t="n">
+        <v>25</v>
+      </c>
+      <c r="U18" t="n">
         <v>126831</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>1828</v>
       </c>
-      <c r="V18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>['(CAHRD) Centre for Aboriginal Human Resource Development Inc.', '100 Mile House and District Soccer Association', '1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society and IRC, Innovation Resource Centre Council', '2017 Canada Summer Games Host Society Inc.', '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc', '5N Plus Inc.', 'A.S.T.C. Science World Society', 'AERIC INC.', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Business Service Network Society', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada Inc.', 'Aboriginal Seniors Gathering Place Society of Calgary', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan Inc.', 'Accelerate Okanagan Technology Association', 'Adams Lake Indian Band', 'Advanced Applied Physics Solutions', 'Aerospace Industries Association of Canada', 'Aerospace Industry Association of British Columbia', 'Affinity Credit Union', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Airdrie &amp; District Gymnastics Club', 'Alberni Athletic Association', 'Alberni Valley Chamber of Commerce', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', 'Alberta Chambers of Commerce', 'Alberta Cricket Association and The City of Edmonton', 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Emerald Foundation for Environmental Excellence', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Innovation and Advanced Education', 'Alberta International &amp; Intergovernmental Relations', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Sports Hall of Fame and Museum Society', 'Alberta Terrestrial Imaging Corp.', 'Alberta Tourism, Parks and Recreation', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', 'Aldergrove Community League and the City of Edmonton', 'Alexis Creek Community Club &amp; Community Services &amp; Development Society of Alexis', 'Alexis Creek Indian Band', 'Alliance of Manufacturers &amp; Exporters Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anmore Renewable Energy Foundation', 'Applewood Park Community Association and The City of Calgary', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arlington Beach Camp and Conference Centre Inc.', 'Army, Navy &amp; Air Force Veterans in Canada, Assiniboia Unit #283', 'Army, Navy and Air Force Veterans in Canada', 'Arts and Heritage Foundation of St. Albert', 'Asia Pacific Foundation of Canada', 'AssentWorks Inc.', "Assiniboine - Qu'Appelle Valleylands Inc.", 'Assiniboine Community College', 'Assiniboine Community College Parkland Campus', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Conservancy Inc.', 'Association of Professional Engineers and Geoscientists of British Columbia', 'Athabasca Regional Multiplex Society and Town of Athabasca', 'Athabasca University', 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C. Wood Specialties Group Association', 'BARK Design Collective', 'BC Farm Museum Association', 'BC Technology Industry Association', 'Back Country Horsemen Society of British Columbia', 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee Inc.', 'Beakerhead Creative Society', "Beardy's and Okemasis Band", 'Beaver River Community Futures Development Corporation', 'Belgravia Community League', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Berens River First Nation', 'Berger Peat Moss Ltd.', 'Big Brothers and Big Sisters of Red Deer &amp; District and Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Hills and District Recreation Board', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blackie and District Agricultural Society', 'Blue Lake Forest Education Society', 'Blue River Community Association', 'Board of Education of The Saskatoon School Division No. 13 Trust Fund', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Dept. Fund Raising Association &amp; Town of Bow Island', 'Bow Island Branch No. 197 of the Royal Canadian Legion', 'Bowen Island Municipality', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Boys and Girls Club of Cochrane and Area and Boys and Girls Clubs of Canada', 'Boys and Girls Clubs of Winnipeg Inc.', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'Brandon University', 'Brentwood Community Association', 'Britannia Beach Historical Society and Britannia Development Corporation', 'British Columbia 2009 World Police and Fire Games', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Chamber of Commerce', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Cranberry Marketing Commission', 'British Columbia Institute of Technology', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Brunkild Memorial Recreation Centre', 'Buck Lake Stampede Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', 'Burnaby Association for Community  Inclusion', 'Burns Lake Band', 'Business Council of British Columbia', 'Business Development Bank of Canada', 'Business Link Business Service Centre', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CGEF Canadian Global Exploration Forum', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Business Information Centre', 'Calgary Centre for Performing Arts', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation and the City of Calgary', 'Calgary Technologies Inc.', "Calgary Young Men's Christian Association", 'Callingwood/Lymburn Community League', 'Camosun College', 'Camp Health, Hope and Happiness Society', 'Camp Massad of Manitoba', 'Camp Warwa', 'Campbell River Indian Band', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canada/British Columbia Business Services Society', 'Canadian Association of Defence and Security Industries', 'Canadian Association of University Research Parks', 'Canadian Badlands Ltd.', 'Canadian Beef Cattle Research, Market Development and Promotion Agency', 'Canadian Centre for Unmanned Vehicle Systems', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Community Economic Development Network', 'Canadian Environmental Test Research and Education Center Inc.', 'Canadian Hydrogen and Fuel Cell Association', 'Canadian International Grains Institute', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Light Source Inc.', 'Canadian Malting Barley Technical Centre', 'Canadian Manufacturers &amp; Exporters', 'Canadian Mennonite University', 'Canadian Mental Health Association , Winnipeg Region', 'Canadian Paraplegic Association (Alberta)', 'Canadian Red Cross Society', 'Canadian Standards Association', 'Canadian Standards Association Group', 'Canadian Ukrainian Institute Prosvita', 'Candle Lake Curling Club Inc.', 'Canim Lake Band', 'Canmore &amp; Area Health Care Foundation and the Town of Canmore', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Cape Mudge Indian Band', 'Capilano University', 'Capital Regional District', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. and Carbon Engineering Limited Partnership', 'Cardston Soccer Club and Town of Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Regional District', 'Cariboo Ski - Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrier Chilcotin Tribal Council', 'Carrot River Curling Club', 'Castle Downs Recreation Society and the City of Edmonton', 'Cayuse Logging', 'Cedar Heights Community Association', 'Cedar Lake Community Futures Development Corporation', 'Cedar Point Class "C" Provincial Park Board &amp; Likely Community Forest Society', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League, City of Edmonton', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development', 'Centre for Education and Work', 'Centre for Native Policy and Research', 'Centre of Integration for African Immigrants (CIIA-CIAI)', 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society and the Village of Chauvin', "Chemainus Community Schools' Association", 'Cheslatta Carrier Nation', 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre Of Greater Vancouver', 'Chinook Community Futures Development Corporation', 'Christina Lake Chamber of Commerce', 'Churchill Gateway Development Corp.', 'City of Abbotsford', 'City of Airdrie', 'City of Armstrong', 'City of Brandon', 'City of Brooks', 'City of Burnaby', 'City of Calgary', 'City of Campbell River', 'City of Camrose', 'City of Chilliwack', 'City of Coquitlam', 'City of Dauphin', 'City of Duncan', 'City of Edmonton', 'City of Edmonton and Alberta Avenue Community League', 'City of Edmonton and Killarney Community League', 'City of Edmonton and the Edmonton Nature Centres Foundation', 'City of Flin Flon', 'City of Fort Saskatchewan', 'City of Fort St. John', 'City of Grand Forks', 'City of Grande Prairie', 'City of Kamloops', 'City of Kamloops and Kamloops Airport Authority Society', 'City of Kelowna', 'City of Langford', 'City of Langley', 'City of Leduc', 'City of Lethbridge', 'City of Lloydminster', 'City of Maple Ridge', 'City of Martensville', 'City of Meadow Lake', 'City of Medicine Hat', 'City of Melfort', 'City of Merritt', 'City of Moose Jaw', 'City of Nanaimo', 'City of Nelson', 'City of Parksville', 'City of Pitt Meadows', 'City of Port Alberni', 'City of Portage La Prairie', 'City of Powell River', 'City of Prince Albert', 'City of Prince George', 'City of Prince Rupert', 'City of Quesnel', 'City of Red Deer', 'City of Regina', 'City of Revelstoke', 'City of Richmond', 'City of Salmon Arm', 'City of Saskatoon', 'City of Steinbach', 'City of Surrey', 'City of Swift Current', 'City of Terrace', 'City of Thompson', 'City of Vancouver', 'City of Victoria', 'City of West Kelowna', 'City of Wetaskiwin', 'City of Weyburn', 'City of Williams Lake', 'City of Williams Lake &amp; Williams Lake Stampede Association', 'City of Winkler', 'City of Yorkton', 'Claresholm Community Centre Association and the Town of Claresholm', 'Clive Athletic and Agricultural Society', 'Club Ile-des-Chenes', 'Club Sportif Iberville', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership and Coastal Shellfish Corporation', 'Coldwater Indian Band', 'College Educacentre College', 'College of New Caledonia', 'College of the Rockies', 'Columbia Shuswap Regional District', 'Columbia Valley Chamber of Commerce', 'Columbia Valley Cycling Society', 'Communities of Tomorrow - Partners for Sustainability Inc.', 'Community Futures Alberta Southwest', 'Community Futures Big Country', 'Community Futures Capital Region', 'Community Futures Central Alberta', 'Community Futures Centre West', 'Community Futures Crowsnest Pass', 'Community Futures Development Association of B.C.', 'Community Futures Development Corporation - Cowichan Region', 'Community Futures Development Corporation of 16/37', 'Community Futures Development Corporation of Alberni-Clayoquot', 'Community Futures Development Corporation of Boundary Area', 'Community Futures Development Corporation of Cariboo-Chilcotin', 'Community Futures Development Corporation of Central Interior First Nations', 'Community Futures Development Corporation of Central Island', 'Community Futures Development Corporation of Central Kootenay', 'Community Futures Development Corporation of Central Okanagan', 'Community Futures Development Corporation of Fraser Fort George', 'Community Futures Development Corporation of Greater Trail', 'Community Futures Development Corporation of Howe Sound', 'Community Futures Development Corporation of Mt. Waddington', 'Community Futures Development Corporation of Nadina', 'Community Futures Development Corporation of Nicola Valley', 'Community Futures Development Corporation of North Cariboo', 'Community Futures Development Corporation of North Fraser', 'Community Futures Development Corporation of Okanagan-Similkameen', 'Community Futures Development Corporation of Peace Liard', 'Community Futures Development Corporation of Revelstoke', 'Community Futures Development Corporation of South Fraser', 'Community Futures Development Corporation of Sto:lo', 'Community Futures Development Corporation of Stuart-Nechako', 'Community Futures Development Corporation of Sun Country', 'Community Futures Development Corporation of Thompson Country', 'Community Futures Development Corporation of the North Okanagan', 'Community Futures Development Corporation of the Pacific Northwest', 'Community Futures Development Corporation of the Powell River Region', 'Community Futures Development Corporation of the Shuswap', 'Community Futures Development Corporation of the Sunshine Coast', 'Community Futures East Central Alberta', 'Community Futures East Interlake Inc.', 'Community Futures East Kootenay', 'Community Futures East Parkland', 'Community Futures Elk Island Region', 'Community Futures Entre-Corp Business Development', 'Community Futures Grande Prairie &amp; Region', 'Community Futures Greenstone Inc.', 'Community Futures Heartland Inc.', 'Community Futures Highwood', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Lakeland', 'Community Futures Lesser Slave Lake Region', 'Community Futures Lethbridge Region', 'Community Futures Lloydminster and Region Development Corporation', 'Community Futures Manitoba Inc.', 'Community Futures Network of Alberta', 'Community Futures North Red Inc.', 'Community Futures Northwest Alberta', 'Community Futures Parkland Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Community Futures Peace Country', 'Community Futures Peace Liard and Energy Services BC', 'Community Futures St. Paul - Smoky Lake Region', 'Community Futures Strathcona', 'Community Futures Tawatinaw Region', 'Community Futures Treaty Seven', 'Community Futures Triple R Corporation', 'Community Futures West Interlake Inc.', 'Community Futures West Yellowhead', 'Community Futures Westman Inc.', 'Community Futures Wild Rose', 'Community Futures Winnipeg River Corp.', 'Community Futures Wood Buffalo', 'Community Futures Yellowhead East', 'Comox Valley Economic Development Society', 'Comox Valley Regional District', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', "Conseil de developpement economique de l'Alberta", 'Conseil de la Cooperation de la Saskatchewan Limited', "Cook's Creek Community Centre Inc.", "Cook's Ferry Indian Band", 'Corporation of the City of Fernie', 'Corporation of the City of New Westminster', 'Corporation of the District of Kent', 'Corporation of the District of North Vancouver', 'Corporation of the Village of Clinton', 'Corporation of the Village of Lumby', 'Corporation of the Village of Pemberton', 'Corvus Energy Ltd.', 'Cosmopolitan Industries Ltd.', 'Council of Tourism Associations of British Columbia', 'County of Camrose No. 22', 'County of Grande Prairie No. 1', 'County of Wetaskiwin No. 10', 'Courtenay &amp; District Fish &amp; Game Protective Association', 'Covenant Health', 'Cowichan Rugby Club', 'Cowichan Station Area Association', 'Cowichan Valley Regional District', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Creighton School Division 111', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Cross Lake First Nation', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Historical Society', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', 'Cumberland Regional College', 'Cumberland/Oxford Community League (COCL) and The City of Edmonton', 'DWB Consulting Services Ltd.', 'Dakota Ojibway Community Futures Development Corporation', 'Dancing Sky Theatre Inc', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc', 'Dawson Creek Curling Club &amp; The City of Dawson Creek', 'Day Star First Nation', 'DeBolt &amp; District Agricultural Society', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', 'District of 100 Mile House', 'District of Chetwynd', 'District of Clearwater', 'District of Elkford', 'District of Fort St. James', 'District of Highlands', 'District of Houston', 'District of Invermere', 'District of Kitimat', 'District of Lillooet', 'District of Logan Lake', 'District of Mackenzie', 'District of Mackenzie and District of Fort St. James', 'District of Mission', 'District of Sparwood', 'District of Taylor', 'District of Tofino', 'District of Tumbler Ridge', 'District of Ucluelet', 'District of Vanderhoof', 'District of Wells', 'Dorintosh Community Co-operative', 'Drake Forestry Services Ltd.', 'Ducks Unlimited Canada', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'E.I.D. Historical Park', 'EAST SIDE EAGLES FOOTBALL CLUB INC.', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'Eastside Movement for Business and Economic Renewal Society', 'Eckville Community Centre Society and the Town of Eckville', 'EcoSmart Foundation Inc.', 'Ecole Secondaire Kelvin High School', 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Chinatown Multicultural Centre Foundation', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Edmonton Regional Airports Authority', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elboya Heights Community Association', 'Elkhorn &amp; District Community Center Incorporated', 'Elkhorn Curling Club Trust', 'Ellerslie Rugby Park Incorporated', 'Elmwood Community League and the City of Edmonton', 'Elmwood Giants Baseball Club Inc.', 'Elmwood High School', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Emily Carr University of Art and Design', 'Ernst &amp; Young LLP', 'Esketemc First Nation', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', "FPInnovations and First Nations' Forestry Society", 'FPInnovations-FERIC Division', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Fanny Bay Harbour Authority', 'Farm Genesis Group Marketing Inc', 'Farmers Market Association of Manitoba Co-Op Inc', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie &amp; District Historical Society', 'Festival  Du Voyageur Inc.', 'Film Training Manitoba Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Flying Dust First Nation', 'Fond Du Lac Denesuline First Nation', 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', 'Fort Edmonton Management Company and the City of Edmonton', 'Fort Garry Lions Football Club Inc.', 'Fort Langley Canoe Club', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Chamber of Commerce and The District of Fort St. James', 'Fort St. James Ski Club', 'Fort Vermilion Recreation Board', 'Fort a la Corne Development Corporation', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', 'Forum for Women Entrepreneurs in British Columbia', 'Four Host First Nations Society', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser River Port Authority', 'Fraser Thompson Indian Services Society', 'Fraser Valley Regional District', 'Friends of Camp St. Basil Society &amp; Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garden City Community Centre Inc', 'Garrison Curling Club (Calgary)', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome British Columbia', 'Genome Prairie', 'GeoExchange BC', 'Gibsons Curling Club', 'Gift Lake Metis Settlement', 'Gilmore Park Community League and Strathcona County', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glacier Gymnastics Club', 'Gleichen and District Agricultural Society', 'Glenbow Ranch Park Foundation', 'Glenbow-Alberta Institute', 'Glenora Community League and the City of Edmonton', 'Glenrose Rehabilitation Hospital Foundation', 'Glenwood Community Centre Inc.', 'Global Vision', 'Gold Bar Community League', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', 'Government House Foundation', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', 'Grande Prairie Centre 2000', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Grande Prairie Regional College', 'Grande Prairie Ski Club', 'Grandview &amp; District Recreation Commission', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Great Plains College', 'Greater Vancouver Regional District', 'Greater Victoria Chamber of Commerce', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'Gwaalagaa Naay Corporation', 'H. R. MacMillan Space Centre Society', 'HD-Petroleum Inc.', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', 'Habitat for Humanity Saskatoon Inc.', 'Haida Gwaii Community Futures Development Corporation', 'Hartley Bay Indian Band', 'Haynes Contracting', 'Hazel Bluff Community Agricultural Society (A Div. of The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Headingley Grand Trunk Trail Assocation', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', 'Heritage Point Community League and the City of Edmonton', 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet  Manufacturing Ltd.', 'Hillmond Central Sports Society', 'Hindu Society of Manitoba', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holy Family Elementary School &amp; St. Paul's RCSSD No. 20", 'Holyrood Community League and The City of Edmonton', 'Hong Kong Canada Business Association', 'Horsefly District Board of Trade', 'Huntington Hills Community Association', 'Hythe Athletic Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Waterton Lakes National Park', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', 'Inglewood Community League of Edmonton &amp; The City of Edmonton', 'Initiatives Prince George Development Corporation', 'Innovative Trauma Care Inc.', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma Agricultural Society and the Village of Irma', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'Italian Chamber of Commerce in Canada - West', 'J. Hinsche Contracting Ltd.', 'James Smith Cree Nation', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', 'Jasper Place Curling Club and the City of Edmonton', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton and Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John M. Cuelenaere Public Library and the City of Prince Albert', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KAMLOOPS CURLING CLUB', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kamloops Indian Band', 'Kaslo &amp; District Arena Association', 'Kaslo and District Community Forest Society', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Keyano College', 'Khowutzun Forest Service Ltd', 'Kikino Metis Settlement Corporation', "Kilkenny Community League, City of Edmonton and Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kinsmen Club of Boissevain', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kitamaat Village Council', 'Kitayan Community Futures Development Corporation', 'Kla-how-eya Aboriginal Centre of Surrey AboriginalCultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Family Place', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', 'Kwantlen Polytechnic University', 'L.U.D. of Cranberry Portage', 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', "La Chambre economique de l'Alberta", 'La Crete Agricultural Society', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La federation des francophones de Saskatoon Inc.', 'Lac La Biche County', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Lac La Ronge Indian Band', 'Lac Ste. Anne County', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Lakeland College', 'Langley Minor Football Association', 'Lardeau Valley Community Centre', 'Laurier Heights Community League', "Lax Kw'alaams Band", 'Le Centre Recreatif Notre Dame Recreational Centre Inc.', 'Le College Mathieu', 'Le College Universitaire de Saint-Boniface', 'Le Conseil de developpement economique des municipalites bilingues du Manitoba', "Le Marche St. Norbert Farmers' Market Coop Inc.", 'Leadership and Management Development Council of British Columbia', 'Learning Disabilities Association of Saskatchewan Inc.', 'Leduc County', 'Leduc/Devon Oilfield Historical Society', 'Lethbridge Economic Development Initiative Society', 'Lethbridge Family Services', "Lheidli T'enneh Band", 'Life Science Association of Manitoba Inc.', 'Life Sciences British Columbia Society', 'Light House Sustainable Building Centre Society', 'Linden Woods Community Centre Inc.', 'Lindsay Park Sports Society', 'Linwood Child Centre Inc.', 'Little Pine First Nation', 'Little Shuswap Lake Indian Band', 'Lloydminster Agricultural Exhibition Association Ltd.', 'Lloydminster Air Cadet 186 Squadron Inc.', 'Louis Riel School Division', 'Lower Kootenay Indian Band', 'Lower Nicola Indian Band', 'Luck Lake Irrigation District, Inc.', 'Lundar Museum Society Inc.', "Lynn's Contracting", 'MA MAWI-WI-CHI-ITATA CENTRE INC.', 'MLTC Program Services Inc.', 'MLTC Resource Development Inc.', 'Ma Mawi-Wi-Chi-Itata Centre Inc.', 'Ma-Mow-We-Tak Friendship Centre Inc.', 'Mackenzie County', 'Macklin Lake Regional Park Authority', 'Madden &amp; District Agricultural Society', 'Magyar Favago Holdings Ltd.', 'Mallaig &amp; District Agricultural Society and Recreation Association', 'Mallard Diversified Services Inc.', 'Manitoba Aerospace Association Inc.', 'Manitoba Association of Agricultural Societies Inc.', 'Manitoba Association of Chiefs of Police Inc.', 'Manitoba Cardiac Institute (REH-FIT) Inc.', "Manitoba Children's Museum Inc.", 'Manitoba Corn Growers Association', 'Manitoba Hydro', 'Manitoba Institute of Trades and Technology', 'Manitoba International Gateway Council', 'Manitoba Metis Federation (Thompson Region) Inc.', 'Manitoba Metis Federation Inc.', 'Manitoba Music Industry Association', 'Manitoba Pork Council', 'Manitoba Pulse Growers Association Inc.', 'Manitoba Sector Training Network Inc.', 'Manitoba Trade &amp; Investment Corporation', 'Manitoba Trucking Association', 'Manitoba Urban Native Housing Association Inc.', "Manitoba Women's Enterprise Centre Inc", 'Mannville &amp; District Agricultural Society', 'Maples Recreation Association Inc.', 'Marda Loop Communities Association', 'Market Technology Society', 'Marlborough Park Community Association', 'Mathematics of Information Techno</t>
         </is>
@@ -1857,12 +1913,15 @@
         </is>
       </c>
       <c r="T19" t="n">
+        <v>25</v>
+      </c>
+      <c r="U19" t="n">
         <v>147483</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>1864</v>
       </c>
-      <c r="V19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>['1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society et IRC, Innovation Resource Centre Council', "186e Escadron des cadets de l'Air de Lloydminster inc.", '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc.', '5861471 Manitoba Inc. O/A HD-Petroleum', 'A.S.T.C. Science World Society', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada inc.', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan inc.', 'Accelerate Okanagan Technology Association', "Administration aeroportuaire regionale d'Edmonton", 'Administration aeroportuaire regionale de Red Deer', 'Administration du Centre Wascana', 'Administration du parc regional de Macklin Lake', 'Administration du parc regional de Struthers Lake', 'Administration portuaire Vancouver-Fraser', 'Administration portuaire de Fanny Bay', 'Administration portuaire de Pender Harbour', 'Administration portuaire de Prince Rupert', 'Administration portuaire du Grand Victoria', 'Advanced Applied Physics Solutions', 'Aerospace Industry Association of British Columbia', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Alberni Athletic Association', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', "Alberta Cricket Association et Ville d'Edmonton", 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Terrestrial Imaging Corp.', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', "Aldergrove Community League et Ville d'Edmonton", "Alexis Creek Community Club et la Community Service &amp; Devel opment Society d'Alexis Creek", 'Alliance des manufacturiers et des exportateurs du Canada', "Anciens combattants de l'armee, de la marine et des forces aeriennes du Canada, unite d'Assiniboia no 283", 'Anciens combattants des Forces armees, maritimes et aeriennes du Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anglican Synod of the Diocese of Caledonia', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arena communautaire de Sprague et de la region', 'Arlington Beach Camp and Conference Centre Inc.', 'Arts and Heritage Foundation de St. Albert', 'AssentWorks Inc.', 'Assiniboine Development Corridor Inc.', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Community Conservancy Inc.', 'Association athletique Hythe', "Association canadienne de l'hydrogene et des piles a combustible", 'Association canadienne de normalisation', 'Association canadienne des paraplegiques (Alberta)', 'Association canadienne des parcs universitaires de recherche', 'Association canadienne pour la sante mentale, region de Winnipeg', 'Association communautaire Edgemont', 'Association communautaire Haysboro', "Association communautaire d'Applewood Park", "Association communautaire d'Elboya Heights", "Association communautaire d'Elkwater", "Association communautaire d'Oak River", 'Association communautaire de Blue River', 'Association communautaire de Brentwood', 'Association communautaire de Lake Bonavista', 'Association communautaire de McKenzie Lake', 'Association communautaire de Montgomery', 'Association communautaire de Silver Springs', 'Association communautaire de Triwood', 'Association communautaire du parc Marlborough', 'Association coreenne de Calgary', 'Association cycliste de Penticton et de la region', "Association d'habitation Norfolk", "Association d'habitation nationale du peuple ukrainien de Taras Shevchenko", 'Association de hockey mineur de St. Albert et Ville de St. Albert', 'Association de jeux Highland de Victoria', "Association de l'exposition Westerner", 'Association de la Bibliotheque publique de Sechelt', 'Association de protection du poisson et de la faune de Courtenay et du district', 'Association de soccer de 100 Mile House et du district', 'Association des industries aerospatiales du Canada', 'Association des industries canadiennes de defense et de securite', "Association des promeneurs de l'Okanagan", 'Association des residents de Tuscany', "Association des societes d'aide au developpement des collectivites de la C.-B.", "Association du Musee de l'aerospatiale de Calgary", 'Association du Musee et des Archives historiques Rossland', 'Association du sentier Grand Trunk a Headingley', 'Association for Community Living, bureau de Beausejour', 'Association of Professional Engineers and Geoscientists of British Columbia', "Association parents-maitres de l'ecole St. Avila", 'Association sportive et recreative de Nose Creek', 'Association touristique de Thompson Okanagan', "Athabasca Regional Multiplex Society et municipalite d'Athabasca", 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Autorite aeroportuaire de Prince George', 'Autorite portuaire du fleuve Fraser', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C.  Wood Specialties Group Association', 'BARK Design Collective', 'BC Cranberry Marketing Commission', 'BC Farm Museum Association', 'BC Technology Industry Association', 'BC Ventures Society', 'Back Country Horsemen Society of British Columbia', "Bande Lax Kw'alaams", 'Bande Seton Lake', 'Bande de Burns Lake', 'Bande de Little Shuswap Lake', 'Bande de Moricetown', 'Bande de Seabird Island', 'Bande des Denes de Tsay Keh', 'Bande indienne Cape Mudge', 'Bande indienne Osoyoos', 'Bande indienne Toosey', "Bande indienne d'Adams Lake", "Bande indienne d'Alexis Creek", "Bande indienne d'Okanagan", 'Bande indienne de Campbell River', 'Bande indienne de Canim Lake', 'Bande indienne de Coldwater', "Bande indienne de Cook's Ferry", 'Bande indienne de Hartley Bay', 'Bande indienne de Kamloops', 'Bande indienne de Lac La Ronge', "Bande indienne de Lheidli T'enneh", 'Bande indienne de Lower Kootenay', 'Bande indienne de Lower Nicola', 'Bande indienne de McLoed Lake', 'Bande indienne de Musqueam', 'Bande indienne de Neskonlith', 'Bande indienne de Nooaitch', 'Bande indienne de Penticton', 'Bande indienne de Popkum', 'Bande indienne de Skeetchestn', 'Bande indienne de Sliammon', 'Bande indienne de St Mary', "Bande indienne de St Mary's", 'Bande indienne de Whispering Pines/Clinton', 'Bande indienne de Williams Lake', "Bande indienne de l'Upper Similkameen", 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Banque de developpement du Canada', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee inc.', 'Beakerhead Creative Society', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Biathlon Society of British Columbia', 'Bibliotheque publique John M. Cuelenaere et la Municipalite de Prince Albert', 'Bibliotheque publique de Richmond', 'Bibliotheque publique de Spruce Grove', 'Big Brothers and Big Sisters of Red Deer &amp; District et Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blue Lake Forest Education Society', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Department Fund Raising Association', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', "Bureau administratif de Tl'etinqox-t'in", 'Burnaby Association for Community Inclusion', 'Business Council of British Columbia', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation et Ville de Calgary', 'Calgary Technologies Inc.', 'Calgary Wildwood Community Association', "Calgary Young Men's Christian Association", 'Camp Health, Hope and Happiness Society', 'Camp Massad du Manitoba', 'Camp Warwa', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canadian Badlands Ltd.', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Environmental Test and Research Center Inc.', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Ukrainian Institute Prosvita', 'Canards Illimites Canada', 'Candle Lake Curling Club Inc.', 'Canmore &amp; Area Health Care Foundation', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Canton de Langley', 'Capital City Savings and Credit Union Limited', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. et Carbon Engineering Limited Partnership', 'Cardston Soccer Club et Municipalite de Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Ski Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrot River Curling Club', "Castle Downs Recreation Society et Ville d'Edmonton", 'Cayuse Logging', 'Cedar Heights Community Association', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League', 'Centre 2000 de Grande Prairie', 'Centre canadien de rayonnement synchrotron inc.', 'Centre canadien des systemes de vehicules telepilotes', 'Centre communautaire Norberry-Glenlee', 'Centre communautaire de Lardeau Valley', 'Centre communautaire de Norwood', 'Centre communautaire de Stavely', 'Centre communautaire de Valley Gardens', 'Centre communautaire du Village de Tyndall', 'Centre culturel chinois de la region metropolitaine de Vancouver', "Centre d'amitie de l'Association Nistawoyou", "Centre d'entreprise des femmes du Manitoba inc.", "Centre d'information des entreprises de Calgary", "Centre d'integration pour immigrants africains (CIIA)", "Centre de developpement d'Upper Skeena", 'Centre de loisirs Brunkild Memorial', 'Centre de loisirs de Similkameen', 'Centre de services aux entreprises Liaison Entreprise', 'Centre de services pour les femmes entrepreneurs', "Centre de toxicologie de l'Universite de la Saskatchewan", 'Centre de transition pour les femmes autochtones', 'Centre des politiques et de la recherche sur les Autochtones', "Centre des sciences marines de l'Aquarium de Vancouver", 'Centre du patrimoine de la Gendarmerie royale du Canada', 'Centre familial de Kootenay', 'Centre for Aboriginal Human Resource Development Inc. (CAHRD)', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development (CDRD)', 'Centre for Education and Work', 'Centre juif de Calgary', "Centre technique canadien pour l'orge brassicole", 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', "Chambre de commerce d'Alberni Valley", "Chambre de commerce d'Ucluelet", 'Chambre de commerce de Christina Lake', 'Chambre de commerce de Nelson et de son district', 'Chambre de commerce de North Vancouver', 'Chambre de commerce de Peachland', 'Chambre de commerce de The Pas et du district', "Chambre de commerce de l'Alberta", 'Chambre de commerce de la Colombie-Britannique', 'Chambre de commerce de la vallee de la Columbia', 'Chambre de commerce du Grand Victoria', 'Chambre de commerce du district de Horsefly', 'Chambre de commerce et district de Fort St. James', 'Chambre de commerce italienne au Canada - Vancouver Edmonton Calgary  / Camera di C', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society', "Chemainus Community Schools' Association", 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre of Greater Vancouver', 'Churchill Gateway Development Corp.', 'Cite de Lumby', 'Cite de North Vancouver', 'Cite de Port Coquitlam', 'Cite de Saanich', 'Cite de Vancouver', 'Cite de West Vancouver', 'Claresholm Community Centre Association et municipalite de Claresholm', 'Clive Athletic and Agriculture Society', 'Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Club Ile-des-Chenes', 'Club Kinsmen de Boissevain', 'Club Lions de Parksville', 'Club Lions de Valemount', 'Club Rotary de Selkirk Manitoba Canada, inc.', 'Club Sportif Iberville', 'Club United Riders of Crowsnest', 'Club communautaire de Saturna', 'Club de canoe de Fort Langley', 'Club de culture physique Westmount', 'Club de curling Garrison (Calgary)', 'Club de curling Royal City', 'Club de curling de Dawson Creek et Ville de Dawson', 'Club de curling de Gibsons', 'Club de curling de Kamloops', 'Club de curling de Nanaimo', 'Club de curling de Salmon Arm', 'Club de curling de St. Albert', 'Club de curling de Vulcan', "Club de gymnastique d'Airdrie et du district", 'Club de gymnastiques Glacier', 'Club de motoneige de Prince George', 'Club de rugby de Cowichan', 'Club de ski de Grande Prairie', 'Club de ski nordique Snow Valley', 'Club de ski nordique de Nelson', 'Club de tennis de Calgary', 'Club de tennis de Red Deer', 'Club de yacht Royal Victoria', 'Club des garcons et filles de Winnipeg inc.', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership', 'Cochrane Youth Association', 'Collectivites de demain, Partenaires pour la durabilite inc.', 'College Camosun', 'College Educacentre', 'College Great Plains', 'College Keyano', 'College Lakeland', 'College Norquest', 'College Northern Lights', 'College Northlands', 'College Okanagan', 'College Portage', 'College Red Deer', 'College Selkirk', 'College communautaire Assiniboine', 'College communautaire Assiniboine, campus Parkland', 'College communautaire Northwest', 'College de New Caledonia', 'College of the Rockies', 'College regional Cumberland', 'College regional Southeast', 'College regional de Grande Prairie', 'College regional de Parkland', 'College regional du Nord-Ouest', 'College universitaire du Nord', 'Columbia Valley Cycling Society', 'Commission des loisirs de Fort Vermilion', 'Commission des loisirs de Grandview et du district', 'Commission des loisirs de Roblin Shell River Hillsburg', 'Commission des loisirs de Roe Lake et du district', 'Commission scolaire du district scolaire no 54 (Bulkley Valley)', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Manitoba Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Comox Valley Economic Development Society', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', 'Comte de Camrose no 22', 'Comte de Grande Prairie no 1', 'Comte de Lac La Biche', 'Comte de Lac Ste. Anne', 'Comte de Leduc', 'Comte de Mackenzie', 'Comte de Mountain View', 'Comte de Parkland', 'Comte de Smoky Lake', 'Comte de Strathcona', 'Comte de Wetaskiwin no 10', 'Comte de Woodlands', 'Comte de Yellowhead', 'Conseil central Tahltan', "Conseil d'administration de la Bibliotheque de Red Deer", "Conseil d'administration du parc provincial Cedar Point Clas s &lt;&lt; C &gt;&gt; et la Likely Community Forest Society", "Conseil de developpement economique de l'Alberta", 'Conseil de la cooperation de la Saskatchewan limitee', 'Conseil de la municipalite de McKenzie', "Conseil de la porte d'entree internationale du Manitoba", "Conseil des gouverneurs de l'Universite de Calgary", "Conseil des gouverneurs de l'Universite de l'Alberta", 'Conseil des gouverneurs du College Red River', 'Conseil des gouverneurs du Southern Alberta Institute of Technology', 'Conseil du cimetiere Schara Tzedeck', "Conseil du village d'Old Massett", 'Conseil du village de Kitamaat', 'Conseil recreatif de Birch Hills et du district', "Conseil scolaire de l'arrondissement scolaire no 36 (Surrey)", "Conseil scolaire de l'arrondissement scolaire no 39 (Vancouver)", "Conseil scolaire de l'arrondissement scolaire no 44 (North Vancouver)", 'Conseil scolaire du district scolaire no 28', 'Conseil tribal de Carrier Chilcotin', "Cook's Creek Community Centre Inc.", 'Cooperative communautaire de Dorintosh', "Cooperative de credit d'Assiniboine", 'Cooperative de credit de Saskatoon (2002)', 'Corporation de la ville de Grand Forks', 'Corvus Energy Ltd.', 'Cosmopolitan Industries ltee', 'Council of Tourism Associations of British Columbia', 'Covenant Health', 'Cowichan Station Area Association', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', "Cumberland/Oxford Community League (COCL) et la Ville d'Edmonton", 'D.U.L. de Cranberry Portage', 'DWB Consulting Services Ltd.', 'Dancing Sky Theatre Inc.', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc.', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', "District d'Elkford", "District d'Invermere", "District d'Ucluelet", "District d'amelioration de la pointe Ships", 'District de 100 Mile House', 'District de Chetwynd', 'District de Clearwater', 'District de Fort St. James', 'District de Highlands', 'District de Houston', 'District de Kent', 'District de Kitimat', 'District de Lillooet', 'District de Logan Lake', 'District de Mackenzie', 'District de Maple Ridge', 'District de Mission', 'District de Sparwood', 'District de Taylor', 'District de Tofino', 'District de Tumbler Ridge', 'District de Vanderhoof', 'District de Wells', 'District de West Kelowna', 'District de Windermere de la Legion royale canadienne', 'District municipal de Peace no 135', 'District municipal de Taber', 'District municipal de Wainwright (no 61)', "District regional d'Alberni-Clayoquot", "District regional d'East Kootenay", "District regional d'Okanagan-Similkameen", 'District regional de Bulkley-Nechako', 'District regional de Cariboo', 'District regional de Central Kootenay', 'District regional de Central Okanagan', 'District regional de Columbia Shuswap', 'District regional de Comox Valley', 'District regional de Cowichan Valley', 'District regional de Fraser-Fort George', 'District regional de Kootenay Boundary', 'District regional de Nanaimo', 'District regional de Peace River', 'District regional de Strathcona', 'District regional de Sunshine Coast', 'District regional de Thompson-Nicola', 'District regional de la capitale', 'District regional de la vallee du Fraser', "District regional du Nord de l'Okanagan", "District regional du Nord de l'Okanagan et Corporation de la ville de Vernon", 'District scolaire de Mystery Lake', 'District scolaire no 69 Northern Lights', 'Districts de Mackenzie et de Fort St. James', 'Division scolaire Louis Riel', 'Division scolaire Sun West', 'Division scolaire de River East Transcona', 'Division scolaire de Seine River', "Division scolaire de Sturgeon no 24 et Association de levee de fonds de l'ecole Namao", 'Division scolaire no 1 de Winnipeg', 'Division scolaire no 111 de Creighton', 'Drake Forestry Services Ltd.', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'EPCOR CENTRE for the Performing Arts', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'East Side Eagles Football Club Inc.', 'Eastside Movement for Business and Economic Renewal Society', "Eckville Community Centre Society et municipalite d'Eckville", 'EcoSmart Foundation Inc.', 'Ecole elementaire Holy Family et RCSSD no 20 de St. Paul', 'Ecole secondaire Kelvin High School', "Ecole secondaire d'Elmwood", 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc.', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Eglise anglicane de la Paroisse de St. Agnes', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elkhorn &amp; District Community Center Incorporated', 'Ellerslie Rugby Park Incorporated', "Elmwood Community League et Ville d'Edmonton", 'Elmwood Giants Baseball Club Inc.', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Energy Aware Technology Inc.', 'Ernst &amp; Young LLP', 'Etablissement metis de Gift Lake', 'Etablissement metis de Kikino', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', 'FPInnovations et la societe forestiere des Premieres nation s', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Farm Genesis Group Marketing Inc.', 'Farmers Market Association of Manitoba Co-Op Inc.', 'Federation nationale ukrainienne du Canada', 'Federation nationale ukrainienne du Canada, division de Winnipeg', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie and District Historical Society', 'Festival du voyageur inc.', 'Filiale 110 de la Legion royale du Canada et La Societe canadienne de la Croix-Rouge', "Filiale de Calgary de l'Ukrainian Youth Association of Canada (CYM)", 'Filiale no 109 de la Legion royale canadienne', 'Filiale no 118 de la Legion royale canadienne', 'Filiale no 197 de Bow Island de la Legion royale canadienne', 'Filiale no 269 de la Legion royale canadienne', 'Filiale no 35 de la Legion royale canadienne', 'Filiale no 6 Cloverdale de la Legion royale canadienne', 'Filiale no 7 Transcona de la Legion royale canadienne', 'Filiale no 76 de la Legion royale canadienne', 'Film Training Manitoba Inc.', 'Firebird Technologies Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Fondation Asie-Pacifique du Canada', "Fondation Emeraude de l'Alberta pour l'excellence en environnement", 'Fondation Rick Hansen', "Fondation de l'energie renouvelable d'Anmore", "Fondation de l'hopital de readaptation Glenrose", "Fondation de l'hopital universitaire et Conseil des gouverneurs de l'Universite de l'Alberta", 'Fondation de la region economique du Nord-Ouest du Pacifique', 'Fondation des villes durables', "Fondation du Centre multiculturel Chinatown d'Edmonton", 'Fondation du Club de curling Elkhorn', 'Fondation du saumon du Pacifique', "Fonds de fiducie du Conseil d'education de la Division scolaire no 13 de Saskatoon", 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', "Fort Edmonton Management Company et Ville d'Emonton", 'Fort Garry Lions Football Club Inc.', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Ski Club', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', "Forum d'exploration mondiale canadien - FEMC", 'Forum pour les femmes entrepreneurs en Colombie-Britannique', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser Thompson Indian Services Society', 'Friends of Camp St. Basil Society et Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garde cotiere auxiliaire canadienne (Pacifique) Inc.', 'Garden City Community Centre Inc.', 'Garth Homer Foundation', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome Colombie-Britannique', 'Genome Prairie', 'GeoExchange BC', 'Gilmore Park Community League et comte de Strathcona', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glenbow Ranch Park Foundation', "Glenora Community League et Ville d'Edmonton", 'Glenwood Community Centre Inc.', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', "Gouvernement de Yunesit'in - Bande indienne de Stone", "Gouvernement des Premieres nations de Xeni Gwet'in", 'Government House Foundation', 'Governors of the University of Alberta et Genome Alberta', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', "Groupe de l'Association canadienne des normes", 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'H. R. MacMillan Space Centre Society', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', "Habitat pour l'humanite Saskatoon inc.", 'Haynes Contracting', 'Haysboro Community Association', 'Hazel Bluff Community Agricultural Society (une div. de The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', "Heritage Point Community League et Ville d'Edmonton", 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet Manufacturing Ltd.', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holyrood Community League et Ville d'Edmonton", 'Hopital general de Saint-Boniface', 'Huntington Hills Community Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Parc national des Lacs-Waterton', 'In-Definite Arts', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', "Innovation and Development Corporation de l'Universite de Victoria", 'Innovative Trauma Care Inc.', 'Institut Glenbow-Alberta', 'Institut canadien de recherches en genie forestier', 'Institut de technologie de la Colombie-Britannique', 'Institut international du Canada pour le grain', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'J. Hinsche Contracting Ltd.', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', "Jasper Place Curling Club et Ville d'Edmonton", 'Jeux mondiaux des policiers et pompiers 2009 en Colombie-Britannique', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton et Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kaslo &amp; District Arena Association', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Khowutzun Forest Service Ltd', "Kilkenny Community League, Ville d'Edmonton et Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kla-how-eya Aboriginal Centre of Surrey Aboriginal Cultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', "L'Electronic Industry Association of Alberta", "L'association commerciale Hong Kong-Canada", 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', 'La Britannia Beach Historical Society et la Britannia Development Corporation', 'La Chambre de commerce de Winnipeg', 'La Chambre de commerce du Manitoba', "La Chambre economique de l'Alberta", 'La Corporation de Delta', 'La Corporation de Gwaalagaa Naay', 'La Corporation de la ville de New Westminster', 'La Corporation de la ville de North Vancouver', 'La Corporation de la ville de Port Coquitlam', 'La Corporation de la ville de White Rock', 'La Corporation du canton de Langley', 'La Corporation du district de Peachland', 'La Corporation du village de Clinton', 'La Corporation du village de Warfield', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La Winnipeg Foundation', 'La corporation du village de Burns Lake', 'La federation des francophones de Saskatoon Inc.', "La maison de l'Ukraine a Vita", 'La province de la C.-B., representee par le ministre des Finances', 'La societe agricole de La Crete', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Langley Minor Footb</t>
         </is>
@@ -1935,12 +1994,15 @@
         </is>
       </c>
       <c r="T20" t="n">
+        <v>1436</v>
+      </c>
+      <c r="U20" t="n">
         <v>7190</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>7</v>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>['AB', 'BC', 'MB', 'ON', 'QC', 'SK', 'WA']</t>
         </is>
@@ -2013,12 +2075,15 @@
         </is>
       </c>
       <c r="T21" t="n">
+        <v>303</v>
+      </c>
+      <c r="U21" t="n">
         <v>31286</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>632</v>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t>['100 Mile House', '108 Mile Ranch', 'Abbotsford', 'Abbottsford', 'Aberdeen', 'Agassiz', 'Air Ronge', 'Airdrie', 'Alameda', 'Alberta Beach', 'Alexis Creek', 'Allan', 'Alliance', 'Altona', 'Anmore', 'Arborg', 'Armstrong', 'Ashcroft', 'Ashern', 'Athabasca', 'Balcarres', 'Barkerville', 'Barrhead', 'Barriere', 'Beaumont', 'Beausejour', 'Beauval', 'Beechy', 'Bella Bella', 'Berens River', 'Berwyn', 'Big River', 'Biggar', 'Binscarth', 'Birch Hills', 'Birsay', 'Black Diamond', 'Blackfalds', 'Blackie', 'Blaine Lake', 'Blairmore', 'Blue River', 'Boissevain', 'Bonnyville', 'Borden', 'Boston Bar', 'Bow Island', 'Bowden', 'Bowen Island', 'Boyle', 'Bragg Creek', 'Brandon', 'Britannia Beach', 'Broadview', 'Brooks', 'Bruderheim', 'Brunkild', 'Bruno', 'Buck Lake', 'Buffalo Head Prairie', 'Buffalo Narrows', 'Burnaby', 'Burns Lake', 'Cache Creek', 'Calgary', 'Campbell River', 'Camperville', 'Camrose', 'Canal Flats', 'Candle Lake', 'Canmore', 'Canwood', 'Carberry', 'Cardston', 'Carlyle', 'Carman', 'Carmen', 'Carnduff', 'Carrot River', 'Carstairs', 'Castlegar', 'Chase', 'Chauvin', 'Chemainus', 'Chestermere', 'Chetwynd', 'Chilliwack', 'Chitek Lake', 'Christina Lake', 'Churchill', 'Clairmont', 'Claresholm', 'Clearwater', 'Clinton', 'Clive', 'Coal Harbour', 'Coaldale', 'Cochin', 'Cochrane', 'Coldstream', 'Coleman', 'Colonsay', 'Comox', 'Consort', 'Coquitlam', 'Coronation', 'Courtenay', 'Craik', 'Cranberry Portage', 'Cranbrook', 'Creighton', 'Creston', 'Cross Lake', 'Crossfield', 'Crystal City', 'Cupar', 'Cymric', 'Dalmeny', 'Darwell', 'Dauphin', 'Davidson', 'Dawson Creek', 'Deadwood', 'Dease Lake', 'Debden', 'Debolt', 'Delburne', 'Delisle', 'Delta', 'Denare Beach', 'Denman Island', 'Devon', 'Didsbury', 'Dinsmore', 'Donnelly', 'Dorintosh', 'Drayton Valley', 'Drumheller', 'Duchess', 'Duck Lake', 'Duncan', 'Dundurn', 'Dysart', 'EDMONTON', 'East Coulee', 'East Selkirk', 'East St. Paul', 'Eckville', 'Edam', 'Edgerton', 'Edmonton', 'Edson', 'Elbow', 'Elie', 'Elkford', 'Elkhorn', 'Elkwater', 'Emerson', 'Enderby', 'Englefeld', 'Enilda', 'Esterhazy', 'Estevan', 'Fairview', 'Fanny Bay', 'Fernie', 'Flin Flon', 'Foam Lake', 'Fond Du Lac', 'For McMurray', 'Foremost', 'Forest Grove', 'Forestburg', 'Fort Langley', 'Fort Macleod', 'Fort McMurray', 'Fort Nelson', "Fort Qu'appelle", 'Fort Saskatchewan', 'Fort St John', 'Fort St. James', 'Fort St. John', 'Fort Steele', 'Fort Vermilion', 'Fox Valley', 'Fraser Lake', 'Fraserwood', 'Frontier', 'Fruitvale', 'GIFT LAKE', 'Gabriola', 'Gibbons', 'Gibsons', 'Gilbert Plains', 'Gimli', 'Gleichen', 'Glentworth', 'Golden', 'Grand Forks', 'Grande Pointe', 'Grande Prairie', 'Grandview', 'Granisle', 'Gravelbourg', 'Green Lake', 'Greenville', 'Greenwood', 'Grenfell', 'Gretna', 'Grouard', 'Hagensborg', 'Haisla', 'Hamiota', 'Hanceville', 'Hanna', 'Harrison Mills', 'Hartley Bay', 'Hazelridge', 'Hazelton', 'Hazlet', 'Headingley', 'Herschel', 'High Level', 'High Prairie', 'High River', 'Hill Spring', 'Hinton', 'Hodgeville', 'Hope', 'Horsefly', 'Houston', 'Hudson Bay', 'Humboldt', 'Hythe', 'Ile Des Chenes', 'Ile des Chenes', 'Ile-A-La-Crosse', 'Imperial', 'Indian Head', 'Innisfail', 'Invermere', 'Irma', 'Irricana', 'Ituna', 'Jasper', 'KAMLOOPS', 'Kamloops', 'Kamsack', 'Kaslo', 'Kelliher', 'Kelowna', 'Kelvington', 'Kenaston', 'Keremeos', 'Kerrobert', 'Kikino', 'Killam', 'Kimberley', 'Kincolith', 'Kindersley', 'Kinistino', 'Kinuso', 'Kitimat', 'Kitscoty', 'Kronau', 'La Crete', 'La Ronge', 'Lac Du Bonnet', 'Lac La Biche', 'Lac La Hache', 'Lacombe', 'Ladysmith', 'Lafleche', 'Lake Cowichan', 'Lake Errock', 'Lake Louise', 'Lamont', 'Langenburg', 'Langford', 'Langham', 'Langley', 'Lanigan', 'Leader', 'Leduc', 'Legal', 'Lemberg', 'Lethbridge', 'Likely', 'Lillooet', 'Lions Bay', 'Lloydminster', 'Logan Lake', 'Lomond', 'London', 'Lone Butte', 'Loreburn', 'Lorette', 'Lumby', 'Lumsden', 'Lundar', 'Lynn Lake', 'Lytton', 'MERRITT', 'Mackenzie', 'Macklin', 'Madden', 'Madeira Park', 'Magrath', 'Maidstone', 'Mallaig', 'Manitou', 'Manitou Beach', 'Mannville', 'Mansons Landing', 'Maple Creek', 'Maple Ridge', 'Marengo', 'Martensville', 'Maryfield', 'Masset', 'Mayerthorpe', 'McAuley', 'McBride', 'McCreary', 'McLeod Lake', 'Meacham', 'Meadow Creek', 'Meadow Lake', 'Medicine Hat', 'Melfort', 'Melita', 'Melville', 'Merritt', 'Merville', 'Mervin', 'Midale', 'Milden', 'Millarville', 'Millet', 'Minton', 'Mirror', 'Mission', 'Moberly Lake', 'Montreal', 'Moose Jaw', 'Moosomin', 'Morden', 'Morinville', 'Morris', 'Mount Washington', 'Muskoday', 'Naicam', 'Nakusp', 'Nampa', 'Nanaimo', 'Nanton', 'Neepawa', 'Nelson', 'Nelson House', 'Nemaiah Valley', 'Neudorf', 'New Hazelton', 'New Westminster', 'Nipawin', 'Nisku', 'Niverville', 'Nobleford', 'Nokomis', 'Norquay', 'North Battleford', 'North Vancouver', 'North York', 'Notre Dame De Lourdes', 'OTTAWA', 'Oak River', 'Oakbank', 'Okotoks', 'Olds', 'Oliver', 'Onanole', 'Onoway', 'Opaskwayak', 'Osler', 'Osoyoos', 'Ottawa', 'Outlook', 'Oyen', 'PEACHLAND', 'Parkland County', 'Parksville', 'Paynton', 'Peace River', 'Peachland', 'Pemberton', 'Pender Island', 'Penhold', 'Pense', 'Penticton', 'Perdue', 'Picture Butte', 'Pierceland', 'Pilot Butte', 'Pincher Creek', 'Pine Falls', 'Pitt Meadows', 'Plamondon', 'Plum Coulee', 'Point-Claire', 'Ponoka', 'Port Alberni', 'Port Alice', 'Port Coquitlam', 'Port Hardy', 'Port McNeill', 'Port Moody', 'Port Simpson', 'Portage La Prairie', 'Portage la Prairie', 'Powell River', 'Powerview', 'Preeceville', 'Prince Albert', 'Prince George', 'Prince Rupert', 'Princeton', 'Provost', "Prud'Homme", 'Punnichy', 'Qualicum Beach', 'Quesnel', 'Quill Lake', 'RED DEER', 'Radium Hot Springs', 'Radville', 'Ranfurly', 'Raymond', 'Red Deer', 'Redcliff', 'Redvers', 'Redwater', 'Regina', 'Reston', 'Revelstoke', 'Richmond', 'Rimbey', 'Riske Creek', 'Riverhurst', 'Rivers', 'Riverton', 'Roblin', 'Rock Creek', 'Rorketon', 'Rose Valley', 'Rosebud', 'Rosemary', 'Rosenort', 'Rosetown', 'Rossland', 'Rouleau', 'Round Hill', 'Russell', 'Rycroft', 'SALMON ARM', 'SASKATOON', 'SIKSIKA', 'Saanichton', 'Saint-Boniface', 'Saint-Laurent', 'Saint-Modeste', 'Sainte-Anne', 'Salmo', 'Salmon Arm', 'Sanford', 'Sangudo', 'Saskatoon', 'Saturna Island', 'Savona', 'Scandia', 'Seattle', 'Seba Beach', 'Sechelt', 'Selkirk', 'Shalalth', 'Shaunavon', 'Shellbrook', 'Sherwood Park', 'Shoal Lake', 'Sidney', 'Siksika', 'Silton', 'Silverton', 'Skidegate', 'Slave Lake', 'Smithers', 'Smoky Lake', 'Snow Lake', 'Somerset', 'Sooke', 'Sorrento', 'Souris', 'Southey', 'Southport', 'Sparwood', 'Spences Bridge', 'Spiritwood', 'Sprague', 'Springside', 'Spruce Grove', 'Spruce View', 'Squamish', 'St .Jean Baptiste', 'St Adolphe', 'St Andrews', 'St Laurent', 'St Lina', 'St Malo', 'St Paul', 'St Pierre Jolys', 'St Walburg', 'St. Albert', 'St. Georges', 'St. Paul', 'St. Pierre-Jolys', 'Stalwart', 'Star City', 'Stavely', 'Ste Anne', 'Ste Rose Du Lac', 'Ste. Agathe', 'Steinbach', 'Stettler', 'Stirling', 'Stony Mountain', 'Stony Plain', 'Stoughton', 'Strasbourg', 'Strathclair', 'Strathmore', 'Summerland', 'Sun Peaks', 'Sundre', 'Surrey', 'Swan Hills', 'Swan Lake', 'Swan River', 'Swift Current', 'Sylvan Lake', 'Taber', "Tatl'ah (Dease Lake)", 'Tatla Lake', 'Taylor', 'Telkwa', 'Terrace', 'The Pas', 'Theodore', 'Thompson', 'Thorsby', 'Three Hills', 'Tisdale', 'Tofield', 'Tofino', 'Topley', 'Toronto', 'Trail', 'Treherne', 'Tumbler Ridge', 'Turner Valley', 'Turnor Lake', 'Two Hills', 'Tyndall', 'Ucluelet', 'Unity', 'VIRDEN', 'Valemount', 'Valhalla Centre', 'Vancouver', 'Vanderhoof', 'Vanguard', 'Vassar', 'Vauxhall', 'Vegreville', 'Vermilion', 'Vernon', 'Vibank', 'Victoria', 'Victoria Beach', 'Viking', 'Viscount', 'Vita', 'Vonda', 'Vulcan', 'WINNIPEG', 'Wadena', 'Wainwright', 'Wakaw', 'Waldheim', 'Walsh', 'Warman', 'Waskada', 'Watrous', 'Watson', 'Wawanesa', 'Wells', 'Wembley', 'West Kelowna', 'West St Paul', 'West Vancouver', 'Westerose', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whistler', 'White City', 'White Rock', 'Whitecap', 'Whitecourt', 'Whitewood', 'Wilkie', 'Williams Lake', 'Windermere', 'Winfield', 'Winkler', 'Winlaw', 'Winnipeg', 'Winnipegosis', 'Woodlands', 'Worsley', 'Wynyard', 'Yellow Grass', 'Yorkton', 'Zeballos', 'Zenon Park']</t>
         </is>
@@ -2091,12 +2156,15 @@
         </is>
       </c>
       <c r="T22" t="n">
+        <v>1718</v>
+      </c>
+      <c r="U22" t="n">
         <v>3591</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>8</v>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>['1', '10', '2', '3', '4', '5', '6', '7']</t>
         </is>

--- a/examples/Canada OGD/wd/profile.xlsx
+++ b/examples/Canada OGD/wd/profile.xlsx
@@ -455,15 +455,20 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -476,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -539,12 +544,15 @@
         <v>8</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>16031</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>2797</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['"http://www.w3.org/TR/xhtml1/DTD/xhtml1-strict.dtd"&gt;', '10018', '10025', '10106', '10108', '10138', '10142', '10144', '10160', '10173', '10174', '10175', '10181', '10185', '10189', '10196', '10197', '10200', '10201', '10202', '10208', '10219', '10233', '10234', '10235', '10237', '10238', '10240', '10242', '10243', '10244', '10245', '10246', '10251', '10255', '10256', '10258', '10271', '10272', '10276', '10283', '10286', '10291', '10298', '10299', '10307', '10310', '10318', '10319', '10323', '10331', '10337', '10370', '10371', '10372', '10373', '10389', '10392', '10402', '10406', '10411', '10418', '10422', '10423', '10424', '10425', '10428', '10430', '10433', '10440', '10443', '10446', '10452', '10456', '10461', '10466', '10475', '10485', '10486', '10491', '10492', '10493', '10495', '10496', '10498', '10499', '10500', '10501', '10502', '10503', '10504', '10505', '10506', '10507', '10508', '10509', '10510', '10511', '10512', '10513', '10514', '10516', '10518', '10522', '10523', '10526', '10529', '10532', '10536', '10543', '10546', '10558', '10559', '10563', '10574', '10597', '10598', '10599', '10602', '10615', '10631', '10635', '10642', '10643', '10646', '10650', '10659', '10663', '10670', '10674', '10677', '10678', '10680', '10688', '10696', '10705', '10710', '10711', '10713', '10715', '10716', '10722', '10723', '10724', '10725', '10726', '10727', '10728', '10729', '10731', '10733', '10734', '10735', '10737', '10738', '10741', '10742', '10743', '10744', '10747', '10749', '10751', '10756', '10762', '10763', '10768', '10774', '10780', '10781', '10782', '10783', '10789', '10798', '10804', '10808', '10812', '10829', '10844', '10850', '10861', '10864', '10865', '10867', '10869', '10874', '10875', '10876', '10880', '10881', '10884', '10886', '10888', '10889', '10891', '10902', '10911', '10915', '10920', '10921', '10923', '10929', '10931', '10932', '10933', '10936', '10941', '10942', '10944', '10949', '10950', '10955', '10956', '10957', '10958', '10960', '10966', '10970', '10971', '10973', '10977', '10979', '10982', '10984', '10986', '10987', '10988', '10989', '10990', '10992', '10993', '10996', '10997', '10999', '11001', '11004', '11007', '11008', '11009', '11012', '11022', '11025', '11026', '11032', '11034', '11035', '11037', '11038', '11040', '11043', '11044', '11048', '11049', '11050', '11051', '11052', '11053', '11054', '11055', '11058', '11060', '11061', '11062', '11063', '11064', '11065', '11066', '11072', '11073', '11078', '11080', '11083', '11086', '11089', '11090', '11094', '11099', '11101', '11102', '11104', '11105', '11106', '11108', '11109', '11110', '11111', '11112', '11113', '11114', '11115', '11116', '11117', '11118', '11119', '11120', '11122', '11125', '11126', '11131', '11134', '11136', '11139', '11140', '11142', '11143', '11145', '11147', '11149', '11150', '11153', '11156', '11157', '11159', '11160', '11164', '11165', '11167', '11168', '11169', '11170', '11173', '11174', '11175', '11177', '11178', '11184', '11188', '11189', '11191', '11193', '11195', '11198', '11199', '11205', '11216', '11218', '11219', '11220', '11221', '11222', '11223', '11225', '11226', '11229', '11231', '11235', '11236', '11237', '11241', '11245', '11249', '11250', '11252', '11255', '11256', '11258', '11262', '11264', '11270', '11279', '11280', '11281', '11282', '11284', '11288', '11289', '11290', '11294', '11295', '11297', '11298', '11301', '11307', '11308', '11310', '11312', '11315', '11317', '11318', '11320', '11321', '11322', '11327', '11328', '11329', '11330', '11332', '11334', '11336', '11338', '11340', '11347', '11349', '11350', '11353', '11357', '11359', '11360', '11361', '11362', '11363', '11364', '11372', '11375', '11377', '11382', '11383', '11393', '11395', '11408', '11409', '11411', '11412', '11413', '11414', '11415', '11418', '11419', '11420', '11428', '11429', '11431', '11432', '11436', '11438', '11442', '11443', '11445', '11454', '11459', '11460', '11462', '11463', '11466', '11476', '11482', '11489', '11491', '11497', '11499', '11500', '11502', '11511', '11512', '11513', '11516', '11518', '11519', '11520', '11524', '11525', '11528', '11539', '11544', '11545', '11547', '11549', '11550', '11551', '11552', '11555', '11556', '11557', '11558', '11559', '11561', '11562', '11564', '11565', '11566', '11568', '11572', '11573', '11574', '11575', '11576', '11577', '11580', '11582', '11583', '11587', '11591', '11592', '11598', '11600', '11602', '11611', '11612', '11615', '11617', '11619', '11631', '11635', '11647', '11651', '11655', '11656', '11657', '11658', '11661', '11662', '11663', '11665', '11666', '11667', '11670', '11671', '11672', '11673', '11680', '11682', '11685', '11686', '11687', '11689', '11690', '11691', '11692', '11694', '11695', '11696', '11697', '11699', '11704', '11706', '11707', '11709', '11711', '11712', '11716', '11718', '11720', '11721', '11723', '11726', '11733', '11738', '11739', '11741', '11743', '11747', '11752', '11753', '11754', '11759', '11760', '11762', '11763', '11766', '11767', '11768', '11771', '11773', '11778', '11782', '11784', '11785', '11788', '11789', '11793', '11794', '11800', '11801', '11802', '11804', '11805', '11809', '11810', '11812', '11815', '11816', '11821', '11823', '11824', '11826', '11828', '11830', '11831', '11834', '11840', '11841', '11843', '11844', '11848', '11849', '11850', '11851', '11852', '11855', '11857', '11859', '11862', '11864', '11865', '11869', '11871', '11873', '11878', '11881', '11882', '11884', '11886', '11887', '11889', '11891', '11896', '11897', '11899', '11903', '11904', '11905', '11906', '11907', '11908', '11909', '11910', '11912', '11914', '11916', '11917', '11918', '11926', '11930', '11934', '11935', '11940', '11944', '11952', '11955', '11958', '11960', '11962', '11968', '11972', '11973', '11974', '11978', '11979', '11980', '11984', '11987', '11988', '11991', '11992', '12000', '12001', '12003', '12009', '12010', '12011', '12015', '12016', '12017', '12019', '12023', '12027', '12029', '12039', '12047', '12048', '12051', '12054', '12058', '12059', '12060', '12061', '12063', '12068', '12069', '12070', '12072', '12073', '12078', '12081', '12084', '12090', '12091', '12094', '12095', '12096', '12100', '12102', '12109', '12116', '12118', '12119', '12121', '12129', '12130', '12133', '12135', '12136', '12137', '12138', '12139', '12140', '12141', '12142', '12143', '12144', '12147', '12148', '12150', '12153', '12154', '12156', '12157', '12158', '12159', '12160', '12161', '12162', '12163', '12165', '12166', '12168', '12171', '12172', '12175', '12176', '12177', '12180', '12181', '12183', '12184', '12185', '12189', '12191', '12192', '12193', '12194', '12196', '12200', '12201', '12202', '12203', '12204', '12213', '12214', '12216', '12217', '12218', '12219', '12220', '12221', '12222', '12225', '12226', '12227', '12228', '12230', '12231', '12232', '12234', '12235', '12239', '12240', '12244', '12245', '12246', '12247', '12248', '12250', '12251', '12256', '12261', '12262', '12263', '12264', '12265', '12270', '12277', '12280', '12281', '12283', '12285', '12286', '12290', '12291', '12292', '12293', '12294', '12296', '12303', '12310', '12312', '12316', '12317', '12326', '12327', '12332', '12339', '12342', '12353', '12355', '12356', '12360', '12361', '12371', '12374', '12377', '12379', '12382', '12384', '12385', '12391', '12400', '12404', '12405', '12409', '12417', '12418', '12424', '12431', '12436', '12440', '12444', '12449', '12451', '12454', '12458', '12460', '12462', '12463', '12464', '12466', '12468', '12469', '12470', '12472', '12474', '12480', '12485', '12486', '12489', '12491', '12494', '12495', '12499', '12502', '12503', '12509', '12511', '12517', '12518', '12524', '12525', '12527', '12528', '12530', '12531', '12533', '12536', '12540', '12542', '12543', '12556', '12567', '12568', '12571', '12573', '12574', '12577', '12585', '12593', '12595', '12596', '12597', '12601', '12602', '12603', '12605', '12606', '12609', '12610', '12611', '12614', '12615', '12616', '12621', '12622', '12624', '12626', '12627', '12628', '12629', '12630', '12631', '12632', '12634', '12635', '12636', '12637', '12638', '12639', '12643', '12648', '12649', '12651', '12652', '12656', '12660', '12661', '12662', '12663', '12666', '12667', '12668', '12670', '12671', '12672', '12673', '12674', '12677', '12678', '12680', '12682', '12684', '12686', '12687', '12689', '12691', '12692', '12693', '12696', '12697', '12698', '12707', '12711', '12712', '12713', '12720', '12724', '12726', '12732', '12741', '12746', '12750', '12761', '12766', '12772', '12778', '12779', '12781', '12783', '12791', '12816', '12822', '12835', '12848', '12868', '12869', '12873', '12874', '12886', '12888', '12896', '12897', '12910', '12912', '12915', '12917', '12922', '12923', '12924', '12928', '12929', '12931', '12934', '12935', '12936', '12939', '12942', '12943', '12945', '12947', '12948', '12950', '12951', '12952', '12953', '12954', '12955', '12957', '12958', '12960', '12961', '12962', '12963', '12964', '12969', '12970', '12971', '12972', '12973', '12980', '12982', '12983', '12984', '12985', '12986', '12987', '12988', '12989', '12992', '12993', '12994', '12995', '12996', '12997', '12998', '13000', '13002', '13003', '13004', '13005', '13006', '13007', '13008', '13010', '13015', '13018', '13020', '13025', '13032', '13034', '13037', '13040', '13041', '13042', '13048', '13049', '13065', '13068', '13080', '13084', '13093', '13096', '13105', '13108', '13114', '13115', '13117', '13119', '13120', '13121', '13123', '13124', '13125', '13128', '13129', '13131', '13132', '13133', '13136', '13140', '13141', '13143', '13145', '13146', '13147', '13148', '13149', '13150', '13151', '13152', '13153', '13154', '13155', '13156', '13158', '13159', '13160', '13161', '13162', '13163', '13166', '13168', '13169', '13171', '13172', '13174', '13175', '13176', '13177', '13178', '13179', '13180', '13181', '13183', '13184', '13185', '13186', '13187', '13188', '13189', '13192', '13193', '13194', '13201', '13203', '13206', '13208', '13209', '13210', '13212', '13213', '13215', '13216', '13218', '13222', '13223', '13224', '13225', '13229', '13232', '13235', '13240', '13241', '13243', '13245', '13247', '13248', '13249', '13250', '13251', '13252', '13254', '13255', '13258', '13260', '13261', '13262', '13264', '13265', '13266', '13268', '13269', '13270', '13272', '13273', '13274', '13278', '13279', '13280', '13281', '13282', '13283', '13287', '13288', '13289', '13290', '13291', '13292', '13293', '13294', '13295', '13296', '13297', '13299', '13301', '13302', '13303', '13304', '13306', '13308', '13309', '13310', '13312', '13313', '13316', '13317', '13318', '13320', '13321', '13322', '13323', '13324', '13325', '13327', '13330', '13332', '13338', '13339', '13340', '13342', '13343', '13344', '13345', '13348', '13350', '13351', '13352', '13353', '13354', '13355', '13358', '13361', '13363', '13364', '13366', '13370', '13372', '13373', '13376', '13377', '13379', '13380', '13382', '13383', '13384', '13385', '13387', '13390', '13391', '13393', '13394', '13395', '13396', '13397', '13398', '13400', '13401', '13404', '13405', '13406', '13407', '13409', '13410', '13411', '13412', '13413', '13414', '13416', '13417', '13418', '13419', '13420', '13421', '13422', '13424', '13426', '13430', '13431', '13432', '13433', '13434', '13435', '13436', '13438', '13439', '13441', '13443', '13444', '13446', '13447', '13448', '13449', '13450', '13451', '13452', '13453', '13454', '13455', '13457', '13458', '13459', '13461', '13463', '13465', '13466', '13467', '13468', '13469', '13470', '13471', '13472', '13473', '13474', '13476', '13480', '13481', '13482', '13484', '13485', '13486', '13487', '13490', '13491', '13493', '13495', '13496', '13499', '13501', '13502', '13503', '13504', '13505', '13508', '13509', '13510', '13511', '13512', '13513', '13516', '13517', '13521', '13523', '13528', '13529', '13530', '13532', '13536', '13537', '13540', '13551', '13553', '13555', '13556', '13558', '13559', '13560', '13562', '13563', '13573', '13576', '13577', '13578', '13579', '13583', '13586', '13587', '13588', '13589', '13592', '13593', '13596', '13597', '13598', '13599', '13600', '13601', '13602', '13605', '13606', '13610', '13613', '13614', '13615', '13617', '13618', '13620', '13621', '13622', '13623', '13624', '13627', '13628', '13629', '13630', '13631', '13638', '13639', '13640', '13641', '13644', '13645', '13646', '13647', '13648', '13649', '13651', '13652', '13659', '13660', '13662', '13663', '13670', '13671', '13672', '13677', '13678', '13679', '13680', '13681', '13683', '13684', '13686', '13689', '13691', '13697', '13698', '13700', '13703', '13706', '13710', '13711', '13712', '13714', '13715', '13717', '13718', '13721', '13722', '13724', '13725', '13727', '13728', '13730', '13731', '13732', '13733', '13734', '13735', '13740', '1978', '2642', '3148', '3268', '3345', '4212', '4214', '4226', '4232', '4242', '4431', '4578', '4623', '4646', '4680', '4696', '4703', '4808', '4833', '4871', '4876', '5019', '5055', '5078', '5164', '5308', '5311', '5315', '5362', '5375', '5378', '5404', '5405', '5479', '5480', '5482', '5488', '5499', '5533', '5535', '5536', '5541', '5542', '5547', '5610', '5612', '5613', '5614', '5621', '5639', '5644', '5650', '5665', '5670', '5673', '5680', '5682', '5683', '5684', '5686', '5692', '5705', '5707', '5711', '5712', '5720', '5722', '5724', '5726', '5734', '5741', '5752', '5753', '5759', '5760', '5763', '5767', '5772', '5775', '5781', '5782', '5783', '5784', '5790', '5794', '5796', '5802', '5803', '5806', '5812', '5814', '5819', '5820', '5824', '5825', '5828', '5829', '5830', '5831', '5841', '5842', '5844', '5848', '5851', '5852', '5853', '5854', '5855', '5856', '5857', '5858', '5859', '5860', '5861', '5862', '5863', '5864', '5865', '5866', '5867', '5868', '5869', '5870', '5871', '5872', '5873', '5874', '5875', '5876', '5877', '5878', '5879', '5882', '5885', '5886', '5890', '5900', '5905', '5907', '5911', '5912', '5917', '5918', '5926', '5934', '5936', '5937', '5938', '5939', '5947', '5948', '5949', '5951', '5952', '5953', '5957', '5958', '5959', '5961', '5962', '5963', '5976', '5978', '5979', '5981', '5982', '5983', '5986', '5989', '5991', '5993', '6000', '6001', '6002', '6003', '6004', '6005', '6006', '6007', '6008', '6009', '6010', '6011', '6012', '6013', '6014', '6015', '6016', '6017', '6018', '6019', '6020', '6021', '6022', '6023', '6024', '6025', '6026', '6027', '6028', '6029', '6030', '6031', '6032', '6033', '6034', '6035', '6037', '6038', '6085', '6090', '6091', '6096', '6115', '6127', '6130', '6138', '6149', '6152', '6156', '6160', '6167', '6168', '6174', '6175', '6176', '6177', '6178', '6179', '6180', '6181', '6182', '6183', '6184', '6185', '6186', '6187', '6188', '6189', '6190', '6191', '6192', '6194', '6196', '6201', '6203', '6205', '6208', '6214', '6216', '6218', '6219', '6220', '6221', '6223', '6224', '6225', '6226', '6227', '6228', '6230', '6231', '6237', '6243', '6247', '6253', '6261', '6262', '6263', '6271', '6273', '6277', '6282', '6286', '6289', '6290', '6300', '6303', '6304', '6305', '6306', '6307', '6360', '6363', '6366', '6367', '6371', '6372', '6373', '6374', '6375', '6379', '6380', '6381', '6387', '6413', '6415', '6417', '6418', '6419', '6420', '6426', '6428', '6432', '6433', '6434', '6443', '6444', '6447', '6449', '6483', '6484', '6487', '6489', '6493', '6494', '6500', '6504', '6509', '6516', '6518', '6521', '6523', '6528', '6529', '6531', '6532', '6533', '6535', '6536', '6549', '6550', '6554', '6556', '6559', '6561', '6563', '6564', '6570', '6571', '6572', '6575', '6577', '6578', '6599', '6601', '6604', '6606', '6607', '6615', '6617', '6618', '6619', '6620', '6621', '6624', '6628', '6632', '6639', '6644', '6647', '6651', '6657', '6669', '6690', '6691', '6692', '6694', '6696', '6697', '6698', '6704', '6712', '6718', '6719', '6720', '6721', '6726', '6727', '6728', '6729', '6730', '6733', '6734', '6737', '6738', '6739', '6747', '6748', '6749', '6751', '6752', '6754', '6755', '6757', '6767', '6768', '6769', '6771', '6776', '6784', '6785', '6786', '6789', '6790', '6791', '6798', '6803', '6804', '6805', '6806', '6807', '6808', '6810', '6811', '6812', '6815', '6817', '6818', '6821', '6822', '6824', '6827', '6837', '6842', '6846', '6847', '6856', '6857', '6858', '6862', '6863', '6864', '6865', '6866', '6867', '6868', '6869', '6872', '6874', '6875', '6877', '6885', '6887', '6888', '6894', '6900', '6901', '6903', '6904', '6908', '6910', '6913', '6917', '6918', '6920', '6922', '6923', '6927', '6929', '6932', '6933', '6939', '6940', '6942', '6943', '6944', '6945', '6947', '6948', '6949', '6952', '6953', '6954', '6955', '6956', '6957', '6959', '6960', '6961', '6962', '6963', '6965', '6966', '6969', '6970', '6971', '6972', '6973', '6974', '6981', '6982', '6991', '7003', '7005', '7008', '7009', '7010', '7012', '7014', '7026', '7028', '7030', '7033', '7034', '7040', '7041', '7042', '7044', '7045', '7051', '7052', '7053', '7054', '7060', '7063', '7068', '7070', '7074', '7080', '7090', '7093', '7098', '7101', '7105', '7114', '7115', '7116', '7117', '7119', '7120', '7126', '7130', '7133', '7135', '7139', '7140', '7141', '7146', '7148', '7149', '7158', '7162', '7166', '7167', '7170', '7172', '7173', '7174', '7184', '7186', '7187', '7188', '7190', '7193', '7195', '7209', '7212', '7213', '7215', '7216', '7222', '7227', '7228', '7229', '7232', '7240', '7242', '7252', '7255', '7259', '7266', '7267', '7268', '7269', '7280', '7281', '7291', '7293', '7300', '7313', '7320', '7321', '7322', '7324', '7325', '7332', '7341', '7345', '7346', '7351', '7356', '7357', '7361', '7368', '7373', '7380', '7383', '7384', '7390', '7395', '7405', '7408', '7410', '7411', '7412', '7413', '7414', '7418', '7425', '7428', '7429', '7432', '7434', '7439', '7449', '7450', '7452', '7455', '7457', '7461', '7491', '7492', '7496', '7503', '7511', '7517', '7518', '7520', '7523', '7525', '7526', '7528', '7531', '7532', '7533', '7534', '7535', '7536', '7537', '7538', '7539', '7542', '7543', '7544', '7545', '7546', '7548', '7549', '7550', '7551', '7552', '7556', '7557', '7558', '7560', '7561', '7563', '7564', '7566', '7569', '7572', '7574', '7575', '7577', '7578', '7579', '7580', '7582', '7586', '7589', '7590', '7592', '7594', '7595', '7596', '7597', '7600', '7601', '7602', '7603', '7604', '7605', '7609', '7611', '7615', '7619', '7620', '7625', '7626', '7628', '7629', '7630', '7631', '7633', '7636', '7640', '7642', '7645', '7646', '7647', '7652', '7653', '7655', '7656', '7657', '7658', '7659', '7661', '7667', '7668', '7674', '7676', '7678', '7679', '7683', '7686', '7687', '7688', '7691', '7693', '7695', '7705', '7707', '7708', '7710', '7714', '7725', '7728', '7729', '7733', '7734', '7741', '7745', '7752', '7762', '7764', '7765', '7774', '7776', '7783', '7798', '7800', '7801', '7802', '7806', '7807', '7809', '7814', '7822', '7826', '7827', '7828', '7830', '7833', '7834', '7838', '7840', '7841', '7846', '7857', '7862', '7870', '7871', '7874', '7875', '7881', '7882', '7886', '7887', '7890', '7895', '7899', '7901', '7902', '7903', '7915', '7917', '7925', '7929', '7931', '7932', '7933', '7934', '7937', '7941', '7942', '7943', '7944', '7953', '7955', '7959', '7960', '7964', '7973', '7974', '7979', '7984', '7985', '7988', '7993', '7997', '7998', '8000', '8001', '8004', '8005', '8006', '8007', '8008', '8010', '8013', '8014', '8015', '8020', '8021', '8022', '8024', '8025', '8026', '8027', '8028', '8032', '8034', '8035', '8037', '8039', '8041', '8042', '8045', '8046', '8049', '8050', '8051', '8052', '8055', '8067', '8068', '8072', '8075', '8082', '8083', '8090', '8092', '8093', '8096', '8098', '8101', '8103', '8104', '8106', '8108', '8109', '8110', '8112', '8120', '8121', '8124', '8125', '8126', '8127', '8128', '8129', '8130', '8132', '8133', '8135', '8137', '8139', '8153', '8155', '8158', '8167', '8168', '8169', '8170', '8175', '8181', '8182', '8184', '8188', '8193', '8194', '8199', '8204', '8208', '8209', '8215', '8219', '8222', '8227', '8235', '8237', '8238', '8239', '8245', '8247', '8248', '8249', '8250', '8253', '8254', '8255', '8256', '8260', '8262', '8264', '8265', '8267', '8268', '8271', '8274', '8276', '8281', '8287', '8289', '8291', '8293', '8294', '8295', '8297', '8298', '8299', '8300', '8301', '8302', '8304', '8305', '8311', '8312', '8313', '8316', '8318', '8319', '8321', '8322', '8323', '8324', '8326', '8327', '8330', '8331', '8332', '8334', '8335', '8337', '8340', '8342', '8343', '8344', '8350', '8351', '8354', '8355', '8356', '8359', '8361', '8362', '8365', '8367', '8370', '8372', '8374', '8375', '8376', '8377', '8378', '8379', '8380', '8384', '8386', '8392', '8393', '8399', '8402', '8405', '8406', '8407', '8409', '8410', '8413', '8417', '8425', '8426', '8427', '8431', '8432', '8433', '8434', '8440', '8447', '8448', '8453', '8454', '8455', '8456', '8460', '8468', '8469', '8470', '8472', '8473', '8474', '8477', '8478', '8479', '8480', '8481', '8488', '8489', '8493', '8495', '8497', '8506', '8508', '8509', '8510', '8511', '8513', '8518', '8538', '8539', '8541', '8543', '8546', '8548', '8549', '8550', '8553', '8555', '8556', '8562', '8565', '8571', '8572', '8575', '8576', '8578', '8589', '8595', '8597', '8601', '8604', '8606', '8608', '8617', '8620', '8621', '8623', '8631', '8635', '8639', '8662', '8667', '8673', '8688', '8689', '8691', '8693', '8696', '8698', '8708', '8709', '8710', '8711', '8712', '8715', '8722', '8727', '8729', '8732', '8733', '8735', '8736', '8739', '8746', '8749', '8759', '8760', '8762', '8778', '8782', '8788', '8795', '8808', '8815', '8825', '8827', '8832', '8834', '8835', '8836', '8837', '8840', '8841', '8843', '8844', '8845', '8847', '8850', '8852', '8855', '8859', '8864', '8870', '8879', '8880', '8883', '8885', '8887', '8888', '8891', '8896', '8897', '8900', '8904', '8905', '8912', '8917', '8918', '8922', '8923', '8925', '8926', '8929', '8930', '8932', '8933', '8938', '8941', '8943', '8944', '8947', '8961', '8965', '8966', '8967', '8969', '8971', '8973', '8975', '8976', '8978', '8979', '8981', '8982', '8983', '8984', '8985', '8986', '8990', '9003', '9009', '9011', '9027', '9035', '9036', '9041', '9044', '9045', '9047', '9048', '9049', '9052', '9059', '9061', '9062', '9064', '9065', '9066', '9068', '9069', '9070', '9074', '9076', '9077', '9078', '9079', '9083', '9090', '9093', '9094', '9105', '9118', '9122', '9123', '9125', '9129', '9135', '9136', '9141', '9142', '9143', '9150', '9153', '9154', '9165', '9174', '9178', '9179', '9184', '9185', '9186', '9187', '9191', '9192', '9195', '9214', '9216', '9220', '9225', '9228', '9233', '9235', '9239', '9244', '9248', '9249', '9250', '9252', '9258', '9263', '9264', '9265', '9267', '9268', '9269', '9271', '9275', '9277', '9278', '9279', '9280', '9283', '9284', '9286', '9289', '9290', '9297', '9298', '9311', '9314', '9315', '9317', '9319', '9325', '9328', '9336', '9341', '9342', '9344', '9345', '9346', '9349', '9352', '9353', '9355', '9356', '9358', '9362', '9364', '9367', '9368', '9369', '9373', '9377', '9378', '9381', '9382', '9383', '9389', '9396', '9397', '9400', '9404', '9405', '9406', '9410', '9413', '9414', '9419', '9421', '9424', '9429', '9432', '9433', '9437', '9442', '9444', '9445', '9453', '9455', '9456', '9457', '9461', '9464', '9466', '9468', '9470', '9471', '9473', '9476', '9489', '9490', '9496', '9500', '9502', '9504', '9505', '9510', '9520', '9524', '9532', '9536', '9537', '9538', '9549', '9551', '9557', '9559', '9563', '9565', '9573', '9577', '9585', '9586', '9599', '9600', '9601', '9602', '9609', '9610', '9611', '9613', '9615', '9617', '9621', '9627', '9638', '9641', '9649', '9655', '9659', '9676', '9684', '9686', '9688', '9691', '9692', '9694', '9704', '9710', '9712', '9741', '9744', '9750', '9756', '9759', '9763', '9764', '9770', '9772', '9774', '9788', '9809', '9828', '9855', '9884', '9886', '9907', '9908', '9920', '9925', '9974', '&lt;!DOCTYPE html PUBLIC "-//W3C//DTD XHTML 1.0 Strict//EN"', '&lt;/body&gt;', '&lt;/head&gt;', '&lt;/html&gt;', '&lt;body&gt;', '&lt;head&gt;', '&lt;html xmlns="http://www.w3.org/1999/xhtml"&gt;', '&lt;title&gt;&lt;/title&gt;', 'AFBZ00001']</t>
         </is>
@@ -557,7 +565,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -620,12 +628,15 @@
         <v>2778</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>3595</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>9</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['1', '2', '3', '4', '5', '6', '7', '8', '9']</t>
         </is>
@@ -638,7 +649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -701,12 +712,15 @@
         <v>649</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>240494</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>2660</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['2-year pilot Graduate Internship Program in Manitoba', '2006 British Columbia Export Awards', '2009 World Police and Fire Games Industry Trade Show', '2010 Business Opportunity Workshops', '2010 Commerce Centre wireless &amp; new media technology showcase', 'A forum entitled "Expert Dialogue on future forest and fibre use opportunities"', 'A start-up plan for an open source learning exchange concerning sustainability', 'Aboriginal Business Service Network', 'Aboriginal Leadership Development Program', 'Aboriginal Residential Construction Program', 'Accelerate uptake of genomics to increase competitiveness in BC natural resources sectors', 'Acitivies to reduce the risk of wildfire in Clearwater', 'Acquire DNA sequencing technologies and supporting computing infrastructure', 'Acquire Electron beam lithography system to support nanotechnology applied research', 'Acquire Raman Microscope to Support Industry Development and Research', 'Acquire a mass spectrometer and a biomarker discovery instrument for proteomic research.', 'Acquire a mobile trailer and equipment to expand trades training in Northwest BC.', 'Acquire airborne terrestrial mapping and hydroacoustic technologies for skills development', 'Acquire analytical and measurement equipment for research in Agri-food products', 'Acquire and install specialized technology commercialization equipment', 'Acquire and operate equipment for UBC InSEAS', 'Acquire antenna test equipment for applied research and collaborative industry projects', 'Acquire digital technology for film production and establish an online education program', 'Acquire equipment for marine and aerospace training centre, and upgrade technology centre', 'Acquire equipment for skills training to improve productivity in the agriculture sector', 'Acquire equipment for trades training to address high demand for the local labour force', 'Acquire equipment that furthers Carbohydrate Science research and development', 'Acquire equipment to develop and commercialize immunotherapy technologies', 'Acquire equipment to expand capacity at a regional animal health and food testing facility', 'Acquire equipment to support the development of commercial unmanned aerial vehicle systems', 'Acquire food science equipment for testing and demonstrations at Red River College', 'Acquire haul-truck simulators for training entry-level workers in the coal mining sector', 'Acquire new vocational equipment for the expanded trades education facility in Nelson, BC', 'Acquire simulators to train aboriginal workers in energy/mining sectors in north east BC', 'Acquire software kits for simulator-training to use heavy equipment in construction work', 'Acquisition and testing of thermal imaging equipment to develop commercial applications.', 'Acquisition of Liquid Chromatography - Mass Spectrometry Equipment.', 'Acquisition of NMR Equipment for Thompson Rivers University', 'Acquisition of Specialized Micro Nano Technology Equipment', 'Acquisition of equipment for the Alberta Water and Environmental Sciences Building', 'Activities to reduce the risk of wildfire', 'Activities to reduce the risk of wildfire at nine Indian reserve locations', 'Activities to reduce the risk of wildfire in Central Okanagan', 'Activities to reduce the risk of wildfire including: surveying, spacing and pruning', 'Activities to reduce the threat of wildfire including felling trees and piling debris', 'Addition of AUV and Acoustic Array (5 nodes) on the Ocean Technology Test Bed', 'Address need for production, rehearsal, and performance space at the campus', 'Administer the Municipal Rural Infrastructure Fund in British Columbia', 'Advance BC genomic discoveries through the proof-of-concept stage.', 'Advance genomics technologies in Saskatchewan through industry engagement', 'Aldergrove Athletic Park Recreational Facilities', 'An All Terrain Cabin  to showcase Canadian products to international markets', 'Anmore Renewable Energy Project feasibility study', 'Applied Research and Market Development for green roof / living wall', 'Apply forest management practices to improve forest health and reduce the wildfire threat', 'Aquatic Centre Upgrades', 'Aquire advanced digital media equipment', 'Arctic Canada Gallery - Enhancement of the visitor experience and research infrastructure', 'Assess business climate and develop an action plan to attract and retain investments', 'Assess mountain pine beetle effects on non-timber forest products', 'Assist Alberta Team in Washington Solar Decathlon Competition and 2010 Olympics showcase', 'Assist Junior Achievement BC in developing new marketing campaigns.', 'Assist Kitscoty with upgrades to parks and walkways', 'Assist Phase III construction of the Penhold Regional Multiplex facility', 'Assist building expansion and construction upgrades to Stirling multi-purpose facility', 'Assist entrepreneurs access risk capital from private sources', 'Assist establishment of a new Technology Commercialization Centre and business incubator', 'Assist forest-based communities under the Fire Hazard Reduction and Forest Health Program', 'Assist in building expansion and extensive construction upgrades to the Plainsmen Arena', 'Assist in construction upgrades to the Athabasca Regional Multiplex facility field house', 'Assist in delivering new mobile trades training into rural and First Nations communitie', 'Assist in maintaining, repairing and improving heritage buildings, tractors and equipment', 'Assist in purchase of a microprobe for the Saskatchewan Centre for Advanced Microanalyses', 'Assist in the development of a 10-kilometre pathway through the East Calgary Greenway', 'Assist in the extensive rehabilitation of the Royal Glenora Club', 'Assist manufacturer to obtain Standards Council of Canada Accreditation', 'Assist northern Saskatchewan mining companies in remaining productive', 'Assist roof repairs and replacement of ice-making plant at Plamondon Arena', 'Assist upgrades to the electrical and lighting system in the Vauxhall Recreation Centre', 'Assist with Irma Arena renewal and improvements', 'Assist with community recreation centre upgrades at the Sucker Creek First Nation Reserve', 'Assist with costs related to obtaining Standards Council of Canada accreditation', 'Assist with installation of a permanent outdoor rink at Kinsmen Park', 'Assist with mechanical systems replacement at five recreational facilities in Medicine Hat', 'Assist with renovations and redevelopment of Nisku Park', 'Assist with the completion of renovations to the Boyle Arena', 'Assist with the construction of the Silver Trail walking path', 'Assist with the construction of two new playground structures', 'Assist with the expansion of the Calgary Centennial Arenas', 'Assist with the expansion of the Cardel Place Fitness Centre', 'Assist with the improvements and upgrades to the Leduc Recreation Centre', 'Assist with the rehabilitation of the Village of Clive outdoor arena', 'Assist with the retrofit of Westwinds Dry Pond', 'Assist with the revitalization of the Ellerslie Rugby Park', 'Assist with the upgrade and enhancement of the Applewood Athletic Park', 'Assist with the upgrades of the Dr. Duncan Murray Recreation Centre', 'Assist with upgrades and improvements to Central McDougall Park', 'Assist with upgrades to the Mowat Park and RCMP Park Skating Rinks', 'Assist with upgrades to the town arena and aquatic centre', 'Attain international accreditation to support market access for seafood producers', 'Attract foreign investment and increase exports in the hydrogen and fuel cell sector', 'Attract new incoming buyers to the Western Canadian Farm Progress Show', 'BC-based pilot to develop a new Green Fleet Certification System for vehicle fleets', 'Beneficial Use of Landfill Gas for Greenhouse Operations Feasibility Study', "Branding initiatives of Manitoba's bilingual municipalities", 'Bridging the Generation Divide', 'Build a 52-unit student accommodation facility', 'Build a Discovery Education Centre in Stanley Park', "Build a First Nation's value chain for Hormone/Additive Free Beef produced in BC", 'Build a community-owned and operated multi-purpose theatre/cinema', 'Build a covered outdoor park at Chuck Bailey Recreation Centre', "Build a covered walkway between the Senior's Activity Centre and Community Centre", 'Build a hemp fibre processing plant', 'Build a new theatre facility', 'Build a new washroom facility at Silverton campground', 'Build a recreational vehicle park at Destination Grand Marais', 'Build a smart barge to recover sunken logs in Port Alberni', 'Build and expand tree nurseries and stool beds in Princeton', 'Build and operate a run-of-river hydroelectric facility', 'Build and upgrade recreation facilities in Chilliwack', 'Build capacity for defence procurement in Western Canada', 'Build clinical trial capacity and attract foreign direct investments.', 'Build community skills &amp; capacity to meet demand for cultural &amp; wilderness tourism', 'Build export ready companies in the northern Saskatchewan Aboriginal forestry sector', 'Build out, equip and operate the Okanagan Centre for Innovation (OCI)', 'Build water lines to commercial sub-division', 'Business Plan to revitalize the commercial and heritage district of Maillardville', 'Buy equipment to develop, commercialize and bring to market food industry products', 'Campbell Crescent Light Industrial Design &amp; Engineering', 'Campsite and trail improvement activities', 'CanAssist, Development and Commercialization of Assistive Technologies', 'Canoe Creek Green Hydro Project', 'Capacity-building initiatives to help First Nations use communication technologies', 'Cape Mudge Gymnasium Renovation', 'Capital improvements to the Beban Park Recreation Centre', 'Cariboo-Chilcotin Aboriginal Natural Resource Management Directory', 'Centennial Park redevelopment', 'Centre for Innovation in Ranching, Range and Meat Production Equipment Acquisition', 'Centre for MALDI-based Tissue Imaging', 'Centre for Sport Technology Research and Development Equipment Acquistion and Start Up', 'Clean up three city lots for future development', 'Cleaning campsites, painting and replacing structures, removing and disposing fallen trees', 'Clear fireguards in the community', 'Clearing and maintaining trails', 'Clearing, widening boardwalks and footbridges, adding signage and a kiosk', 'Collaborative industry applied research in wireless propagation and channel modeling', 'Commercialization of the OneStone cloud security service', 'Commercialize CO2 Direct Air Capture Technology', 'Commercialize Lithium Ion Battery &amp; Management System for Marine Use', 'Commercialize Medical Imaging Workflow to Improve Clinical Decisions and Patient Outcomes', "Commercialize RAM's Mid Range Elevator Product", 'Commercialize Test4D, a rapid vitamin D test, in Europe, North and South America', 'Commercialize a RFID Tracking System for Chemical Products', 'Commercialize a Variable Loudspeaker Array System', 'Commercialize a new benchtop Nuclear Magnetic Resonance spectrometer', 'Commercialize a new product line of algae bioreactors for aquaculture and biotech sectors', 'Commercialize a portable molecular diagnostic detection system.', 'Commercialize a product for software development lifecycle decision making', 'Commercialize a technology for accelerating the discovery of antibodies', 'Commercialize an application to support data exploration, visualization and storytelling', 'Commercialize an eco-system of products based on the SensMit Platform', 'Commercialize an emergency management software system for families and organizations', 'Commercialize an injectable connector joint used for pipeline construction', 'Commercialize and scale production of next-generation seismic accelerometer', 'Commercialize camera-based gas and fluid leak detection systems', 'Commercialize clean power generation', 'Commercialize embedded computer vision acceleration solutions', 'Commercialize new fire retardant coating for steel structures', 'Commercialize system for genetic identification of wheat varieties', 'Commercialize technologies that support a sustainable oil and gas industry in the West', 'Commercialize the Electro Separation Cell for the treatment of oil well drilling waste', 'Commercialize the Gryphon Series membrane technology for energy recovery ventilation', 'Commercialize the production of phytochemical extracts', 'Commercialize water management products for business aircraft', 'Commission and construct a monument commemorating the War of 1812', 'Community Forest Sampling and Economic Planning Initiative', 'Community Futures - Rural Economic Diversification Initiative of British Columbia', 'Community skills survey, economic development plan, ecosystem mapping &amp; broadband access', 'Complete Phase 2 of the JEB Community Center revitalization in the RM of Usborne', "Complete Phase Two of the Squamish Lil'wat Aboriginal Cultural Tourism Centre.", 'Complete The Spray Lake Sawmills Family Sports Centre Phase III', 'Complete construction of multi-purpose facility', 'Complete development of analytics and commercialize Neurio home intelligence technology', 'Complete energy efficiency upgrades to the Salmo Valley Youth &amp; Community Centre', 'Complete hazardous tree removal and routine recreation site maintenance to improve safety', 'Complete land assessment,market analysis and feasibility study for industrial park.', 'Complete restoration of the Spirit 2010 Trail Network', "Complete the Chetwynd Women's Resource Centre Market Place", 'Comprehensive feasibility study for "clean" energy opportunities', 'Concession building renovations and soccer field improvements', 'Conduct a cluster study of the Winnipeg capital region', 'Conduct a feasibility study into the need to rehabilitate or to replace Mosaic Stadium', 'Conduct a forest stand release and assessment survey in the Mountain Forest Region', 'Conduct a study for a causeway close to Galena Bay', 'Conduct a study on the economics of heritage building renovation and incentive program', 'Conduct a western Canadian productivity, competitiveness and potential research study', 'Conduct bioenergy feasibility study and value-added wood market analysis.', 'Conduct economic development study to assess effects of mill closure &amp; review options', 'Conduct feasibility study for extraction of compounds from northern trees', 'Conduct field trials to validate yield of slow-release co-granulated fertilizer', 'Conduct physiotherapist assistant training program', 'Conduct shellfish hatchery research to address industry challenges', 'Conduct technology labour survey and report on technology labour requirements in BC', 'Construct  two 4-plex affordable housing units in Thompson for urban Aboriginal students', 'Construct 3.5 km of urban trails to enhance non-motorized transportation in Invermere', 'Construct 4 Canadian Light Source beamlines for industrial and commercial applications', 'Construct 7 Canadian Light Source beamlines for industrial and commercial applications', 'Construct Lawrence Multi-Plex Centre', 'Construct Newton Athletic Park artificial turf field', 'Construct Phase 1 of the Christina Lake Ecological Centre for the Arts', 'Construct Prince Rupert Marina (docks and services infrastructure) at Cow Bay', 'Construct a 3.9 kilometer pedestrian walkway and bike path with wheelchair access', 'Construct a 4,000 square foot addition to the Tofield Arena', 'Construct a 50,000 square foot trade show and exhibition building', 'Construct a basketball court for three schools and community', 'Construct a community athletic track and sportsfield', 'Construct a community recreation facility', 'Construct a community services centre and a civic square', 'Construct a covered soccer training facility', 'Construct a fitness circuit', 'Construct a heliport at the Kootenay Boundary Regional District Hospital', 'Construct a lobby, expand the curling rink and upgrade heating and electrical systems', 'Construct a maintenance shop for grooming equipment and widen Nordic ski trails.', 'Construct a mineral processing pilot plant', 'Construct a mobile heavy equipment operator training simulation lab', 'Construct a multi-purpose activity centre including gymnasium and kitchen', 'Construct a multi-purpose commercial building to meet increased demands of local economy', 'Construct a multi-purpose community centre', 'Construct a multi-purpose room at Acadia Pool', 'Construct a multi-use paved pathway from College Way to Kalamalka Road in Coldstream', 'Construct a natural turf wicket at the Abbotsford Exhibition Park', 'Construct a new Fire Hall and Emergency Services Centre', 'Construct a new community facility', 'Construct a new dairy research facility at the University of Saskatchewan', 'Construct a new pool house', 'Construct a new recycling facility to improve operating efficiency', 'Construct a new sensory evaluation laboratory for BC Wines marked VQA', 'Construct a play structure and climbing wall', 'Construct a public works maintainence shop', 'Construct a recreational park and make improvements to the curling rink', 'Construct a regional First Nations interpretative and cultural centre.', 'Construct a replacement gymnasium/community recreation centre', 'Construct a six-lane asphalt track at Windsor Secondary School Park', 'Construct a sports field complex in Ladysmith', 'Construct a training tower for a Wind Turbine Maintenance Technician Program', 'Construct a water spray park in Golden', 'Construct a waterline to service an industrial park north west of Dauphin.', 'Construct a wood pellet manufacturing plant in Merritt BC', 'Construct a world-class Nordic ski racing venue.', 'Construct addition to expand Sarcan recycling operations', 'Construct additional ball diamonds and regulation soccer field, expand common grounds area', 'Construct additions to the Landmark Rec Center Annex', 'Construct an ice arena in Dease Lake', 'Construct an indoor ice arena', 'Construct an outdoor ice rink', 'Construct an outdoor lacrosse box', 'Construct an outdoor multi-purpose rink and shelters next to the Bruderheim Hockey Arena', 'Construct an outdoor, multi-purpose sports court', 'Construct an urban trail, water-based sport spectator facilities and a water access point.', 'Construct and equip the Enerplus Innovation Centre', 'Construct and expand the Fort Vermilion Community Complex', 'Construct and landscape homes', 'Construct arena dressing rooms', 'Construct baseball diamonds and a soccer field at the Vermillion Park Sportsplex', 'Construct change rooms and splash pool', 'Construct commemorative entrance arches to the Cranbrook City Centre', 'Construct composting site', 'Construct dressing room addition and wheelchair accessible washrooms', 'Construct dressing rooms, upgrade zamboni room, replace lighting, and insulate ceiling', 'Construct football and soccer fields', 'Construct heated spectator viewing area for sports complex.', 'Construct housing for full-time students', 'Construct improvements to the Broad Street pedestrian bridge and trail', 'Construct mobile poultry abattoir for a non-profit Cariboo poultry producers association.', 'Construct new campus with Mining Academy for training and research', 'Construct new facility', 'Construct new facility to house existing and expanded programming', 'Construct new sports fields and upgrade existing field infrastructure', 'Construct new wheelchair accessible washrooms and four new dressing rooms', 'Construct north Lethbridge sports park picnic shelter', 'Construct performance shelter for Burns Lake Spirit Square', 'Construct phase one of the Senkulmen Enterprise Park', 'Construct portable roof structures for outdoor rinks in Anzac, Conklin, Janvier and Saprae', 'Construct river bank recreational trail along floodway', 'Construct road', 'Construct road and bone bed shelter from Pipestone Creek Park to bone site', 'Construct seniors ball diamond', 'Construct shelter', 'Construct skate park for skateboards, BMX and inline skates', 'Construct small hydroelectric plant to support Aboriginal clean energy infrastructure', 'Construct soccer field and running track on existing sports field', 'Construct spray park and playground at Jackie Parker Recreation Area', 'Construct standing seam roof on the Reston Rec Plex', 'Construct ten housing units for Aboriginal families in Winnipeg', 'Construct the Riverdale Community Complex', 'Construct the Sto:lo Resource Centre', 'Construct the Ucluelet Aquarium', 'Construct the Vancouver Island Mountain Centre', 'Construct the Vancouver Island and Coast Discovery Centre', 'Construct three Canadian Light Source beamlines for industrial and commercial applications', 'Construct tourist visitor facilities at the Ladysmith Community Marina', 'Construct two new locker rooms', 'Construct two soccer fields in 100 Mile House', 'Construct walkways and lighting in recreational park', 'Construction of the Alexis Creek Tourism Information Centre.', 'Contribute to the establishment of a Global Business Centre in Calgary, Alberta', 'Convert Pemberton Train Station into a community, tourism &amp; transportation hub', 'Convert the decommissioned water treatment plant into a community activity centre', 'Coordinate and conduct a British Columbia Aboriginal Strategy', 'Coordinate and manage invasive plants on public lands in the East Kootenay area', 'Coordinate two forest fire salvage programs in Pelican Narrows', 'Coordination and implementation of the PGAA air cargo and fuel stop marketing plan', 'Create 50 undergraduate internships at BC universities through MITACS Globalink', 'Create Destination Horse Camps and a Trail Guide', 'Create First User Program to promote the synchrotron facility to industrial users', 'Create a BC cranberry research centre', 'Create a Brandon business incubator', 'Create a campground/picnic facility and boat launch with dock', 'Create a community controlled trust fund for economic initiatives.', 'Create a hydrogen and CNG certification field testing site for the automotive industry', 'Create a interaction testing lab to enhance productivity in the manufacturing sector', 'Create a microbiome centre to test therapies, disease resistance methods and remediation', 'Create a waste oil to diesel fuel recycling plant', 'Create access routes to the Tsay Keh Dene Band', 'Create an International Policy Program at the University of Calgary', 'Create an eco-friendly botanical garden', 'Create and operate the BC Industrial Marine Training and Applied Research Centre', 'Create employment for information technology staff to support Aboriginal organizations', 'Create export development program for incoming buyers at Western Farm Progress Show', 'Create jobs in wood processing', 'Create three new positions and a new tourism building', 'Create workshops for Francophones on procurement opportunities related to 2010 Olympics', 'Creation of an Alberta International Business Partnering Program', 'Creation of the International Performance Assessment Centre for storage of carbon dioxide', 'Deliver Aboriginal Business Service Network project', 'Deliver Job Horizons II Bridging to Employment Initiative', 'Deliver Linx business services to create/grow technology entrepreneurs &amp; companies', 'Deliver Linx business services to create/grow technology entrepreneurs and companies.', 'Deliver Local Government Authority Certificate Program', 'Deliver Mid-Island Science, Technology and Innovation Council Linx Programs', 'Deliver a 3-year Francophone business building initiative to highlight entrepreneurship', 'Deliver a training program for hospitality workers', 'Deliver an Aboriginal and Small Business Leadership Program in rural communities.', 'Deliver an export market diversification and incoming buyers program', 'Deliver an interprovincial summer camp for young French-speaking entrepreneurs', 'Deliver business development training and services to Aboriginal people in Saskatchewan', 'Deliver chemical technology diploma training', 'Deliver drill rig training program in Northern Saskatchewan', 'Deliver drilling rig training program in northern Saskatchewan', 'Deliver eight skills training programs in northern Saskatchewan', 'Deliver heavy equipment operator training', 'Deliver management studies certificate program', 'Deliver projects approved for the Municipal Rural Infrastructure Fund in British Columbia', 'Deliver repayable Community Adjustment Fund loans to business in the NDIT region of BC', 'Deliver skills training to support employment opportunities for heavy equipment operators', 'Deliver summer camp for young French-speaking entrepreneurs', 'Deliver technology transfer support to Saskatchewan forest sector', 'Deliver the  Entrepreneurs with Disabilities Program', 'Deliver the Aboriginal Business Service Network Program', 'Deliver the Aboriginal Teacher Assistant Intern project', 'Deliver the Advanced Manufacturing Initiative Program - Competitive Renewal Phase', 'Deliver the BC Economic Innovation Partnership Program', 'Deliver the Entrepreneurs with Disabilities  Program', 'Deliver the Entrepreneurs with Disabilities Program', 'Deliver the Global Expansion Pilot Program for wireless SMEs', 'Deliver tourism industry training program in northern Saskatchewan', 'Deliver trade advisory service programs for new and existing exporters', 'Deliver trades training in northern and rural Manitoba through Mobile Training Labs', 'Deliver training for Continuing Care Assistant certificate program', 'Deliver training for drilling rig workers', 'Deliver training for heavy equipment operators', 'Deliver training to Aboriginal economic development officers in northern Saskatchewan', 'Deliver workshops to First Nations on agroforestry opportunities', 'Deliver workshops to First Nations on biomass energy industries opportunities', 'Deliver workshops to build skills in international trade for Saskatchewan businesses', 'Demonstrate a biomass fueled district heating system in an urban location', 'Demonstrate combined heat and power generation plant using biomass.', 'Demonstrate desalination and water reuse technologies in the oil, gas, mining sectors', 'Demonstrate image guided surgicial technology at the University of Calgary', 'Design and commercialize software for designing electronic chips in mobile devices', 'Design and construct a lighted synthetic turf field at Willoughby Community Park', 'Design and construct a mobile abattoir for the Boundary region', 'Design and construct park features at Riverfront Park in River Landing Phase I', 'Design upgrades and enhancements to commercial areas in Quesnel', 'Design, build and install a skateboard and bike park', 'Design, build and sea test a hybrid marine diesel-hydrogen fuel cell electric power system', 'Design, construct and equip a 781 square-meter trades training facility', 'Determine the feasibility of a bio-energy plant and power transmission line upgrade', 'Determine the need and capacity for kilns to be built in British Columbia communities', 'Develop &amp; host a SIBAC website. Create DVD/print MPB knowledge transfer pieces for public.', 'Develop Aboriginal youth training and education program for housing renovations', 'Develop Alternative Energy Study and Strategy for Chi-ihl-kwa-uhk Tribe', 'Develop Asia-Pacific market opportunities for Western Canadian Food Processors', 'Develop Business Attraction and Retention Tools and Materials for GVDA', 'Develop Business Park', 'Develop Community Centre', "Develop First Nations shellfish aquaculture industry along BC's north and central coasts", 'Develop French  on-line courses for distance education', 'Develop French course content for distance learning', 'Develop Gimli Skatepark', 'Develop Heritage Park and Community Gardens', 'Develop Heritage Tourism products focusing on Hope to Barkerville corridor.', 'Develop Institute for Accelerator-based Medical Isotopes (IAMI)', 'Develop Interior Regional Component of the Linx Initiative', 'Develop Kootenay Regional Component of Linx Initiative', 'Develop Legacy Park', 'Develop Metis historical sites and employment opportunities for Batoche area', 'Develop North-Central Regional Component of the Linx Initiative', 'Develop Northwest Regional Component of the Linx Probrams', 'Develop P3 business plan for a national maritime centre for the Pacific and Arctic.', 'Develop Pan-Western genomic networks', 'Develop Pan-western marketing and international tourism recovery plan for 2008.', 'Develop Peace-Liard Regional Component of the Linx Initiative', 'Develop Phase II of Retail PEAK Training Program', 'Develop Project Independence video game for the mobile devices market', 'Develop Regina City Square', 'Develop Regional Approach to Marketing Greater Vancouver', 'Develop West Kootenay-Boundary Regional Component of the Linx Initiative', 'Develop a BC wine identity for growth in international markets', 'Develop a Centre of Excellence for Regenerative Medicine at the University of Manitoba', 'Develop a Chemistry Centre of Excellence at the University of Manitoba', 'Develop a First Nations Economic Development Online Resource Portal', 'Develop a High Performance Computing Facility', 'Develop a History Park to promote the communities tourist attractions and history', 'Develop a Log Sourcing and Value-Added Marketing Plan', 'Develop a Regional Economic Diversification Strategy and Engagement Plan.', 'Develop a bio-energy cluster and related research facilities', 'Develop a business case for a forest bio-refinery demonstration facility', 'Develop a business plan for the Battlefords Yellowhead Heritage Park', 'Develop a business plan for the Central Manitoba Railway line for eastern Manitoba', 'Develop a cancer treatment using a synthetic antibody platform', 'Develop a courtyard at Riverside Lions Housing in Winnipeg', 'Develop a cultural tourism program and implementation plan', "Develop a five-day academy to expand grassroots women's particiation in World Urban Forum", 'Develop a heavy duty operators program in Saskatoon', 'Develop a joint manufacturing training facility at Red River College', 'Develop a linear park with fitness trails', 'Develop a mining materials research centre focused on corrosion reduction issues', 'Develop a new 20,000 square ft factory', 'Develop a new platform and business system for online speech therapy delivery', 'Develop a northeast BC Aboriginal cultural employment strategy', 'Develop a plan to address skills shortages in province of British Columbia.', 'Develop a program to attract and engage foreign investment during the 2010 Olympics', 'Develop a training and co-location centre for Manitoba Sector Training Network members', 'Develop a web-based database of Alberta aerospace, defence and civil aviation companies', 'Develop advanced image processing technology', 'Develop an Economic Development Support Team to support First Nations', 'Develop an alternative fuel and vehicle performance facility.', 'Develop an alternative to antibiotics for commercial poultry operations', 'Develop an economic incubation model in the Saskatoon-Whitecap-MidSask region', 'Develop an electric microgrid testbed at the British Columbia Institute of Technology', 'Develop an instrumentation engineering training program to support resource industries', 'Develop and Commercialize the OS CADDIE software platform', 'Develop and commercialize a communication system for military and police K-9 units', 'Develop and commercialize a non-stretch CleanPatch to restore damaged medical surfaces', 'Develop and commercialize a real-time wireless running monitor', 'Develop and commercialize a wireless network assessment tool for service providers', 'Develop and commercialize an advanced composite chassis for window and door products', 'Develop and commercialize anomaly detection software.', 'Develop and commercialize biologic molecular imaging agents for disease detection', 'Develop and commercialize energy efficient building envelopes for residential homes', 'Develop and commercialize new technologies to improve data transmission speed and security', 'Develop and commercialize software and digital simulation hand tools', 'Develop and deliver Entrepreneurial School to high-growth, early-stage companies in 2006.', 'Develop and deliver a Postbaccalaureat Diploma on Inclusive Education on-line', 'Develop and demonstrate a CO2 capture pilot plant to enhance heavy oil extraction', 'Develop and demonstrate the Public Safety Interoperability Platform technology', 'Develop and establish pan-western networks to engage emerging genomics industries', 'Develop and expand the Berger Peat Moss plant', 'Develop and implement a marketing strategy to attract businesses to facility', 'Develop and implement a regional trades, technology and busin</t>
         </is>
@@ -719,7 +733,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -782,12 +796,15 @@
         <v>649</v>
       </c>
       <c r="U5" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="V5" t="n">
         <v>303526</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>2661</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['Accelerer le recours a la genomique pour accroitre la competitivite dans les secteurs des ressources naturelles de la C.-B.', "Acces a Internet haute vitesse pour les residants du Nord de l'ile de Vancouver.", 'Accorder des prets remboursables du FAC aux entrepreneurs dans la region de la C.-B. desservie par le NDIT', 'Accorder du financement pour mettre davantage en valeur le potentiel de la region', 'Accroissement des retombees regionales creees par le secteur des croisieres de la Colombie-Britannique', "Accroitre l'acces des femmes a la formation preapprentissage par l'amelioration des immobilisations", "Accroitre l'accessibilite au deuxieme etage du club de curling Assiniboine", "Accroitre l'engagement de la communaute, des parents et des personnes agees pour deux ecoles du centre-ville", "Accroitre l'utilisation des produits du bois a valeur ajoutee sur le marche canadien de la construction non domiciliaire", 'Accroitre la capacite a fournir des services de developpement de produits touristiques', 'Accroitre la capacite de servir', 'Accroitre la capacite de vente et de marketing en ligne pour des attractions du patrimoine', "Accroitre la diversification et l'innovation du secteur de la transformation du bois a valeur ajoutee de la Colombie-Britannique", "Accroitre la presence d'entreprises petrolieres et gazieres canadiennes au Kazakhstan", "Accroitre la presence de l'Ouest canadien a des evenements internationaux lies a l'approvisionnement en matiere de defense", "Accroitre la production de coniferes d'avenir en enlevant les debris", "Accroitre la productivite des entreprises en mettant sur pied un incubateur d'entreprises itinerant", "Accroitre la visibilite des possibilites touristiques et les commercialiser a l'etranger", 'Accroitre le contenu du centre de documentation francophone', "Accroitre les capacites et les possibilites d'exportation des cultivateurs de cereales biologiques de l'Ouest", "Accroitre les possibilites d'emplois et les industries a Waskada et dans la region", "Achat  d'ordinateurs portables pour les laboratoires de langue crie dans les ecoles primaires", "Achat d'equipement d'imagerie biomedicale et de biocapteurs pour une installation de bio-ingenierie", "Achat d'equipement de formation dans les metiers pour des programmes de formation itinerants", "Achat d'equipement de recherche sur les materiaux composites pour l'Universite du Manitoba", "Achat d'equipement de resonance magnetique nucleaire pour l 'Universite de Thompson Rivers", "Achat d'equipement et demarrage d'un centre de recherche et developpement de technologies sportives", "Achat d'equipement mobile pour le programme de formation en conduite de machinerie lourde", "Achat d'equipement pour appuyer le centre d'excellence de la presse ecrite au College Norquest", "Achat d'equipement pour etendre le programme d'operatrice d'equipement lourd", "Achat d'equipement pour l'Alberta Water and Environmental Sciences Building", "Achat d'equipement pour l'etablissement d'un centre d'excellence en stereoscopie 3D", "Achat d'equipement pour la creation de nouveaux produits alimentaires qui pourront ensuite etre commercialises", "Achat d'equipement pour la mise a l'essai d'antennes pour des projets de recherche appliquee et de collaboration industrielle", "Achat d'equipement pour le Centre for Innovation in Ranching , Range and Meat Production", "Achat d'equipement pour le Centre national du betail et de l 'environnement", "Achat d'equipement pour le programme d'ingenierie des systemes mecatroniques", "Achat d'equipement pour les videoconferences en vue d'ameliorer l'acces aux services pour la clientele.", "Achat d'equipement pour offrir des cours dans de multiples metiers et en soudage dans des collectivites rurales de la Sask.", "Achat d'equipement specialise de micro et nano technologie", "Achat d'instruments d'analyse et de mesure utilises pour la recherche sur les produits agro-alimentaires", "Achat d'un routeur numerique commande par ordinateur pour l'industrie de transformation du bois", "Achat d'une installation pour l'Aboriginal Friendship Centre of Calgary", "Achat du Elk's Hall pour en faire un bureau de rechange pour le personnel regional et local", "Achat et installation d'equipement pour l'agrandissement d'installations de moulage de la moutarde seche", "Achat et installation d'un equipement de sequencage d'ADN et d'une installation de nanofabrication", "Acheter de l'equipement avance de distillation a court trajet pour offrir des services aux clients de l'Ouest", "Acheter de l'equipement d'extraction et de concentration pour faire croitre l'industrie des fruits et legumes", "Acheter de l'equipement d'imagerie satellitaire.", "Acheter de l'equipement de formation pour ameliorer la productivite de l'industrie de la potasse en Saskatchewan", "Acheter de l'equipement de formation professionnelle pour repondre a la demande elevee de main-d'oeuvre locale", "Acheter de l'equipement de mise a l'essai aerospatial pour accroitre la capacite actuelle", "Acheter de l'equipement de production pour ameliorer les systemes sans pilote du S.-E. de l'Alberta", "Acheter de l'equipement pour accroitre les capacites d'une installation regionale de sante animale et d'analyse d'aliments", "Acheter de l'equipement pour aider l'industrie a elaborer des produits de micro et de nanotechnologie", "Acheter de l'equipement pour aider les jeunes et les travailleurs a acquerir des competences recherchees dans les metiers", "Acheter de l'equipement pour ameliorer la capacite liee aux tests sur l'orge et aux marches d'exportation", "Acheter de l'equipement pour ameliorer les competences des electromecaniciens et des mecaniciens industriels", "Acheter de l'equipement pour ameliorer les services d'analyse offerts au centre de microanalyse avancee", "Acheter de l'equipement pour appuyer la creation de nouvelles varietes de soya et de mais", "Acheter de l'equipement pour developper et commercialiser des technologies d'immunotherapie", "Acheter de l'equipement pour fournir des solutions a la contamination environnementale des sables bitumineux", "Acheter de l'equipement pour le Bioscience Applied Research Centre dans le but d'aider a creer de nouveaux produits", "Acheter de l'equipement pour offrir de nouveaux services de bioextraction a l'industrie", "Acheter de l'equipement pour soutenir le programme d'operateurs d'equipement lourd du College Portage", "Acheter de l'equipement pour tester des technologies de capteurs pour le stockage souterrain du CO2", "Acheter de l'equipement pour valider de nouveaux produits derives des proteines de cereale et de la cellulose", "Acheter de l'equipement specialise de formation en traitement du petrole lourd pour un programme de Lloydminster", "Acheter de l'equipement specialise pour ameliorer les services de laboratoire de l'Association canadienne de normalisation", "Acheter de l'equipement specialise pour former des techniciens en genie minier", "Acheter de l'equipement specialise pour le Centre de toxicologie agrandi.", "Acheter des composantes cles de materiel de recuperation de solvants pour ameliorer l'industrie de l'extraction biologique", "Acheter des ensembles de logiciels pour une formation en simulateur axee sur l'utilisation de l'equipement lourd de construction", "Acheter des systemes de controle de la qualite de l'air pour le sud-est et le centre-ouest de la Saskatchewan", "Acheter du materiel de d'imagerie cerebrale pour mettre au point des outils de traitement de la maladie d'Alzheimer", 'Acheter du materiel de formation dans les domaines aerospatial et de la marine et ameliorer la technologie', 'Acheter du materiel de science alimentaire pour des essais et des demonstrations au College Red River', 'Acheter du materiel de triage des semences pour de la recherche visant a accroitre la valeur des cereales', 'Acheter du materiel pour soutenir la mise au point de systemes de vehicules aeriens telepilotes commerciaux', "Acheter et installer un deshumidificateur dans l'arena d'Ashcroft", "Acheter et mettre en place de l'equipement pour un centre de classification des fibres agricoles", "Acheter les pieces d'equipement principales pour ameliorer les capacites de la Saskatchewan dans la transformation des aliments", 'Acheter un equipement de transformation des fruits pour le centre alimentaire de la Saskatchewan', "Acheter un simulateur pour l'appareil King Air afin de former des pilotes dans l'Ouest canadien", "Acheter une remorque mobile et de l'equipement pour elargir la formation professionnelle dans le Nord-Ouest de la C.-B.", 'Acquerir cinq sequenceurs genomiques de prochaine generation et etablir des relations avec le milieu des affaires', "Acquerir de l'equipement de formation en robotique pour augmenter la productivite du secteur de l'aerospatiale", "Acquerir de l'equipement de simulation pour la formation dans le secteur minier", "Acquerir de l'equipement de technologie des bioproduits et de commercialisation connexe", "Acquerir de l'equipement pour aider au developpement de revetements nanometriques durables", "Acquerir de l'equipement pour ameliorer la capacite d'elaboration de produits micro et nanotechnologiques", "Acquerir de l'equipement pour la formation axee sur les competences en vue d'ameliorer la productivite du secteur agricole", 'Acquerir des simulateurs de chariot de transport pour former de nouveaux travailleurs dans le secteur minier', "Acquerir des simulateurs pour former des travailleurs autochtones du secteur de l'energie et minier du nord-ouest de la C.-B.", "Acquerir et faire fonctionner de l'equipement pour le programme InSEAS de l'Universite de la Colombie-Britannique", "Acquerir un cyclotron pour produire les isotopes necessaires a l'imagerie medicale", 'Acquerir un spectometre de masse et un dispositif visant la decouverte de biomarqueurs pour la recherche proteomique', "Acquisition d'equipement de chromatographie liquide couplee a la spectroscopie de masse", "Acquisition d'equipement de pointe pour les medias numeriques", "Acquisition d'equipement pour les laboratoires de la Faculte des sciences et des communications multimedias", "Acquisition d'equipement qui favorise la recherche et le developpement en glycobiologie", "Acquisition d'un microscope Raman pour soutenir le developpement industriel et la recherche", "Acquisition d'un systeme de lithographie par faisceaux d'electrons pour appuyer la recherche appliquee en nanotechnologie", "Acquisition d'une console de mise a niveau pour le spectrometre a resonance magnetique nucleaire pour le departement de chimie", "Acquisition d'une installation pour accueillir les services et les programmes de soutien du Centre", 'Acquisition de nouvel equipement professionnel pour le centre de formation dans les metiers agrandi de Nelson, en C.-B.', "Acquisition de technologie numerique pour la production de film et mise sur pied d'un programme de formation en ligne", 'Acquisition de technologies de cartographie terrestre aerienne et hydroacoustiques pour le perfectionnement des competences', "Acquisition de technologies de sequencage de l'ADN et de l'infrastructure technique connexe", "Acquisition et essai d'equipement d'imagerie thermale en vue de concevoir des applications commerciales", "Acquisition et installation d'equipement specialise de commercialisation de la technologie", "Acquisition et installation d'equipement specialise pour les installations de formation dans les metiers", "Acquisition et mise en marche d'un lanceur pneumatique pour tester et evaluer des vehicules telepilotes aeriens", 'Activites de commercialisation de la technologie et de sensibilisation', 'Activites de developpement du leadership pour favoriser la participation des jeunes femmes au Forum urbain mondial de 2006', "Activites de gestion forestiere, notamment l'espacement d'arbres", "Activites de gestion forestiere, notamment l'espacement et l'enlevement d'arbres", "Activites de gestion forestiere, notamment l'optimisation de la composition des especes", 'Activites de la deuxieme annee du programme de commercialisation du tourisme culturel', "Activites de marketing et construction d'un centre de services de renseignements pour les visiteurs", 'Activites visant a reduire les risques de feux de friche', "Administration du Fonds sur l'infrastructure municipale rurale.", 'Adoption et commercialisation des technologies chez Ocean Networks Canada', 'Agrandir de 1 200 pieds carres le gymnase de Canim Lake', 'Agrandir et ameliorer le club de gymnastique Airdrie Edge', "Agrandir et ameliorer les quais de la Hospital Bay et l'infrastructure d'amarrage de bateaux", 'Agrandir et moderniser le port de Westview South', "Agrandir et renover l'arena", 'Agrandir et renover la cuisine du Gretna Prairie Centre', "Agrandir l'arena Ste. Agathe Centennial a Ste. Agathe", "Agrandir l'edifice pour les activites de recyclage du papier", "Agrandir l'etang de patinage et ameliorer l'aire de jeux pour enfants", "Agrandir l'usine de fabrication PhiBer", "Agrandir la cuisine du Centre communautaire de Cook's Creek a Dugald", 'Agrandir la patinoire exterieure et construire un abri leger', "Agrandir la piste Grand Trunk au parc Beaudry d'Headingley", 'Agrandir la piste de curling et la salle de quilles', "Agrandir la salle d'escalade de Boulders", 'Agrandir le Pipe Flow Technology Centre pour traiter les matieres petrolieres et gazieres volatiles', 'Agrandir le Regina City Square', 'Agrandir le Sportsplex Adidas a Penticton', "Agrandir le batiment d'entretien de l'aire des jets d'eau au parc Hespeler de Niverville", 'Agrandir le centre communautaire Hamilton', 'Agrandir le centre communautaire de Linden Woods', "Agrandir le centre d'activites des aines de 55 ans et plus Juan de Fuca", "Agrandir le centre d'activites physiques du district de Kent", 'Agrandir le centre de loisirs Ladner', 'Agrandir le centre de sante et de mise en forme du YWCA de Vancouver', 'Agrandir le champ de tir municipal et ameliorer le couloir de tir couvert', "Agrandir le club communautaire d'Anola", "Agrandir le hangar a bateaux d'Elk Lake", "Agrandir le parc de planche a roulettes d'Ucluelet", 'Agrandir le parc recreatif multifonctionnel', 'Agrandir le reseau de sentiers du parc Rotary de Whitecourt', 'Agrandir le terrain de camping et ameliorer les equipements au parc communautaire Zama', 'Agrandir le terrain de camping, renover les toilettes et les douches, et moderniser le systeme electrique', "Agrandissement de l'aeroport de Cranbrook", "Agrandissement du Cedar City Museum et du centre d'accueil des visiteurs", 'Agrandissement du Family Y de Kelowna', "Agrandissement du centre de tennis de l'Universite de la Colombie-Britannique", "Aide pour les couts d'exploitation d'un bureau de liaison de l'industrie de la prospection de diamants", 'Aider Junior Achievement BC dans la creation de nouvelles campagnes de promotion', "Aider SUCCESS dans ses efforts pour faciliter l'acces des ex portateurs aux marches asiatiques", 'Aider TRLabs a mettre en oeuvre une nouvelle strategie de commercialisation de la technologie', "Aider a completer les renovations a l'arena de Boyle", 'Aider a la construction de deux structures de terrain de jeux', "Aider a la creation d'un programme de formation professionnelle en sciences minerales pour le Nord", "Aider a la realisation du deuxieme volet de l'initiative Selling Winnipeg to the World", 'Aider a la remise en etat du bassin de retention des eaux pluviales de Westwinds', 'Aider a la renovation et au reamenagement du parc Nisku', "Aider a regler les couts d'obtention d'un agrement du Conseil canadien des normes", "Aider au developpement d'une grappe d'entreprises specialisees dans la fabrication de composites avances au Manitoba", "Aider l'industrie de l'aerospatiale de l'Ouest canadien a acceder aux chaines d'approvisionnement mondiales", 'Aider les collectivites forestieres dans le cadre du Hazard Reduction and Forest Health Program', 'Aider les entrepreneurs a obtenir du capital de risque provenant de sources privees.', "Aider les entreprises du secteur de l'energie propre a explorer des possibilites commerciales", 'Aider les manufacturiers a obtenir une accreditation du Conseil canadien des normes', 'Aider les pecheurs et les piegeurs qui ont subi des dommages attribuables aux inondations', 'Aider les petites et moyennes entreprises a obtenir du capital du croissance du secteur prive', 'Aider les societes minieres de la Saskatchewan a rester productives', "Ajout de vehicules sous-marins autonomes et  d'un reseau acoustique (5 noeuds) au banc d'essai des technologies oceaniques", "Ajouter des vestiaires, renover la salle de rangement de la zamboni, changer l'eclairage et isoler le plafond", 'Ajouter un vestiaire et amenager des toilettes adaptees aux fauteuils roulants', "Allonger les sentiers de l'aire recreative de Pidherny a Prince George", "Allouer un financement d'exploitation au Centre canadien de rayonnement synchrotron", "Amelioration d'une installation de resonance magnetique nucleaire", 'Amelioration de quatre terrains de sports au Centre de soccer Subway', 'Amelioration des initiatives de marketing et des services bilingues pour les visiteurs', 'Amelioration du sentier du Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Amelioration et commercialisation des sentiers recreatifs existants', "Ameliorations au centre de formation dans les metiers de Kitimat pour la prestation de programmes dans le secteur de l'energie", 'Ameliorations au parc Glenmore (terrain Ed Anderson) et au terrain de sports Rick Genest', 'Ameliorations au site du terrain de camping du Stampede', 'Ameliorations au terrain de camping et amenagement de nouveaux emplacements', 'Ameliorations au terrain de sports des Premieres nations entant que projet de celebration du centenaire', "Ameliorations aux patinoires, remplacement des clotures et construction d'un batiment d'entretien", "Ameliorer 2 kilometres de sentiers et reduire les risques de feux de friche par l'elimination des debris", 'Ameliorer et agrandir le Cedar Heights Community Centre de Blind Bay', 'Ameliorer et agrandir le camp pour les jeunes de Nordegg', 'Ameliorer et completer les principaux liens du reseau de sentiers', 'Ameliorer et elargir la formation mobile et sur place du Aboriginal Gateway Training Centre', 'Ameliorer et remettre en etat le Fraser River Heritage Park de MIssion', "Ameliorer l'Agriplex de Winfield", "Ameliorer l'acces a une formation professionnelle pour les femmes dans l'industrie de la construction", "Ameliorer l'acces au Creekside Community Park a Fruitvale", "Ameliorer l'acces au batiment ou sont offerts des cours de formation en francais", "Ameliorer l'acces au capital pour les entrepreneurs ruraux et les PME", "Ameliorer l'acces au centre communautaire et a la bibliotheque de Valhalla", "Ameliorer l'acces des travailleurs qualifies a l'industrie en achetant des simulateurs d'equipement lourd", "Ameliorer l'acces en fauteuil roulant a l'arena et remplacer la plomberie, les portes et les revetements de sol", "Ameliorer l'accessibilite a la cantine de la filiale no 298 des anciens combattants des Forces armees, maritimes et aeriennes", "Ameliorer l'accessibilite du Centre communautaire Silver Springs a Calgary", "Ameliorer l'accessibilite du Delta Sport Development Centre", "Ameliorer l'accessibilite du centre aquatique, des parcs et du centre pour personnes agees de Kitimat", "Ameliorer l'accessibilite du centre de loisirs de Logan Lake", "Ameliorer l'aeroparc regional de Hope et quatre autres parcs regionaux", "Ameliorer l'aeroport regional Trail", "Ameliorer l'aire d'accueil et le systeme d'eclairage au centre de loisirs Strathcona Gardens", "Ameliorer l'aire de jeu du stade Hammond de Maple Ridge", "Ameliorer l'arena Alexandra de Leduc", "Ameliorer l'arena Bill Thomson de Hinton", "Ameliorer l'arena East Calgary Twin de Calgary", "Ameliorer l'arena Garson", "Ameliorer l'arena Max McLean de Camrose", "Ameliorer l'arena Oceanside Place a Parksville", "Ameliorer l'arena d'Evansburg", "Ameliorer l'arena de Kaslo", "Ameliorer l'arena de Saint-Malo", "Ameliorer l'arena de curling de Coaldale, en Alberta", "Ameliorer l'arena de la municipalite de Dinsmore", "Ameliorer l'arena de la municipalite de Kindersley", "Ameliorer l'arena de la municipalite de Rouleau", "Ameliorer l'arena et la grange de la Fort Macleod Agricultural Society", "Ameliorer l'arena et le terrain de jeux a Redcliff", "Ameliorer l'eclairage dans le centre des congres TELUS de Calgary", "Ameliorer l'efficacite energetique de l'arena de St. Walburg", "Ameliorer l'efficacite energetique du Vibank Community Heritage Centre", "Ameliorer l'efficacite energetique du centre de developpement de l'enfant de Quesnel", "Ameliorer l'efficacite energetique et l'accessibilite de la Palliser Regional Library", "Ameliorer l'efficacite energetique et l'accessibilite du camp dans le hameau de Arlington Beach", "Ameliorer l'entree et le refroidisseur de l'arena de la municipalite de Frontier", "Ameliorer l'equipement de jeu de la garderie communautaire de Canmore", "Ameliorer l'espace de loisir du lac Chickakoo du comte de Parkland", "Ameliorer l'infrastructure du camp He Ho Ha a Seba Beach", "Ameliorer l'infrastructure du savoir de 4D Labs pour stimuler la R-D appliquee et la commercialisation", "Ameliorer l'infrastructure du terrain de sports", "Ameliorer l'installation recreative multifonctionnelle", "Ameliorer l'interieur du batiment de la Legion a Winfield", "Ameliorer l'interieur du centre culturel et recreatif du quartier East End de Winnipeg", "Ameliorer l'isolation de la piste de curling et faciliter l'acces en fauteuil roulant aux toilettes de l'arena", 'Ameliorer la batiment du Pincher Creek Curling Club', "Ameliorer la bibliotheque d'Ocean Park a Surrey", 'Ameliorer la bibliotheque de Cloverdale', 'Ameliorer la bibliotheque publique de Pender Island', 'Ameliorer la bibliotheque publique de Spruce Grove', 'Ameliorer la bibliotheque publique de Stettler et de son stationnement', "Ameliorer la capture de mouvement stereoscopique en 3D et l'equipement auxiliaire et ameliorer l'acces pour l'industrie", 'Ameliorer la caserne de pompiers de Teepee Creek', 'Ameliorer la caserne de pompiers de la municipalite rurale de  Ponass Lake no 367', 'Ameliorer la competitivite du secteur des maisons en rondins et a ossature en bois pour favoriser la croissance du marche', 'Ameliorer la croissance de la foret vierge et faciliter le deplacement de la faune en enlevant les debris', 'Ameliorer la cuisine communautaire de Vanderhoof', 'Ameliorer la digue du port de Lake Country', "Ameliorer la formation de conducteur d'equipement lourd pour les Autochtones dans le Nord de l'Alberta", 'Ameliorer la gestion energetique et des structures au centre communautaire Steveston', 'Ameliorer la jetee de White Rock', 'Ameliorer la maison des jeunes de Cochrane', 'Ameliorer la passerelle de la digue a Ogden Point', 'Ameliorer la patinoire', 'Ameliorer la patinoire du Gibsons &amp; Area Community Centre', 'Ameliorer la patinoire exterieure', 'Ameliorer la piscine Alexandra de Leduc', 'Ameliorer la piscine St. James Assiniboia Centennial Pool', 'Ameliorer la piscine de Minton', "Ameliorer la piscine de la municipalite d'Unity", 'Ameliorer la piscine exterieure de Stony Plain', "Ameliorer la piste communautaire de l'ecole secondaire Correlieu de Quesnel", 'Ameliorer la piste de course exterieure et les terrains de football et de soccer', 'Ameliorer la piste de curling et la patinoire de hockey de Mallaig', 'Ameliorer la piste du stade Mercer', 'Ameliorer la place Hudson de Churchill', 'Ameliorer la plage et le terrain de jeux du village touristique de Thode', 'Ameliorer la productivite et la competitivite des petites et moyennes entreprises', "Ameliorer la recherche dans l'extraction et le traitement des derives de l'industrie des sables bitumineux", "Ameliorer la route d'acces, les douches, la buanderie et le terrain de camping du Lake Charron Regional Park", "Ameliorer la salle communautaire, l'ecole et le parc Kingfisher d'Enderby", 'Ameliorer la salle de concert centenaire P.W. Enns, y compris les systemes de chauffage et de climatisation', 'Ameliorer la salle de formation de la Croix-Rouge a Kelowna', "Ameliorer la securite de l'approvisionnement en eau a Port Alice", "Ameliorer la securite des automobilistes par le retrait d'arbres dangereux le long de l'autoroute 37", "Ameliorer la securite des automobilistes par le retrait d'arbres le long d'un troncon de route de 143 kilometres", 'Ameliorer la securite des automobilistes par le retrait des arbres dangereux', "Ameliorer la securite des automobilistes sur un troncon d'autoroute de 90 kilometres en enlevant les debris", "Ameliorer la securite et l'entretien du sentier historique Yukon Telegraph", "Ameliorer la securite et l'usage de sentiers communautaires en enlevant les debris", "Ameliorer la securite, l'entreposage, le terrain de jeu et les ventilateurs d'extraction du Red River Community Centre", "Ameliorer la station d'epuration des eaux  et le centre communautaire de la Tl'azt'en Nation a Tachie", "Ameliorer la station d'epuration des eaux de la municipalite de Neudorf", "Ameliorer la structure de jeux a l'ecole Victor H. L. Wyatt", 'Ameliorer la succursale du centre-ville de la Bibliotheque publique de Red Deer', "Ameliorer la voie de tramway situe sur le pont en contre-haut d'Edmonton", 'Ameliorer la zone de ski de randonnee Hankin-Evelyn', 'Ameliorer le Alliance Community Multiplex', 'Ameliorer le Bold Centre de Lac La Biche', 'Ameliorer le Calgary Jewish Centre', 'Ameliorer le Cardel Place de Calgary', "Ameliorer le Centre des sciences de l'ITCB pour favoriser la recherche-developpement appliquee et les produits commercialises", 'Ameliorer le Charters River Salmon Interpretive Centre de Sooke', 'Ameliorer le Chinese Cultural Centre of Greater Vancouver', 'Ameliorer le Credit Union iPlex a Swift Current', 'Ameliorer le Crescent Heights Community Hall de Calgary', "Ameliorer le D.A. Mackenzie Aquatic Centre de la municipalite d'Esterhazy", 'Ameliorer le Fort Heritage Precinct a Fort Saskatchewan', 'Ameliorer le Jasper Park Community Centre a Edmonton', "Ameliorer le Musee de l'aerospatiale de Calgary", "Ameliorer le Northgate Lions Seniors Recreation Centre d'Edmonton", "Ameliorer le Pedway Mini Park d'Edmonton", "Ameliorer le Rio Terrace Community Centre d'Edmonton", 'Ameliorer le Robin Hood Learning Centre de Sherwood Park', 'Ameliorer le Seymour River Hatchery and Education Centre de North Vancouver', 'Ameliorer le Thorncliffe Greenview Community Centre de Calgary', 'Ameliorer le Westview-Westwood Community Park de Fort McMurray', 'Ameliorer le Windermere Community Hall', 'Ameliorer le YMCA Eau Claire de Calgary', 'Ameliorer le YMCA de la ville de Regina', 'Ameliorer le YMCA familial a Kelowna', 'Ameliorer le bureau du conseil de la bande Ehattesaht', "Ameliorer le centre aquatique, l'arena et les terrains de tennis de Revelstoke", 'Ameliorer le centre communautaire Falconridge/Castleridge de Calgary', 'Ameliorer le centre communautaire Strathcona Christie Aspen de Calgary', 'Ameliorer le centre communautaire Tappen', 'Ameliorer le centre communautaire White Valley de Lumby', 'Ameliorer le centre communautaire coreen de Vancouver', "Ameliorer le centre communautaire d'Ashcroft", "Ameliorer le centre communautaire d'Eckville", 'Ameliorer le centre communautaire de Claresholm', 'Ameliorer le centre communautaire de Garden City', 'Ameliorer le centre communautaire de Huntington Hills a Calgary', 'Ameliorer le centre communautaire de Salmo Valley', 'Ameliorer le centre communautaire de St. Lina', 'Ameliorer le centre communautaire de Tumbler Ridge', "Ameliorer le centre communautaire de la Premiere Nation Beardy's et Okemasis", 'Ameliorer le centre communautaire de la municipalite de Davidson', 'Ameliorer le centre communautaire et la bibliotheque Guildford de Surrey', "Ameliorer le centre communautaire, l'arena et le centre de curling de Lomond", 'Ameliorer le centre communautaire, le centre de curling et le terrain de camping de Madden', 'Ameliorer le centre de curling de Carlyle', 'Ameliorer le centre de curling de la municipalite de Carrot River', 'Ameliorer le centre de formation Royal Canadian Marine Search and Rescue a Sooke', 'Ameliorer le centre de loisirs de Lillooet et du district', 'Ameliorer le centre de loisirs de Nisku', 'Ameliorer le centre recreatif Moyer a Josephburg, en Alberta', 'Ameliorer le centre recreatif de Beaumont', 'Ameliorer le centre recreatif de Salmon Arm', 'Ameliorer le champ de tir et les sentiers du biathlon afin de repondre aux normes de competition internationales', 'Ameliorer le commerce et les investissements dans la region de Prince George et la Porte du Pacifique Nord', 'Ameliorer le corridor recreatif de Gellatly Bay', 'Ameliorer le gymnase et le terrain de baseball de la bande indienne de Willams Lake', 'Ameliorer le lieu historique Beaver Lodge Forests Lands a Campbell River', 'Ameliorer le parc Bayview de White Rock', 'Ameliorer le parc Centennial de Campbell River', 'Ameliorer le parc Gilmore de Sherwood Park', "Ameliorer le parc Milestone d'Alberta Beach", 'Ameliorer le parc Strathcona Island de Medicine Hat', 'Ameliorer le parc Tillicum Beach', 'Ameliorer le parc Willis Road de West St. Paul', 'Ameliorer le parc communautaire Moore', "Ameliorer le parc communautaire du village d'Elbow", "Ameliorer le parc d'athletisme McLeod de Langley", 'Ameliorer le parc de la Avonmore Community League', 'Ameliorer le parc de loisirs de Cache Creek', 'Ameliorer le parc du village touristique de Saskatchewan Beach', 'Ameliorer le parc en installant un centre de conditionnement physique en plein air et des trottoirs a Parksville', 'Ameliorer le parc et le centre recreatif de New Bothwell', 'Ameliorer le parc et le centre recreatif de la Laurier Heights Community League a Edmonton', 'Ameliorer le parc recreatif cotier de Goose Spit', 'Ameliorer le parcours de sante du Cowichan Sportsplex de Duncan', 'Ameliorer le park Elgin de la ville de Moose Jaw', "Ameliorer le pavillon agricole d'Innisfail", 'Ameliorer le pavillon du club a Williams Lake', 'Ameliorer le quai Beacon a Sidney', 'Ameliorer le rendement energetique du centre aquatique de Fernie', 'Ameliorer le reseau de sentiers de la vallee de la riviere Wakamow', 'Ameliorer le sentier Bridge Creek de 100 Mile House', "Ameliorer le sentier par la construction d'un trottoir en bois et le remplacement d'un pont en rondins", 'Ameliorer le sentier polyvalent de Tofino', 'Ameliorer le service sans fil des bibliotheques publiques et des centres recreatifs de Richmond', "Ameliorer le stade Thunderbird de l'UCB a Vancouver", 'Ameliorer le stade Westhills a Langford', "Ameliorer le systeme d'eclairage au centre aquatique de West Vancouver", "Ameliorer le systeme d'eclairage du Quesnel and District Museum and Archives", 'Ameliorer le systeme de CVCA du British Columbia Centre for Ability a Vancouver', "Ameliorer le systeme de chauffage de l'arena", 'Ameliorer le systeme de chauffage et de climatisation du centre communautaire de Snow Lake', "Ameliorer le systeme de filtration de l'eau dans la municipalite de Stoughton", "Ameliorer le systeme de protection contre l'incendie du Panorama Recreation Centre de North Saanich", "Ameliorer le systeme de refroidissement et remplacer le refroidisseur pour la production de glace a l'arena Igloo a Bowden", 'Ameliorer le terrain Harold Wright a Vancouver', 'Ameliorer le terrain de baseball Blundell a Richmond', "Ameliorer le terrain de baseball des Giants d'Elmwood a Winnipeg", 'Ameliorer le terrain de camping Gas City a Medicine Hat', "Ameliorer le terrain de camping du centre 4-H de l'Alberta a Westerose", 'Ameliorer le terrain de jeu du parc Rotary a Duncan', 'Ameliorer le terrain de jeux Majestic Park de Sannich', "Ameliorer le terrain de jeux a l'ecole Jules Quesnel", 'Ameliorer le terrain de jeux communautaire et les terrains de sport de la municipalite de Kenaston', 'Ameliorer le terrain de jeux de la municipalite de Star City', "Ameliorer le terrain de jeux par l'ajout d'une nouvelle structure de jeux", 'Ameliorer le terrain de sport ainsi que la piste de marche et de jogging', 'Ameliorer le terrains de jeux du parc John Lawson de West Vancouver', 'Ameliorer le toit du centre de curling de la municipalite de Big River', "Ameliorer le toit et l'equipement de refrigeration du Charleswood Curling Club", "Ameliorer le toit, le plafond at le systeme d'eclairage de la Legion royale du Canada", 'Ameliorer les activites de marketing et de soutien des ventes de Signalink Technologies Inc.', "Ameliorer les aires de jeux pour enfants d'age prescolaire dans la region de D</t>
         </is>
@@ -800,7 +817,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -863,12 +880,15 @@
         <v>2102</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>10791</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>11</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['10', '300', '36', '400', '44', '480', '500', '580', '600', '610', '650']</t>
         </is>
@@ -881,7 +901,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -944,12 +964,15 @@
         <v>152</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>33120</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>653</v>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['1/01/2012', '1/02/2007', '1/02/2015', '1/04/2011', '1/05/2006', '1/05/2010', '1/06/2006', '1/07/2008', '1/07/2011', '1/08/2008', '1/09/2006', '1/09/2007', '1/09/2012', '1/09/2013', '1/10/2006', '1/11/2010', '1/12/2006', '1/12/2009', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2011', '1/13/2012', '1/13/2014', '1/14/2008', '1/14/2013', '1/14/2014', '1/15/2008', '1/15/2010', '1/15/2013', '1/16/2006', '1/16/2008', '1/16/2015', '1/17/2006', '1/17/2008', '1/17/2013', '1/18/2008', '1/18/2010', '1/19/2006', '1/19/2010', '1/19/2012', '1/20/2006', '1/20/2010', '1/20/2012', '1/21/2010', '1/21/2013', '1/22/2009', '1/22/2010', '1/22/2015', '1/23/2011', '1/24/2007', '1/24/2008', '1/24/2013', '1/25/2010', '1/26/2007', '1/26/2009', '1/27/2006', '1/28/2008', '1/28/2009', '1/28/2010', '1/28/2011', '1/29/2008', '1/29/2009', '1/29/2010', '1/29/2012', '1/29/2013', '1/30/2008', '1/30/2014', '1/31/2008', '1/31/2011', '1/31/2012', '10/01/2009', '10/01/2012', '10/02/2007', '10/02/2009', '10/02/2012', '10/03/2006', '10/04/2010', '10/04/2011', '10/04/2012', '10/04/2014', '10/05/2007', '10/05/2009', '10/05/2010', '10/06/2009', '10/07/2010', '10/08/2009', '10/08/2013', '10/09/2007', '10/09/2009', '10/09/2014', '10/12/2012', '10/13/2009', '10/15/2007', '10/16/2007', '10/17/2005', '10/17/2012', '10/17/2013', '10/18/2006', '10/18/2012', '10/19/2007', '10/19/2009', '10/20/2009', '10/20/2014', '10/22/2009', '10/22/2010', '10/23/2014', '10/25/2011', '10/26/2006', '10/26/2009', '10/27/2009', '10/27/2014', '10/28/2009', '10/28/2012', '10/28/2014', '10/29/2007', '10/29/2009', '10/29/2012', '10/31/2006', '10/31/2011', '10/31/2012', '11/01/2010', '11/02/2009', '11/03/2005', '11/03/2009', '11/04/2009', '11/04/2013', '11/05/2007', '11/05/2009', '11/05/2010', '11/05/2012', '11/05/2013', '11/06/2009', '11/06/2013', '11/07/2007', '11/07/2012', '11/07/2013', '11/08/2011', '11/08/2012', '11/09/2007', '11/09/2012', '11/10/2011', '11/13/2009', '11/14/2007', '11/15/2007', '11/15/2009', '11/15/2010', '11/15/2012', '11/16/2009', '11/16/2012', '11/17/2005', '11/17/2009', '11/18/2009', '11/19/2007', '11/19/2009', '11/20/2009', '11/20/2010', '11/21/2008', '11/22/2010', '11/23/2006', '11/23/2009', '11/23/2010', '11/23/2011', '11/24/2005', '11/24/2006', '11/24/2009', '11/24/2010', '11/25/2005', '11/25/2006', '11/25/2011', '11/26/2007', '11/26/2009', '11/26/2013', '11/27/2008', '11/28/2005', '11/28/2007', '11/28/2009', '11/28/2012', '11/28/2013', '11/29/2009', '11/29/2012', '12/01/2009', '12/01/2011', '12/02/2005', '12/02/2009', '12/02/2010', '12/03/2009', '12/03/2012', '12/04/2009', '12/05/2006', '12/05/2012', '12/05/2014', '12/06/2012', '12/07/2009', '12/07/2011', '12/08/2009', '12/09/2005', '12/09/2010', '12/10/2009', '12/10/2012', '12/11/2006', '12/11/2011', '12/12/2008', '12/12/2012', '12/12/2013', '12/13/2007', '12/13/2010', '12/14/2011', '12/15/2006', '12/15/2009', '12/15/2010', '12/15/2011', '12/16/2010', '12/16/2013', '12/17/2007', '12/17/2009', '12/18/2006', '12/18/2007', '12/19/2005', '12/19/2012', '12/21/2007', '12/21/2009', '12/21/2011', '12/22/2009', '12/23/2005', '12/27/2007', '12/28/2007', '12/29/2014', '12/30/2005', '2/01/2007', '2/01/2010', '2/01/2012', '2/02/2010', '2/03/2006', '2/03/2009', '2/03/2011', '2/04/2008', '2/05/2008', '2/05/2010', '2/06/2007', '2/06/2014', '2/07/2008', '2/07/2009', '2/07/2011', '2/08/2007', '2/08/2008', '2/08/2013', '2/09/2006', '2/09/2007', '2/09/2009', '2/09/2010', '2/09/2011', '2/09/2012', '2/10/2014', '2/11/2008', '2/11/2009', '2/12/2008', '2/13/2006', '2/13/2007', '2/14/2008', '2/14/2013', '2/15/2008', '2/15/2013', '2/16/2010', '2/16/2011', '2/16/2015', '2/17/2006', '2/18/2008', '2/18/2013', '2/20/2006', '2/20/2013', '2/21/2006', '2/21/2011', '2/21/2012', '2/21/2013', '2/22/2006', '2/22/2012', '2/22/2013', '2/23/2009', '2/24/2009', '2/24/2010', '2/24/2015', '2/25/2010', '2/25/2011', '2/25/2013', '2/25/2014', '2/26/2014', '2/27/2008', '2/28/2008', '2/28/2014', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2013', '3/02/2006', '3/02/2007', '3/02/2011', '3/02/2012', '3/03/2006', '3/03/2009', '3/03/2014', '3/04/2008', '3/04/2013', '3/04/2014', '3/05/2008', '3/05/2009', '3/05/2010', '3/05/2014', '3/05/2015', '3/06/2006', '3/06/2008', '3/06/2013', '3/06/2014', '3/07/2006', '3/07/2013', '3/08/2006', '3/08/2010', '3/08/2011', '3/08/2013', '3/09/2006', '3/09/2011', '3/10/2006', '3/10/2009', '3/10/2010', '3/10/2011', '3/10/2014', '3/10/2015', '3/11/2011', '3/11/2013', '3/12/2010', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2014', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2010', '3/14/2011', '3/14/2012', '3/15/2006', '3/15/2010', '3/15/2011', '3/15/2012', '3/16/2006', '3/16/2010', '3/16/2011', '3/17/2006', '3/17/2008', '3/17/2011', '3/18/2008', '3/18/2011', '3/18/2013', '3/19/2010', '3/20/2009', '3/21/2006', '3/21/2007', '3/21/2011', '3/22/2006', '3/22/2010', '3/22/2011', '3/23/2006', '3/23/2007', '3/23/2009', '3/23/2010', '3/23/2011', '3/24/2006', '3/24/2010', '3/24/2011', '3/24/2014', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/26/2008', '3/26/2010', '3/26/2012', '3/27/2006', '3/27/2008', '3/27/2009', '3/27/2011', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2010', '3/28/2011', '3/28/2012', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/29/2012', '3/30/2007', '3/30/2010', '3/30/2012', '3/31/2006', '3/31/2008', '4/01/2011', '4/02/2008', '4/03/2006', '4/04/2006', '4/05/2006', '4/08/2010', '4/09/2006', '4/09/2008', '4/09/2009', '4/10/2008', '4/11/2008', '4/11/2010', '4/13/2006', '4/14/2010', '4/15/2015', '4/16/2007', '4/16/2008', '4/16/2009', '4/17/2008', '4/18/2006', '4/20/2007', '4/20/2009', '4/20/2010', '4/21/2006', '4/23/2007', '4/23/2013', '4/24/2008', '4/24/2012', '4/24/2014', '4/26/2007', '4/26/2010', '4/28/2008', '4/28/2014', '4/28/2015', '4/29/2008', '4/29/2009', '4/30/2007', '4/30/2012', '5/03/2006', '5/03/2012', '5/04/2006', '5/04/2009', '5/06/2008', '5/07/2013', '5/07/2015', '5/08/2006', '5/09/2007', '5/10/2010', '5/10/2013', '5/11/2006', '5/11/2010', '5/12/2006', '5/12/2009', '5/13/2013', '5/13/2014', '5/14/2007', '5/14/2008', '5/14/2010', '5/14/2015', '5/15/2006', '5/15/2007', '5/15/2008', '5/15/2009', '5/15/2012', '5/16/2006', '5/16/2007', '5/17/2006', '5/19/2006', '5/19/2009', '5/19/2010', '5/20/2009', '5/21/2008', '5/21/2009', '5/24/2006', '5/24/2007', '5/25/2006', '5/25/2007', '5/26/2006', '5/27/2008', '5/27/2009', '5/27/2013', '5/28/2009', '5/28/2015', '5/29/2008', '5/29/2013', '5/29/2014', '5/30/2007', '5/30/2013', '5/31/2010', '6/02/2008', '6/02/2010', '6/02/2015', '6/04/2009', '6/05/2006', '6/05/2009', '6/06/2006', '6/06/2008', '6/07/2011', '6/08/2009', '6/09/2006', '6/09/2009', '6/13/2013', '6/14/2007', '6/16/2006', '6/16/2007', '6/16/2008', '6/17/2009', '6/17/2011', '6/18/2007', '6/19/2006', '6/19/2013', '6/19/2014', '6/21/2007', '6/21/2012', '6/22/2006', '6/22/2009', '6/23/2006', '6/24/2008', '6/25/2010', '6/26/2006', '6/26/2009', '6/28/2006', '6/28/2010', '6/29/2006', '6/29/2009', '6/30/2006', '6/30/2009', '7/02/2009', '7/03/2013', '7/04/2012', '7/05/2006', '7/05/2007', '7/05/2013', '7/06/2006', '7/07/2009', '7/08/2009', '7/08/2013', '7/09/2013', '7/10/2009', '7/11/2006', '7/12/2010', '7/12/2013', '7/13/2007', '7/14/2009', '7/15/2009', '7/15/2010', '7/15/2015', '7/16/2008', '7/16/2009', '7/17/2007', '7/17/2008', '7/17/2009', '7/17/2015', '7/18/2006', '7/18/2008', '7/19/2006', '7/19/2015', '7/20/2015', '7/21/2006', '7/21/2015', '7/22/2008', '7/22/2015', '7/23/2008', '7/23/2010', '7/23/2015', '7/24/2015', '7/25/2006', '7/25/2007', '7/26/2006', '7/26/2007', '7/26/2009', '7/26/2011', '7/27/2006', '7/28/2008', '7/28/2009', '7/29/2008', '7/29/2009', '7/29/2010', '7/30/2008', '7/30/2009', '7/31/2009', '8/01/2007', '8/01/2008', '8/02/2006', '8/03/2006', '8/03/2007', '8/03/2010', '8/03/2011', '8/04/2006', '8/04/2009', '8/06/2009', '8/07/2008', '8/07/2009', '8/08/2006', '8/09/2007', '8/10/2009', '8/12/2009', '8/12/2011', '8/13/2008', '8/14/2008', '8/16/2006', '8/17/2006', '8/19/2009', '8/21/2009', '8/23/2010', '8/27/2007', '8/27/2008', '8/27/2009', '8/27/2010', '8/28/2006', '8/29/2007', '8/29/2008', '8/30/2008', '8/30/2011', '8/31/2006', '8/31/2011', '9/02/2008', '9/02/2009', '9/03/2008', '9/04/2009', '9/05/2008', '9/08/2008', '9/08/2009', '9/09/2011', '9/10/2008', '9/10/2010', '9/11/2008', '9/11/2009', '9/12/2007', '9/12/2008', '9/13/2006', '9/13/2007', '9/17/2007', '9/17/2009', '9/17/2012', '9/18/2009', '9/18/2012', '9/19/2006', '9/19/2007', '9/19/2009', '9/19/2011', '9/20/2011', '9/21/2007', '9/22/2009', '9/23/2009', '9/23/2014', '9/25/2006', '9/26/2006', '9/27/2006', '9/28/2006', '9/28/2012', '9/29/2010', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -962,7 +985,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1025,12 +1048,15 @@
         <v>107</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>33076</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>955</v>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['1/02/2013', '1/03/2006', '1/03/2013', '1/04/2010', '1/04/2012', '1/04/2013', '1/05/2006', '1/05/2007', '1/05/2010', '1/05/2011', '1/06/2006', '1/06/2010', '1/07/2008', '1/07/2010', '1/07/2011', '1/07/2013', '1/07/2015', '1/08/2008', '1/08/2010', '1/08/2013', '1/09/2006', '1/09/2007', '1/09/2010', '1/09/2013', '1/09/2015', '1/10/2008', '1/10/2011', '1/10/2012', '1/10/2013', '1/11/2008', '1/11/2010', '1/11/2011', '1/11/2013', '1/12/2006', '1/12/2010', '1/12/2011', '1/12/2012', '1/13/2006', '1/13/2010', '1/13/2015', '1/14/2010', '1/14/2011', '1/14/2013', '1/14/2015', '1/15/2008', '1/15/2010', '1/16/2013', '1/16/2014', '1/17/2006', '1/17/2008', '1/17/2012', '1/17/2013', '1/18/2006', '1/18/2008', '1/18/2010', '1/18/2012', '1/19/2006', '1/19/2010', '1/19/2011', '1/19/2012', '1/20/2010', '1/20/2011', '1/20/2014', '1/21/2008', '1/21/2010', '1/21/2011', '1/21/2013', '1/22/2008', '1/22/2010', '1/22/2013', '1/22/2014', '1/23/2006', '1/23/2008', '1/23/2013', '1/24/2008', '1/24/2014', '1/25/2006', '1/25/2008', '1/25/2010', '1/25/2011', '1/25/2013', '1/26/2004', '1/26/2006', '1/26/2009', '1/26/2010', '1/26/2015', '1/27/2006', '1/27/2010', '1/27/2011', '1/27/2012', '1/28/2008', '1/28/2010', '1/28/2013', '1/28/2014', '1/29/2006', '1/29/2008', '1/29/2010', '1/29/2013', '1/30/2006', '1/30/2008', '1/30/2012', '1/30/2013', '1/31/2006', '1/31/2008', '1/31/2012', '1/31/2013', '10/01/2007', '10/01/2008', '10/01/2009', '10/01/2012', '10/02/2008', '10/02/2009', '10/03/2007', '10/03/2008', '10/04/2006', '10/04/2011', '10/05/2009', '10/06/2009', '10/07/2008', '10/07/2009', '10/08/2008', '10/08/2009', '10/09/2008', '10/09/2009', '10/10/2006', '10/10/2012', '10/11/2006', '10/13/2006', '10/13/2009', '10/13/2011', '10/14/2008', '10/14/2009', '10/15/2009', '10/16/2009', '10/16/2012', '10/17/2007', '10/17/2011', '10/17/2012', '10/18/2011', '10/19/2009', '10/19/2010', '10/19/2011', '10/19/2012', '10/20/2006', '10/20/2009', '10/20/2011', '10/21/2009', '10/21/2013', '10/22/2007', '10/22/2009', '10/22/2010', '10/22/2012', '10/23/2006', '10/23/2009', '10/23/2012', '10/24/2003', '10/24/2012', '10/24/2013', '10/25/2012', '10/26/2009', '10/26/2012', '10/27/2009', '10/28/2009', '10/29/2007', '10/29/2009', '10/29/2010', '10/29/2012', '10/30/2009', '10/30/2012', '10/31/2012', '11/01/2012', '11/02/2009', '11/02/2011', '11/02/2012', '11/03/2009', '11/03/2010', '11/03/2012', '11/03/2014', '11/04/2009', '11/04/2014', '11/05/2008', '11/05/2009', '11/05/2012', '11/06/2009', '11/06/2012', '11/06/2014', '11/07/2007', '11/07/2012', '11/08/2012', '11/09/2006', '11/09/2007', '11/09/2009', '11/09/2010', '11/09/2012', '11/10/2009', '11/10/2014', '11/12/2009', '11/12/2010', '11/12/2012', '11/12/2014', '11/13/2009', '11/13/2012', '11/13/2014', '11/14/2012', '11/14/2014', '11/15/2010', '11/15/2012', '11/16/2007', '11/16/2009', '11/16/2010', '11/16/2012', '11/17/2005', '11/17/2009', '11/17/2010', '11/17/2012', '11/17/2014', '11/18/2009', '11/18/2014', '11/19/2007', '11/19/2009', '11/19/2012', '11/19/2014', '11/20/2007', '11/20/2009', '11/20/2012', '11/20/2014', '11/21/2012', '11/21/2014', '11/22/2009', '11/22/2012', '11/22/2013', '11/23/2006', '11/23/2009', '11/23/2012', '11/24/2006', '11/24/2009', '11/24/2011', '11/24/2014', '11/25/2005', '11/25/2009', '11/26/2009', '11/26/2010', '11/26/2012', '11/26/2013', '11/26/2014', '11/27/2006', '11/27/2007', '11/27/2009', '11/27/2012', '11/27/2014', '11/28/2012', '11/28/2014', '11/29/2007', '11/29/2012', '11/30/2006', '11/30/2007', '11/30/2009', '11/30/2012', '12/01/2009', '12/01/2011', '12/02/2008', '12/02/2009', '12/02/2014', '12/03/2007', '12/03/2009', '12/03/2012', '12/04/2007', '12/04/2009', '12/04/2012', '12/04/2014', '12/05/2006', '12/05/2007', '12/05/2009', '12/05/2011', '12/05/2012', '12/05/2013', '12/05/2014', '12/06/2006', '12/06/2010', '12/06/2011', '12/06/2012', '12/07/2009', '12/07/2011', '12/07/2012', '12/08/2006', '12/08/2009', '12/08/2010', '12/09/2009', '12/09/2014', '12/10/2009', '12/10/2010', '12/10/2014', '12/11/2009', '12/11/2012', '12/11/2014', '12/12/2012', '12/12/2013', '12/13/2012', '12/14/2009', '12/14/2011', '12/14/2012', '12/15/2009', '12/16/2009', '12/16/2011', '12/17/2009', '12/17/2012', '12/18/2009', '12/18/2012', '12/19/2006', '12/19/2011', '12/19/2012', '12/20/2007', '12/20/2010', '12/20/2012', '12/21/2007', '12/21/2009', '12/21/2012', '12/22/2009', '12/22/2010', '12/23/2008', '12/23/2009', '12/23/2010', '12/23/2011', '12/23/2013', '12/24/2009', '12/24/2012', '12/28/2009', '12/28/2012', '12/29/2009', '12/30/2009', '12/31/2012', '2/01/2006', '2/01/2010', '2/01/2012', '2/01/2013', '2/02/2006', '2/02/2010', '2/03/2006', '2/03/2007', '2/03/2010', '2/04/2010', '2/04/2013', '2/04/2014', '2/05/2008', '2/05/2009', '2/05/2010', '2/05/2013', '2/05/2014', '2/06/2008', '2/06/2009', '2/06/2012', '2/06/2014', '2/07/2006', '2/07/2008', '2/07/2011', '2/07/2013', '2/08/2006', '2/08/2008', '2/08/2010', '2/09/2010', '2/10/2009', '2/10/2010', '2/11/2008', '2/11/2009', '2/11/2010', '2/11/2011', '2/11/2013', '2/12/2008', '2/12/2009', '2/12/2010', '2/12/2013', '2/12/2014', '2/13/2007', '2/13/2008', '2/13/2012', '2/13/2013', '2/14/2007', '2/14/2008', '2/14/2011', '2/14/2012', '2/14/2013', '2/15/2008', '2/15/2010', '2/15/2013', '2/16/2010', '2/17/2009', '2/17/2010', '2/17/2011', '2/17/2012', '2/17/2014', '2/18/2008', '2/18/2010', '2/18/2013', '2/19/2009', '2/19/2010', '2/19/2013', '2/19/2014', '2/20/2006', '2/20/2008', '2/20/2009', '2/20/2013', '2/21/2006', '2/21/2013', '2/22/2008', '2/22/2010', '2/22/2011', '2/22/2013', '2/23/2007', '2/23/2009', '2/23/2010', '2/23/2011', '2/23/2012', '2/23/2013', '2/24/2006', '2/24/2009', '2/24/2010', '2/24/2011', '2/24/2012', '2/25/2008', '2/25/2011', '2/25/2013', '2/26/2008', '2/26/2013', '2/27/2008', '2/27/2009', '2/27/2013', '2/27/2014', '2/28/2007', '2/28/2011', '2/28/2012', '2/28/2013', '2/28/2014', '2/29/2008', '3/01/2006', '3/01/2007', '3/01/2010', '3/01/2011', '3/01/2012', '3/01/2013', '3/02/2006', '3/02/2010', '3/03/2006', '3/03/2008', '3/03/2009', '3/03/2010', '3/03/2013', '3/03/2014', '3/04/2011', '3/04/2013', '3/04/2014', '3/05/2009', '3/05/2010', '3/05/2012', '3/05/2013', '3/05/2014', '3/06/2006', '3/06/2008', '3/06/2009', '3/06/2012', '3/06/2013', '3/07/2006', '3/07/2008', '3/07/2013', '3/08/2007', '3/08/2010', '3/08/2013', '3/09/2006', '3/09/2007', '3/09/2009', '3/10/2006', '3/10/2008', '3/10/2009', '3/10/2011', '3/11/2011', '3/11/2013', '3/11/2014', '3/12/2007', '3/12/2009', '3/12/2013', '3/13/2006', '3/13/2008', '3/13/2009', '3/13/2013', '3/14/2006', '3/14/2007', '3/14/2008', '3/14/2011', '3/14/2012', '3/14/2013', '3/15/2006', '3/15/2011', '3/15/2013', '3/16/2006', '3/16/2007', '3/16/2009', '3/16/2010', '3/17/2006', '3/17/2008', '3/17/2009', '3/17/2014', '3/18/2009', '3/18/2013', '3/19/2008', '3/19/2009', '3/19/2010', '3/19/2012', '3/19/2013', '3/19/2014', '3/20/2006', '3/20/2013', '3/21/2006', '3/21/2011', '3/21/2013', '3/21/2014', '3/22/2006', '3/22/2010', '3/22/2011', '3/22/2013', '3/23/2006', '3/23/2009', '3/23/2012', '3/24/2006', '3/24/2010', '3/25/2008', '3/25/2009', '3/25/2010', '3/25/2011', '3/25/2013', '3/25/2015', '3/26/2007', '3/26/2009', '3/26/2010', '3/26/2013', '3/27/2001', '3/27/2006', '3/27/2007', '3/27/2008', '3/27/2009', '3/27/2013', '3/28/2006', '3/28/2007', '3/28/2008', '3/28/2011', '3/28/2013', '3/29/2006', '3/29/2007', '3/29/2010', '3/29/2011', '3/30/2006', '3/30/2007', '3/30/2009', '3/30/2011', '3/31/2006', '3/31/2008', '3/31/2009', '3/31/2010', '3/31/2014', '4/01/2006', '4/01/2008', '4/01/2009', '4/01/2011', '4/02/2007', '4/02/2009', '4/02/2013', '4/03/2006', '4/03/2009', '4/04/2006', '4/04/2008', '4/04/2013', '4/05/2006', '4/05/2013', '4/06/2006', '4/07/2006', '4/08/2008', '4/10/2006', '4/10/2008', '4/10/2012', '4/11/2006', '4/11/2008', '4/11/2014', '4/12/2006', '4/12/2010', '4/13/2006', '4/13/2010', '4/14/2006', '4/15/2008', '4/15/2013', '4/16/2008', '4/16/2009', '4/16/2012', '4/18/2006', '4/19/2006', '4/19/2010', '4/20/2006', '4/21/2006', '4/21/2008', '4/21/2010', '4/22/2008', '4/23/2008', '4/24/2006', '4/24/2007', '4/24/2008', '4/24/2009', '4/25/2008', '4/26/2007', '4/27/2006', '4/27/2007', '4/27/2009', '4/28/2006', '4/28/2008', '4/30/2008', '4/30/2009', '4/30/2010', '5/01/2006', '5/01/2008', '5/02/2006', '5/02/2008', '5/03/2007', '5/03/2011', '5/04/2006', '5/04/2007', '5/04/2010', '5/05/2009', '5/07/2007', '5/07/2009', '5/08/2009', '5/08/2013', '5/09/2013', '5/10/2006', '5/10/2007', '5/10/2010', '5/10/2012', '5/10/2013', '5/11/2006', '5/12/2006', '5/13/2008', '5/13/2009', '5/14/2007', '5/14/2008', '5/14/2010', '5/15/2006', '5/15/2008', '5/15/2009', '5/16/2006', '5/17/2006', '5/17/2010', '5/18/2012', '5/19/2006', '5/20/2008', '5/20/2009', '5/21/2009', '5/21/2015', '5/22/2009', '5/22/2015', '5/23/2006', '5/23/2008', '5/25/2010', '5/25/2015', '5/26/2006', '5/26/2010', '5/27/2009', '5/27/2015', '5/28/2007', '5/28/2009', '5/28/2014', '5/28/2015', '5/29/2007', '5/29/2008', '5/29/2009', '5/29/2013', '5/29/2015', '5/30/2007', '5/30/2008', '5/31/2006', '6/01/2009', '6/01/2015', '6/02/2008', '6/02/2009', '6/02/2014', '6/02/2015', '6/04/2007', '6/04/2008', '6/04/2009', '6/04/2010', '6/05/2013', '6/06/2006', '6/06/2012', '6/06/2015', '6/07/2007', '6/08/2009', '6/09/2008', '6/09/2010', '6/09/2015', '6/10/2009', '6/10/2015', '6/11/2008', '6/11/2009', '6/11/2015', '6/12/2006', '6/12/2014', '6/12/2015', '6/13/2014', '6/14/2006', '6/15/2007', '6/15/2009', '6/15/2015', '6/16/2006', '6/16/2015', '6/17/2009', '6/17/2010', '6/17/2015', '6/18/2009', '6/18/2014', '6/18/2015', '6/19/2006', '6/19/2009', '6/19/2013', '6/19/2014', '6/19/2015', '6/20/2006', '6/20/2014', '6/21/2006', '6/22/2009', '6/22/2015', '6/23/2014', '6/23/2015', '6/24/2009', '6/24/2015', '6/25/2009', '6/25/2014', '6/25/2015', '6/26/2008', '6/26/2009', '6/26/2014', '6/26/2015', '6/27/2008', '6/28/2006', '6/28/2013', '6/29/2006', '6/29/2009', '6/29/2015', '6/30/2009', '6/30/2014', '6/30/2015', '7/02/2009', '7/02/2013', '7/02/2015', '7/03/2008', '7/03/2009', '7/03/2014', '7/03/2015', '7/04/2006', '7/04/2007', '7/05/2006', '7/05/2007', '7/06/2006', '7/06/2009', '7/06/2011', '7/06/2015', '7/07/2006', '7/07/2009', '7/07/2015', '7/08/2008', '7/08/2009', '7/08/2015', '7/09/2007', '7/09/2009', '7/09/2015', '7/10/2006', '7/10/2009', '7/10/2015', '7/11/2006', '7/11/2007', '7/11/2013', '7/12/2010', '7/12/2012', '7/13/2009', '7/13/2015', '7/14/2006', '7/14/2009', '7/14/2015', '7/15/2009', '7/16/2007', '7/16/2009', '7/16/2013', '7/16/2015', '7/17/2006', '7/17/2007', '7/17/2009', '7/19/2006', '7/20/2006', '7/20/2009', '7/20/2015', '7/21/2009', '7/21/2015', '7/22/2008', '7/22/2009', '7/22/2015', '7/23/2007', '7/23/2009', '7/23/2015', '7/24/2006', '7/24/2007', '7/24/2015', '7/25/2006', '7/25/2007', '7/25/2008', '7/25/2013', '7/25/2015', '7/26/2006', '7/26/2007', '7/26/2015', '7/27/2006', '7/27/2007', '7/27/2009', '7/27/2015', '7/28/2007', '7/28/2008', '7/28/2014', '7/28/2015', '7/29/2009', '7/29/2010', '7/29/2015', '7/30/2007', '7/30/2009', '7/30/2015', '7/31/2006', '7/31/2008', '7/31/2009', '7/31/2015', '8/01/2006', '8/01/2008', '8/03/2007', '8/03/2010', '8/04/2009', '8/05/2005', '8/05/2008', '8/05/2009', '8/05/2010', '8/06/2013', '8/06/2014', '8/07/2009', '8/08/2006', '8/08/2008', '8/08/2013', '8/09/2006', '8/09/2007', '8/09/2010', '8/10/2009', '8/11/2008', '8/11/2009', '8/11/2011', '8/12/2009', '8/12/2013', '8/13/2007', '8/13/2008', '8/13/2009', '8/14/2007', '8/14/2008', '8/14/2009', '8/15/2006', '8/15/2008', '8/16/2007', '8/17/2006', '8/17/2007', '8/17/2009', '8/17/2010', '8/18/2007', '8/18/2008', '8/19/2009', '8/20/2007', '8/20/2008', '8/20/2009', '8/21/2009', '8/21/2014', '8/22/2007', '8/23/2006', '8/23/2010', '8/24/2009', '8/24/2015', '8/25/2006', '8/25/2008', '8/25/2009', '8/26/2009', '8/27/2004', '8/27/2008', '8/27/2009', '8/28/2007', '8/28/2008', '8/28/2009', '8/31/2006', '8/31/2009', '9/01/2009', '9/02/2008', '9/02/2009', '9/03/2008', '9/03/2009', '9/04/2008', '9/04/2009', '9/05/2007', '9/06/2006', '9/07/2006', '9/08/2008', '9/08/2009', '9/08/2011', '9/09/2008', '9/09/2009', '9/09/2011', '9/10/2008', '9/10/2009', '9/13/2006', '9/13/2007', '9/14/2006', '9/14/2007', '9/14/2009', '9/15/2009', '9/16/2008', '9/16/2009', '9/16/2011', '9/17/2008', '9/17/2009', '9/18/2008', '9/18/2009', '9/19/2008', '9/19/2009', '9/19/2011', '9/19/2014', '9/20/2007', '9/20/2011', '9/21/2006', '9/21/2009', '9/21/2012', '9/22/2008', '9/22/2009', '9/22/2011', '9/23/2008', '9/23/2009', '9/24/2008', '9/24/2009', '9/25/2007', '9/25/2008', '9/25/2009', '9/26/2006', '9/26/2007', '9/26/2011', '9/27/2006', '9/27/2010', '9/28/2009', '9/28/2011', '9/29/2008', '9/29/2009', '9/29/2010', '9/30/2008', '9/30/2009', '9/30/2011']</t>
         </is>
@@ -1043,7 +1069,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1106,12 +1132,15 @@
         <v>3576</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>3702</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>17</v>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['0', '120500', '144479', '1539524', '19691991', '2000000', '2995433.03', '300000', '5000000', '520000', '560000', '600000', '6250000', '64860', '66500', '760659.4', '933000']</t>
         </is>
@@ -1124,7 +1153,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1187,12 +1216,15 @@
         <v>3590</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>3626</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['0', '1000000', '15000000', '16500000', '4000000', '500000']</t>
         </is>
@@ -1205,7 +1237,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1268,12 +1300,15 @@
         <v>98</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>20494</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>2196</v>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['0', '100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '107333', '1078500', '1079574', '108000', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '125100', '125335', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '164794', '164839', '164991', '165000', '1650000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200440', '220158', '220174', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '225300', '225802', '225810', '226254', '226538', '226667', '227079', '227135', '227550', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315087', '31535', '315437', '31545', '31555', '31582', '316028', '31654', '316808', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '44250', '443000', '44500', '44509', '44640', '44723', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '47924', '479500', '48000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1286,7 +1321,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1349,12 +1384,15 @@
         <v>3518</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>4000</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>72</v>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['0', '1', '100000', '1061500', '1072763', '1080564', '115006', '1173750', '1191779', '1200000', '1204785', '1215388', '125000', '1250000', '1251731', '1253534', '1268050', '1302400', '1330748', '1375000', '150000', '156225', '1600000', '1643710', '190000', '200000', '203608', '2200000', '220300', '2250000', '227000', '227750', '243640', '2452000', '25000', '250000', '2500000', '272350', '2772000', '2900000', '300000', '315000', '315500', '3168434', '330000', '331500', '3375000', '3500000', '364271', '376048', '396479', '401147', '4143000', '425000', '441000', '447500', '4625924', '468787.55', '479213', '480000', '496150', '500000', '514500', '552900', '625000', '670000', '725723', '750000', '888676', '90000', '920152', '949500']</t>
         </is>
@@ -1367,7 +1405,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1430,12 +1468,15 @@
         <v>86</v>
       </c>
       <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>21032</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>2261</v>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['100000', '1000000', '10000000', '100040', '100100', '100150', '100246', '100250', '100300', '1003326', '100500', '1010000', '101040', '1012500', '101286', '1013007', '1013500', '101406', '1015000', '101667', '101882', '101900', '102000', '1020000', '102200', '102250', '102263', '1022676', '1023422', '102435', '103000', '103148', '103226', '103262', '103279', '103333', '103500', '1037865', '1040000', '104050', '104476', '1045000', '104602', '1047859', '105000', '1051048', '105110', '105145', '106000', '1061500', '106205', '1062624', '106342', '106667', '106864', '106932', '1069938', '107068', '1072172', '107236', '1072763', '107333', '1078500', '1079574', '108000', '1080564', '1082000', '108296', '108333', '108410', '1087260', '108800', '108903', '1094560', '109523', '109598', '1096000', '1098349', '110000', '1100000', '11000000', '1102362', '1105803', '110738', '1110000', '1110142', '1110624', '1113799', '1114212', '1116482', '111720', '1118996', '112107', '112123', '112166000', '1123881', '112407', '1124071', '1124581', '112500', '1125000', '112700', '1128400', '113000', '1131400', '113150', '113500', '113906', '1143442', '114379', '1145601', '114745', '1147844', '114880', '115000', '1150000', '115006', '115062', '115118', '115299', '115300', '1153900', '1154132', '115507', '115538', '115565', '1155679', '115600', '1156253', '1156421', '1156991', '115700', '116000', '1160081', '116072', '116088', '1162491', '116364', '1166111', '116690', '117000', '1170230', '1172442', '1173750', '117513', '117593', '117676', '1176863', '1177273', '1178629', '1179000', '1184809', '118527', '1186471', '118767', '1189884', '119000', '1191779', '119265', '119300', '119311', '1193500', '1196200', '1196972', '119703', '1198151', '1198293', '1198516', '120000', '1200000', '1200690', '120088', '120100', '120124', '120335', '120338', '1204360', '1204785', '120500', '1205601', '120692', '1210000', '121025', '121089', '121148', '121333', '1213566', '1215388', '1215430', '121711', '1217888', '1220081', '1221220', '1221899', '122220', '122750', '123076', '1232500', '123290', '123500', '123630', '123652', '1237285', '1237415', '123750', '124000', '124161', '1244809', '1245441', '1245601', '124600', '125000', '1250000', '125100', '1251731', '125335', '1253534', '125536', '125700', '125800', '1258293', '125932', '1260000', '126300', '126394', '126582', '126647', '126750', '1268050', '127200', '127927', '128000', '128018', '128032', '128105', '128230', '128300', '128510', '128568', '128574', '128750', '128986', '1293187', '129333', '129500', '1295453', '1295543', '129600', '129638', '129655', '129719', '1298293', '129904', '129986', '130000', '130212', '1302400', '130500', '130565', '130772', '130946', '131100', '1311111', '131244', '1312685', '132150', '132247', '132590', '132650', '133000', '1330748', '133118', '133184', '133200', '133235', '133331', '133333', '133492', '133500', '1338629', '133993', '134000', '134352', '134400', '1345000', '134573', '134902', '135000', '1350000', '13500000', '135032', '135182', '135262', '1354083', '1355000', '1358293', '136000', '136140', '137120', '137300', '137336', '1375000', '137951', '138000', '138300', '138600', '1389000', '1389172', '1390000', '139166', '1392527', '139471', '139738', '140000', '1400000', '140566', '140864', '1410000', '141208', '141225', '141333', '1415000', '141700', '1417600', '141806', '142000', '1422252', '142619', '142670', '143250', '143455', '1438000', '143933', '1440000', '144220', '144250', '144358', '144379', '144479', '144600', '1447500', '144800', '145024', '145361', '145427', '145438', '145775', '146081', '146565', '146605', '1468556', '147580', '147720', '148412', '1485500', '148641', '148668', '148750', '149024', '149029', '149074', '149800', '149836', '149951', '150000', '1500000', '15000000', '150010', '150083', '150100', '150126', '150250', '150270', '150300', '150341', '150374', '150398', '150412', '1508000', '150826', '151000', '151502', '1516415', '151769', '152000', '152167', '152194', '1528602', '152881', '153232', '153244', '153725', '153950', '1539524', '154182', '154674', '1546848', '154822', '155000', '155250', '155530', '1557000', '156000', '1562000', '156225', '156370', '156430', '1565000', '156511', '156666', '157000', '1575000', '157907', '158497', '1587092', '158770', '159501', '160000', '1600000', '160100', '160397', '160500', '160691', '160885', '161000', '161092', '161198', '161431', '161633', '1620000', '162178', '162233', '162258', '162348', '162364', '1623710', '162405', '162416', '162450', '162483', '162487', '162498', '162500', '162600', '162850', '163000', '163427', '163784', '163823', '163877', '163897', '164131', '1643710', '164794', '164839', '164991', '165000', '1650000', '16500000', '165470', '165500', '165596', '165672', '166000', '1663000', '166320', '166372', '166475', '166616', '166667', '166750', '166829', '166891', '166937', '166965', '167277', '167300', '1675620', '167697', '167836', '168000', '168167', '168300', '168301', '168564', '1691084', '169500', '169616', '169647', '169757', '170000', '1700000', '170100', '170262', '170865', '171200', '1712770', '171666', '172570', '172600', '172800', '1732738', '173281', '1748953', '174923', '174964', '175000', '175496', '1756000', '176068', '176079', '177275', '1776790', '177749', '177900', '1784000', '179352', '1794485', '179467', '179483', '179791', '180000', '1800000', '18000000', '180100', '1801749', '180500', '180839', '181305', '181382', '181395', '181533', '183946', '184400', '1846000', '184774', '185000', '185600', '186250', '187000', '187051', '187500', '1875000', '188614', '188877', '1890000', '189013', '189120', '189426', '189480', '189998', '190000', '190180', '190618', '191000', '191171', '191666', '191684', '1919230', '192120', '192392', '1926013', '1927349', '193092', '193209', '193333', '193637', '194000', '194853', '194878', '195000', '1950000', '1951750', '195667', '196024', '196106', '196500', '197319', '1982900', '198500', '19891991', '199343', '199867', '200000', '2000000', '200300', '2004700', '200600', '200720', '201566', '202341', '202400', '202425', '202485', '202600', '203000', '203397', '203608', '203797', '2039000', '2039100', '204000', '205166', '206454', '207535', '207600', '2077735', '207824', '208000', '2097375', '210000', '2100000', '2100736', '210090', '2102172', '211878', '212000', '213166', '213167', '213300', '213353', '213529', '213600', '2139198', '214284', '214500', '214600', '215000', '2150552', '215500', '2158568', '216451', '216666', '2167000', '216844', '2171711', '217371', '2180000', '219160', '219969', '220000', '2200000', '2200440', '220158', '220174', '220300', '221000', '2210000', '221794', '221825', '2220250', '223495', '223743', '223910', '224349', '224807', '224955', '225000', '2250000', '225300', '225802', '225810', '226254', '226538', '226667', '227000', '227079', '227135', '227550', '227750', '2294685', '229825', '229874', '229950', '230000', '230300', '231150', '231464', '231856', '2319457', '231980', '232180', '2321800', '232300', '232325', '232549', '232800', '233300', '233600', '234355', '234389', '234500', '2345100', '234629', '235000', '235326', '237000', '238000', '2380338', '2381000', '238150', '238155', '238681', '239003', '239600', '240000', '240220', '240288', '2403000', '240384', '2403861', '240527', '241389', '2419114', '242000', '2420750', '242161', '242500', '242750', '242810', '243591', '243640', '243827', '243902', '244000', '244200', '244474', '244869', '245000', '245160', '2452000', '245360', '245447', '245935', '246180', '246253', '246735', '247000', '247084', '248252', '248478', '248500', '248896', '2489400', '249000', '249178', '249787', '249800', '249920', '249975', '25000', '250000', '2500000', '250100', '250126', '250180', '250216', '250300', '250375', '250432', '250449', '25089', '25100', '25108', '25120', '25182', '252141', '2524840', '25250', '25300', '2531250', '253271', '253500', '25415', '25424', '254300', '255000', '255487', '255600', '25584', '2559720', '2560000', '25653', '25654', '257161.02', '25737', '25792', '25800', '25868', '25892', '25916', '259700', '26000', '260000', '2600000', '26010', '26090', '26095', '261605', '26167', '261686.98', '26217', '26256', '262923', '263200', '26375', '264280', '264666', '26498', '26500', '265400', '26550', '265622', '265655', '265878', '26595', '26600', '26616', '26628', '26633', '26660', '26680', '267500', '267806', '268000', '26820', '26825', '26850', '2693381', '270000', '2700000', '270025', '27015', '27021', '270500', '27055', '270590', '271575', '27162', '27208', '272350', '2725000', '273164', '27324', '27333', '27337', '27343', '273482', '2735000', '273586', '274238', '27448', '274604', '274991', '27500', '275000', '275170', '2752047', '275539', '275624', '275632', '27569', '27600', '27622', '276669', '2772000', '2773000', '27781', '277810', '27887', '279672', '27978', '27979', '27982', '279985', '28000', '280000', '280671', '28070', '280805', '28091', '282000', '282141', '282253', '282380', '282692', '28300', '283015', '28305', '283258', '28333', '283333', '283385', '283624', '28363', '283666', '283777', '28379', '28400', '284000', '28402', '28412', '2841432', '284306', '28437', '284541', '28499', '285000', '285151', '285378', '28538', '285538', '28567', '286023', '28619', '28638', '28659', '28661', '286796', '286845', '287489', '28750', '287521', '28770', '288354', '288900', '28905', '289242', '28938', '289550', '289879', '290000', '2900000', '29014', '290286', '2906500', '29100', '291375', '291832', '29190', '2925000', '29254', '292671', '29278', '292966', '29300', '293000', '29320', '29322', '29333', '29350', '293832', '293925', '29416', '294316', '294437', '294525', '294963', '29497', '29498', '294983', '295000', '295131', '295174', '295192.75', '295321', '29567', '295950', '296116', '296913', '29694', '297000', '29722', '297500', '29755', '297588', '297669', '298000', '298020', '298152', '2983800', '29839', '2986500', '29874', '29875', '29892', '299029', '29912', '2991307', '299299', '2995433.03', '29958', '29970', '299989', '30000', '300000', '3000000', '30000000', '300100', '30040', '300543', '3006114', '30064', '300850', '300892', '30100', '301200', '30150', '30202', '302483', '30250', '30300', '303090', '303790', '303992', '304254', '3046920', '30480', '304878', '305955', '30602', '306572', '30671', '306797', '307149', '30722', '307274', '30736', '307517', '307627', '30844', '308455', '308493', '30884', '308884', '30900', '309022', '30905', '309076', '309285', '30929', '309517', '309887', '309963', '31000', '310000', '31100', '311116', '3120000', '312031', '312489', '31269', '3128290', '31300', '3130041', '31307', '313333', '313504', '31370', '31375', '314624', '31500', '315000', '315087', '31535', '315437', '31545', '315500', '31555', '31582', '316028', '31654', '316808', '3168434', '317483', '31750', '31755', '31776', '31789', '318206', '31825', '31850', '319963', '32000', '320000', '3200000', '320660', '32092', '320955', '320956', '321222', '32150', '322297', '32300', '32331', '32336', '32340', '32349', '32351', '324080', '32474', '32500', '325000', '325594', '326688', '32727', '32729', '327579', '328000', '328320', '328500', '328805', '3298000', '329939', '33000', '330000', '3300000', '330501', '33060', '330712', '330955', '331292', '33150', '331500', '331538', '33172', '33194', '332262', '33250', '33290', '333000', '333333', '333437', '33500', '335000', '33536', '33586', '33600', '33651', '33667', '33750', '337500', '3375000', '337610', '337669', '338000', '338150', '338500', '33875', '33915', '34000', '340000', '3400000', '3400370', '34072', '340892', '34118', '341500', '3415000', '34266', '34305', '343089', '34333', '34354', '344600', '344871', '34500', '3450000', '345955', '347000', '34750', '347700', '347970', '348952', '349000', '349114', '349233', '349328', '349577', '3499808', '35000', '350000', '3500000', '35000000', '35055', '35090', '350976', '351038', '35150', '35190', '35263', '35287', '35311', '35337', '3539000', '353906', '353978', '3540886', '354515', '35458', '355000', '355096', '355616', '35600', '35800', '359241', '359500', '35958', '3596041', '35961', '36000', '360000', '360500', '361244', '36220', '362576', '36352', '364271', '365000', '365460', '3655463', '36558', '36617', '366200', '36623', '36663', '36666', '366906', '36712', '36739', '369405', '37000', '37001', '37057', '370589', '37160', '372764', '37300', '37322', '373296', '373750', '37451', '37500', '375000', '37514', '37596', '37600', '376048', '37732', '37825', '37900', '37964', '38000', '380000', '3801000', '38028', '380386', '38050', '38066', '38088', '38192', '382000', '38240', '38259', '383088', '38340', '3844800', '38500', '385000', '38519', '38624', '38625', '386250', '386273', '386477', '38775', '38792', '38814', '388333', '3893765', '389399', '389776', '38986', '39000', '3909384', '3910000', '39146', '39149', '391625', '39286', '39362', '39511', '395914', '39592', '396479', '39750', '39786', '39814', '39900', '399000', '399750', '40000', '400000', '4000000', '40050', '40100', '401147', '40150', '40237', '40300', '40301', '40385', '40396', '405000', '40600', '40708', '40734', '40890', '40959', '409673', '41107', '41110', '412078', '412500', '41270', '4129009', '41310', '41333', '413371', '41381', '4143000', '41457', '41544', '415587', '41575', '415847', '41640', '41660', '416683', '4170000', '417800', '418325', '41975', '41984', '420000', '4200000', '420463', '42116', '42122', '421267', '421273', '42221', '42250', '42293', '42406', '424146', '42500', '425000', '42612', '42653', '42666', '42667', '42750', '427883', '42800', '42952', '42973', '43000', '430000', '4300000', '430070', '43032', '43197', '43200', '4320000', '432370', '43296', '433000', '433128', '43325', '43335', '43374', '43378', '434497', '4350000', '43542', '43580', '43600', '436000', '43667', '436969', '43771', '43870', '43926', '439562', '44000', '4400000', '44003', '441000', '44250', '443000', '44500', '44509', '44640', '44723', '447500', '447705', '44776', '44786', '448000', '4484250', '44874', '44886', '448929', '44945', '45000', '450000', '4500000', '45150', '451733', '4521971', '45300', '45415', '45426', '454824', '45608', '456140', '45666', '45766', '45875', '459229', '45942', '45947', '46000', '46044', '46088', '46115', '46116', '46149', '46200', '4625924', '462836', '463507', '463830', '46419', '46441', '4648962', '46500', '465000', '46504', '46508', '465478', '465983', '46600', '46607', '46676', '467000', '467500', '468750', '468787.55', '4688580', '46920', '469337', '46935', '46962', '46988', '47000', '471000', '47208', '47356', '47412', '47435', '47450', '474511', '47500', '475000', '4750000', '47587', '47657', '477966', '479213', '47924', '479500', '48000', '480000', '48039', '48071', '48100', '48132', '48150', '482547', '48283', '48375', '48400', '48483', '484933', '48503', '48510', '48631', '486585', '486600', '486620', '48666', '48792', '488220', '4887507', '48966', '48971', '49000', '490000', '49000000', '490286', '49047', '491100', '491781', '491834', '4920000', '492434', '49298', '49300', '49434', '49500', '49551', '495631', '49600', '496150', '49650', '497000', '49750', '497514', '49798', '49817', '499360', '4998813', '50000', '500000', '5000000', '5001000', '50055', '500671', '50100', '50150', '50200', '50221', '50255', '50300', '503863', '503986', '504000', '507215', '50800', '50894', '509000', '51137', '511600', '512170', '51260', '51300', '513141', '51356', '514500', '514895', '515000', '51577', '51621', '516470', '51900', '51904', '51908', '51955', '519968', '520000', '5200000', '52115', '52167', '52207', '523333', '52500', '525203', '52535', '52574', '52616', '526339', '52700', '527000', '52767', '52789', '52850', '52896', '52919', '52942', '52950', '53000', '530000', '53042', '530537', '53072', '53126', '53240', '53333', '53340', '533840', '53456', '534720', '53800', '538000', '538542', '538989', '540000', '540517', '54073', '54100', '54139', '541529', '54241', '542661', '54400', '544000', '544050', '54500', '545000', '54510', '54622', '54750', '54779', '54848', '549278', '55000', '550000', '5500000', '55003', '550103', '550875', '550943', '55100', '551000', '55150', '55166', '55285', '552900', '553432', '555000', '555280', '55592', '55605', '55711', '55718', '557563', '558142', '5588000', '559051', '55918', '55932', '55933', '56000', '560000', '560134', '560415', '56257', '56369', '56405', '566667', '56682', '568278', '56850', '56911', '57155', '572000', '57220', '57240', '572992', '57388', '57398', '574000', '575000', '57535', '57550', '575902.15', '576008', '577963', '578474', '57892', '57980', '58000', '5803804', '58042', '58103', '58288', '58333', '583469', '58403', '584960', '58500', '585000', '58514', '58524', '585776', '58660', '58694', '58750', '58823', '58922', '589227', '58932', '58950', '59043', '59065', '59187', '592008', '59216', '5925000', '59357', '59453', '59500', '59526', '59550', '595500', '59637', '59639', '597900', '598000', '59833', '60000', '600000', '6000000', '60048', '60150', '60175', '60300', '60312', '60384', '603886', '60560', '60616', '60950', '61205', '612113', '61402', '615050', '61700', '61773', '618000', '61844', '61876', '61950', '61985', '61986', '62000', '620500', '621000', '62108', '62150', '6225633', '62400', '62403', '62439', '62500', '625000', '6250000', '62530', '62666', '62706', '62750', '62800', '62809', '62859', '628777', '63000', '630000', '63166', '632611', '63279', '63308', '63386', '63390', '63468', '635478', '63842', '639638', '645000', '64506', '646667', '646719', '646739', '646750', '64676', '646830', '64694', '64794', '647959', '64860', '649623', '649830', '65000', '650000', '65066', '652000', '652919', '65335', '6535743', '65405', '65432', '654400', '65490', '65597', '656800', '65808', '65824', '658466', '66000', '660530', '660862', '66095', '661370', '66181', '66300', '663000', '66322', '66417', '66500', '66547', '66666', '66667', '667000', '66853', '66877', '66921', '67000', '670000', '671500', '672621', '67400', '675000', '67510', '6758707', '67608', '67628', '67702', '67737', '680000', '68027', '681334', '683167', '68413', '68473', '685201', '685405', '68588', '68701', '687505', '68808', '69338', '69450', '694750', '69484', '69500', '69533', '69808', '69942', '70000', '700000', '7000000', '70194', '70216', '704889', '70500', '705000', '70600', '70619', '706192', '70800', '70814', '71198', '712000', '71225', '71429', '714700', '71624', '71625', '717077', '717700', '71783', '718000', '72000', '720166', '72397', '724900', '725723', '726200', '72670', '72910', '72951', '73000', '730000', '732000', '73214', '733100', '733387', '73409', '73450', '734893', '73505', '73551', '73571000', '73744', '73777', '73835', '738384', '738500', '738759', '738893', '74000', '740000', '74159', '74380', '74530', '745682', '745708', '748601', '749767', '75000', '750000', '750468', '75150', '752149', '752430', '75250', '753000', '755000', '75604', '75730', '75897', '75911', '760659.4', '76113', '76140', '76375', '76500', '76563', '76661', '766950', '76938', '76965', '77039', '77231', '77281', '77282', '775320', '77570', '77590', '77800', '779890', '78000', '78038', '78090', '78225', '78281', '78297', '78300', '78308', '784500', '78500', '787313', '78785', '788000', '789254.79', '789471', '78979', '79120', '79200', '79276', '795000', '795107', '79800', '798641', '79874', '79918', '79955', '80000', '800000', '801277', '802018', '80300', '80500', '806688', '80765', '80782', '81000', '81168', '81169', '81219', '81500', '815730', '817760', '82000', '820446', '821884', '822292', '82232', '82295', '82400', '82407', '82500', '82575', '82610', '82660', '82900', '83000', '83009', '83080', '83185', '83200', '83250', '83325', '83333', '83491', '835091', '835341', '83584', '83659', '83670', '83790', '83824', '8400000', '84254', '84306', '84350', '84400', '845724', '846000', '846423', '846701', '847800', '84907', '849774', '84988', '85000', '850000', '85007', '850155', '85022', '85040', '85064', '85112', '85272', '852918', '85300', '85429', '854682', '856614', '85782', '85846', '858550', '85882', '85896', '85921', '85926', '85963', '860388', '860535', '86300', '86430', '86700', '867039', '86786', '868650', '87040', '87046', '87100', '87140', '87327', '87500', '875000', '8753000', '87534', '87570', '87600', '876705', '87815', '87855', '878898', '880000', '88195', '88257', '88325', '883575', '884106', '884889', '884949', '885393', '885522', '885611', '885963', '886500', '886901', '88776', '88806', '888099', '888348', '888676', '889692', '889911', '890684', '890739', '893007', '894094', '89500', '89650', '897897', '898000', '89850', '899000', '899967', '90000', '900000', '90100', '90114', '901629', '902676', '90300', '90328', '90398', '90596', '90600', '90638', '90667', '90712', '907449', '909210', '90960', '911370', '911992', '9127000', '91360', '91466', '915000', '91600', '91652', '91682', '91700', '91730', '917333', '91763', '917865', '91804', '919716', '92000', '920000', '920152', '92063', '922551', '924500', '925000', '925479', '925794', '926350', '929661', '929889', '930000', '93082', '931138', '933000', '93308', '933348', '93350', '93359', '933624', '93482', '935000', '936093', '93636', '936400', '93719', '93778', '93814', '93993', '94000', '940400', '94167', '94366', '94500', '946267', '947521', '948084', '948450', '949500', '95000', '950000', '95025', '952075', '952449', '953400', '95458', '956419', '95775', '95850', '959889', '960000', '96029', '961000', '961011', '962865', '96332', '96349', '96466', '965017', '96547', '96714', '967333', '96748', '96841', '96884', '969000', '96919', '97000', '970000', '97050', '972005', '972095', '973061', '97328', '973733', '97430', '975000', '97508', '97541', '976267', '97726', '97938', '97945', '97980', '98100', '98131', '98160', '98171', '984819', '9864000', '986538', '98665', '98920', '989817', '99000', '990000', '9900000', '99127', '992662', '99268', '992699', '992865', '99304', '994010', '994275', '99464', '99500', '99520', '996942', '99770', '998685', '9988051.41', '99945', '999500']</t>
         </is>
@@ -1448,7 +1489,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1511,12 +1552,15 @@
         <v>3327</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>4848</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>214</v>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>['0', '10000', '100000', '1000000', '100854', '1016826', '103308', '104377', '105000', '108000', '109700', '110221', '11135002', '113165', '114302', '115000', '1150000', '116455', '117000', '118000', '11964', '12000', '120000', '122500', '12300', '123682', '13100', '132000', '133478', '133800', '134261', '1347755', '137080', '1372233', '1400000', '143800', '1457000', '1458500', '146921', '147490', '15000', '150000', '1500000', '15000000', '1515687', '1523526', '15500', '15724122', '160000', '1625000', '1643809', '167202', '169885', '1720000', '17673000', '17808689', '180000', '18414', '185106', '185208', '1874109', '189323', '191000', '192000', '19200000', '2000', '20000', '200000', '2000000', '201500', '202900', '20600', '21000', '212316', '21527', '217000', '219000', '22000', '22158000', '222000', '222500', '224000', '225000', '2264963', '2322000', '238000', '238704', '242004', '243087', '24500', '2463000', '248000', '2500', '25000', '250000', '257400', '2611843', '269090', '26952', '275000', '276000', '276135', '277188', '278945', '27980', '28000', '280568', '286579', '3000', '30000', '300000', '3000000', '309584', '318575', '32484151', '325100', '327000', '3350', '345000', '35000', '36090', '365000', '37994', '386000', '395748', '396564', '396625', '4000', '40000', '400000', '4000000', '401664', '40220', '405809', '408802', '409580', '42500', '44491', '45000', '45800', '46488', '470000', '473456', '47500', '480013', '481000', '483752', '484500', '4920000', '49334', '499143', '5000', '50000', '500000', '51137', '51179', '5200000', '52501', '5305351', '5400000', '54150', '54396', '54560', '55000', '55677', '57000', '5792623', '6000', '60000', '626563', '6300000', '637321', '642000', '64250', '65676', '66000', '660000', '6691', '684000', '68497', '700', '70000', '701865', '70250', '70516', '705448', '72055', '74545', '76880', '77232', '78000', '781492', '78500', '79000', '79925', '8000', '80000', '812565', '82101', '84464', '87530', '8964', '89720', '9000000', '9150', '93500', '93806000', '940490', '94100', '9441', '95000', '9600', '9750', '991399']</t>
         </is>
@@ -1529,7 +1573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1592,12 +1636,15 @@
         <v>86</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>22120</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>2801</v>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>['100000', '1000000', '1000106', '100021', '1001158', '100136', '1001472', '1001500', '100200', '1002827', '100288', '1003765', '100442', '100457', '100570', '100602', '1006039', '1006436', '100665', '1008066', '100839', '100897', '1010000', '101104', '101149', '1012547', '1013007', '1014060', '101546', '101600', '101618', '1018072', '101834', '101900', '102000', '1021256', '102180', '1022676', '102273', '1025000', '102711', '102851', '1029000', '102981', '103000', '103040', '103104', '1031073', '1033000', '103390', '1035012', '1035520', '1035554', '10359199', '103750', '1037865', '103987', '104024', '1041252', '1041593', '1041821', '104203', '1042374', '1043263', '1043612', '104500', '1045000', '10464585', '1049000', '1049959', '105070', '105147', '105155', '105400', '10556516', '1057928', '1058000', '105817', '106001', '1061358', '106330', '1064106', '106517', '106902', '106932', '1070462', '107175', '1072100', '1072400', '107454', '1075600', '107601', '10771500', '1078500', '1080500', '108106', '108112', '1081932', '108200', '108292', '1083058', '108543', '1086005', '108641', '108820', '1088385', '108918', '109150', '1091546', '1091865', '1094560', '109557', '1096200', '109656', '1096757', '1098349', '109850', '109870', '10988319', '1100000', '110005', '1100520', '110134', '110200', '1102092', '110221', '11022965', '110236', '1102958', '110332', '110558', '1105800', '110622', '110686', '110963', '1110371', '111050', '11155393', '111613', '1116300', '112000', '112024', '112065', '112182', '1123881', '1124581', '112557', '1126730', '112700', '1127600', '1128016', '112810', '1128386', '11300000', '113053', '1132240', '113547', '113644', '1136995', '113711', '113772', '1138169', '114000', '1140420', '114084', '114500', '1145000', '114551', '1145601', '114594', '114618', '114666', '114681', '1146832', '114739', '114745', '114775', '1148300', '114900', '1149268', '114976', '1150000', '115068', '1151803', '1152274', '115400', '115408', '1154132', '115565', '1156421', '115819', '115844', '115960', '116000', '11601000', '116041', '1164452', '116473000', '1166111', '116661', '116774', '116853', '1169076', '117000', '1172602', '117336', '1174000', '11740000', '117500', '1175282', '117625', '117645', '117844', '117900', '118000', '118086', '1181880', '1181927', '1182534', '1184263', '1185000', '118550', '1185512', '1185742', '118600', '118612', '119051', '119150', '1191594', '1193292', '1194623', '1195695', '1196200', '119633', '119676', '119689', '119763', '119798', '1198151', '1198516', '1199405', '120000', '1200000', '120096', '120200', '120347', '1203493', '120367', '1204679', '1205601', '1205779', '1205828', '1206125', '1206509', '1206942', '1207506', '1208588', '120963', '1209717', '1210450', '1210940', '1211995', '121200', '1213500', '121441', '121580', '121722', '121792', '121900', '1220081', '1220936', '1221513', '1221541', '122300', '1224640', '122500', '1226271', '1227193', '1227839', '122848', '1229000', '123000', '1232051', '1232563', '1232950', '123321', '123403', '1235909', '123663', '123688', '1237443', '123747', '123894', '124040', '1241000', '1241432', '1241790', '124200', '124216', '1245601', '1246380', '124670', '124723', '124738', '1247865', '124876', '124986', '125000', '1250000', '12500000', '1250012', '1250799', '1252487', '125323', '1253673', '125410', '1254595', '125500', '125547', '125600', '125619', '125864', '125925', '126168', '1262625', '1263200', '126333', '126403', '1264360', '1265409', '126741', '1268000', '1268190', '1268362', '126935', '1270952', '127341', '1273580', '1273839', '1274596', '1276003', '1278885', '1279129', '1279277', '127959', '128000', '1280180', '128136', '128204', '128281', '128568', '128646', '128700', '128747', '1289751', '1290000', '1290800', '1293022', '129588', '129714', '1299140', '1299284', '129934', '130000', '1300000', '1301124', '13025932', '1305499', '130706', '130779', '130780', '1308493', '130992', '131061', '1311111', '1311459', '131177', '1311842', '1314672', '131612', '131973', '1321074', '132284', '1323037', '1323388', '13239785', '1325102', '1326000', '132645', '133000', '1330000', '1330075', '1333304', '1333652.15', '1334819', '13366230', '1336955', '1337398', '1338381', '133863', '1338905', '133918', '134094', '1342000', '134277', '1342802', '1343864', '1345191', '134549', '134555', '13459282', '134694', '1347000', '1347543', '13486295', '134876', '135200', '135255', '135262', '1354083', '135446', '135473', '1355367', '135620', '13563155', '135803', '135864', '1358681', '136054', '136262', '1367453', '136777', '1368057', '1368771', '136879', '136909', '137132', '137380', '137402', '137490', '13761125', '137744', '13789695', '138054', '138200', '1382241', '138271', '138320', '138425', '1384362', '1385480', '138602', '138675', '1388951', '13891621', '1389172', '1389370', '138966', '1389888', '1390681', '139435', '1399161', '139992', '140000', '140000000', '1401258', '1403778', '140386', '140432', '141122', '141190', '141292', '141302', '1413573', '1414460', '141635', '142278', '1422874', '142304', '14232173', '142395', '142475', '1426273', '14282464', '1430456', '143154', '1431617', '1431639', '143203', '143250', '1432919', '1435000', '143505', '143550', '143565', '1438000', '143946', '1439611', '14428519', '144379', '1446104', '1447017', '144843', '145000', '145102', '145525', '145731.19', '1457500', '145820', '145902', '145976', '146081', '146134', '146422', '146466', '1466014', '146818', '146901', '1469288', '146974', '1470437', '147142000', '147306', '147513', '147580', '147592', '147692', '147747', '1477785', '1477975', '1480000', '1481364', '148137', '148206', '1489400', '149367', '1494028', '149530', '1497379', '1497622', '14980000', '149836', '1498581', '149951', '150000', '1500000', '15000000', '1502140', '1502702', '150337', '150367', '150443', '150485', '150506', '150568', '1505939', '150776', '151000', '1511007', '151339', '1518514', '1518837', '151965', '152040', '1520473', '152139', '152194', '152320', '1524216', '153000', '153321', '153341', '153435', '153823', '15400000', '154076', '154258', '1543000', '154463', '1546272', '154752', '1558500', '15588000', '156000', '1560000', '156007', '1561512', '156254', '156496', '15650000', '156511', '156594', '1569263', '156933', '1569702', '1571419', '1573553', '157848', '1580000', '158030', '158113', '158250', '158263', '1583347', '1586213', '158843', '1589000', '159000', '1590395', '1593439', '159653', '160000', '1600000', '1601181', '160190', '160371', '160398', '160600', '160676', '160732', '160740', '160808', '160845', '161000', '1610000', '161232', '161370', '161530', '1615455', '1620061', '1623051', '162322', '1624994', '1627333', '1627743', '1630200', '1631026', '16311600', '163161', '163182', '163313', '163381', '1634205', '163529', '16382756', '163857', '1639000', '164200', '1642184', '1642978', '164465', '1644933', '164839', '1648893', '165000', '165025', '165125', '165150', '1655047', '165521', '165607', '165624', '165672', '166370', '166390', '1664211', '166600', '1666583', '1667464', '1667500', '166937', '167168', '1672598', '167277', '167284', '167300', '167306', '167318', '1673250', '167544', '167564', '167674', '1677121', '167847', '167860', '168000', '1680486', '168084', '168167', '168208', '168300', '168591', '168610', '168700', '168970', '169547', '169629', '169634', '1696355', '169730', '169975', '1699994', '170000', '170043', '170192', '1705223', '170724', '171000', '171271', '171435', '171498', '171764', '172000', '1720508', '172099', '172351', '172600', '172670', '1728673', '173140', '173250', '1732738', '1735000', '173573', '173703', '173831', '174279', '174419', '1748199', '174927', '175000', '175139', '175200', '1752953', '175415', '1756306', '175710', '1758914', '1760000', '1760500', '176091', '176102', '176395', '176520', '176566', '1767092', '176738', '1769500', '1773313', '177534', '177544', '177551', '1777137', '1777352', '1778572', '177861', '178010', '1780905', '178257', '1784219', '1785520', '178572', '1787068', '178831', '1790397', '1790911', '179180', '179448', '179500', '1795383', '179867', '179928', '180000', '1801320', '180476', '180570', '180665', '181000', '1810000', '181226', '181424', '181533', '181624', '181635', '181700', '181920', '181997', '182001', '182018', '182047', '1821087', '182347', '182350', '1826704', '182871', '182888', '183200', '183208', '1836341', '1840308', '184126', '1848200', '1848948', '184908', '185060', '185077', '185200', '185300', '185313', '185366', '185533', '1855848', '185646', '186142', '1861800', '1863789', '186460', '186700', '186941', '187270', '1874937', '187815', '187827', '188096', '1885453', '189000', '18900000', '189330', '189426', '1896900', '189837', '1899000', '190000', '1900000', '190050', '190221', '1905000', '190850', '1910115', '191526', '191700', '192041', '1921415', '1921798', '192184', '1921986', '1923813', '192632', '192800', '1928750', '1930000', '193092', '193301', '193496', '1936791', '193719', '194083', '194100', '19451000', '194656', '194859', '195000', '195015', '195200', '195373', '1954177', '195547', '1957388', '195900', '196031', '196200', '196263', '196341', '1964404', '196900', '1969040', '1972000', '197319', '1978885', '198008', '198202', '1983441', '1983736', '198591', '198637', '1987182', '1987400', '198847', '19891991', '199116', '199167', '199280', '199376', '199470', '1994947', '199567', '199852', '199855', '199979', '200000', '2000000', '200079', '200123', '2001454', '200200', '200335', '200492', '200500', '2006650', '201214', '201412', '201429', '201451', '201557', '201768', '202272', '2025243', '202682', '202825', '203400', '2034392', '2034565', '2035000', '20360000', '203674', '203712', '2038635', '204000', '2040000', '204190', '204297', '204425', '204500', '204525', '204600', '2046768', '204795', '204835', '2048369', '205000', '2050468', '205154', '205474', '205513', '2057429', '206000', '206100', '2061000', '206523', '206806', '2070507', '2071781', '207453', '207713', '2083718', '2087500', '2093400', '210000', '2100000', '210023', '210551', '2109103', '211047', '2113477', '211409', '2115000', '211841', '2120000', '2121566', '2123000', '212537', '212550', '2129746', '213054', '2132582', '2138719', '214419', '214582', '214885', '2150552', '215384', '2155000', '2157563', '2161129', '216269', '216601', '2166307', '21666140', '2167608', '216820', '216901', '2169783', '2173000', '217425', '2174460', '2174700', '2175000', '217733', '218000', '218117', '218332000', '2184499', '219000', '219196', '2193912', '219413', '2194889', '219727', '219807', '2199855', '220000', '2200000', '2201917', '220981', '221092', '2212204', '221717', '222075', '22212766', '222386', '222435', '222469', '223062', '223069', '223358', '2236578', '223862', '224000', '224326', '2243479', '224814', '224955', '225000', '2250000', '225215', '225250', '2252512', '225485', '225846', '2259702', '225993', '2265000', '2268315', '2269206', '227070', '227165', '227811', '228000', '2280303', '228080', '228252', '228319', '228326', '228672', '228721', '2289853', '229204', '229267', '2300000', '2304318', '230597', '2306208', '230676', '230698', '231000', '231013', '231184', '231200', '231289', '231345', '231509', '231896', '232039', '23205720', '232135', '2321968', '232300', '232320', '232382', '232511', '232615', '233814', '2338430', '2340614', '2347500', '235000', '23515000', '235161', '235201', '2352014', '235231', '2353836', '23564813', '235751', '236075', '236167', '236288', '236400', '236500', '2367765', '2370347', '2370441', '2378516', '2382995', '2383558', '2385731', '238622', '238737', '239176', '239407', '239539', '2397148', '240000', '240200', '240247', '240359', '240661', '24092920', '2409570', '2411210', '2411218', '2411581', '241618', '242105', '242132', '242209', '242295', '2424000', '24266666', '242934', '243200', '243422', '2435449', '243597', '244262', '2447874', '2448430', '245343', '246253', '2465000', '246699', '246780', '246958', '246996', '247217', '247576', '247805', '248000', '248355', '2483957', '248666', '2487424', '249200', '249241', '249460', '249505', '249587', '249590', '249627', '249628', '249766', '249790', '249854', '249871', '249923', '2499701', '249980', '249987', '2499938', '249997', '250000', '2500000', '2501470', '250200', '250330', '250334', '2503462', '250670', '2507068', '2508000', '250976', '251275', '251300', '251864', '252600', '252688', '2528847', '253163', '2531637', '253405', '2534227', '2535000', '2540870', '254104', '254127', '254504', '254681', '255531', '2564500', '25653', '256858', '257183', '257230', '2574300', '258209', '258290', '258705', '258913', '2595000', '259921', '260000', '2600000', '260106', '2604800', '260869', '260947', '261130', '261544', '261688', '2629992', '263032', '263213', '263464', '2636000', '263702', '26422647', '2643060', '26452462', '264644', '2650000', '265276', '265300', '265536', '26600', '266000', '266241', '266368', '266458', '266604', '267000', '2677510', '26876008', '269121', '2693381', '269369', '269446', '269805', '269900', '2702089', '2702458', '2703496', '2706714', '2708404', '2709375', '271194', '271196', '271575', '272253', '272280', '2725000', '272592', '273235', '2732403', '2733636', '273482', '2735000', '274002', '274400', '274586', '274600', '2750000', '275015', '275303', '2756331', '2759442', '276128', '276182', '2766400', '276682', '276910', '277165', '277244', '277302', '277430', '27781', '277810', '277824', '27800', '278554', '279518', '279672', '27974705', '279900', '2800220', '280324', '2810634', '2812878', '2815000', '2817994', '28182000', '282141', '282253', '282450', '282692', '283015', '283165', '283258', '283385', '283567', '2836453', '283777', '2839000', '284000', '284062', '284306', '28436657', '284541', '2849286', '2850000', '285055', '285538', '285930', '286023', '286080', '2862955', '2867088', '286796', '286845', '287489', '2876931', '288000', '288147', '288354', '288500', '289550', '289652', '289879', '2905854', '290626', '290721', '290980', '291035', '29120', '291332', '291508', '291551', '2917760', '291832', '2919000', '292288', '292418', '292473', '2925000', '29254', '292542', '292966', '29309227', '293300', '293555', '2935700', '294500', '294525', '294963', '294983', '295000', '295131', '295174', '295192.75', '295321', '2955649', '295575', '295700', '295865', '296116', '2961992', '296316', '2964828', '296876', '296913', '297029', '297669', '2978050', '298152', '298443', '298586', '298622', '299029', '2991594', '299299', '299989', '2999981', '30000', '300000', '3000000', '30000000', '300083', '300200', '30030182', '300500', '300543', '300630', '300824', '300892', '301101', '301121', '301219', '301494', '301500', '3015512', '302000', '302483', '3025478', '303003', '303070', '303115', '303141', '3032830', '303704', '303751', '303790', '3039524', '303992', '304000', '304254', '305218', '305510', '305663', '305955', '3061593', '3062413', '306572', '306797', '307000', '3071399', '307274', '307517', '307627', '307653', '308155', '308455', '308493', '3085106', '308674', '308696', '308938', '3091531', '309274', '309285', '3093936', '309500', '309645', '309812', '309887', '309963', '310000', '310010', '310405', '311116', '3112685', '311430', '3117457', '312000', '312004', '312031', '312300', '312450', '3124595', '312489', '312500', '312768', '3129877', '313611.02', '313943', '31439', '315087', '315442', '31575166', '316028', '31654', '3171830', '3173251', '317475', '317483', '318000', '318198', '318957', '319143', '319145', '319735', '319963', '320000', '3200000', '320200', '3202000', '3204000', '320955', '320956', '322000', '322180', '322396', '32250', '3239000', '324080', '324645', '324741', '32500', '325042', '325200', '325261', '3255028', '326174', '326333', '326688', '327476', '327579', '328654', '3287420', '3287976', '3293954', '329401', '329673', '329875', '329939', '330000', '33000000', '3302699', '3303255', '330501', '330560', '330712', '330910', '330955', '331030', '331304', '331788', '331886', '3319132', '3324198', '332675', '332971', '333000', '333232', '333240', '333437', '333501', '333647', '333928', '334843', '33500', '335026', '3352053', '335824', '336251', '336545', '3371500', '3372000', '337669', '337802', '337910', '338150', '338487', '338583', '3386201', '338645', '3387500', '3389831', '339252', '339817', '340000', '3400000', '340200', '340386', '3406850', '340805', '340868', '340892', '341164', '341390', '343178', '343200', '34352.55', '344403', '344871', '3449446', '3449897', '345017', '345048', '345200', '345326', '3455075', '345539', '345882', '345955', '3460000', '346362', '3470000', '3471639', '347388', '347400', '347970', '3490129', '349275', '349314', '349726', '349846', '35000', '350000', '3500000', '35000000', '351038', '351215', '3516500', '351849', '352314', '353171', '3532016', '353906', '354515', '354550', '355096', '355498', '356222', '357200', '357605', '358133', '3584000', '3586000', '359042', '359241', '359500', '35995433.03', '3600000', '360110', '360200', '3603308', '3605000', '3607578', '361457', '36232', '3637747', '363835', '3645426', '365000', '365200', '365369', '3655463', '3662160', '366569', '3674000', '367600', '3677333', '36810302', '3683123', '3699000', '370000', '37084601', '371888', '3720000', '372018', '372356', '373269', '373500', '373750', '374500', '375000', '37600', '3768314', '376868', '377051', '3776748', '377680', '3778189', '378000', '378269', '378505', '379950', '380000', '3800000', '380078', '38009599', '381237', '3812549', '381720', '382000', '382423', '383283', '3833454', '383936', '384240', '384783', '387697', '387947', '3880663', '389000', '389050', '389101', '389648', '390000', '3900000', '390511', '3910000', '391614', '392414', '392506', '39398', '394164', '3942207', '394924', '395364', '3956105', '3962512', '3964460', '396479', '396886', '40000', '400000', '4000000', '400043', '4011744', '4016984', '401731', '401953', '40238', '4027563', '402789', '403307', '40444', '404970', '4050000', '405498', '4056000', '405616', '407283', '407501', '407540', '407640', '4078200', '408649', '40875', '4095000', '4095500', '410012', '410059', '411200', '412000', '4122362', '412813', '414185', '415069', '415200', '4161590', '416292', '417015', '417350', '419101', '4202051', '421165', '42128577', '4213116', '422477', '42296', '423984', '424000', '425500', '426284', '426828', '426867', '426950', '428083', '428289', '428862', '429200', '429419', '430000', '4306300', '4307058', '431000', '431196', '43193', '432263', '43335', '4338783', '4340100', '434399', '435074', '435115', '436000', '43609545', '436234', '4363901', '436578', '4366403', '436660', '436880', '4371650', '4374512', '437904', '438320', '438500', '4385731', '438720', '438833', '438964', '439562', '4400000', '4402659', '4405750', '440600', '441178', '4413376', '441638', '443651', '4437500', '4441355', '444784', '445000', '4454840', '4460916', '4464637', '446714', '44708', '447177', '447362', '447486', '448319', '449604', '4499484', '450000', '4500000', '4510302', '452097', '452486', '452713', '452977', '4539597', '454417', '455500', '456000', '457000', '457600', '4580597', '45843', '4584580', '458815', '459591', '459904', '459923', '46044', '460729', '4611026', '462217', '463364', '463710', '464650', '464845', '466318', '4667065', '467094', '467379', '4679695', '468065', '468159', '46820', '468750', '469000', '469337', '470000', '47186', '47192', '472247', '473191', '47393', '47412', '475000', '4750000', '475206', '475419', '475492', '475749', '476000', '4774246', '478000', '478605', '478962', '4790000', '4792149', '479776', '480000', '480135', '480200', '480327', '480339', '4806000', '480669', '481594', '481674', '482406', '483000', '483111', '483116', '4831400', '483356', '485220', '485620', '485694', '487280', '487803', '487918', '4887507', '488977', '490000', '490462', '490893', '4911371', '49125', '492395', '492652', '493000', '49378', '49441', '495302', '496560', '497000', '497790', '498281', '49948', '499700', '499950', '50000', '500000', '5000000', '500200', '500898', '5012000', '501302', '50148', '501760', '5018530', '50200', '502052', '50215', '50236', '503180', '503500', '503881', '504282', '504300', '504343', '504530', '50600', '5062500', '507614', '50819', '509735', '51000', '510080', '511108', '5115158', '51168', '511778', '512293', '512608', '5132179', '514355', '514587', '51475', '515000', '515336', '515661', '51734', '51739', '517521', '51783', '517846', '518144', '51831', '5187762', '519500', '519847', '5199451', '5199999', '52000', '520400', '520728', '52190', '523379', '52380', '52400', '5245750', '525000', '52562', '52639', '5270000', '52750', '528655', '5295543', '530298', '5313025', '5319448', '53200', '53316', '53320', '534720', '53494', '536000', '53645', '53649', '53668', '536938', '53700', '537544', '537819', '5386000', '539688', '54000', '540000', '540050', '540142', '54030', '54111', '54120', '5420668', '5421760', '54241', '542500', '542656', '54428', '545000', '5450000', '546353', '546379', '547172', '54777', '548000', '548339', '5486400', '55000', '5500000', '550103', '550178', '55030', '5504403', '55200', '553034', '553697', '5544000', '555280', '55556', '5557182', '555761', '556572', '55741', '5577589', '558292', '558539', '56000', '560000', '5600000', '560200', '561279', '56316', '5632448', '563467', '563777', '564648', '565577', '5663541', '56758', '568000', '568278', '568414', '568654', '56911', '569440', '569570', '569627', '56968', '56997', '57076', '5719110', '572079', '573185', '5737735', '574187', '574640', '574764', '574864', '57500', '575000', '575057', '575742', '575765', '576134', '576783', '576900', '577226', '578906', '5800000', '5805699', '58115', '5812354', '581400', '58175', '581803', '58200', '582459', '582528', '58300', '583135', '583566', '58373', '584845', '585500', '5859081', '58643', '58663', '586786', '587033', '588000', '588235', '58858', '588629', '589227', '589500', '58994', '5902985', '59134', '5915000', '592254', '593800', '594554', '59473', '59500', '595006', '5951000', '595300', '59583', '5964107', '59698', '597590', '597602', '59784', '598000', '598823', '59917', '59940', '59948', '5995717', '60000', '600000', '60000000', '6001016', '600200', '60080', '601381', '60200', '602162', '6032000', '603253', '603886', '604426', '60500', '606180', '60700', '6080000', '60819', '60822', '608372', '61000', '610000', '61009', '6104381', '610980', '611000', '611100', '61186', '611903', '611999', '612483', '61444', '61670', '61688', '61769', '617787', '61808', '61857', '61890', '619028', '619243', '61940', '619691', '62000', '620000', '620710', '62090', '6212770', '62200', '622478', '622500', '623185', '6245231', '625443', '62614', '626853', '6270583', '627351', '62741', '62784', '62806', '62880', '629723', '63000', '63004', '63070', '631000', '63126.38', '63147', '6320000', '632064', '632487', '63299', '633033', '63305', '63339', '633875', '634384', '63500', '635635', '63650', '636853', '63701', '63774', '63879', '63905', '63963', '6405203', '640951', '64106', '64185', '6430026', '643545', '644638', '644727', '64500', '645343', '645791', '6461604', '646719', '64697', '6473800', '647450', '64875', '648750', '64948', '649830', '65000', '650532', '65069', '650800', '651065', '652919', '653600', '653654', '654154', '65499', '6558000', '65713', '658283', '659000', '660280', '66200', '662161', '66308', '66342', '66416', '665000', '665323', '665429', '66554', '665703', '667142', '668569', '66877', '670754', '6712131', '67172', '67180', '67200', '67500', '67553', '675762', '6762000', '67750', '67893', '679145', '680000', '68144', '681500', '683000', '684024', '68532', '68702', '68818', '689200', '691478', '692778', '69456', '694975', '69500', '695260', '6958638', '697329', '697786', '697905', '698580', '69900', '70000', '700000', '7000000', '701399', '7026974', '70300', '7037480', '70495', '705190', '70674', '707011', '708219', '7096012', '70999', '7100000', '7103770', '711837', '71200', '712152', '712349', '713395', '7150000', '71604', '71703', '718219', '718311', '719105', '722381', '72246', '723402', '72500', '727217', '727454', '72845', '72897', '729271', '730000', '7300000', '7302090', '730906', '73271', '73319', '73326', '7340200', '73433', '73551', '73648', '738759', '74000', '740000', '74001', '74064', '740675', '741742', '742513', '74319', '74380', '745682', '745708', '74600', '746453', '746614', '747173', '747974', '7480659.4', '74890', '74903', '75000', '750000', '7500000', '750310', '750468', '7505712', '75200', '752096', '7521192', '752685', '75300000', '75315', '755869', '7575980', '75800', '7587260', '75893', '76000', '760000', '760086', '76014', '760156', '76055', '760989', '76100', '76185', '76190', '7625000', '763120', '7635667', '763720', '76384', '763894', '7640709', '76450', '766464', '7696195', '76963', '770000', '771382.98', '77248', '773257', '77503', '77550', '77616', '7771000', '77861', '7789041', '77972', '77975', '78000', '7800000', '780164', '780331', '781166', '781598', '78259', '782875', '78298', '7835250', '78391', '784400', '784479', '78469', '784820', '78580', '786440', '78751', '788276', '788400', '79023', '79150', '792346', '79280', '793000', '7951424', '7964034', '79656', '7965697', '79664', '79696', '79762', '79786', '79800', '79878', '79886', '79890', '7995500', '80000', '800000', '80002', '800865', '80200', '80284', '80314', '803424', '8037210', '803751', '8043258', '804427', '80600', '80602', '806112', '8069025', '80700', '80782', '809175', '809200', '810844', '811000', '813000', '813033', '813372', '81500', '81520', '8154028', '816200', '81780', '818667', '819545', '81986', '820446', '82096', '821100', '821936', '82219', '82332', '823710', '8253556', '82540', '825510', '82590', '826449', '82842', '83000', '830529', '831229', '83148', '832132', '83280', '83453', '83536', '83579', '83600', '839218', '83938', '8400000', '84115', '84245', '84291', '843343', '84383', '84387', '84441', '84500', '845015', '8451500', '845651', '8460000', '846423', '846740', '847605', '8488700', '8493086', '849774', '85000', '850000', '850155', '851967', '852124', '85224', '852777', '852918', '85335', '85352741', '85368', '853782', '85446', '85576', '85600', '856309', '856614', '85692', '85736', '8575000', '858511', '85999', '86000', '860388', '860535', '86080', '861336', '86400', '865665', '8668000', '868126', '868184', '868650', '87000', '870731', '87200', '87295', '87500', '87534', '875419', '877000', '877295', '878000', '87816', '87852', '878898', '87895', '879000', '87959', '87986', '88000', '8802656', '880386', '8804350', '8809435', '8811452', '88249', '8830896', '883575', '884889', '884949', '88496', '885393', '885522', '885611', '885935', '88596', '885963', '887500', '88754', '88800', '888348', '88878', '89000', '89047', '890522', '890739', '89108', '891870', '893007', '89325', '89500', '895000', '89551', '895652', '89572', '89596', '89600', '89771', '897897', '8979236', '898476', '899967', '90000', '900000', '900136', '901629', '90200', '902000', '902676', '90327', '90550', '90600', '90616', '906250', '90630', '907449', '909000', '91000', '91063', '91118', '911370', '9120000', '91362', '91365', '9146005', '915705', '916915', '917865', '91798', '91842', '919716', '92000', '920560', '922551', '92332', '92398', '92400', '924550', '92474', '9254250', '925479', '92570', '925898', '92699', '927626', '928999', '929441', '929661', '92981', '929889', '930000', '93200', '933348', '93352', '93529', '935570', '936093', '9369712', '9371826', '93719', '937215', '9377160', '93840', '939010', '93922', '94039', '941055', '941387', '941953', '942000', '9420166', '94258', '94351', '94366', '944202', '9465379', '94713', '94733', '947535', '948084', '949439', '9496169', '95200', '95238', '952449', '952858', '95320', '956419', '95759', '9586095', '95879', '959051', '959175', '959716', '959889', '960372', '960820', '96141', '96263', '962865', '96475', '96505', '965094', '965540', '96567', '965750', '9658000', '966955', '967631', '96898', '96976', '97020', '97033', '97053', '97064', '971000', '971009', '97115', '97272', '972863', '973061', '973733', '97441', '975000', '97541', '97572', '97619', '976267', '977062', '978500', '97903', '97932', '979375', '97943', '97972', '9800000', '98015', '980571', '981713', '982000', '984868', '98600', '9870807', '989633', '989692', '989817', '990806', '991371', '992865', '993174', '993320', '9935537', '99401', '99416', '99500', '995000', '995469', '996380', '9967236', '99831', '9988051.41', '999342']</t>
         </is>
@@ -1610,7 +1657,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1673,12 +1720,15 @@
         <v>1428</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>3595</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>5</v>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>['A', 'B', 'M', 'O', 'S']</t>
         </is>
@@ -1691,7 +1741,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1754,12 +1804,15 @@
         <v>25</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>21521</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>1844</v>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>['100013', '100014', '100016', '100047', '100190', '100253', '100393', '100409', '100511', '100596', '100660', '100680', '100866', '101241', '101365', '102359', '102447', '102500', '102692', '102696', '102750', '102998', '103176', '104074', '104079', '104327', '104512', '104620', '110908', '131755', '139659', '175257', '178400', '217307', '220202', '228304', '247858', '255109', '282855', '284059', '286856', '28803', '297259', '300902', '301002', '316109', '360701', '363655', '365106', '365254', '374702', '374900', '375253', '400853', '409656', '417253', '422659', '423905', '432153', '433520', '433535', '434085', '434205', '434829', '435706', '435760', '436316', '436820', '437231', '438077', '438500', '442990', '443171', '443952', '444166', '444315', '444460', '444794', '444970', '446890', '448936', '452758', '452963', '453297', '453754', '453800', '453821', '453827', '454135', '454484', '454634', '454732', '454748', '454764', '454765', '454775', '454784', '454790', '454794', '454802', '454819', '454820', '454821', '454823', '454836', '454838', '454839', '454850', '454877', '454880', '454900', '454902', '454904', '454905', '454909', '454912', '454919', '454939', '454943', '454947', '454948', '454969', '454970', '454974', '454987', '455004', '455009', '455010', '455013', '455027', '455056', '455072', '455089', '455095', '455108', '455110', '455121', '455152', '455156', '455184', '455188', '455190', '455191', '455196', '455204', '455209', '455214', '455219', '455229', '455236', '455238', '455272', '455280', '455283', '455284', '455289', '455293', '455306', '455328', '455341', '455347', '455348', '455352', '455355', '455357', '455361', '455362', '455367', '455368', '455371', '455372', '455383', '455384', '455385', '455386', '455387', '455388', '455389', '455390', '455392', '455394', '455396', '455397', '455401', '455405', '455409', '455416', '455417', '455418', '455421', '455423', '455425', '455428', '455436', '455441', '455444', '455446', '455448', '455452', '455453', '455454', '455455', '455456', '455457', '455458', '455459', '455462', '455465', '455490', '455494', '455496', '455497', '455506', '455508', '455510', '455512', '455515', '455527', '455528', '455532', '455535', '455545', '455550', '455551', '455553', '455554', '455555', '455556', '455557', '455558', '455559', '455561', '455562', '455564', '455565', '455567', '455571', '455572', '455573', '455576', '455578', '455580', '455581', '455582', '455583', '455585', '455587', '455588', '455590', '455597', '455598', '455600', '455601', '455602', '455603', '455604', '455606', '455607', '455608', '455610', '455611', '455612', '455615', '455616', '455617', '455618', '455626', '455628', '455631', '455632', '455633', '455634', '455656', '455667', '455673', '455678', '455679', '455682', '455684', '455685', '455686', '455709', '455710', '455718', '455720', '455722', '455729', '455739', '455762', '455766', '455770', '455771', '455773', '455779', '455784', '455785', '455792', '455799', '455800', '455803', '455812', '455816', '455818', '455820', '455825', '455827', '455829', '455858', '455859', '455860', '455861', '455862', '455864', '455865', '455867', '455868', '455870', '455875', '455878', '455882', '455883', '455886', '455896', '455899', '455904', '455908', '455909', '455913', '455914', '455915', '455918', '455919', '455926', '455928', '455932', '455933', '455934', '455935', '455936', '455945', '455952', '455953', '455956', '455957', '455961', '455962', '455971', '455972', '455976', '455981', '456010', '456014', '456016', '456024', '456053', '456056', '456059', '456069', '456071', '456072', '456085', '456086', '456091', '456094', '456101', '456107', '456109', '456110', '456136', '456170', '456174', '456176', '456200', '456205', '456218', '456222', '456247', '456263', '456270', '456273', '456331', '456337', '456344', '456363', '456376', '456418', '456438', '456467', '456471', '456490', '456501', '456529', '456533', '456534', '456535', '456536', '456543', '456574', '456576', '456625', '456629', '456681', '456690', '456698', '456727', '456740', '456741', '456778', '456798', '456800', '456827', '456839', '456868', '456873', '456876', '456930', '456931', '456952', '456967', '456974', '456980', '456984', '456985', '456990', '457010', '457025', '457052', '457062', '457067', '457073', '457076', '457077', '457078', '457079', '457080', '457081', '457082', '457083', '457084', '457085', '457086', '457087', '457088', '457089', '457090', '457091', '457092', '457093', '457094', '457095', '457096', '457097', '457098', '457099', '457100', '457101', '457102', '457103', '457104', '457106', '457107', '457109', '457112', '457120', '457121', '457122', '457123', '457124', '457125', '457126', '457127', '457128', '457131', '457135', '457137', '457139', '457142', '457143', '457144', '457145', '457146', '457147', '457148', '457149', '457150', '457151', '457152', '457155', '457156', '457157', '457158', '457160', '457161', '457162', '457163', '457165', '457166', '457168', '457169', '457219', '457222', '457257', '457265', '457416', '457452', '457516', '457526', '457577', '457583', '457630', '457703', '457721', '457759', '457761', '457777', '457806', '457854', '457855', '457930', '458014', '458029', '458057', '458327', '458400', '458410', '458438', '458479', '458648', '458819', '458831', '458897', '458898', '458904', '458905', '458947', '458948', '458958', '458980', '459008', '459028', '459030', '459039', '459150', '459204', '459208', '459213', '459220', '459244', '459261', '459264', '459280', '459282', '459307', '459314', '459315', '459316', '459319', '459354', '459360', '459363', '459385', '459409', '459495', '459577', '459602', '459626', '459628', '459645', '459653', '459655', '459673', '459678', '459713', '459768', '459769', '459802', '459839', '459946', '461485', '462107', '462401', '462435', '462499', '462539', '462611', '462661', '462685', '462778', '462810', '462942', '463074', '463103', '463111', '463287', '463351', '463487', '463522', '463605', '463676', '463809', '463880', '464004', '464026', '464143', '464191', '464224', '464357', '464379', '464441', '464514', '464539', '464545', '464578', '464582', '464610', '464667', '464717', '464823', '464873', '464879', '464932', '464962', '464985', '465000', '465003', '465010', '465083', '465103', '465116', '465403', '465485', '465487', '465555', '465590', '465594', '465595', '465637', '465665', '465681', '465689', '465701', '465771', '465810', '465895', '48108', '52902', '63305', '74203', '80705', '80804', '80853', '80903', '80952', '95158', 'F00025', 'F00267', 'F00450', 'F00451', 'F00458', 'F00485', 'F00601', 'F00614', 'F00698', 'F00705', 'F00712', 'F00747', 'F00767', 'F00786', 'F00908', 'F00912', 'F00914', 'F01026', 'F01071', 'F01105', 'F01162', 'F01181', 'F01316', 'F01424', 'F01572', 'F01612', 'F01650', 'F01718', 'F01723', 'F01727', 'F01729', 'F01781', 'F01793', 'F02041', 'F02060', 'F02204', 'F02206', 'F02322', 'F02506', 'F02588', 'F02618', 'F02623', 'F02651', 'F02657', 'F02707', 'F02742', 'F02775', 'F02778', 'F02782', 'F02836', 'F02902', 'F02911', 'F02938', 'F03061', 'F03151', 'F03153', 'F03228', 'F03268', 'F03281', 'F03293', 'F03320', 'F03321', 'F03347', 'F03351', 'F03377', 'F03410', 'F03413', 'F03423', 'F03434', 'F03438', 'F03485', 'F03495', 'F03551', 'F03556', 'F03581', 'F03656', 'F03662', 'F03669', 'F03675', 'F03688', 'F03690', 'F03706', 'F03777', 'F03963', 'F04293', 'F04360', 'F04379', 'F04423', 'F04434', 'F04560', 'F04592', 'F04594', 'F04597', 'F04598', 'F04608', 'F04628', 'F04691', 'F04707', 'F04715', 'F04756', 'F04774', 'F04786', 'F04815', 'F04860', 'F04888', 'F04890', 'F04903', 'F04908', 'F04923', 'F04939', 'F04984', 'F05011', 'F05014', 'F05057', 'F05067', 'F05069', 'F05084', 'F05105', 'F05129', 'F05141', 'F05144', 'F05145', 'F05171', 'F05181', 'F05186', 'F05188', 'F05190', 'F05196', 'F05203', 'F05207', 'F05232', 'F05237', 'F05239', 'F05247', 'F05261', 'F05266', 'F05298', 'F05307', 'F05325', 'F05345', 'F05347', 'F05413', 'F05427', 'F05434', 'F05576', 'F05597', 'F05606', 'F05613', 'F05630', 'F05639', 'F05644', 'F05657', 'F05673', 'F05678', 'F05679', 'F05728', 'F05755', 'F05767', 'F05805', 'F05846', 'F05862', 'F05870', 'F05871', 'F05879', 'F05905', 'F05909', 'F05927', 'F05930', 'F05946', 'F05960', 'F05971', 'F05975', 'F05986', 'F05991', 'F06001', 'F06046', 'F06047', 'F06051', 'F06052', 'F06060', 'F06064', 'F06066', 'F06067', 'F06072', 'F06079', 'F06083', 'F06084', 'F06085', 'F06096', 'F06107', 'F06144', 'F06147', 'F06178', 'F06189', 'F06192', 'F06211', 'F06220', 'F06225', 'F06244', 'F06256', 'F06271', 'F06292', 'F06305', 'F06330', 'F06332', 'F06376', 'F06377', 'F06467', 'F06510', 'F06512', 'F06536', 'F06539', 'F06558', 'F06562', 'F06569', 'F06753', 'F06757', 'F06760', 'F06767', 'F06779', 'F06793', 'F06797', 'F06841', 'F06854', 'F06873', 'F06881', 'F06895', 'F06919', 'F06921', 'F06931', 'F06953', 'F06991', 'F07095', 'F07114', 'F07118', 'F07122', 'F07188', 'F07212', 'F07217', 'F07219', 'F07230', 'F07232', 'F07244', 'F07246', 'F07285', 'F07286', 'F07291', 'F07301', 'F07303', 'F07305', 'F07308', 'F07311', 'F07316', 'F07321', 'F07329', 'F07332', 'F07333', 'F07334', 'F07335', 'F07341', 'F07345', 'F07348', 'F07352', 'F07353', 'F07356', 'F07362', 'F07363', 'F07364', 'F07368', 'F07371', 'F07372', 'F07374', 'F07377', 'F07379', 'F07381', 'F07382', 'F07386', 'F07389', 'F07390', 'F07392', 'F07395', 'F07399', 'F07403', 'F07408', 'F07412', 'F07418', 'F07419', 'F07420', 'F07428', 'F07429', 'F07430', 'F07431', 'F07433', 'F07439', 'F07440', 'F07446', 'F07449', 'F07450', 'F07452', 'F07455', 'F07460', 'F07461', 'F07465', 'F07469', 'F07472', 'F07474', 'F07477', 'F07481', 'F07483', 'F07485', 'F07487', 'F07502', 'F07503', 'F07508', 'F07524', 'F07532', 'F07534', 'F07536', 'F07538', 'F07541', 'F07552', 'F07570', 'F07575', 'F07582', 'F07583', 'F07584', 'F07588', 'F07589', 'F07601', 'F07613', 'F07664', 'F07668', 'F07710', 'F07712', 'F07719', 'F07728', 'F07738', 'F07739', 'F07792', 'F07795', 'F07823', 'F07834', 'F07835', 'F07843', 'F07860', 'F07896', 'F07907', 'F07908', 'F07914', 'F07919', 'F07927', 'F07953', 'F07965', 'F07966', 'F08022', 'F08027', 'F08065', 'F08083', 'F08092', 'F08100', 'F08102', 'F08111', 'F08130', 'F08131', 'F08151', 'F08156', 'F08159', 'F08217', 'F08229', 'F08257', 'F08271', 'F08274', 'F08280', 'F08285', 'F08286', 'F08287', 'F08288', 'F08290', 'F08293', 'F08294', 'F08296', 'F08297', 'F08300', 'F08301', 'F08302', 'F08304', 'F08305', 'F08325', 'F08327', 'F08328', 'F08331', 'F08333', 'F08334', 'F08336', 'F08339', 'F08344', 'F08346', 'F08350', 'F08351', 'F08353', 'F08355', 'F08356', 'F08358', 'F08377', 'F08382', 'F08394', 'F08396', 'F08399', 'F08402', 'F08403', 'F08404', 'F08406', 'F08407', 'F08408', 'F08409', 'F08410', 'F08411', 'F08412', 'F08415', 'F08416', 'F08418', 'F08423', 'F08424', 'F08425', 'F08429', 'F08441', 'F08442', 'F08443', 'F08446', 'F08447', 'F08449', 'F08451', 'F08454', 'F08455', 'F08463', 'F08464', 'F08465', 'F08473', 'F08475', 'F08482', 'F08483', 'F08485', 'F08486', 'F08493', 'F08501', 'F08503', 'F08506', 'F08508', 'F08510', 'F08514', 'F08515', 'F08516', 'F08522', 'F08533', 'F08538', 'F08539', 'F08541', 'F08542', 'F08551', 'F08552', 'F08573', 'F08590', 'F08595', 'F08596', 'F08597', 'F08598', 'F08600', 'F08603', 'F08605', 'F08607', 'F08616', 'F08617', 'F08618', 'F08619', 'F08623', 'F08628', 'F08629', 'F08635', 'F08639', 'F08644', 'F08648', 'F08660', 'F08665', 'F08669', 'F08671', 'F08678', 'F08682', 'F08700', 'F08705', 'F08706', 'F08707', 'F08708', 'F08709', 'F08712', 'F08718', 'F08726', 'F08727', 'F08731', 'F08733', 'F08737', 'F08738', 'F08739', 'F08747', 'F08751', 'F08755', 'F08758', 'F08768', 'F08774', 'F08775', 'F08779', 'F08784', 'F08789', 'F08791', 'F08794', 'F08795', 'F08796', 'F08797', 'F08799', 'F08804', 'F08807', 'F08809', 'F08815', 'F08819', 'F08822', 'F08823', 'F08825', 'F08828', 'F08829', 'F08839', 'F08847', 'F08853', 'F08856', 'F08859', 'F08862', 'F08872', 'F08887', 'F08897', 'F08904', 'F08910', 'F08912', 'F08913', 'F08917', 'F08919', 'F08933', 'F08941', 'F08943', 'F08946', 'F08953', 'F08959', 'F08971', 'F08986', 'F08989', 'F08990', 'F08992', 'F08998', 'F09002', 'F09013', 'F09016', 'F09018', 'F09023', 'F09024', 'F09029', 'F09032', 'F09033', 'F09037', 'F09039', 'F09042', 'F09045', 'F09049', 'F09052', 'F09058', 'F09062', 'F09066', 'F09070', 'F09071', 'F09072', 'F09075', 'F09077', 'F09088', 'F09089', 'F09094', 'F09098', 'F09100', 'F09106', 'F09108', 'F09110', 'F09117', 'F09125', 'F09129', 'F09135', 'F09142', 'F09143', 'F09145', 'F09157', 'F09160', 'F09161', 'F09165', 'F09166', 'F09169', 'F09170', 'F09177', 'F09179', 'F09180', 'F09187', 'F09189', 'F09201', 'F09212', 'F09214', 'F09225', 'F09244', 'F09253', 'F09274', 'F09276', 'F09277', 'F09291', 'F09292', 'F09293', 'F09309', 'F09320', 'F09349', 'F09366', 'F09398', 'F09413', 'F09444', 'F09462', 'F09491', 'F09499', 'F09506', 'F09508', 'F09512', 'F09516', 'F09518', 'F09519', 'F09520', 'F09521', 'F09523', 'F09528', 'F09529', 'F09537', 'F09540', 'F09542', 'F09543', 'F09545', 'F09551', 'F09552', 'F09554', 'F09557', 'F09558', 'F09560', 'F09561', 'F09566', 'F09570', 'F09571', 'F09572', 'F09574', 'F09597', 'F09601', 'F09620', 'F09622', 'F09623', 'F09626', 'F09629', 'F09630', 'F09633', 'F09637', 'F09638', 'F09667', 'F09671', 'F09674', 'F09698', 'F09726', 'F09727', 'F09728', 'F09729', 'F09730', 'F09731', 'F09732', 'F09733', 'F09734', 'F09735', 'F09736', 'F09737', 'F09742', 'F09746', 'F09748', 'F09757', 'F09762', 'F09808', 'F09826', 'F09830', 'F09831', 'F09832', 'F09835', 'F09843', 'F09848', 'F09850', 'F09854', 'F09855', 'F09857', 'F09858', 'F09864', 'F09865', 'F09866', 'F09867', 'F09868', 'F09869', 'F09870', 'F09871', 'F09872', 'F09873', 'F09875', 'F09876', 'F09877', 'F09878', 'F09880', 'F09881', 'F09901', 'F09904', 'F09918', 'F09950', 'F09951', 'F09980', 'F09982', 'F09983', 'F09987', 'F09988', 'F09990', 'F09992', 'F09994', 'F09996', 'F09997', 'F09999', 'F10001', 'F10098', 'F10106', 'F10111', 'F10132', 'F10151', 'F10250', 'F10300', 'F10302', 'F10317', 'F10478', 'F10562', 'F10669', 'F10712', 'F10795', 'F10960', 'F11027', 'F11090', 'F11091', 'F11093', 'F11095', 'F11096', 'F11098', 'F11099', 'F11100', 'F11102', 'F11103', 'F11330', 'F11538', 'F11544', 'F11546', 'F11547', 'F11548', 'F11549', 'F11550', 'F11551', 'F11560', 'F11562', 'F11567', 'F11568', 'F11569', 'F11570', 'F11571', 'F11572', 'F11573', 'F11587', 'F11588', 'F11599', 'F11622', 'F11623', 'F11626', 'F11635', 'F11637', 'F11638', 'F11641', 'F11653', 'F11655', 'F11661', 'F11704', 'F11708', 'F11711', 'F11725', 'F11728', 'F11734', 'F11738', 'F11762', 'F11772', 'F11776', 'F11785', 'F11823', 'F11834', 'F11841', 'F11857', 'F11883', 'F11887', 'F11900', 'F11913', 'F11920', 'F11974', 'F11985', 'F11998', 'F12030', 'F12032', 'F12041', 'F12043', 'F12044', 'F12048', 'F12049', 'F12053', 'F12054', 'F12056', 'F12058', 'F12059', 'F12060', 'F12061', 'F12062', 'F12064', 'F12068', 'F12070', 'F12073', 'F12074', 'F12075', 'F12079', 'F12083', 'F12084', 'F12085', 'F12086', 'F12087', 'F12093', 'F12099', 'F12102', 'F12108', 'F12110', 'F12118', 'F12120', 'F12125', 'F12127', 'F12128', 'F12129', 'F12137', 'F12142', 'F12144', 'F12145', 'F12146', 'F12156', 'F12158', 'F12159', 'F12165', 'F12166', 'F12170', 'F12171', 'F12172', 'F12173', 'F12176', 'F12178', 'F12184', 'F12191', 'F12195', 'F12196', 'F12200', 'F12201', 'F12205', 'F12206', 'F12207', 'F12209', 'F12210', 'F12212', 'F12213', 'F12214', 'F12215', 'F12217', 'F12219', 'F12220', 'F12221', 'F12222', 'F12224', 'F12226', 'F12231', 'F12232', 'F12235', 'F12239', 'F12242', 'F12243', 'F12249', 'F12251', 'F12253', 'F12255', 'F12262', 'F12264', 'F12280', 'F12284', 'F12287', 'F12290', 'F12291', 'F12295', 'F12305', 'F12312', 'F12313', 'F12314', 'F12316', 'F12317', 'F12318', 'F12322', 'F12331', 'F12345', 'F12348', 'F12360', 'F12361', 'F12362', 'F12366', 'F12367', 'F12368', 'F12370', 'F12371', 'F12372', 'F12375', 'F12377', 'F12380', 'F12384', 'F12388', 'F12395', 'F12398', 'F12402', 'F12405', 'F12407', 'F12409', 'F12412', 'F12414', 'F12423', 'F12424', 'F12432', 'F12442', 'F12447', 'F12448', 'F12457', 'F12459', 'F12465', 'F12470', 'F12471', 'F12475', 'F12478', 'F12483', 'F12488', 'F12501', 'F12510', 'F12512', 'F12513', 'F12517', 'F12518', 'F12522', 'F12525', 'F12527', 'F12531', 'F12533', 'F12534', 'F12536', 'F12537', 'F12543', 'F12549', 'F12550', 'F12551', 'F12552', 'F12554', 'F12556', 'F12558', 'F12559', 'F12561', 'F12567', 'F12568', 'F12571', 'F12574', 'F12578', 'F12588', 'F12594', 'F12607', 'F12610', 'F12614', 'F12635', 'F12636', 'F12637', 'F12639', 'F12641', 'F12643', 'F12644', 'F12647', 'F12650', 'F12657', 'F12659', 'F12661', 'F12672', 'F12674', 'F12683', 'F12684', 'F12685', 'F12689', 'F12692', 'F12696', 'F12699', 'F12700', 'F12709', 'F12713', 'F12718', 'F12724', 'F12733', 'F12738', 'F12747', 'F12750', 'F12758', 'F12772', 'F12774', 'F12779', 'F12786', 'F12792', 'F12795', 'F12796', 'F12798', 'F12822', 'F12826', 'F12827', 'F12835', 'F12845', 'F12846', 'F12847', 'F12848', 'F12850', 'F12851', 'F12852', 'F12857', 'F12874', 'F12891', 'F12895', 'F12896', 'F12898', 'F12899', 'F12900', 'F12903', 'F12904', 'F12907', 'F12911', 'F12915', 'F12916', 'F12917', 'F12918', 'F12926', 'F12929', 'F12931', 'F12938', 'F12939', 'F12940', 'F12943', 'F12947', 'F12948', 'F12959', 'F12961', 'F12966', 'F12969', 'F12973', 'F12999', 'F13000', 'F13001', 'F13002', 'F13004', 'F13009', 'F13010', 'F13013', 'F13015', 'F13016', 'F13017', 'F13018', 'F13019', 'F13021', 'F13024', 'F13025', 'F13026', 'F13027', 'F13032', 'F13036', 'F13041', 'F13043', 'F13045', 'F13048', 'F13050', 'F13051', 'F13052', 'F13053', 'F13054', 'F13055', 'F13056', 'F13058', 'F13059', 'F13062', 'F13063', 'F13064', 'F13065', 'F13066', 'F13067', 'F13068', 'F13069', 'F13070', 'F13072', 'F13074', 'F13075', 'F13078', 'F13079', 'F13081', 'F13085', 'F13086', 'F13087', 'F13088', 'F13089', 'F13090', 'F13091', 'F13093', 'F13095', 'F13097', 'F13098', 'F13099', 'F13100', 'F13102', 'F13105', 'F13107', 'F13108', 'F13111', 'F13113', 'F13114', 'F13117', 'F13121', 'F13122', 'F13123', 'F13125', 'F13129', 'F13132', 'F13133', 'F13135', 'F13140', 'F13142', 'F13143', 'F13146', 'F13153', 'F13157', 'F13159', 'F13160', 'F13163', 'F13164', 'F13166', 'F13167', 'F13169', 'F13170', 'F13171', 'F13175', 'F13179', 'F13180', 'F13181', 'F13182', 'F13186', 'F13187', 'F13193', 'F13194', 'F13195', 'F13196', 'F13198', 'F13199', 'F13200', 'F13205', 'F13207', 'F13209', 'F13210', 'F13219', 'F13222', 'F13227', 'F13228', 'F13229', 'F13230', 'F13231', 'F13232', 'F13237', 'F13238', 'F13239']</t>
         </is>
@@ -1772,7 +1825,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1835,12 +1888,15 @@
         <v>25</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>126831</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>1828</v>
       </c>
-      <c r="W18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>['(CAHRD) Centre for Aboriginal Human Resource Development Inc.', '100 Mile House and District Soccer Association', '1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society and IRC, Innovation Resource Centre Council', '2017 Canada Summer Games Host Society Inc.', '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc', '5N Plus Inc.', 'A.S.T.C. Science World Society', 'AERIC INC.', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Business Service Network Society', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada Inc.', 'Aboriginal Seniors Gathering Place Society of Calgary', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan Inc.', 'Accelerate Okanagan Technology Association', 'Adams Lake Indian Band', 'Advanced Applied Physics Solutions', 'Aerospace Industries Association of Canada', 'Aerospace Industry Association of British Columbia', 'Affinity Credit Union', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Airdrie &amp; District Gymnastics Club', 'Alberni Athletic Association', 'Alberni Valley Chamber of Commerce', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', 'Alberta Chambers of Commerce', 'Alberta Cricket Association and The City of Edmonton', 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Emerald Foundation for Environmental Excellence', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Innovation and Advanced Education', 'Alberta International &amp; Intergovernmental Relations', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Sports Hall of Fame and Museum Society', 'Alberta Terrestrial Imaging Corp.', 'Alberta Tourism, Parks and Recreation', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', 'Aldergrove Community League and the City of Edmonton', 'Alexis Creek Community Club &amp; Community Services &amp; Development Society of Alexis', 'Alexis Creek Indian Band', 'Alliance of Manufacturers &amp; Exporters Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anmore Renewable Energy Foundation', 'Applewood Park Community Association and The City of Calgary', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arlington Beach Camp and Conference Centre Inc.', 'Army, Navy &amp; Air Force Veterans in Canada, Assiniboia Unit #283', 'Army, Navy and Air Force Veterans in Canada', 'Arts and Heritage Foundation of St. Albert', 'Asia Pacific Foundation of Canada', 'AssentWorks Inc.', "Assiniboine - Qu'Appelle Valleylands Inc.", 'Assiniboine Community College', 'Assiniboine Community College Parkland Campus', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Conservancy Inc.', 'Association of Professional Engineers and Geoscientists of British Columbia', 'Athabasca Regional Multiplex Society and Town of Athabasca', 'Athabasca University', 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C. Wood Specialties Group Association', 'BARK Design Collective', 'BC Farm Museum Association', 'BC Technology Industry Association', 'Back Country Horsemen Society of British Columbia', 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee Inc.', 'Beakerhead Creative Society', "Beardy's and Okemasis Band", 'Beaver River Community Futures Development Corporation', 'Belgravia Community League', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Berens River First Nation', 'Berger Peat Moss Ltd.', 'Big Brothers and Big Sisters of Red Deer &amp; District and Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Hills and District Recreation Board', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blackie and District Agricultural Society', 'Blue Lake Forest Education Society', 'Blue River Community Association', 'Board of Education of The Saskatoon School Division No. 13 Trust Fund', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Dept. Fund Raising Association &amp; Town of Bow Island', 'Bow Island Branch No. 197 of the Royal Canadian Legion', 'Bowen Island Municipality', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Boys and Girls Club of Cochrane and Area and Boys and Girls Clubs of Canada', 'Boys and Girls Clubs of Winnipeg Inc.', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'Brandon University', 'Brentwood Community Association', 'Britannia Beach Historical Society and Britannia Development Corporation', 'British Columbia 2009 World Police and Fire Games', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Chamber of Commerce', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Cranberry Marketing Commission', 'British Columbia Institute of Technology', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Brunkild Memorial Recreation Centre', 'Buck Lake Stampede Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', 'Burnaby Association for Community  Inclusion', 'Burns Lake Band', 'Business Council of British Columbia', 'Business Development Bank of Canada', 'Business Link Business Service Centre', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CGEF Canadian Global Exploration Forum', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Business Information Centre', 'Calgary Centre for Performing Arts', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation and the City of Calgary', 'Calgary Technologies Inc.', "Calgary Young Men's Christian Association", 'Callingwood/Lymburn Community League', 'Camosun College', 'Camp Health, Hope and Happiness Society', 'Camp Massad of Manitoba', 'Camp Warwa', 'Campbell River Indian Band', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canada/British Columbia Business Services Society', 'Canadian Association of Defence and Security Industries', 'Canadian Association of University Research Parks', 'Canadian Badlands Ltd.', 'Canadian Beef Cattle Research, Market Development and Promotion Agency', 'Canadian Centre for Unmanned Vehicle Systems', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Community Economic Development Network', 'Canadian Environmental Test Research and Education Center Inc.', 'Canadian Hydrogen and Fuel Cell Association', 'Canadian International Grains Institute', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Light Source Inc.', 'Canadian Malting Barley Technical Centre', 'Canadian Manufacturers &amp; Exporters', 'Canadian Mennonite University', 'Canadian Mental Health Association , Winnipeg Region', 'Canadian Paraplegic Association (Alberta)', 'Canadian Red Cross Society', 'Canadian Standards Association', 'Canadian Standards Association Group', 'Canadian Ukrainian Institute Prosvita', 'Candle Lake Curling Club Inc.', 'Canim Lake Band', 'Canmore &amp; Area Health Care Foundation and the Town of Canmore', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Cape Mudge Indian Band', 'Capilano University', 'Capital Regional District', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. and Carbon Engineering Limited Partnership', 'Cardston Soccer Club and Town of Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Regional District', 'Cariboo Ski - Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrier Chilcotin Tribal Council', 'Carrot River Curling Club', 'Castle Downs Recreation Society and the City of Edmonton', 'Cayuse Logging', 'Cedar Heights Community Association', 'Cedar Lake Community Futures Development Corporation', 'Cedar Point Class "C" Provincial Park Board &amp; Likely Community Forest Society', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League, City of Edmonton', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development', 'Centre for Education and Work', 'Centre for Native Policy and Research', 'Centre of Integration for African Immigrants (CIIA-CIAI)', 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society and the Village of Chauvin', "Chemainus Community Schools' Association", 'Cheslatta Carrier Nation', 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre Of Greater Vancouver', 'Chinook Community Futures Development Corporation', 'Christina Lake Chamber of Commerce', 'Churchill Gateway Development Corp.', 'City of Abbotsford', 'City of Airdrie', 'City of Armstrong', 'City of Brandon', 'City of Brooks', 'City of Burnaby', 'City of Calgary', 'City of Campbell River', 'City of Camrose', 'City of Chilliwack', 'City of Coquitlam', 'City of Dauphin', 'City of Duncan', 'City of Edmonton', 'City of Edmonton and Alberta Avenue Community League', 'City of Edmonton and Killarney Community League', 'City of Edmonton and the Edmonton Nature Centres Foundation', 'City of Flin Flon', 'City of Fort Saskatchewan', 'City of Fort St. John', 'City of Grand Forks', 'City of Grande Prairie', 'City of Kamloops', 'City of Kamloops and Kamloops Airport Authority Society', 'City of Kelowna', 'City of Langford', 'City of Langley', 'City of Leduc', 'City of Lethbridge', 'City of Lloydminster', 'City of Maple Ridge', 'City of Martensville', 'City of Meadow Lake', 'City of Medicine Hat', 'City of Melfort', 'City of Merritt', 'City of Moose Jaw', 'City of Nanaimo', 'City of Nelson', 'City of Parksville', 'City of Pitt Meadows', 'City of Port Alberni', 'City of Portage La Prairie', 'City of Powell River', 'City of Prince Albert', 'City of Prince George', 'City of Prince Rupert', 'City of Quesnel', 'City of Red Deer', 'City of Regina', 'City of Revelstoke', 'City of Richmond', 'City of Salmon Arm', 'City of Saskatoon', 'City of Steinbach', 'City of Surrey', 'City of Swift Current', 'City of Terrace', 'City of Thompson', 'City of Vancouver', 'City of Victoria', 'City of West Kelowna', 'City of Wetaskiwin', 'City of Weyburn', 'City of Williams Lake', 'City of Williams Lake &amp; Williams Lake Stampede Association', 'City of Winkler', 'City of Yorkton', 'Claresholm Community Centre Association and the Town of Claresholm', 'Clive Athletic and Agricultural Society', 'Club Ile-des-Chenes', 'Club Sportif Iberville', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership and Coastal Shellfish Corporation', 'Coldwater Indian Band', 'College Educacentre College', 'College of New Caledonia', 'College of the Rockies', 'Columbia Shuswap Regional District', 'Columbia Valley Chamber of Commerce', 'Columbia Valley Cycling Society', 'Communities of Tomorrow - Partners for Sustainability Inc.', 'Community Futures Alberta Southwest', 'Community Futures Big Country', 'Community Futures Capital Region', 'Community Futures Central Alberta', 'Community Futures Centre West', 'Community Futures Crowsnest Pass', 'Community Futures Development Association of B.C.', 'Community Futures Development Corporation - Cowichan Region', 'Community Futures Development Corporation of 16/37', 'Community Futures Development Corporation of Alberni-Clayoquot', 'Community Futures Development Corporation of Boundary Area', 'Community Futures Development Corporation of Cariboo-Chilcotin', 'Community Futures Development Corporation of Central Interior First Nations', 'Community Futures Development Corporation of Central Island', 'Community Futures Development Corporation of Central Kootenay', 'Community Futures Development Corporation of Central Okanagan', 'Community Futures Development Corporation of Fraser Fort George', 'Community Futures Development Corporation of Greater Trail', 'Community Futures Development Corporation of Howe Sound', 'Community Futures Development Corporation of Mt. Waddington', 'Community Futures Development Corporation of Nadina', 'Community Futures Development Corporation of Nicola Valley', 'Community Futures Development Corporation of North Cariboo', 'Community Futures Development Corporation of North Fraser', 'Community Futures Development Corporation of Okanagan-Similkameen', 'Community Futures Development Corporation of Peace Liard', 'Community Futures Development Corporation of Revelstoke', 'Community Futures Development Corporation of South Fraser', 'Community Futures Development Corporation of Sto:lo', 'Community Futures Development Corporation of Stuart-Nechako', 'Community Futures Development Corporation of Sun Country', 'Community Futures Development Corporation of Thompson Country', 'Community Futures Development Corporation of the North Okanagan', 'Community Futures Development Corporation of the Pacific Northwest', 'Community Futures Development Corporation of the Powell River Region', 'Community Futures Development Corporation of the Shuswap', 'Community Futures Development Corporation of the Sunshine Coast', 'Community Futures East Central Alberta', 'Community Futures East Interlake Inc.', 'Community Futures East Kootenay', 'Community Futures East Parkland', 'Community Futures Elk Island Region', 'Community Futures Entre-Corp Business Development', 'Community Futures Grande Prairie &amp; Region', 'Community Futures Greenstone Inc.', 'Community Futures Heartland Inc.', 'Community Futures Highwood', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Lakeland', 'Community Futures Lesser Slave Lake Region', 'Community Futures Lethbridge Region', 'Community Futures Lloydminster and Region Development Corporation', 'Community Futures Manitoba Inc.', 'Community Futures Network of Alberta', 'Community Futures North Red Inc.', 'Community Futures Northwest Alberta', 'Community Futures Parkland Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Community Futures Peace Country', 'Community Futures Peace Liard and Energy Services BC', 'Community Futures St. Paul - Smoky Lake Region', 'Community Futures Strathcona', 'Community Futures Tawatinaw Region', 'Community Futures Treaty Seven', 'Community Futures Triple R Corporation', 'Community Futures West Interlake Inc.', 'Community Futures West Yellowhead', 'Community Futures Westman Inc.', 'Community Futures Wild Rose', 'Community Futures Winnipeg River Corp.', 'Community Futures Wood Buffalo', 'Community Futures Yellowhead East', 'Comox Valley Economic Development Society', 'Comox Valley Regional District', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', "Conseil de developpement economique de l'Alberta", 'Conseil de la Cooperation de la Saskatchewan Limited', "Cook's Creek Community Centre Inc.", "Cook's Ferry Indian Band", 'Corporation of the City of Fernie', 'Corporation of the City of New Westminster', 'Corporation of the District of Kent', 'Corporation of the District of North Vancouver', 'Corporation of the Village of Clinton', 'Corporation of the Village of Lumby', 'Corporation of the Village of Pemberton', 'Corvus Energy Ltd.', 'Cosmopolitan Industries Ltd.', 'Council of Tourism Associations of British Columbia', 'County of Camrose No. 22', 'County of Grande Prairie No. 1', 'County of Wetaskiwin No. 10', 'Courtenay &amp; District Fish &amp; Game Protective Association', 'Covenant Health', 'Cowichan Rugby Club', 'Cowichan Station Area Association', 'Cowichan Valley Regional District', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Creighton School Division 111', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Cross Lake First Nation', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Historical Society', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', 'Cumberland Regional College', 'Cumberland/Oxford Community League (COCL) and The City of Edmonton', 'DWB Consulting Services Ltd.', 'Dakota Ojibway Community Futures Development Corporation', 'Dancing Sky Theatre Inc', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc', 'Dawson Creek Curling Club &amp; The City of Dawson Creek', 'Day Star First Nation', 'DeBolt &amp; District Agricultural Society', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', 'District of 100 Mile House', 'District of Chetwynd', 'District of Clearwater', 'District of Elkford', 'District of Fort St. James', 'District of Highlands', 'District of Houston', 'District of Invermere', 'District of Kitimat', 'District of Lillooet', 'District of Logan Lake', 'District of Mackenzie', 'District of Mackenzie and District of Fort St. James', 'District of Mission', 'District of Sparwood', 'District of Taylor', 'District of Tofino', 'District of Tumbler Ridge', 'District of Ucluelet', 'District of Vanderhoof', 'District of Wells', 'Dorintosh Community Co-operative', 'Drake Forestry Services Ltd.', 'Ducks Unlimited Canada', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'E.I.D. Historical Park', 'EAST SIDE EAGLES FOOTBALL CLUB INC.', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'Eastside Movement for Business and Economic Renewal Society', 'Eckville Community Centre Society and the Town of Eckville', 'EcoSmart Foundation Inc.', 'Ecole Secondaire Kelvin High School', 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Chinatown Multicultural Centre Foundation', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Edmonton Regional Airports Authority', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elboya Heights Community Association', 'Elkhorn &amp; District Community Center Incorporated', 'Elkhorn Curling Club Trust', 'Ellerslie Rugby Park Incorporated', 'Elmwood Community League and the City of Edmonton', 'Elmwood Giants Baseball Club Inc.', 'Elmwood High School', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Emily Carr University of Art and Design', 'Ernst &amp; Young LLP', 'Esketemc First Nation', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', "FPInnovations and First Nations' Forestry Society", 'FPInnovations-FERIC Division', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Fanny Bay Harbour Authority', 'Farm Genesis Group Marketing Inc', 'Farmers Market Association of Manitoba Co-Op Inc', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie &amp; District Historical Society', 'Festival  Du Voyageur Inc.', 'Film Training Manitoba Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Flying Dust First Nation', 'Fond Du Lac Denesuline First Nation', 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', 'Fort Edmonton Management Company and the City of Edmonton', 'Fort Garry Lions Football Club Inc.', 'Fort Langley Canoe Club', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Chamber of Commerce and The District of Fort St. James', 'Fort St. James Ski Club', 'Fort Vermilion Recreation Board', 'Fort a la Corne Development Corporation', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', 'Forum for Women Entrepreneurs in British Columbia', 'Four Host First Nations Society', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser River Port Authority', 'Fraser Thompson Indian Services Society', 'Fraser Valley Regional District', 'Friends of Camp St. Basil Society &amp; Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garden City Community Centre Inc', 'Garrison Curling Club (Calgary)', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome British Columbia', 'Genome Prairie', 'GeoExchange BC', 'Gibsons Curling Club', 'Gift Lake Metis Settlement', 'Gilmore Park Community League and Strathcona County', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glacier Gymnastics Club', 'Gleichen and District Agricultural Society', 'Glenbow Ranch Park Foundation', 'Glenbow-Alberta Institute', 'Glenora Community League and the City of Edmonton', 'Glenrose Rehabilitation Hospital Foundation', 'Glenwood Community Centre Inc.', 'Global Vision', 'Gold Bar Community League', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', 'Government House Foundation', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', 'Grande Prairie Centre 2000', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Grande Prairie Regional College', 'Grande Prairie Ski Club', 'Grandview &amp; District Recreation Commission', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Great Plains College', 'Greater Vancouver Regional District', 'Greater Victoria Chamber of Commerce', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'Gwaalagaa Naay Corporation', 'H. R. MacMillan Space Centre Society', 'HD-Petroleum Inc.', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', 'Habitat for Humanity Saskatoon Inc.', 'Haida Gwaii Community Futures Development Corporation', 'Hartley Bay Indian Band', 'Haynes Contracting', 'Hazel Bluff Community Agricultural Society (A Div. of The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Headingley Grand Trunk Trail Assocation', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', 'Heritage Point Community League and the City of Edmonton', 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet  Manufacturing Ltd.', 'Hillmond Central Sports Society', 'Hindu Society of Manitoba', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holy Family Elementary School &amp; St. Paul's RCSSD No. 20", 'Holyrood Community League and The City of Edmonton', 'Hong Kong Canada Business Association', 'Horsefly District Board of Trade', 'Huntington Hills Community Association', 'Hythe Athletic Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Waterton Lakes National Park', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', 'Inglewood Community League of Edmonton &amp; The City of Edmonton', 'Initiatives Prince George Development Corporation', 'Innovative Trauma Care Inc.', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma Agricultural Society and the Village of Irma', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'Italian Chamber of Commerce in Canada - West', 'J. Hinsche Contracting Ltd.', 'James Smith Cree Nation', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', 'Jasper Place Curling Club and the City of Edmonton', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton and Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John M. Cuelenaere Public Library and the City of Prince Albert', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KAMLOOPS CURLING CLUB', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kamloops Indian Band', 'Kaslo &amp; District Arena Association', 'Kaslo and District Community Forest Society', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Keyano College', 'Khowutzun Forest Service Ltd', 'Kikino Metis Settlement Corporation', "Kilkenny Community League, City of Edmonton and Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kinsmen Club of Boissevain', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kitamaat Village Council', 'Kitayan Community Futures Development Corporation', 'Kla-how-eya Aboriginal Centre of Surrey AboriginalCultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Family Place', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', 'Kwantlen Polytechnic University', 'L.U.D. of Cranberry Portage', 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', "La Chambre economique de l'Alberta", 'La Crete Agricultural Society', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La federation des francophones de Saskatoon Inc.', 'Lac La Biche County', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Lac La Ronge Indian Band', 'Lac Ste. Anne County', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Lakeland College', 'Langley Minor Football Association', 'Lardeau Valley Community Centre', 'Laurier Heights Community League', "Lax Kw'alaams Band", 'Le Centre Recreatif Notre Dame Recreational Centre Inc.', 'Le College Mathieu', 'Le College Universitaire de Saint-Boniface', 'Le Conseil de developpement economique des municipalites bilingues du Manitoba', "Le Marche St. Norbert Farmers' Market Coop Inc.", 'Leadership and Management Development Council of British Columbia', 'Learning Disabilities Association of Saskatchewan Inc.', 'Leduc County', 'Leduc/Devon Oilfield Historical Society', 'Lethbridge Economic Development Initiative Society', 'Lethbridge Family Services', "Lheidli T'enneh Band", 'Life Science Association of Manitoba Inc.', 'Life Sciences British Columbia Society', 'Light House Sustainable Building Centre Society', 'Linden Woods Community Centre Inc.', 'Lindsay Park Sports Society', 'Linwood Child Centre Inc.', 'Little Pine First Nation', 'Little Shuswap Lake Indian Band', 'Lloydminster Agricultural Exhibition Association Ltd.', 'Lloydminster Air Cadet 186 Squadron Inc.', 'Louis Riel School Division', 'Lower Kootenay Indian Band', 'Lower Nicola Indian Band', 'Luck Lake Irrigation District, Inc.', 'Lundar Museum Society Inc.', "Lynn's Contracting", 'MA MAWI-WI-CHI-ITATA CENTRE INC.', 'MLTC Program Services Inc.', 'MLTC Resource Development Inc.', 'Ma Mawi-Wi-Chi-Itata Centre Inc.', 'Ma-Mow-We-Tak Friendship Centre Inc.', 'Mackenzie County', 'Macklin Lake Regional Park Authority', 'Madden &amp; District Agricultural Society', 'Magyar Favago Holdings Ltd.', 'Mallaig &amp; District Agricultural Society and Recreation Association', 'Mallard Diversified Services Inc.', 'Manitoba Aerospace Association Inc.', 'Manitoba Association of Agricultural Societies Inc.', 'Manitoba Association of Chiefs of Police Inc.', 'Manitoba Cardiac Institute (REH-FIT) Inc.', "Manitoba Children's Museum Inc.", 'Manitoba Corn Growers Association', 'Manitoba Hydro', 'Manitoba Institute of Trades and Technology', 'Manitoba International Gateway Council', 'Manitoba Metis Federation (Thompson Region) Inc.', 'Manitoba Metis Federation Inc.', 'Manitoba Music Industry Association', 'Manitoba Pork Council', 'Manitoba Pulse Growers Association Inc.', 'Manitoba Sector Training Network Inc.', 'Manitoba Trade &amp; Investment Corporation', 'Manitoba Trucking Association', 'Manitoba Urban Native Housing Association Inc.', "Manitoba Women's Enterprise Centre Inc", 'Mannville &amp; District Agricultural Society', 'Maples Recreation Association Inc.', 'Marda Loop Communities Association', 'Market Technology Society', 'Marlborough Park Community Association', 'Mathematics of Information Techno</t>
         </is>
@@ -1853,7 +1909,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1916,12 +1972,15 @@
         <v>25</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>147483</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>1864</v>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>['1132734 Alberta Ltd.', '1369058 Alberta Society and Improvement District No. 9', '16/97 Economic Alliance Society et IRC, Innovation Resource Centre Council', "186e Escadron des cadets de l'Air de Lloydminster inc.", '30 Days of Sustainability Society', '3D Forestry Ltd', '4-H Foundation of Alberta', '411 Seniors Centre Society (1977)', '439281 BC Ltd.', '5310911 Manitoba Association Inc.', '5861471 Manitoba Inc. O/A HD-Petroleum', 'A.S.T.C. Science World Society', 'AbCellera Biologics Inc.', 'Aberdeen &amp; District Charities Inc.', 'Aboriginal Community Career Employment Services Society', 'Aboriginal Friendship Centre of Calgary', 'Aboriginal Human Resource Development Council of Canada inc.', 'Aboriginal Tourism Association of British Columbia', 'Aboriginal Tourism Association of Saskatchewan inc.', 'Accelerate Okanagan Technology Association', "Administration aeroportuaire regionale d'Edmonton", 'Administration aeroportuaire regionale de Red Deer', 'Administration du Centre Wascana', 'Administration du parc regional de Macklin Lake', 'Administration du parc regional de Struthers Lake', 'Administration portuaire Vancouver-Fraser', 'Administration portuaire de Fanny Bay', 'Administration portuaire de Pender Harbour', 'Administration portuaire de Prince Rupert', 'Administration portuaire du Grand Victoria', 'Advanced Applied Physics Solutions', 'Aerospace Industry Association of British Columbia', 'Ag-West Bio Inc.', 'Agence nationale et internationale du Manitoba', 'Alberni Athletic Association', 'Alberta Avenue Community League', 'Alberta Beach', 'Alberta Biotechnology Association', 'Alberta Birds of Prey Foundation', 'Alberta California Venture Channel', 'Alberta Centre for Advanced MNT Products', "Alberta Cricket Association et Ville d'Edmonton", 'Alberta Crop Industry Development Fund Ltd.', 'Alberta Easter Seals Society', 'Alberta Forest Products Association', 'Alberta Innovates - Health Solutions', 'Alberta Innovates - Technology Futures', 'Alberta Motion Picture Industries Association', 'Alberta Science and Technology Leadership Foundation', 'Alberta Terrestrial Imaging Corp.', 'Alberta Women Entrepreneurs', 'Alberta Women Entrepreneurs Association', 'Alberta-Pacific Forest Industries Inc.', 'Alcan Anderson Creek Shooting Club', "Aldergrove Community League et Ville d'Edmonton", "Alexis Creek Community Club et la Community Service &amp; Devel opment Society d'Alexis Creek", 'Alliance des manufacturiers et des exportateurs du Canada', "Anciens combattants de l'armee, de la marine et des forces aeriennes du Canada, unite d'Assiniboia no 283", 'Anciens combattants des Forces armees, maritimes et aeriennes du Canada', 'Ancient Echoes Interpretive Center Inc.', 'Anglican Synod of the Diocese of Caledonia', 'Appnovation Technologies Inc.', 'Aquila Diagnostic Systems Inc.', 'Arcturus Enterprises', 'Arena communautaire de Sprague et de la region', 'Arlington Beach Camp and Conference Centre Inc.', 'Arts and Heritage Foundation de St. Albert', 'AssentWorks Inc.', 'Assiniboine Development Corridor Inc.', 'Assiniboine Memorial Curling Club', 'Assiniboine Park Community Conservancy Inc.', 'Association athletique Hythe', "Association canadienne de l'hydrogene et des piles a combustible", 'Association canadienne de normalisation', 'Association canadienne des paraplegiques (Alberta)', 'Association canadienne des parcs universitaires de recherche', 'Association canadienne pour la sante mentale, region de Winnipeg', 'Association communautaire Edgemont', 'Association communautaire Haysboro', "Association communautaire d'Applewood Park", "Association communautaire d'Elboya Heights", "Association communautaire d'Elkwater", "Association communautaire d'Oak River", 'Association communautaire de Blue River', 'Association communautaire de Brentwood', 'Association communautaire de Lake Bonavista', 'Association communautaire de McKenzie Lake', 'Association communautaire de Montgomery', 'Association communautaire de Silver Springs', 'Association communautaire de Triwood', 'Association communautaire du parc Marlborough', 'Association coreenne de Calgary', 'Association cycliste de Penticton et de la region', "Association d'habitation Norfolk", "Association d'habitation nationale du peuple ukrainien de Taras Shevchenko", 'Association de hockey mineur de St. Albert et Ville de St. Albert', 'Association de jeux Highland de Victoria', "Association de l'exposition Westerner", 'Association de la Bibliotheque publique de Sechelt', 'Association de protection du poisson et de la faune de Courtenay et du district', 'Association de soccer de 100 Mile House et du district', 'Association des industries aerospatiales du Canada', 'Association des industries canadiennes de defense et de securite', "Association des promeneurs de l'Okanagan", 'Association des residents de Tuscany', "Association des societes d'aide au developpement des collectivites de la C.-B.", "Association du Musee de l'aerospatiale de Calgary", 'Association du Musee et des Archives historiques Rossland', 'Association du sentier Grand Trunk a Headingley', 'Association for Community Living, bureau de Beausejour', 'Association of Professional Engineers and Geoscientists of British Columbia', "Association parents-maitres de l'ecole St. Avila", 'Association sportive et recreative de Nose Creek', 'Association touristique de Thompson Okanagan', "Athabasca Regional Multiplex Society et municipalite d'Athabasca", 'Atlas Coal Mine Historical Society', 'Au-Zone Technologies Inc.', 'Autorite aeroportuaire de Prince George', 'Autorite portuaire du fleuve Fraser', 'Aviation Alberta Association', 'Avison Management Services Ltd.', "Awo Taan Native Women's Shelter", 'B.A. Blackwell and Associates Ltd.', 'B.C.  Wood Specialties Group Association', 'BARK Design Collective', 'BC Cranberry Marketing Commission', 'BC Farm Museum Association', 'BC Technology Industry Association', 'BC Ventures Society', 'Back Country Horsemen Society of British Columbia', "Bande Lax Kw'alaams", 'Bande Seton Lake', 'Bande de Burns Lake', 'Bande de Little Shuswap Lake', 'Bande de Moricetown', 'Bande de Seabird Island', 'Bande des Denes de Tsay Keh', 'Bande indienne Cape Mudge', 'Bande indienne Osoyoos', 'Bande indienne Toosey', "Bande indienne d'Adams Lake", "Bande indienne d'Alexis Creek", "Bande indienne d'Okanagan", 'Bande indienne de Campbell River', 'Bande indienne de Canim Lake', 'Bande indienne de Coldwater', "Bande indienne de Cook's Ferry", 'Bande indienne de Hartley Bay', 'Bande indienne de Kamloops', 'Bande indienne de Lac La Ronge', "Bande indienne de Lheidli T'enneh", 'Bande indienne de Lower Kootenay', 'Bande indienne de Lower Nicola', 'Bande indienne de McLoed Lake', 'Bande indienne de Musqueam', 'Bande indienne de Neskonlith', 'Bande indienne de Nooaitch', 'Bande indienne de Penticton', 'Bande indienne de Popkum', 'Bande indienne de Skeetchestn', 'Bande indienne de Sliammon', 'Bande indienne de St Mary', "Bande indienne de St Mary's", 'Bande indienne de Whispering Pines/Clinton', 'Bande indienne de Williams Lake', "Bande indienne de l'Upper Similkameen", 'Banff Television Festival Foundation', 'Banff Trail Community Association', 'Banque de developpement du Canada', 'Barkerville Heritage Trust', 'Barrhead Exhibition Association and Agricultural Society', 'Battlefords Communiplex Committee inc.', 'Beakerhead Creative Society', 'Bell Barn Society of Indian Head, Inc.', 'Bella Coola Valley Ridge Riders Horse Club', 'Biathlon Society of British Columbia', 'Bibliotheque publique John M. Cuelenaere et la Municipalite de Prince Albert', 'Bibliotheque publique de Richmond', 'Bibliotheque publique de Spruce Grove', 'Big Brothers and Big Sisters of Red Deer &amp; District et Red Deer Youth Volunteer', 'Big Red Cats Cat Skiing', 'Binscarth Park &amp; Pool Committee Inc.', 'Biomedical Commercialization Canada Inc.', 'Biowaste to Energy for Canada Integration Initiative (BECII) Corp.', 'Birch Narrows First Nation', 'Bison Feeder Co-operative of Saskatchewan', 'Black Jack Cross Country Ski Club Society', 'Blackfoot Crossing Historical Park Ltd.', 'Blue Lake Forest Education Society', 'Boston Bar Community Development Society', 'Boston Bar North Bend Enhancement Society', 'Boundary Trail Railway Company Inc.', 'Bow Habitat Station Volunteer Society', 'Bow Island &amp; District Fire Department Fund Raising Association', 'Bowness Community Association', 'Boys &amp; Girls Clubs Big Brothers Big Sisters of Edmonton &amp; Area Society', 'Brandon Centennial Auditorium Corporation Inc.', 'Brandon Neighbourhood Renewal Corporation', 'British Columbia Cancer Agency Branch', "British Columbia Cattlemen's Association", 'British Columbia Centre for Ability Association', 'British Columbia Community Forest Association', 'British Columbia Construction Association', 'British Columbia Lodging and Campgrounds Association', 'British Columbia Shellfish Growers Association', 'British Columbia Wine Authority', 'Broadway Community Centre Inc.', 'Brooks and District Museum and Historical Society', 'Buffalo Narrows Economic Development Corp.', 'Building Opportunities with Business Inner City Society', 'Bulkley Backcountry Ski Society', 'Bulkley Valley Backpackers Society', "Bureau administratif de Tl'etinqox-t'in", 'Burnaby Association for Community Inclusion', 'Business Council of British Columbia', 'C &amp; A Contracting', 'C-FER Technologies (1999) Inc.', 'C.P. Loewen Enterprises Ltd.', 'C3 EnviroTech Solutions', 'CMC Research Institutes Inc.', 'CSQ Environmental Technologies Ltd.', 'Calgary Convention Centre Authority', 'Calgary Economic Development Ltd.', 'Calgary Exhibition and Stampede Limited', 'Calgary Foothills Soccer Club', 'Calgary Jewish Centre', 'Calgary Korean Association', 'Calgary Scientific Inc.', 'Calgary Soccer Federation et Ville de Calgary', 'Calgary Technologies Inc.', 'Calgary Wildwood Community Association', "Calgary Young Men's Christian Association", 'Camp Health, Hope and Happiness Society', 'Camp Massad du Manitoba', 'Camp Warwa', 'Campbell River Minor Lacrosse Society', 'Canada Eurasia Russia Business Association', 'Canada West Aerospace &amp; Defence Industries Association', 'Canada West Foundation', "Canada's Oil Sands Innovation Alliance Inc. (COSIA)", 'Canadian Badlands Ltd.', 'Canadian Coast Guard Auxiliary (Pacific), Inc.', 'Canadian Environmental Test and Research Center Inc.', 'Canadian Lamb Producers Cooperative Inc.', 'Canadian Ukrainian Institute Prosvita', 'Canards Illimites Canada', 'Candle Lake Curling Club Inc.', 'Canmore &amp; Area Health Care Foundation', 'Canmore Community Daycare Society', 'Canoe Creek Hydro Company Ltd.', 'Cantega Technologies Inc.', 'Canton de Langley', 'Capital City Savings and Credit Union Limited', 'CapitalRoad Foundation', 'Carbon Engineering Ltd. et Carbon Engineering Limited Partnership', 'Cardston Soccer Club et Municipalite de Cardston', 'Cariboo Chilcotin Beetle Action Coalition Society', 'Cariboo Ski Touring Club', 'Cariboo-Central Interior Poultry Producers Association', 'Carrot River Curling Club', "Castle Downs Recreation Society et Ville d'Edmonton", 'Cayuse Logging', 'Cedar Heights Community Association', 'Central Corydon Community Centre Inc.', 'Central McDougall Community League', 'Centre 2000 de Grande Prairie', 'Centre canadien de rayonnement synchrotron inc.', 'Centre canadien des systemes de vehicules telepilotes', 'Centre communautaire Norberry-Glenlee', 'Centre communautaire de Lardeau Valley', 'Centre communautaire de Norwood', 'Centre communautaire de Stavely', 'Centre communautaire de Valley Gardens', 'Centre communautaire du Village de Tyndall', 'Centre culturel chinois de la region metropolitaine de Vancouver', "Centre d'amitie de l'Association Nistawoyou", "Centre d'entreprise des femmes du Manitoba inc.", "Centre d'information des entreprises de Calgary", "Centre d'integration pour immigrants africains (CIIA)", "Centre de developpement d'Upper Skeena", 'Centre de loisirs Brunkild Memorial', 'Centre de loisirs de Similkameen', 'Centre de services aux entreprises Liaison Entreprise', 'Centre de services pour les femmes entrepreneurs', "Centre de toxicologie de l'Universite de la Saskatchewan", 'Centre de transition pour les femmes autochtones', 'Centre des politiques et de la recherche sur les Autochtones', "Centre des sciences marines de l'Aquarium de Vancouver", 'Centre du patrimoine de la Gendarmerie royale du Canada', 'Centre familial de Kootenay', 'Centre for Aboriginal Human Resource Development Inc. (CAHRD)', 'Centre for Aquatic Health Sciences Society', 'Centre for Drug Research and Development (CDRD)', 'Centre for Education and Work', 'Centre juif de Calgary', "Centre technique canadien pour l'orge brassicole", 'CentrePort Canada Inc.', 'CentreVenture Development Corporation', "Chambre de commerce d'Alberni Valley", "Chambre de commerce d'Ucluelet", 'Chambre de commerce de Christina Lake', 'Chambre de commerce de Nelson et de son district', 'Chambre de commerce de North Vancouver', 'Chambre de commerce de Peachland', 'Chambre de commerce de The Pas et du district', "Chambre de commerce de l'Alberta", 'Chambre de commerce de la Colombie-Britannique', 'Chambre de commerce de la vallee de la Columbia', 'Chambre de commerce du Grand Victoria', 'Chambre de commerce du district de Horsefly', 'Chambre de commerce et district de Fort St. James', 'Chambre de commerce italienne au Canada - Vancouver Edmonton Calgary  / Camera di C', 'Charleswood Curling Club Ltd.', 'Charleswood Senior Centre Inc.', 'Chauvin Agricultural Society', "Chemainus Community Schools' Association", 'Cheslatta Community Forest', 'Chesterfield Sports Society', "Children's Heritage Fund", 'Chinese Cultural Centre of Greater Vancouver', 'Churchill Gateway Development Corp.', 'Cite de Lumby', 'Cite de North Vancouver', 'Cite de Port Coquitlam', 'Cite de Saanich', 'Cite de Vancouver', 'Cite de West Vancouver', 'Claresholm Community Centre Association et municipalite de Claresholm', 'Clive Athletic and Agriculture Society', 'Club &lt;&lt; Rotary &gt;&gt; du Port McNeill', 'Club Ile-des-Chenes', 'Club Kinsmen de Boissevain', 'Club Lions de Parksville', 'Club Lions de Valemount', 'Club Rotary de Selkirk Manitoba Canada, inc.', 'Club Sportif Iberville', 'Club United Riders of Crowsnest', 'Club communautaire de Saturna', 'Club de canoe de Fort Langley', 'Club de culture physique Westmount', 'Club de curling Garrison (Calgary)', 'Club de curling Royal City', 'Club de curling de Dawson Creek et Ville de Dawson', 'Club de curling de Gibsons', 'Club de curling de Kamloops', 'Club de curling de Nanaimo', 'Club de curling de Salmon Arm', 'Club de curling de St. Albert', 'Club de curling de Vulcan', "Club de gymnastique d'Airdrie et du district", 'Club de gymnastiques Glacier', 'Club de motoneige de Prince George', 'Club de rugby de Cowichan', 'Club de ski de Grande Prairie', 'Club de ski nordique Snow Valley', 'Club de ski nordique de Nelson', 'Club de tennis de Calgary', 'Club de tennis de Red Deer', 'Club de yacht Royal Victoria', 'Club des garcons et filles de Winnipeg inc.', 'Coast Capital Savings Credit Union', 'Coastal Shellfish Limited Partnership', 'Cochrane Youth Association', 'Collectivites de demain, Partenaires pour la durabilite inc.', 'College Camosun', 'College Educacentre', 'College Great Plains', 'College Keyano', 'College Lakeland', 'College Norquest', 'College Northern Lights', 'College Northlands', 'College Okanagan', 'College Portage', 'College Red Deer', 'College Selkirk', 'College communautaire Assiniboine', 'College communautaire Assiniboine, campus Parkland', 'College communautaire Northwest', 'College de New Caledonia', 'College of the Rockies', 'College regional Cumberland', 'College regional Southeast', 'College regional de Grande Prairie', 'College regional de Parkland', 'College regional du Nord-Ouest', 'College universitaire du Nord', 'Columbia Valley Cycling Society', 'Commission des loisirs de Fort Vermilion', 'Commission des loisirs de Grandview et du district', 'Commission des loisirs de Roblin Shell River Hillsburg', 'Commission des loisirs de Roe Lake et du district', 'Commission scolaire du district scolaire no 54 (Bulkley Valley)', 'Community Futures Investment Fund (CFIF) Inc.', 'Community Futures Manitoba Inc.', 'Community Futures Partners of Saskatchewan Inc.', 'Comox Valley Economic Development Society', 'Complex Games Inc.', 'Complexe Communautaire de Lorette Community Complex Inc.', 'Composites Innovation Centre Manitoba Inc.', 'Comte de Camrose no 22', 'Comte de Grande Prairie no 1', 'Comte de Lac La Biche', 'Comte de Lac Ste. Anne', 'Comte de Leduc', 'Comte de Mackenzie', 'Comte de Mountain View', 'Comte de Parkland', 'Comte de Smoky Lake', 'Comte de Strathcona', 'Comte de Wetaskiwin no 10', 'Comte de Woodlands', 'Comte de Yellowhead', 'Conseil central Tahltan', "Conseil d'administration de la Bibliotheque de Red Deer", "Conseil d'administration du parc provincial Cedar Point Clas s &lt;&lt; C &gt;&gt; et la Likely Community Forest Society", "Conseil de developpement economique de l'Alberta", 'Conseil de la cooperation de la Saskatchewan limitee', 'Conseil de la municipalite de McKenzie', "Conseil de la porte d'entree internationale du Manitoba", "Conseil des gouverneurs de l'Universite de Calgary", "Conseil des gouverneurs de l'Universite de l'Alberta", 'Conseil des gouverneurs du College Red River', 'Conseil des gouverneurs du Southern Alberta Institute of Technology', 'Conseil du cimetiere Schara Tzedeck', "Conseil du village d'Old Massett", 'Conseil du village de Kitamaat', 'Conseil recreatif de Birch Hills et du district', "Conseil scolaire de l'arrondissement scolaire no 36 (Surrey)", "Conseil scolaire de l'arrondissement scolaire no 39 (Vancouver)", "Conseil scolaire de l'arrondissement scolaire no 44 (North Vancouver)", 'Conseil scolaire du district scolaire no 28', 'Conseil tribal de Carrier Chilcotin', "Cook's Creek Community Centre Inc.", 'Cooperative communautaire de Dorintosh', "Cooperative de credit d'Assiniboine", 'Cooperative de credit de Saskatoon (2002)', 'Corporation de la ville de Grand Forks', 'Corvus Energy Ltd.', 'Cosmopolitan Industries ltee', 'Council of Tourism Associations of British Columbia', 'Covenant Health', 'Cowichan Station Area Association', 'Cranberry Portage Heritage Museum Corp.', 'Cranbrook Community Theatre Society', 'Crazy Horse Contracting Ltd.', 'Creative BC Society', 'Creighton Regional Development Corporation', 'Crescent Heights Community Association', 'Crestwood Curling Club Ltd.', 'Cricket Canada', 'Cross Country Ski Association of Manitoba', 'Crossroads Agricultural Society', 'Crown Investments Corporation of Saskatchewan', 'Crowsnest Pass Economic Development Board', 'Cruise British Columbia Association', 'Cruise Industry Association of B.C.', "Cumberland/Oxford Community League (COCL) et la Ville d'Edmonton", 'D.U.L. de Cranberry Portage', 'DWB Consulting Services Ltd.', 'Dancing Sky Theatre Inc.', 'Daniel McIntyre/St.Matthews Community Association Inc.', 'Dauphin &amp; District Allied Arts Council Inc.', 'Dauphin Community Cinema Inc.', 'Deadwood Community League', 'Dease Lake Recreation Centre Society', 'Delta Gymnastics Society', 'Demmitt Cultural Society', 'Denman Island Recreation Commission Society', 'Destination Winnipeg Inc.', 'Disabled Workers Foundation of Canada', 'Discover Manitoba Conference and Expo Inc.', 'Distinctive Employment Counselling Services of Alberta', "District d'Elkford", "District d'Invermere", "District d'Ucluelet", "District d'amelioration de la pointe Ships", 'District de 100 Mile House', 'District de Chetwynd', 'District de Clearwater', 'District de Fort St. James', 'District de Highlands', 'District de Houston', 'District de Kent', 'District de Kitimat', 'District de Lillooet', 'District de Logan Lake', 'District de Mackenzie', 'District de Maple Ridge', 'District de Mission', 'District de Sparwood', 'District de Taylor', 'District de Tofino', 'District de Tumbler Ridge', 'District de Vanderhoof', 'District de Wells', 'District de West Kelowna', 'District de Windermere de la Legion royale canadienne', 'District municipal de Peace no 135', 'District municipal de Taber', 'District municipal de Wainwright (no 61)', "District regional d'Alberni-Clayoquot", "District regional d'East Kootenay", "District regional d'Okanagan-Similkameen", 'District regional de Bulkley-Nechako', 'District regional de Cariboo', 'District regional de Central Kootenay', 'District regional de Central Okanagan', 'District regional de Columbia Shuswap', 'District regional de Comox Valley', 'District regional de Cowichan Valley', 'District regional de Fraser-Fort George', 'District regional de Kootenay Boundary', 'District regional de Nanaimo', 'District regional de Peace River', 'District regional de Strathcona', 'District regional de Sunshine Coast', 'District regional de Thompson-Nicola', 'District regional de la capitale', 'District regional de la vallee du Fraser', "District regional du Nord de l'Okanagan", "District regional du Nord de l'Okanagan et Corporation de la ville de Vernon", 'District scolaire de Mystery Lake', 'District scolaire no 69 Northern Lights', 'Districts de Mackenzie et de Fort St. James', 'Division scolaire Louis Riel', 'Division scolaire Sun West', 'Division scolaire de River East Transcona', 'Division scolaire de Seine River', "Division scolaire de Sturgeon no 24 et Association de levee de fonds de l'ecole Namao", 'Division scolaire no 1 de Winnipeg', 'Division scolaire no 111 de Creighton', 'Drake Forestry Services Ltd.', 'Dufferin Agricultural Society Inc.', 'Dumont Technical Institute Inc.', 'EPCOR CENTRE for the Performing Arts', 'Eagle Mountain Homes Ltd', 'East Calgary Twin Arena Society', 'East Central Development Corporation', 'East Kootenay Invasive Plant Council', 'East Selkirk Recreation Association Inc.', 'East Side Eagles Football Club Inc.', 'Eastside Movement for Business and Economic Renewal Society', "Eckville Community Centre Society et municipalite d'Eckville", 'EcoSmart Foundation Inc.', 'Ecole elementaire Holy Family et RCSSD no 20 de St. Paul', 'Ecole secondaire Kelvin High School', "Ecole secondaire d'Elmwood", 'Economic Development Alliance of Southeast Alberta', 'Economic Development Winnipeg Inc.', 'Edmonton Catholic Separate School District No. 7', 'Edmonton Economic Development Corporation', 'Edmonton Evergreen Community Association', 'Edmonton Housing Trust Fund', 'Eglise anglicane de la Paroisse de St. Agnes', 'Ehattesaht Indian Band', 'Eight Technologies Inc.', 'Elkhorn &amp; District Community Center Incorporated', 'Ellerslie Rugby Park Incorporated', "Elmwood Community League et Ville d'Edmonton", 'Elmwood Giants Baseball Club Inc.', 'Emercor Ltd.', 'Emerson Co-operative Community Centre Inc.', 'Energy Aware Technology Inc.', 'Ernst &amp; Young LLP', 'Etablissement metis de Gift Lake', 'Etablissement metis de Kikino', 'Evergreen Basic Needs Committee Inc.', 'Eyaa-Keen Centre Inc.', 'FPInnovations', 'FPInnovations et la societe forestiere des Premieres nation s', "Fairview Women's Hockey Arena Society", 'Falconridge/Castleridge Community Association', 'Family Futures, Inc.', 'Farm Genesis Group Marketing Inc.', 'Farmers Market Association of Manitoba Co-Op Inc.', 'Federation nationale ukrainienne du Canada', 'Federation nationale ukrainienne du Canada, division de Winnipeg', 'Federation of Mountain Clubs of British Columbia (1986)', 'Fernie and District Historical Society', 'Festival du voyageur inc.', 'Filiale 110 de la Legion royale du Canada et La Societe canadienne de la Croix-Rouge', "Filiale de Calgary de l'Ukrainian Youth Association of Canada (CYM)", 'Filiale no 109 de la Legion royale canadienne', 'Filiale no 118 de la Legion royale canadienne', 'Filiale no 197 de Bow Island de la Legion royale canadienne', 'Filiale no 269 de la Legion royale canadienne', 'Filiale no 35 de la Legion royale canadienne', 'Filiale no 6 Cloverdale de la Legion royale canadienne', 'Filiale no 7 Transcona de la Legion royale canadienne', 'Filiale no 76 de la Legion royale canadienne', 'Film Training Manitoba Inc.', 'Firebird Technologies Inc.', 'First Nations Agricultural Lending Association', 'First Nations Power Authority of Saskatchewan Inc.', 'First Nations Technology Council', 'Fondation Asie-Pacifique du Canada', "Fondation Emeraude de l'Alberta pour l'excellence en environnement", 'Fondation Rick Hansen', "Fondation de l'energie renouvelable d'Anmore", "Fondation de l'hopital de readaptation Glenrose", "Fondation de l'hopital universitaire et Conseil des gouverneurs de l'Universite de l'Alberta", 'Fondation de la region economique du Nord-Ouest du Pacifique', 'Fondation des villes durables', "Fondation du Centre multiculturel Chinatown d'Edmonton", 'Fondation du Club de curling Elkhorn', 'Fondation du saumon du Pacifique', "Fonds de fiducie du Conseil d'education de la Division scolaire no 13 de Saskatoon", 'Foresight Cleantech Accelerator Centre', "Forest Grove '94 Lions Society", 'Forest Resource Improvement Association of Alberta', 'Forintek Canada Corp.', 'Forsite Consultants Ltd.', "Fort Edmonton Management Company et Ville d'Emonton", 'Fort Garry Lions Football Club Inc.', 'Fort Macleod &amp; District Agricultural Society', 'Fort Rouge Curling Club Inc.', 'Fort St. James Ski Club', 'Fort la Reine Museum, Pioneer Village, and Tourist Bureau Inc.', "Forum d'exploration mondiale canadien - FEMC", 'Forum pour les femmes entrepreneurs en Colombie-Britannique', 'Fraser Basin Council Society', 'Fraser Heritage Society', 'Fraser Thompson Indian Services Society', 'Friends of Camp St. Basil Society et Order of St. Basil the Great', 'Friends of Fort Steele Society', 'Friends of Historic Hat Creek Ranch', 'Friends of Medalta Society', 'Friends of Upper Fort Garry Inc.', 'Friends of the Rossland Range Society', 'Friends of the Royal British Columbia Museum Foundation', 'Fringe Theatre Adventures Society', 'GO Productivity', 'Gabriel Dumont Institute Training and Employment Inc.', 'Gabriola Commons Foundation', 'Garde cotiere auxiliaire canadienne (Pacifique) Inc.', 'Garden City Community Centre Inc.', 'Garth Homer Foundation', 'Gateway Recreation Centre Inc.', 'General Council Of Winnipeg Community Centres', 'Genome Alberta', 'Genome Colombie-Britannique', 'Genome Prairie', 'GeoExchange BC', 'Gilmore Park Community League et comte de Strathcona', "Gitxat'in Development Corp.", 'Gitxsan Development Corporation', 'Glenbow Ranch Park Foundation', "Glenora Community League et Ville d'Edmonton", 'Glenwood Community Centre Inc.', 'Gold Country Communities Society', 'Golden Community Resources Society', 'Golden Nordic Ski Club Society', 'Golden Opportunities Fund Inc.', 'Golden Sikh and Cultural Society', 'Golden Timber Frames Limited Partnership and Golden Timber Frames Ltd.', "Gouvernement de Yunesit'in - Bande indienne de Stone", "Gouvernement des Premieres nations de Xeni Gwet'in", 'Government House Foundation', 'Governors of the University of Alberta et Genome Alberta', 'Grand Forks and Boundary Regional Agricultural Society (GFBRAS)', 'Grande Pointe Homeowners Association', "Grande Prairie Farmers' Market Society", 'Grande Prairie Regional Agriculture and Exhibition Society', 'Granville Park Lawn Bowling Club', 'Graphics, Animation and New Media NCE Inc.', 'Great Northern Power Corp.', 'Great Northern Way Campus Ltd.', 'Greater Victoria Harbour Authority', 'Greenfield Community League', 'Gretna Prairie Centre Inc.', 'Grettir Co-op Inc.', 'Ground Effects Environmental Services Inc.', "Groupe de l'Association canadienne des normes", 'Grow Calgary Society', 'Growing Power Hairy Hill Limited Partnership', 'Guru Nanak Darbar Inc.', 'Guy Donnelly Sportex Society', 'H. R. MacMillan Space Centre Society', 'Habitat For Humanity Society of Greater Vancouver', 'Habitat for Humanity Regina Inc.', "Habitat pour l'humanite Saskatoon inc.", 'Haynes Contracting', 'Haysboro Community Association', 'Hazel Bluff Community Agricultural Society (une div. de The Westlock Ag. Society)', 'Hazelridge Sports Complex Inc.', 'Heather Rink Limited', 'Heiltsuk Economic Development Corporation', "Heritage Point Community League et Ville d'Edmonton", 'Herzlia Inc.', 'High Prairie Seed Cleaning Co-Op Limited', 'Highland Pellet Manufacturing Ltd.', 'Hinton Wood Products, Division of West Fraser Mills Ltd.', "Holyrood Community League et Ville d'Edmonton", 'Hopital general de Saint-Boniface', 'Huntington Hills Community Association', 'IPAC-CO2 Research Inc.', 'IRC, Innovation Resource Centre Council', 'Immigrant Access Fund Society of Alberta', 'Improvement District No. 4 - Parc national des Lacs-Waterton', 'In-Definite Arts', 'Independent Living Resource Centre Inc.', 'Industrial Forestry Service Ltd.', 'Industrial Plankton Inc.', 'Industry Council for Aboriginal Business', 'Information and Communication Technologies Association of Manitoba', "Innovation and Development Corporation de l'Universite de Victoria", 'Innovative Trauma Care Inc.', 'Institut Glenbow-Alberta', 'Institut canadien de recherches en genie forestier', 'Institut de technologie de la Colombie-Britannique', 'Institut international du Canada pour le grain', 'Institute for Applied Poultry Technologies', 'Integrated ProAction Corp.', 'IntelliView Technologies Inc.', 'Interface Health Society', 'Interior Science Innovation Council', 'International Minerals Innovation Institute', 'International Science and Technology Partnerships Canada Inc.', 'International WaterGuard Industries Inc.', 'Invasive Plant Council of British Columbia', 'Inventys Thermal Technologies Inc.', 'Ion Print Solutions', 'Irma New Horizons Club', 'Italian Canadian Centre of Manitoba Inc.', 'J. Hinsche Contracting Ltd.', 'Jan Pat Management Organization Inc.', 'Japanese Community Volunteers Association', 'Jasper Park Community League', "Jasper Place Curling Club et Ville d'Edmonton", 'Jeux mondiaux des policiers et pompiers 2009 en Colombie-Britannique', 'Jewish Community Campus of Winnipeg Inc.', "Jewish Community Centre of Edmonton et Beit Horim - Our Parent's Home", 'Jewish Community Centre of Greater Vancouver', 'John W. Gunn Middle School', 'Juan de Fuca Salmon Restoration Society', 'Judith Marcuse Projects Society', 'Juggernaut Development Inc.', 'Junior Achievement of British Columbia', 'Justice Institute of British Columbia', 'K9 Storm Inc.', 'KDC Forestry Consulting Ltd.', 'Ka Ni Kanichihk Inc.', 'Kaslo &amp; District Arena Association', 'Keewatin Yatthe Regional Health Authority', 'Kelowna Innovation Society', 'Khowutzun Forest Service Ltd', "Kilkenny Community League, Ville d'Edmonton et Kilkenny Sportsmen's Club", 'Kinbasket Development Company Ltd.', 'Kinew Housing Incorporated', 'Kingfisher Community Society', 'Kinosayo Museum Society', 'Kispiox Valley Community Centre Association', 'Kitamaat Port Development Society', 'Kitamaat Valley Education Society', 'Kla-how-eya Aboriginal Centre of Surrey Aboriginal Cultural Society', 'Knowledgeable Aboriginal Youth Association', 'Knox Centre Winnipeg Inc.', 'Kootenay Aboriginal Business Advocates Society', 'Kootenay Association for Science and Technology', 'Kootenay Doukhobor Historical Society', 'Kootenay Rockies Innovation Council', 'Kootenay Rockies Regional Economic Alliance Society', 'Korean Society of British Columbia for Fraternity and Culture', 'Kronau Community Recreation Co-operative', 'Ktunaxa Nation Council Society', "L'Electronic Industry Association of Alberta", "L'association commerciale Hong Kong-Canada", 'LCR Holdings Ltd.', 'LTN Contracting Ltd.', 'La Britannia Beach Historical Society et la Britannia Development Corporation', 'La Chambre de commerce de Winnipeg', 'La Chambre de commerce du Manitoba', "La Chambre economique de l'Alberta", 'La Corporation de Delta', 'La Corporation de Gwaalagaa Naay', 'La Corporation de la ville de New Westminster', 'La Corporation de la ville de North Vancouver', 'La Corporation de la ville de Port Coquitlam', 'La Corporation de la ville de White Rock', 'La Corporation du canton de Langley', 'La Corporation du district de Peachland', 'La Corporation du village de Clinton', 'La Corporation du village de Warfield', 'La Crete Ferry Campground Society', 'La Perle Community League', 'La Societe de developpement economique de la Colombie-Britannique', 'La Troupe du Jour Inc.', 'La Winnipeg Foundation', 'La corporation du village de Burns Lake', 'La federation des francophones de Saskatoon Inc.', "La maison de l'Ukraine a Vita", 'La province de la C.-B., representee par le ministre des Finances', 'La societe agricole de La Crete', 'Lac La Biche Heritage Society', 'Lac La Biche Regional Community Development Corporation', 'Ladysmith Maritime Society', 'Lake Bonavista Community Association', 'Lake Charron Regional Park Authority', 'Langley Minor Footb</t>
         </is>
@@ -1934,7 +1993,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1997,12 +2056,15 @@
         <v>1436</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>7190</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>7</v>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>['AB', 'BC', 'MB', 'ON', 'QC', 'SK', 'WA']</t>
         </is>
@@ -2015,7 +2077,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2078,12 +2140,15 @@
         <v>303</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>31286</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>632</v>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>['100 Mile House', '108 Mile Ranch', 'Abbotsford', 'Abbottsford', 'Aberdeen', 'Agassiz', 'Air Ronge', 'Airdrie', 'Alameda', 'Alberta Beach', 'Alexis Creek', 'Allan', 'Alliance', 'Altona', 'Anmore', 'Arborg', 'Armstrong', 'Ashcroft', 'Ashern', 'Athabasca', 'Balcarres', 'Barkerville', 'Barrhead', 'Barriere', 'Beaumont', 'Beausejour', 'Beauval', 'Beechy', 'Bella Bella', 'Berens River', 'Berwyn', 'Big River', 'Biggar', 'Binscarth', 'Birch Hills', 'Birsay', 'Black Diamond', 'Blackfalds', 'Blackie', 'Blaine Lake', 'Blairmore', 'Blue River', 'Boissevain', 'Bonnyville', 'Borden', 'Boston Bar', 'Bow Island', 'Bowden', 'Bowen Island', 'Boyle', 'Bragg Creek', 'Brandon', 'Britannia Beach', 'Broadview', 'Brooks', 'Bruderheim', 'Brunkild', 'Bruno', 'Buck Lake', 'Buffalo Head Prairie', 'Buffalo Narrows', 'Burnaby', 'Burns Lake', 'Cache Creek', 'Calgary', 'Campbell River', 'Camperville', 'Camrose', 'Canal Flats', 'Candle Lake', 'Canmore', 'Canwood', 'Carberry', 'Cardston', 'Carlyle', 'Carman', 'Carmen', 'Carnduff', 'Carrot River', 'Carstairs', 'Castlegar', 'Chase', 'Chauvin', 'Chemainus', 'Chestermere', 'Chetwynd', 'Chilliwack', 'Chitek Lake', 'Christina Lake', 'Churchill', 'Clairmont', 'Claresholm', 'Clearwater', 'Clinton', 'Clive', 'Coal Harbour', 'Coaldale', 'Cochin', 'Cochrane', 'Coldstream', 'Coleman', 'Colonsay', 'Comox', 'Consort', 'Coquitlam', 'Coronation', 'Courtenay', 'Craik', 'Cranberry Portage', 'Cranbrook', 'Creighton', 'Creston', 'Cross Lake', 'Crossfield', 'Crystal City', 'Cupar', 'Cymric', 'Dalmeny', 'Darwell', 'Dauphin', 'Davidson', 'Dawson Creek', 'Deadwood', 'Dease Lake', 'Debden', 'Debolt', 'Delburne', 'Delisle', 'Delta', 'Denare Beach', 'Denman Island', 'Devon', 'Didsbury', 'Dinsmore', 'Donnelly', 'Dorintosh', 'Drayton Valley', 'Drumheller', 'Duchess', 'Duck Lake', 'Duncan', 'Dundurn', 'Dysart', 'EDMONTON', 'East Coulee', 'East Selkirk', 'East St. Paul', 'Eckville', 'Edam', 'Edgerton', 'Edmonton', 'Edson', 'Elbow', 'Elie', 'Elkford', 'Elkhorn', 'Elkwater', 'Emerson', 'Enderby', 'Englefeld', 'Enilda', 'Esterhazy', 'Estevan', 'Fairview', 'Fanny Bay', 'Fernie', 'Flin Flon', 'Foam Lake', 'Fond Du Lac', 'For McMurray', 'Foremost', 'Forest Grove', 'Forestburg', 'Fort Langley', 'Fort Macleod', 'Fort McMurray', 'Fort Nelson', "Fort Qu'appelle", 'Fort Saskatchewan', 'Fort St John', 'Fort St. James', 'Fort St. John', 'Fort Steele', 'Fort Vermilion', 'Fox Valley', 'Fraser Lake', 'Fraserwood', 'Frontier', 'Fruitvale', 'GIFT LAKE', 'Gabriola', 'Gibbons', 'Gibsons', 'Gilbert Plains', 'Gimli', 'Gleichen', 'Glentworth', 'Golden', 'Grand Forks', 'Grande Pointe', 'Grande Prairie', 'Grandview', 'Granisle', 'Gravelbourg', 'Green Lake', 'Greenville', 'Greenwood', 'Grenfell', 'Gretna', 'Grouard', 'Hagensborg', 'Haisla', 'Hamiota', 'Hanceville', 'Hanna', 'Harrison Mills', 'Hartley Bay', 'Hazelridge', 'Hazelton', 'Hazlet', 'Headingley', 'Herschel', 'High Level', 'High Prairie', 'High River', 'Hill Spring', 'Hinton', 'Hodgeville', 'Hope', 'Horsefly', 'Houston', 'Hudson Bay', 'Humboldt', 'Hythe', 'Ile Des Chenes', 'Ile des Chenes', 'Ile-A-La-Crosse', 'Imperial', 'Indian Head', 'Innisfail', 'Invermere', 'Irma', 'Irricana', 'Ituna', 'Jasper', 'KAMLOOPS', 'Kamloops', 'Kamsack', 'Kaslo', 'Kelliher', 'Kelowna', 'Kelvington', 'Kenaston', 'Keremeos', 'Kerrobert', 'Kikino', 'Killam', 'Kimberley', 'Kincolith', 'Kindersley', 'Kinistino', 'Kinuso', 'Kitimat', 'Kitscoty', 'Kronau', 'La Crete', 'La Ronge', 'Lac Du Bonnet', 'Lac La Biche', 'Lac La Hache', 'Lacombe', 'Ladysmith', 'Lafleche', 'Lake Cowichan', 'Lake Errock', 'Lake Louise', 'Lamont', 'Langenburg', 'Langford', 'Langham', 'Langley', 'Lanigan', 'Leader', 'Leduc', 'Legal', 'Lemberg', 'Lethbridge', 'Likely', 'Lillooet', 'Lions Bay', 'Lloydminster', 'Logan Lake', 'Lomond', 'London', 'Lone Butte', 'Loreburn', 'Lorette', 'Lumby', 'Lumsden', 'Lundar', 'Lynn Lake', 'Lytton', 'MERRITT', 'Mackenzie', 'Macklin', 'Madden', 'Madeira Park', 'Magrath', 'Maidstone', 'Mallaig', 'Manitou', 'Manitou Beach', 'Mannville', 'Mansons Landing', 'Maple Creek', 'Maple Ridge', 'Marengo', 'Martensville', 'Maryfield', 'Masset', 'Mayerthorpe', 'McAuley', 'McBride', 'McCreary', 'McLeod Lake', 'Meacham', 'Meadow Creek', 'Meadow Lake', 'Medicine Hat', 'Melfort', 'Melita', 'Melville', 'Merritt', 'Merville', 'Mervin', 'Midale', 'Milden', 'Millarville', 'Millet', 'Minton', 'Mirror', 'Mission', 'Moberly Lake', 'Montreal', 'Moose Jaw', 'Moosomin', 'Morden', 'Morinville', 'Morris', 'Mount Washington', 'Muskoday', 'Naicam', 'Nakusp', 'Nampa', 'Nanaimo', 'Nanton', 'Neepawa', 'Nelson', 'Nelson House', 'Nemaiah Valley', 'Neudorf', 'New Hazelton', 'New Westminster', 'Nipawin', 'Nisku', 'Niverville', 'Nobleford', 'Nokomis', 'Norquay', 'North Battleford', 'North Vancouver', 'North York', 'Notre Dame De Lourdes', 'OTTAWA', 'Oak River', 'Oakbank', 'Okotoks', 'Olds', 'Oliver', 'Onanole', 'Onoway', 'Opaskwayak', 'Osler', 'Osoyoos', 'Ottawa', 'Outlook', 'Oyen', 'PEACHLAND', 'Parkland County', 'Parksville', 'Paynton', 'Peace River', 'Peachland', 'Pemberton', 'Pender Island', 'Penhold', 'Pense', 'Penticton', 'Perdue', 'Picture Butte', 'Pierceland', 'Pilot Butte', 'Pincher Creek', 'Pine Falls', 'Pitt Meadows', 'Plamondon', 'Plum Coulee', 'Point-Claire', 'Ponoka', 'Port Alberni', 'Port Alice', 'Port Coquitlam', 'Port Hardy', 'Port McNeill', 'Port Moody', 'Port Simpson', 'Portage La Prairie', 'Portage la Prairie', 'Powell River', 'Powerview', 'Preeceville', 'Prince Albert', 'Prince George', 'Prince Rupert', 'Princeton', 'Provost', "Prud'Homme", 'Punnichy', 'Qualicum Beach', 'Quesnel', 'Quill Lake', 'RED DEER', 'Radium Hot Springs', 'Radville', 'Ranfurly', 'Raymond', 'Red Deer', 'Redcliff', 'Redvers', 'Redwater', 'Regina', 'Reston', 'Revelstoke', 'Richmond', 'Rimbey', 'Riske Creek', 'Riverhurst', 'Rivers', 'Riverton', 'Roblin', 'Rock Creek', 'Rorketon', 'Rose Valley', 'Rosebud', 'Rosemary', 'Rosenort', 'Rosetown', 'Rossland', 'Rouleau', 'Round Hill', 'Russell', 'Rycroft', 'SALMON ARM', 'SASKATOON', 'SIKSIKA', 'Saanichton', 'Saint-Boniface', 'Saint-Laurent', 'Saint-Modeste', 'Sainte-Anne', 'Salmo', 'Salmon Arm', 'Sanford', 'Sangudo', 'Saskatoon', 'Saturna Island', 'Savona', 'Scandia', 'Seattle', 'Seba Beach', 'Sechelt', 'Selkirk', 'Shalalth', 'Shaunavon', 'Shellbrook', 'Sherwood Park', 'Shoal Lake', 'Sidney', 'Siksika', 'Silton', 'Silverton', 'Skidegate', 'Slave Lake', 'Smithers', 'Smoky Lake', 'Snow Lake', 'Somerset', 'Sooke', 'Sorrento', 'Souris', 'Southey', 'Southport', 'Sparwood', 'Spences Bridge', 'Spiritwood', 'Sprague', 'Springside', 'Spruce Grove', 'Spruce View', 'Squamish', 'St .Jean Baptiste', 'St Adolphe', 'St Andrews', 'St Laurent', 'St Lina', 'St Malo', 'St Paul', 'St Pierre Jolys', 'St Walburg', 'St. Albert', 'St. Georges', 'St. Paul', 'St. Pierre-Jolys', 'Stalwart', 'Star City', 'Stavely', 'Ste Anne', 'Ste Rose Du Lac', 'Ste. Agathe', 'Steinbach', 'Stettler', 'Stirling', 'Stony Mountain', 'Stony Plain', 'Stoughton', 'Strasbourg', 'Strathclair', 'Strathmore', 'Summerland', 'Sun Peaks', 'Sundre', 'Surrey', 'Swan Hills', 'Swan Lake', 'Swan River', 'Swift Current', 'Sylvan Lake', 'Taber', "Tatl'ah (Dease Lake)", 'Tatla Lake', 'Taylor', 'Telkwa', 'Terrace', 'The Pas', 'Theodore', 'Thompson', 'Thorsby', 'Three Hills', 'Tisdale', 'Tofield', 'Tofino', 'Topley', 'Toronto', 'Trail', 'Treherne', 'Tumbler Ridge', 'Turner Valley', 'Turnor Lake', 'Two Hills', 'Tyndall', 'Ucluelet', 'Unity', 'VIRDEN', 'Valemount', 'Valhalla Centre', 'Vancouver', 'Vanderhoof', 'Vanguard', 'Vassar', 'Vauxhall', 'Vegreville', 'Vermilion', 'Vernon', 'Vibank', 'Victoria', 'Victoria Beach', 'Viking', 'Viscount', 'Vita', 'Vonda', 'Vulcan', 'WINNIPEG', 'Wadena', 'Wainwright', 'Wakaw', 'Waldheim', 'Walsh', 'Warman', 'Waskada', 'Watrous', 'Watson', 'Wawanesa', 'Wells', 'Wembley', 'West Kelowna', 'West St Paul', 'West Vancouver', 'Westerose', 'Westlock', 'Wetaskiwin', 'Weyburn', 'Whistler', 'White City', 'White Rock', 'Whitecap', 'Whitecourt', 'Whitewood', 'Wilkie', 'Williams Lake', 'Windermere', 'Winfield', 'Winkler', 'Winlaw', 'Winnipeg', 'Winnipegosis', 'Woodlands', 'Worsley', 'Wynyard', 'Yellow Grass', 'Yorkton', 'Zeballos', 'Zenon Park']</t>
         </is>
@@ -2096,7 +2161,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2159,12 +2224,15 @@
         <v>1718</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>3591</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>8</v>
       </c>
-      <c r="W22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>['1', '10', '2', '3', '4', '5', '6', '7']</t>
         </is>
